--- a/PPT/Resumen/Clases.xlsx
+++ b/PPT/Resumen/Clases.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Programacion_Laboratorio2\PPT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cami\Estudios\Facultad\Programación\02 Programacion_Laboratorio_2 - C#\git\Programacion_Laboratorio2\PPT\Resumen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="448">
   <si>
     <t>System</t>
   </si>
@@ -1194,12 +1194,186 @@
   </si>
   <si>
     <t>DateTime.Compare(f1,f2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception </t>
+  </si>
+  <si>
+    <t>Assert</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>StackTrace</t>
+  </si>
+  <si>
+    <t>HelpLink</t>
+  </si>
+  <si>
+    <t>Hresult</t>
+  </si>
+  <si>
+    <t>InnerException</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>TargetSite</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>help identify the code location, the type, the help file, and the reason for the exception</t>
+  </si>
+  <si>
+    <t>When a causal relationship exists between two or more exceptions, the InnerException property maintains this information. The outer exception is thrown in response to this inner exception. The code that handles the outer exception can use the information from the earlier inner exception to handle the error more appropriately</t>
+  </si>
+  <si>
+    <t>collection of key/value pairs. Supplementary information about the exception.</t>
+  </si>
+  <si>
+    <t>can hold a URL (or URN) to a help file with extensive information about why the exception occurred</t>
+  </si>
+  <si>
+    <t>Dónde ocurrió la exc. lists all the called methods and the line numbers in the source file where the calls are made</t>
+  </si>
+  <si>
+    <t>The Exception class uses the HRESULT COR_E_EXCEPTION, which has the value 0x80131500. coded numerical value that is assigned to a specific exception</t>
+  </si>
+  <si>
+    <t>Gets or sets the name of the application or the object that causes the error.</t>
+  </si>
+  <si>
+    <t>Gets the method that throws the current exception.</t>
+  </si>
+  <si>
+    <t>Equals(Object)</t>
+  </si>
+  <si>
+    <t>GetBaseException()</t>
+  </si>
+  <si>
+    <t>When overridden in a derived class, returns the Exception that is the root cause of one or more subsequent exceptions.</t>
+  </si>
+  <si>
+    <t>GetObjectData(SerializationInfo, StreamingContext)</t>
+  </si>
+  <si>
+    <t>When overridden in a derived class, sets the SerializationInfo with information about the exception.</t>
+  </si>
+  <si>
+    <t>Gets the runtime type of the current instance.</t>
+  </si>
+  <si>
+    <t>MemberwiseClone()</t>
+  </si>
+  <si>
+    <t>Creates and returns a string representation of the current exception.</t>
+  </si>
+  <si>
+    <t>Determines whether the specified object is equal to the current object. (Inherited from Object)</t>
+  </si>
+  <si>
+    <t>Serves as the default hash function. (Inherited from Object)</t>
+  </si>
+  <si>
+    <t>Creates a shallow copy of the current Object.(Inherited from Object)</t>
+  </si>
+  <si>
+    <t>Deriva de Object</t>
+  </si>
+  <si>
+    <t>Equals(expected,actual);</t>
+  </si>
+  <si>
+    <t>Throws&lt;claseException&gt;( () =&gt; Clase.MetodoAProbar(arg) );</t>
+  </si>
+  <si>
+    <t>corrobora que el método lance una exc del tipo claseException</t>
+  </si>
+  <si>
+    <t>Microsoft.VisualStudio.TestTools.UnitTesting</t>
+  </si>
+  <si>
+    <t>AreEqual(p1, p2, p3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double, object, string, AreEqual&lt;T&gt;(T, T), </t>
+  </si>
+  <si>
+    <t>AreNotEqual(p1, p2, p3)</t>
+  </si>
+  <si>
+    <t>AreNotSame(Object, Object)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tests whether the specified objects refer to different objects and throws an exception if the two inputs refer to the same object.</t>
+  </si>
+  <si>
+    <t>AreSame(Object, Object)</t>
+  </si>
+  <si>
+    <t>Static equals overloads are used for comparing instances of two types for reference equality. This method should not be used for comparison of two instances for equality. This object will always throw with Assert.Fail. Please use Assert.AreEqual and associated overloads in your unit tests.</t>
+  </si>
+  <si>
+    <t>IsFalse(Boolean)</t>
+  </si>
+  <si>
+    <t>IsInstanceOfType(Object, Type)</t>
+  </si>
+  <si>
+    <t>IsNotInstanceOfType(Object, Type)</t>
+  </si>
+  <si>
+    <t>IsNotNull(Object)</t>
+  </si>
+  <si>
+    <t>IsNull(Object)</t>
+  </si>
+  <si>
+    <t>IsTrue(Boolean)</t>
+  </si>
+  <si>
+    <t>StringAssert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExpectedExceptionAttribute </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CollectionAssert </t>
+  </si>
+  <si>
+    <t>AllItemsAreUnique(ICollection)</t>
+  </si>
+  <si>
+    <t>AllItemsAreInstancesOfType(ICollection, Type)</t>
+  </si>
+  <si>
+    <t>AllItemsAreNotNull(ICollection)</t>
+  </si>
+  <si>
+    <t>Contains(ICollection, Object)</t>
+  </si>
+  <si>
+    <t>DoesNotContain(ICollection, Object)</t>
+  </si>
+  <si>
+    <t>AllowDerivedTypes</t>
+  </si>
+  <si>
+    <t>ExceptionType</t>
+  </si>
+  <si>
+    <t>ThrowsException&lt;T&gt;(() =&gt; clase.metodo(arg))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1363,7 +1537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1418,6 +1592,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1698,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I374"/>
+  <dimension ref="A1:I414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O399" sqref="O399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,1582 +2217,1603 @@
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6" t="s">
+    <row r="48" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
+    <row r="51" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" t="s">
-        <v>40</v>
+      <c r="C54" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="4" t="s">
-        <v>26</v>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>371</v>
+      </c>
+      <c r="D58" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" t="s">
-        <v>371</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
-        <v>372</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" t="s">
-        <v>199</v>
-      </c>
-      <c r="D61" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
+      <c r="C63" t="s">
+        <v>201</v>
+      </c>
       <c r="D63" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D69" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" t="s">
-        <v>211</v>
-      </c>
-      <c r="D70" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" t="s">
-        <v>226</v>
+        <v>213</v>
+      </c>
+      <c r="D71" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" t="s">
-        <v>294</v>
+        <v>227</v>
       </c>
       <c r="D74" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D76" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
-      <c r="C78" t="s">
-        <v>222</v>
-      </c>
-      <c r="D78" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="8"/>
-    </row>
-    <row r="82" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>9</v>
+      <c r="B81" s="4"/>
+      <c r="C81" t="s">
+        <v>393</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" t="s">
+        <v>396</v>
+      </c>
+      <c r="D82" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="4" t="s">
-        <v>10</v>
+      <c r="B83" s="4"/>
+      <c r="C83" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="4" t="s">
-        <v>15</v>
+      <c r="B84" s="4"/>
+      <c r="C84" t="s">
+        <v>394</v>
+      </c>
+      <c r="D84" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6" t="s">
-        <v>12</v>
+      <c r="B85" s="4"/>
+      <c r="C85" t="s">
+        <v>395</v>
+      </c>
+      <c r="D85" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" t="s">
+        <v>397</v>
+      </c>
+      <c r="D86" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" t="s">
-        <v>82</v>
+        <v>398</v>
+      </c>
+      <c r="D87" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" t="s">
-        <v>83</v>
+        <v>399</v>
+      </c>
+      <c r="D88" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" t="s">
-        <v>85</v>
+      <c r="C90" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>408</v>
+      </c>
+      <c r="D91" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" t="s">
-        <v>389</v>
+        <v>409</v>
+      </c>
+      <c r="D92" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6" t="s">
-        <v>13</v>
+      <c r="C93" t="s">
+        <v>376</v>
+      </c>
+      <c r="D93" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" t="s">
+        <v>411</v>
+      </c>
+      <c r="D94" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>89</v>
+      <c r="B95" s="4"/>
+      <c r="C95" t="s">
+        <v>323</v>
+      </c>
+      <c r="D95" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" t="s">
+        <v>414</v>
+      </c>
+      <c r="D96" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
+      <c r="C97" t="s">
+        <v>377</v>
+      </c>
       <c r="D97" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="53"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" t="s">
-        <v>385</v>
-      </c>
-      <c r="D100" t="s">
-        <v>382</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
+      <c r="B101" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
+      <c r="B102" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" t="s">
-        <v>88</v>
-      </c>
-      <c r="D105" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
+      <c r="C106" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>34</v>
+      <c r="B107" s="4"/>
+      <c r="C107" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" s="4" t="s">
-        <v>35</v>
+      <c r="B109" s="4"/>
+      <c r="C109" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B110" s="4"/>
       <c r="C110" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="D115" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="53"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" t="s">
+        <v>385</v>
+      </c>
+      <c r="D118" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" t="s">
+        <v>88</v>
+      </c>
+      <c r="D123" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-    </row>
-    <row r="114" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+    </row>
+    <row r="132" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="22"/>
-      <c r="B115" s="44" t="s">
+    <row r="133" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="22"/>
+      <c r="B133" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C115" s="45" t="s">
+      <c r="C133" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="16"/>
-      <c r="B116" s="14"/>
-      <c r="C116" t="s">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="16"/>
+      <c r="B134" s="14"/>
+      <c r="C134" t="s">
         <v>59</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D134" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="16"/>
-      <c r="B117" s="14"/>
-      <c r="C117" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="16"/>
+      <c r="B135" s="14"/>
+      <c r="C135" t="s">
         <v>61</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D135" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
-      <c r="B118" s="14"/>
-      <c r="C118" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
+      <c r="B136" s="14"/>
+      <c r="C136" t="s">
         <v>63</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D136" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="16"/>
-      <c r="B119" s="14"/>
-      <c r="C119" t="s">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="16"/>
+      <c r="B137" s="14"/>
+      <c r="C137" t="s">
         <v>65</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D137" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="16"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="17" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="16"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="16"/>
-      <c r="B121" s="14"/>
-      <c r="C121" t="s">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="16"/>
+      <c r="B139" s="14"/>
+      <c r="C139" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="16"/>
-      <c r="B122" s="14"/>
-      <c r="C122" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="16"/>
+      <c r="B140" s="14"/>
+      <c r="C140" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="16"/>
-      <c r="B123" s="14"/>
-      <c r="C123" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
+      <c r="B141" s="14"/>
+      <c r="C141" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="16"/>
-      <c r="B124" s="14"/>
-      <c r="C124" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="16"/>
+      <c r="B142" s="14"/>
+      <c r="C142" t="s">
         <v>69</v>
       </c>
-      <c r="I124" s="52"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="16"/>
-      <c r="B125" s="14"/>
-      <c r="C125" t="s">
+      <c r="I142" s="52"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="16"/>
+      <c r="B143" s="14"/>
+      <c r="C143" t="s">
         <v>228</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D143" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
-      <c r="B126" s="14"/>
-      <c r="I126" s="51"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="16"/>
-      <c r="B127" s="14"/>
-    </row>
-    <row r="128" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="30" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="16"/>
+      <c r="B144" s="14"/>
+      <c r="I144" s="51"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="16"/>
+      <c r="B145" s="14"/>
+    </row>
+    <row r="146" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B128" s="46"/>
-    </row>
-    <row r="129" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="23" t="s">
+      <c r="B146" s="46"/>
+    </row>
+    <row r="147" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="19"/>
-      <c r="B130" s="25" t="s">
+    <row r="148" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="19"/>
+      <c r="B148" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="C148" s="25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="20"/>
-      <c r="B131" s="24"/>
-      <c r="C131" t="s">
-        <v>92</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
-      <c r="B132" s="24"/>
-      <c r="C132" t="s">
-        <v>94</v>
-      </c>
-      <c r="D132" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="20"/>
-      <c r="B133" s="24"/>
-      <c r="C133" t="s">
-        <v>96</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
-      <c r="B134" s="24"/>
-      <c r="C134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
-      <c r="B135" s="24"/>
-      <c r="C135" t="s">
-        <v>100</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="20"/>
-      <c r="B136" s="24"/>
-      <c r="C136" t="s">
-        <v>102</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
-      <c r="B137" s="24"/>
-      <c r="C137" t="s">
-        <v>309</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
-      <c r="B138" s="24"/>
-      <c r="C138" t="s">
-        <v>312</v>
-      </c>
-      <c r="D138" s="11"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="20"/>
-      <c r="B139" s="24"/>
-      <c r="C139" t="s">
-        <v>138</v>
-      </c>
-      <c r="D139" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
-      <c r="B140" s="24"/>
-      <c r="C140" t="s">
-        <v>352</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
-      <c r="B141" s="24"/>
-      <c r="D141" s="11"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D142" s="11"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
-      <c r="B143" s="24"/>
-      <c r="C143" t="s">
-        <v>104</v>
-      </c>
-      <c r="D143" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
-      <c r="B144" s="24"/>
-      <c r="C144" t="s">
-        <v>106</v>
-      </c>
-      <c r="D144" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="20"/>
-      <c r="B145" s="24"/>
-      <c r="C145" t="s">
-        <v>108</v>
-      </c>
-      <c r="D145" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
-      <c r="B146" s="24"/>
-      <c r="C146" t="s">
-        <v>109</v>
-      </c>
-      <c r="D146" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="20"/>
-      <c r="B147" s="24"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="20"/>
-      <c r="B148" s="24"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="20"/>
       <c r="B149" s="24"/>
+      <c r="C149" t="s">
+        <v>92</v>
+      </c>
+      <c r="D149" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="20"/>
       <c r="B150" s="24"/>
-      <c r="C150" s="24" t="s">
-        <v>111</v>
+      <c r="C150" t="s">
+        <v>94</v>
+      </c>
+      <c r="D150" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="20"/>
       <c r="B151" s="24"/>
       <c r="C151" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="B152" s="24"/>
       <c r="C152" t="s">
-        <v>113</v>
-      </c>
-      <c r="D152" t="s">
-        <v>301</v>
+        <v>99</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
       <c r="B153" s="24"/>
       <c r="C153" t="s">
-        <v>114</v>
-      </c>
-      <c r="D153" t="s">
-        <v>120</v>
+        <v>100</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
       <c r="B154" s="24"/>
       <c r="C154" t="s">
-        <v>115</v>
-      </c>
-      <c r="D154" t="s">
-        <v>121</v>
+        <v>102</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
       <c r="B155" s="24"/>
       <c r="C155" t="s">
-        <v>116</v>
-      </c>
-      <c r="D155" t="s">
-        <v>122</v>
+        <v>309</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="B156" s="24"/>
       <c r="C156" t="s">
-        <v>117</v>
-      </c>
-      <c r="D156" t="s">
-        <v>123</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D156" s="11"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="B157" s="24"/>
       <c r="C157" t="s">
-        <v>118</v>
-      </c>
-      <c r="D157" t="s">
-        <v>124</v>
+        <v>138</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="B158" s="24"/>
-    </row>
-    <row r="159" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="18"/>
-      <c r="B159" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C159" s="26" t="s">
-        <v>264</v>
-      </c>
+      <c r="C158" t="s">
+        <v>352</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="20"/>
+      <c r="B159" s="24"/>
+      <c r="D159" s="11"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="B160" s="24"/>
-      <c r="C160" t="s">
-        <v>259</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>260</v>
-      </c>
+      <c r="C160" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" s="11"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="20"/>
       <c r="B161" s="24"/>
       <c r="C161" t="s">
-        <v>144</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>261</v>
+        <v>104</v>
+      </c>
+      <c r="D161" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
       <c r="B162" s="24"/>
       <c r="C162" t="s">
-        <v>354</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>355</v>
+        <v>106</v>
+      </c>
+      <c r="D162" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="20"/>
       <c r="B163" s="24"/>
       <c r="C163" t="s">
-        <v>356</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>357</v>
+        <v>108</v>
+      </c>
+      <c r="D163" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
       <c r="B164" s="24"/>
-      <c r="C164" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D164" s="11"/>
+      <c r="C164" t="s">
+        <v>109</v>
+      </c>
+      <c r="D164" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="20"/>
       <c r="B165" s="24"/>
-      <c r="C165" t="s">
-        <v>299</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
       <c r="B166" s="24"/>
-      <c r="D166" s="11"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="B167" s="24"/>
-      <c r="D167" s="11"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
-      <c r="B168" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C168" t="s">
-        <v>304</v>
-      </c>
-      <c r="D168" t="s">
-        <v>178</v>
+      <c r="B168" s="24"/>
+      <c r="C168" s="24" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
-      <c r="B169" s="24" t="s">
-        <v>150</v>
+      <c r="B169" s="24"/>
+      <c r="C169" t="s">
+        <v>112</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
-      <c r="B170" s="24" t="s">
-        <v>152</v>
+      <c r="B170" s="24"/>
+      <c r="C170" t="s">
+        <v>113</v>
+      </c>
+      <c r="D170" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
-      <c r="B171" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="18"/>
-      <c r="B172" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>191</v>
+      <c r="B171" s="24"/>
+      <c r="C171" t="s">
+        <v>114</v>
+      </c>
+      <c r="D171" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="20"/>
+      <c r="B172" s="24"/>
+      <c r="C172" t="s">
+        <v>115</v>
+      </c>
+      <c r="D172" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="B173" s="24"/>
-      <c r="C173" s="25" t="s">
-        <v>21</v>
+      <c r="C173" t="s">
+        <v>116</v>
+      </c>
+      <c r="D173" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174" s="24"/>
       <c r="C174" t="s">
-        <v>192</v>
+        <v>117</v>
+      </c>
+      <c r="D174" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
       <c r="B175" s="24"/>
       <c r="C175" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="D175" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="20"/>
       <c r="B176" s="24"/>
-      <c r="C176" t="s">
-        <v>195</v>
-      </c>
-      <c r="D176" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="20"/>
-      <c r="B177" s="24"/>
-      <c r="C177" t="s">
-        <v>379</v>
-      </c>
-      <c r="D177" t="s">
-        <v>380</v>
+    </row>
+    <row r="177" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="18"/>
+      <c r="B177" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C177" s="26" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
       <c r="B178" s="24"/>
+      <c r="C178" t="s">
+        <v>259</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
       <c r="B179" s="24"/>
-      <c r="C179" s="24" t="s">
-        <v>358</v>
+      <c r="C179" t="s">
+        <v>144</v>
+      </c>
+      <c r="D179" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="B180" s="24"/>
       <c r="C180" t="s">
-        <v>360</v>
-      </c>
-      <c r="D180" t="s">
-        <v>359</v>
+        <v>354</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
       <c r="B181" s="24"/>
-    </row>
-    <row r="182" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="21"/>
-      <c r="B182" s="27"/>
+      <c r="C181" t="s">
+        <v>356</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="20"/>
+      <c r="B182" s="24"/>
+      <c r="C182" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D182" s="11"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="20"/>
-      <c r="B183" s="24" t="s">
-        <v>154</v>
+      <c r="B183" s="24"/>
+      <c r="C183" t="s">
+        <v>299</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
-      <c r="B184" s="24" t="s">
-        <v>155</v>
-      </c>
+      <c r="B184" s="24"/>
+      <c r="D184" s="11"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="20"/>
-      <c r="B185" s="24" t="s">
-        <v>130</v>
-      </c>
+      <c r="B185" s="24"/>
+      <c r="D185" s="11"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
       <c r="B186" s="24" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C186" t="s">
-        <v>157</v>
+        <v>304</v>
+      </c>
+      <c r="D186" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
       <c r="B187" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C187" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
       <c r="B188" s="24" t="s">
-        <v>306</v>
+        <v>152</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
-      <c r="B189" s="24"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="20"/>
-      <c r="B190" s="24" t="s">
-        <v>158</v>
+      <c r="B189" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="18"/>
+      <c r="B190" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
       <c r="B191" s="24"/>
-      <c r="C191" t="s">
-        <v>361</v>
+      <c r="C191" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="20"/>
       <c r="B192" s="24"/>
       <c r="C192" t="s">
-        <v>302</v>
-      </c>
-      <c r="D192" t="s">
-        <v>362</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
       <c r="B193" s="24"/>
+      <c r="C193" t="s">
+        <v>194</v>
+      </c>
+      <c r="D193" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="20"/>
       <c r="B194" s="24"/>
+      <c r="C194" t="s">
+        <v>195</v>
+      </c>
+      <c r="D194" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="20"/>
       <c r="B195" s="24"/>
+      <c r="C195" t="s">
+        <v>379</v>
+      </c>
+      <c r="D195" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="20"/>
-      <c r="B196" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C196" t="s">
-        <v>182</v>
-      </c>
+      <c r="B196" s="24"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="20"/>
       <c r="B197" s="24"/>
-      <c r="C197" t="s">
-        <v>183</v>
+      <c r="C197" s="24" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="20"/>
       <c r="B198" s="24"/>
       <c r="C198" t="s">
-        <v>184</v>
+        <v>360</v>
+      </c>
+      <c r="D198" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
-      <c r="B199" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C199" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="18"/>
-      <c r="B200" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C200" s="26" t="s">
-        <v>21</v>
-      </c>
+      <c r="B199" s="24"/>
+    </row>
+    <row r="200" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="21"/>
+      <c r="B200" s="27"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
-      <c r="B201" s="24"/>
-      <c r="C201" t="s">
-        <v>126</v>
-      </c>
-      <c r="D201" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
-      <c r="B202" s="24"/>
-      <c r="C202" t="s">
-        <v>128</v>
-      </c>
-      <c r="D202" t="s">
-        <v>129</v>
+      <c r="B202" s="24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
-      <c r="B203" s="24"/>
-      <c r="C203" t="s">
+      <c r="B203" s="24" t="s">
         <v>130</v>
-      </c>
-      <c r="D203" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
-      <c r="B204" s="24"/>
+      <c r="B204" s="24" t="s">
+        <v>156</v>
+      </c>
       <c r="C204" t="s">
-        <v>132</v>
-      </c>
-      <c r="D204" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="20"/>
-      <c r="B205" s="24"/>
+      <c r="B205" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="C205" t="s">
-        <v>134</v>
-      </c>
-      <c r="D205" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="20"/>
-      <c r="B206" s="24"/>
-      <c r="C206" t="s">
-        <v>136</v>
-      </c>
-      <c r="D206" t="s">
-        <v>137</v>
+      <c r="B206" s="24" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="20"/>
       <c r="B207" s="24"/>
-      <c r="C207" t="s">
-        <v>138</v>
-      </c>
-      <c r="D207" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="20"/>
-      <c r="B208" s="24"/>
-      <c r="C208" t="s">
-        <v>140</v>
-      </c>
-      <c r="D208" t="s">
-        <v>141</v>
+      <c r="B208" s="24" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="20"/>
       <c r="B209" s="24"/>
       <c r="C209" t="s">
-        <v>142</v>
-      </c>
-      <c r="D209" t="s">
-        <v>143</v>
+        <v>361</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="20"/>
       <c r="B210" s="24"/>
       <c r="C210" t="s">
-        <v>144</v>
+        <v>302</v>
       </c>
       <c r="D210" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="19"/>
-      <c r="B211" s="25"/>
-      <c r="C211" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D211" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="19"/>
-      <c r="B212" s="25"/>
-    </row>
-    <row r="213" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="19"/>
-      <c r="B213" s="25"/>
-      <c r="C213" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="19"/>
-      <c r="B214" s="25"/>
-      <c r="C214" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D214" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="19"/>
-      <c r="B215" s="25"/>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="20"/>
+      <c r="B211" s="24"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="20"/>
+      <c r="B212" s="24"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="20"/>
+      <c r="B213" s="24"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="20"/>
+      <c r="B214" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C214" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="20"/>
+      <c r="B215" s="24"/>
+      <c r="C215" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
       <c r="B216" s="24"/>
-    </row>
-    <row r="217" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="18"/>
-      <c r="B217" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="19"/>
-      <c r="B218" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="C218" s="13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="19"/>
-      <c r="B219" s="25"/>
-      <c r="C219" s="13"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="20"/>
+      <c r="B217" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C217" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="18"/>
+      <c r="B218" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="20"/>
+      <c r="B219" s="24"/>
+      <c r="C219" t="s">
+        <v>126</v>
+      </c>
+      <c r="D219" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="20"/>
-      <c r="B220" s="24" t="s">
-        <v>164</v>
+      <c r="B220" s="24"/>
+      <c r="C220" t="s">
+        <v>128</v>
+      </c>
+      <c r="D220" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="20"/>
-      <c r="B221" s="24" t="s">
-        <v>165</v>
+      <c r="B221" s="24"/>
+      <c r="C221" t="s">
+        <v>130</v>
+      </c>
+      <c r="D221" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="20"/>
       <c r="B222" s="24"/>
+      <c r="C222" t="s">
+        <v>132</v>
+      </c>
+      <c r="D222" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="20"/>
-      <c r="B223" s="24" t="s">
-        <v>166</v>
-      </c>
+      <c r="B223" s="24"/>
       <c r="C223" t="s">
-        <v>179</v>
+        <v>134</v>
+      </c>
+      <c r="D223" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="20"/>
       <c r="B224" s="24"/>
       <c r="C224" t="s">
-        <v>304</v>
+        <v>136</v>
       </c>
       <c r="D224" t="s">
-        <v>305</v>
+        <v>137</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="20"/>
       <c r="B225" s="24"/>
+      <c r="C225" t="s">
+        <v>138</v>
+      </c>
+      <c r="D225" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="20"/>
-      <c r="B226" s="24" t="s">
-        <v>167</v>
+      <c r="B226" s="24"/>
+      <c r="C226" t="s">
+        <v>140</v>
+      </c>
+      <c r="D226" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="20"/>
-      <c r="B227" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="18"/>
-      <c r="B228" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="20"/>
-      <c r="B229" s="24"/>
-      <c r="C229" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
-      <c r="B230" s="24"/>
-      <c r="C230" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="20"/>
-      <c r="B231" s="24"/>
-      <c r="C231" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="21"/>
-      <c r="B232" s="27"/>
-      <c r="C232" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
-      <c r="B233" s="24"/>
+      <c r="B227" s="24"/>
+      <c r="C227" t="s">
+        <v>142</v>
+      </c>
+      <c r="D227" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="20"/>
+      <c r="B228" s="24"/>
+      <c r="C228" t="s">
+        <v>144</v>
+      </c>
+      <c r="D228" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="19"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="19"/>
+      <c r="B230" s="25"/>
+    </row>
+    <row r="231" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="19"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="19"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D232" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="19"/>
+      <c r="B233" s="25"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="20"/>
       <c r="B234" s="24"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="20"/>
-      <c r="B235" s="24"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="20"/>
-      <c r="B236" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="18"/>
-      <c r="B237" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C237" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="19"/>
-      <c r="B238" s="25"/>
-      <c r="C238" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="19"/>
-      <c r="B239" s="25"/>
-      <c r="C239" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D239" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="19"/>
-      <c r="B240" s="25"/>
-      <c r="C240" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D240" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="19"/>
-      <c r="B241" s="25"/>
-      <c r="C241" s="13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="19"/>
-      <c r="B242" s="25"/>
-      <c r="C242" s="13"/>
+    <row r="235" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="18"/>
+      <c r="B235" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="19"/>
+      <c r="B236" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="19"/>
+      <c r="B237" s="25"/>
+      <c r="C237" s="13"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="20"/>
+      <c r="B238" s="24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="20"/>
+      <c r="B239" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="20"/>
+      <c r="B240" s="24"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="20"/>
+      <c r="B241" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C241" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="20"/>
+      <c r="B242" s="24"/>
+      <c r="C242" t="s">
+        <v>304</v>
+      </c>
+      <c r="D242" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="B243" s="24"/>
-      <c r="C243" s="24" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
-      <c r="B244" s="24"/>
-      <c r="C244" t="s">
-        <v>271</v>
-      </c>
-      <c r="D244" t="s">
-        <v>272</v>
+      <c r="B244" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
-      <c r="B245" s="24"/>
-      <c r="C245" t="s">
-        <v>273</v>
-      </c>
-      <c r="D245" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="20"/>
-      <c r="B246" s="24"/>
-      <c r="C246" t="s">
-        <v>275</v>
-      </c>
-      <c r="D246" t="s">
-        <v>276</v>
+      <c r="B245" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="18"/>
+      <c r="B246" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="B247" s="24"/>
       <c r="C247" t="s">
-        <v>277</v>
-      </c>
-      <c r="D247" t="s">
-        <v>278</v>
+        <v>187</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="20"/>
       <c r="B248" s="24"/>
       <c r="C248" t="s">
-        <v>266</v>
-      </c>
-      <c r="D248" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
       <c r="B249" s="24"/>
       <c r="C249" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="20"/>
-      <c r="B250" s="24"/>
-      <c r="C250" t="s">
-        <v>280</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="21"/>
+      <c r="B250" s="27"/>
+      <c r="C250" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="20"/>
       <c r="B251" s="24"/>
-      <c r="C251" t="s">
-        <v>281</v>
-      </c>
-      <c r="D251" t="s">
-        <v>282</v>
-      </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
       <c r="B252" s="24"/>
-      <c r="C252" t="s">
-        <v>283</v>
-      </c>
-      <c r="D252" t="s">
-        <v>284</v>
-      </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
@@ -3623,573 +3821,577 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="20"/>
-      <c r="B254" s="24"/>
-      <c r="C254" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="20"/>
-      <c r="B255" s="24"/>
-      <c r="C255" t="s">
-        <v>268</v>
-      </c>
-      <c r="D255" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="21"/>
-      <c r="B256" s="27"/>
-      <c r="C256" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="20"/>
-      <c r="B257" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="20"/>
-      <c r="B258" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C258" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="20"/>
-      <c r="B259" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C259" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="20"/>
-      <c r="B260" s="24" t="s">
-        <v>175</v>
-      </c>
+      <c r="B254" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="18"/>
+      <c r="B255" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C255" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="19"/>
+      <c r="B256" s="25"/>
+      <c r="C256" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="19"/>
+      <c r="B257" s="25"/>
+      <c r="C257" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="19"/>
+      <c r="B258" s="25"/>
+      <c r="C258" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D258" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="19"/>
+      <c r="B259" s="25"/>
+      <c r="C259" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="19"/>
+      <c r="B260" s="25"/>
+      <c r="C260" s="13"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="20"/>
       <c r="B261" s="24"/>
+      <c r="C261" s="24" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="20"/>
       <c r="B262" s="24"/>
-    </row>
-    <row r="263" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="20" t="s">
-        <v>34</v>
+      <c r="C262" t="s">
+        <v>271</v>
+      </c>
+      <c r="D262" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="20"/>
+      <c r="B263" s="24"/>
+      <c r="C263" t="s">
+        <v>273</v>
+      </c>
+      <c r="D263" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="20"/>
-      <c r="B264" s="24" t="s">
-        <v>176</v>
+      <c r="B264" s="24"/>
+      <c r="C264" t="s">
+        <v>275</v>
+      </c>
+      <c r="D264" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="20"/>
-      <c r="B265" s="24" t="s">
-        <v>177</v>
+      <c r="B265" s="24"/>
+      <c r="C265" t="s">
+        <v>277</v>
+      </c>
+      <c r="D265" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="20"/>
-      <c r="B266" s="24" t="s">
-        <v>388</v>
+      <c r="B266" s="24"/>
+      <c r="C266" t="s">
+        <v>266</v>
+      </c>
+      <c r="D266" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="20"/>
       <c r="B267" s="24"/>
-    </row>
-    <row r="268" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="47" t="s">
+      <c r="C267" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="20"/>
+      <c r="B268" s="24"/>
+      <c r="C268" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="20"/>
+      <c r="B269" s="24"/>
+      <c r="C269" t="s">
+        <v>281</v>
+      </c>
+      <c r="D269" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="20"/>
+      <c r="B270" s="24"/>
+      <c r="C270" t="s">
+        <v>283</v>
+      </c>
+      <c r="D270" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="20"/>
+      <c r="B271" s="24"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="20"/>
+      <c r="B272" s="24"/>
+      <c r="C272" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="20"/>
+      <c r="B273" s="24"/>
+      <c r="C273" t="s">
+        <v>268</v>
+      </c>
+      <c r="D273" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="21"/>
+      <c r="B274" s="27"/>
+      <c r="C274" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="20"/>
+      <c r="B275" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="20"/>
+      <c r="B276" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C276" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="20"/>
+      <c r="B277" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C277" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="20"/>
+      <c r="B278" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="20"/>
+      <c r="B279" s="24"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="20"/>
+      <c r="B280" s="24"/>
+    </row>
+    <row r="281" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="20"/>
+      <c r="B282" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="20"/>
+      <c r="B283" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="20"/>
+      <c r="B284" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="20"/>
+      <c r="B285" s="24"/>
+    </row>
+    <row r="286" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B268" s="48"/>
-    </row>
-    <row r="269" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="31" t="s">
+      <c r="B286" s="48"/>
+    </row>
+    <row r="287" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="28"/>
-      <c r="B270" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C270" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="28"/>
-      <c r="B271" s="34"/>
-      <c r="C271" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="28"/>
-      <c r="B272" s="34"/>
-      <c r="C272" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D272" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="28"/>
-      <c r="B273" s="34"/>
-      <c r="C273" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D273" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="28"/>
-      <c r="B274" s="34"/>
-      <c r="C274" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="28"/>
-      <c r="B275" s="34"/>
-      <c r="C275" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="28"/>
-      <c r="B276" s="34"/>
-      <c r="C276" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="28"/>
-      <c r="B277" s="34"/>
-      <c r="C277" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="28"/>
-      <c r="B278" s="34"/>
-      <c r="C278" s="13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="28"/>
-      <c r="B279" s="34"/>
-      <c r="C279" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="28"/>
-      <c r="B280" s="34"/>
-      <c r="C280" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="28"/>
-      <c r="B281" s="34"/>
-    </row>
-    <row r="282" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="28"/>
-      <c r="B282" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C282" s="12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="28"/>
-      <c r="B283" s="34"/>
-      <c r="C283" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="28"/>
-      <c r="B284" s="34"/>
-      <c r="C284" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D284" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="28"/>
-      <c r="B285" s="34"/>
-      <c r="C285" s="13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="28"/>
-      <c r="B286" s="34"/>
-    </row>
-    <row r="287" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="28"/>
-      <c r="B287" s="34"/>
     </row>
     <row r="288" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="28"/>
-      <c r="B288" s="34"/>
-    </row>
-    <row r="289" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="28"/>
-      <c r="B289" s="34" t="s">
-        <v>236</v>
-      </c>
+      <c r="B289" s="34"/>
       <c r="C289" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="28"/>
       <c r="B290" s="34"/>
-      <c r="C290" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C290" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D290" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="28"/>
       <c r="B291" s="34"/>
-      <c r="C291" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C291" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D291" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="28"/>
       <c r="B292" s="34"/>
-    </row>
-    <row r="293" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C292" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="28"/>
       <c r="B293" s="34"/>
-    </row>
-    <row r="294" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C293" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="28"/>
       <c r="B294" s="34"/>
-    </row>
-    <row r="295" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C294" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="28"/>
-      <c r="B295" s="34" t="s">
+      <c r="B295" s="34"/>
+      <c r="C295" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="28"/>
+      <c r="B296" s="34"/>
+      <c r="C296" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="28"/>
+      <c r="B297" s="34"/>
+      <c r="C297" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="28"/>
+      <c r="B298" s="34"/>
+      <c r="C298" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="28"/>
+      <c r="B299" s="34"/>
+    </row>
+    <row r="300" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="28"/>
+      <c r="B300" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="28"/>
+      <c r="B301" s="34"/>
+      <c r="C301" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="28"/>
+      <c r="B302" s="34"/>
+      <c r="C302" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D302" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="28"/>
+      <c r="B303" s="34"/>
+      <c r="C303" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="28"/>
+      <c r="B304" s="34"/>
+    </row>
+    <row r="305" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="28"/>
+      <c r="B305" s="34"/>
+    </row>
+    <row r="306" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="28"/>
+      <c r="B306" s="34"/>
+    </row>
+    <row r="307" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="28"/>
+      <c r="B307" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C307" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="28"/>
+      <c r="B308" s="34"/>
+      <c r="C308" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="28"/>
+      <c r="B309" s="34"/>
+      <c r="C309" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="28"/>
+      <c r="B310" s="34"/>
+    </row>
+    <row r="311" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="28"/>
+      <c r="B311" s="34"/>
+    </row>
+    <row r="312" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="28"/>
+      <c r="B312" s="34"/>
+    </row>
+    <row r="313" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="28"/>
+      <c r="B313" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="C295" s="12" t="s">
+      <c r="C313" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="29"/>
-      <c r="B296" s="34"/>
-      <c r="C296" t="s">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="29"/>
+      <c r="B314" s="34"/>
+      <c r="C314" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="29"/>
-      <c r="B297" s="34"/>
-      <c r="C297" t="s">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="29"/>
+      <c r="B315" s="34"/>
+      <c r="C315" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="29"/>
-      <c r="B298" s="34"/>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="29"/>
-      <c r="B299" s="29" t="s">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="29"/>
+      <c r="B316" s="34"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="29"/>
+      <c r="B317" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="29"/>
-      <c r="B300" s="34"/>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="29"/>
-      <c r="B301" s="34"/>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="29"/>
-      <c r="B302" s="29" t="s">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="29"/>
+      <c r="B318" s="34"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="29"/>
+      <c r="B319" s="34"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="29"/>
+      <c r="B320" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="29"/>
-      <c r="B303" s="34"/>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="29"/>
-      <c r="B304" s="34"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="29"/>
-      <c r="B305" s="34"/>
-    </row>
-    <row r="306" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="41" t="s">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="29"/>
+      <c r="B321" s="34"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="29"/>
+      <c r="B322" s="34"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="29"/>
+      <c r="B323" s="34"/>
+    </row>
+    <row r="324" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="B306" s="42"/>
-    </row>
-    <row r="307" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B307" s="37" t="s">
+      <c r="B324" s="42"/>
+    </row>
+    <row r="325" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="36"/>
-      <c r="B308" s="50" t="s">
+    <row r="326" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="36"/>
+      <c r="B326" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C308" s="50" t="s">
+      <c r="C326" s="50" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="33"/>
-      <c r="B309" s="38"/>
-      <c r="C309" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="33"/>
-      <c r="B310" s="38"/>
-      <c r="C310" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="33"/>
-      <c r="B311" s="38"/>
-      <c r="C311" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="33"/>
-      <c r="B312" s="38"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="33"/>
-      <c r="B313" s="38"/>
-    </row>
-    <row r="314" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="36"/>
-      <c r="B314" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C314" s="50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="33"/>
-      <c r="B315" s="38"/>
-      <c r="C315" t="s">
-        <v>253</v>
-      </c>
-      <c r="D315" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="33"/>
-      <c r="B316" s="38"/>
-      <c r="C316" t="s">
-        <v>254</v>
-      </c>
-      <c r="D316" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="33"/>
-      <c r="B317" s="38"/>
-      <c r="C317" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="33"/>
-      <c r="B318" s="38"/>
-      <c r="C318" t="s">
-        <v>367</v>
-      </c>
-      <c r="D318" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="33"/>
-      <c r="B319" s="38"/>
-    </row>
-    <row r="320" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="36"/>
-      <c r="B320" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="C320" s="50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="33"/>
-      <c r="B321" s="38"/>
-      <c r="C321" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="33"/>
-      <c r="B322" s="38"/>
-      <c r="C322" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="33"/>
-      <c r="B323" s="38"/>
-      <c r="C323" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="33"/>
-      <c r="B324" s="38"/>
-    </row>
-    <row r="325" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="36"/>
-      <c r="B325" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C325" s="50" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="33"/>
-      <c r="B326" s="38"/>
-      <c r="C326" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="33"/>
       <c r="B327" s="38"/>
       <c r="C327" t="s">
-        <v>258</v>
-      </c>
-      <c r="D327" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="33"/>
       <c r="B328" s="38"/>
       <c r="C328" t="s">
-        <v>317</v>
-      </c>
-      <c r="D328" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="33"/>
       <c r="B329" s="38"/>
       <c r="C329" t="s">
-        <v>320</v>
-      </c>
-      <c r="D329" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="33"/>
       <c r="B330" s="38"/>
-      <c r="C330" t="s">
-        <v>322</v>
-      </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="33"/>
       <c r="B331" s="38"/>
-      <c r="C331" t="s">
-        <v>323</v>
-      </c>
-      <c r="D331" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="33"/>
-      <c r="B332" s="38"/>
-      <c r="C332" t="s">
-        <v>325</v>
+    </row>
+    <row r="332" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="36"/>
+      <c r="B332" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C332" s="50" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="33"/>
       <c r="B333" s="38"/>
       <c r="C333" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="D333" t="s">
-        <v>327</v>
+        <v>19</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="33"/>
       <c r="B334" s="38"/>
       <c r="C334" t="s">
-        <v>328</v>
+        <v>254</v>
+      </c>
+      <c r="D334" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="33"/>
       <c r="B335" s="38"/>
       <c r="C335" t="s">
-        <v>329</v>
-      </c>
-      <c r="D335" t="s">
-        <v>330</v>
+        <v>252</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="33"/>
       <c r="B336" s="38"/>
       <c r="C336" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D336" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -4199,230 +4401,545 @@
     <row r="338" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="36"/>
       <c r="B338" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C338" s="50" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="33"/>
       <c r="B339" s="38"/>
       <c r="C339" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="33"/>
       <c r="B340" s="38"/>
       <c r="C340" t="s">
-        <v>340</v>
-      </c>
-      <c r="D340" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="33"/>
       <c r="B341" s="38"/>
       <c r="C341" t="s">
-        <v>342</v>
-      </c>
-      <c r="D341" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="33"/>
       <c r="B342" s="38"/>
-      <c r="C342" t="s">
-        <v>322</v>
-      </c>
-      <c r="D342" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="33"/>
-      <c r="B343" s="38"/>
-      <c r="C343" t="s">
-        <v>344</v>
+    </row>
+    <row r="343" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="36"/>
+      <c r="B343" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C343" s="50" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="33"/>
       <c r="B344" s="38"/>
       <c r="C344" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="33"/>
       <c r="B345" s="38"/>
       <c r="C345" t="s">
-        <v>339</v>
+        <v>258</v>
+      </c>
+      <c r="D345" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="33"/>
       <c r="B346" s="38"/>
       <c r="C346" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="D346" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="33"/>
       <c r="B347" s="38"/>
-    </row>
-    <row r="348" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B348" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C347" t="s">
+        <v>320</v>
+      </c>
+      <c r="D347" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="33"/>
+      <c r="B348" s="38"/>
+      <c r="C348" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="33"/>
-      <c r="B349" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="C349" s="38" t="s">
-        <v>291</v>
+      <c r="B349" s="38"/>
+      <c r="C349" t="s">
+        <v>323</v>
+      </c>
+      <c r="D349" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="33"/>
       <c r="B350" s="38"/>
-      <c r="C350" s="38" t="s">
-        <v>21</v>
+      <c r="C350" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="33"/>
       <c r="B351" s="38"/>
       <c r="C351" t="s">
-        <v>292</v>
+        <v>326</v>
+      </c>
+      <c r="D351" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="33"/>
       <c r="B352" s="38"/>
       <c r="C352" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="33"/>
-      <c r="B353" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="38"/>
+      <c r="C353" t="s">
+        <v>329</v>
+      </c>
+      <c r="D353" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="33"/>
       <c r="B354" s="38"/>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C354" t="s">
+        <v>369</v>
+      </c>
+      <c r="D354" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="33"/>
       <c r="B355" s="38"/>
     </row>
-    <row r="356" spans="1:2" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="39" t="s">
+    <row r="356" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="36"/>
+      <c r="B356" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C356" s="50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="33"/>
+      <c r="B357" s="38"/>
+      <c r="C357" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="33"/>
+      <c r="B358" s="38"/>
+      <c r="C358" t="s">
+        <v>340</v>
+      </c>
+      <c r="D358" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="33"/>
+      <c r="B359" s="38"/>
+      <c r="C359" t="s">
+        <v>342</v>
+      </c>
+      <c r="D359" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="33"/>
+      <c r="B360" s="38"/>
+      <c r="C360" t="s">
+        <v>322</v>
+      </c>
+      <c r="D360" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="33"/>
+      <c r="B361" s="38"/>
+      <c r="C361" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="33"/>
+      <c r="B362" s="38"/>
+      <c r="C362" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="33"/>
+      <c r="B363" s="38"/>
+      <c r="C363" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="33"/>
+      <c r="B364" s="38"/>
+      <c r="C364" t="s">
+        <v>345</v>
+      </c>
+      <c r="D364" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="33"/>
+      <c r="B365" s="38"/>
+    </row>
+    <row r="366" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B366" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="33"/>
+      <c r="B367" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C367" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="33"/>
+      <c r="B368" s="38"/>
+      <c r="C368" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="33"/>
+      <c r="B369" s="38"/>
+      <c r="C369" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="33"/>
+      <c r="B370" s="38"/>
+      <c r="C370" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="33"/>
+      <c r="B371" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="33"/>
+      <c r="B372" s="38"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="33"/>
+      <c r="B373" s="38"/>
+    </row>
+    <row r="374" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B356" s="40" t="s">
+      <c r="B374" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="32"/>
-      <c r="B357" s="35" t="s">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="32"/>
+      <c r="B375" s="35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="32"/>
-      <c r="B358" s="35" t="s">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="32"/>
+      <c r="B376" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="32"/>
-      <c r="B359" s="35" t="s">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="32"/>
+      <c r="B377" s="35" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="32"/>
-      <c r="B360" s="35" t="s">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="32"/>
+      <c r="B378" s="35" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="32"/>
-      <c r="B361" s="35" t="s">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="32"/>
+      <c r="B379" s="35" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="32"/>
-      <c r="B362" s="35"/>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="32"/>
-      <c r="B363" s="35"/>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="32"/>
-      <c r="B364" s="35"/>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="32"/>
-      <c r="B365" s="35"/>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="32"/>
-      <c r="B366" s="35"/>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="32"/>
-      <c r="B367" s="35"/>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="32"/>
-      <c r="B368" s="35"/>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" s="32"/>
-      <c r="B369" s="35"/>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" s="32"/>
-      <c r="B370" s="35"/>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" s="32"/>
-      <c r="B371" s="35"/>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" s="32"/>
-      <c r="B372" s="35"/>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="32"/>
-      <c r="B373" s="35"/>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="32"/>
+      <c r="B380" s="35"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="32"/>
+      <c r="B381" s="35"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="32"/>
+      <c r="B382" s="35"/>
+    </row>
+    <row r="383" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C383" s="54"/>
+    </row>
+    <row r="384" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="C384" s="56" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="4"/>
+      <c r="B385" s="4"/>
+      <c r="C385" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="4"/>
+      <c r="B386" s="4"/>
+      <c r="C386" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="D386" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="4"/>
+      <c r="B387" s="4"/>
+      <c r="C387" s="55" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="4"/>
+      <c r="B388" s="4"/>
+      <c r="C388" s="55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="4"/>
+      <c r="B389" s="4"/>
+      <c r="C389" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="D389" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="4"/>
+      <c r="B390" s="4"/>
+      <c r="C390" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="D390" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="4"/>
+      <c r="B391" s="4"/>
+      <c r="C391" s="55" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="4"/>
+      <c r="B392" s="4"/>
+      <c r="C392" s="55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="4"/>
+      <c r="B393" s="4"/>
+      <c r="C393" s="55" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="4"/>
+      <c r="B394" s="4"/>
+      <c r="C394" s="55" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="4"/>
+      <c r="B395" s="4"/>
+      <c r="C395" s="55" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="4"/>
+      <c r="B396" s="4"/>
+      <c r="C396" s="55" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="4"/>
+      <c r="B397" s="4"/>
+      <c r="C397" s="55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="4"/>
+      <c r="B398" s="4"/>
+      <c r="C398" s="55" t="s">
+        <v>421</v>
+      </c>
+      <c r="D398" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="4"/>
+      <c r="B399" s="4"/>
+      <c r="C399" s="55"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="4"/>
+      <c r="B400" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C400" s="55" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="4"/>
+      <c r="B401" s="4"/>
+      <c r="C401" s="55" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="4"/>
+      <c r="B402" s="4"/>
+      <c r="C402" s="55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="4"/>
+      <c r="B403" s="4"/>
+      <c r="C403" s="55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="4"/>
+      <c r="B404" s="4"/>
+      <c r="C404" s="55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="4"/>
+      <c r="B405" s="4"/>
+      <c r="C405" s="55"/>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="4"/>
+      <c r="B406" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C406" s="55"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="4"/>
+      <c r="B407" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C407" s="55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="4"/>
+      <c r="B408" s="4"/>
+      <c r="C408" s="55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="4"/>
+      <c r="B409" s="4"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="4"/>
+      <c r="B410" s="4"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="4"/>
+      <c r="B411" s="4"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
         <v>363</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B414" t="s">
         <v>364</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C414" t="s">
         <v>365</v>
       </c>
-      <c r="D374" t="s">
+      <c r="D414" t="s">
         <v>366</v>
       </c>
     </row>

--- a/PPT/Resumen/Clases.xlsx
+++ b/PPT/Resumen/Clases.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cami\Estudios\Facultad\Programación\02 Programacion_Laboratorio_2 - C#\git\Programacion_Laboratorio2\PPT\Resumen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Programacion_Laboratorio2\PPT\Resumen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4500" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="4950" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1373,7 +1373,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1397,7 +1397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1506,6 +1506,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1537,7 +1543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1594,7 +1600,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1877,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O399" sqref="O399"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K231" sqref="K231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4730,23 +4738,23 @@
       <c r="C383" s="54"/>
     </row>
     <row r="384" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="53" t="s">
+      <c r="B384" s="56" t="s">
         <v>391</v>
       </c>
-      <c r="C384" s="56" t="s">
+      <c r="C384" s="58" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="4"/>
-      <c r="B385" s="4"/>
-      <c r="C385" s="4" t="s">
+      <c r="B385" s="57"/>
+      <c r="C385" s="57" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="4"/>
-      <c r="B386" s="4"/>
+      <c r="B386" s="57"/>
       <c r="C386" s="55" t="s">
         <v>424</v>
       </c>
@@ -4756,21 +4764,21 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="4"/>
-      <c r="B387" s="4"/>
+      <c r="B387" s="57"/>
       <c r="C387" s="55" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="4"/>
-      <c r="B388" s="4"/>
+      <c r="B388" s="57"/>
       <c r="C388" s="55" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="4"/>
-      <c r="B389" s="4"/>
+      <c r="B389" s="57"/>
       <c r="C389" s="55" t="s">
         <v>427</v>
       </c>
@@ -4780,7 +4788,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
-      <c r="B390" s="4"/>
+      <c r="B390" s="57"/>
       <c r="C390" s="55" t="s">
         <v>420</v>
       </c>
@@ -4790,56 +4798,56 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
-      <c r="B391" s="4"/>
+      <c r="B391" s="57"/>
       <c r="C391" s="55" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
-      <c r="B392" s="4"/>
+      <c r="B392" s="57"/>
       <c r="C392" s="55" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
-      <c r="B393" s="4"/>
+      <c r="B393" s="57"/>
       <c r="C393" s="55" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
-      <c r="B394" s="4"/>
+      <c r="B394" s="57"/>
       <c r="C394" s="55" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
-      <c r="B395" s="4"/>
+      <c r="B395" s="57"/>
       <c r="C395" s="55" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
-      <c r="B396" s="4"/>
+      <c r="B396" s="57"/>
       <c r="C396" s="55" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
-      <c r="B397" s="4"/>
+      <c r="B397" s="57"/>
       <c r="C397" s="55" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
-      <c r="B398" s="4"/>
+      <c r="B398" s="57"/>
       <c r="C398" s="55" t="s">
         <v>421</v>
       </c>
@@ -4849,12 +4857,12 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
-      <c r="B399" s="4"/>
+      <c r="B399" s="57"/>
       <c r="C399" s="55"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
-      <c r="B400" s="4" t="s">
+      <c r="B400" s="57" t="s">
         <v>439</v>
       </c>
       <c r="C400" s="55" t="s">
@@ -4863,47 +4871,47 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
-      <c r="B401" s="4"/>
+      <c r="B401" s="57"/>
       <c r="C401" s="55" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
-      <c r="B402" s="4"/>
+      <c r="B402" s="57"/>
       <c r="C402" s="55" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
-      <c r="B403" s="4"/>
+      <c r="B403" s="57"/>
       <c r="C403" s="55" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
-      <c r="B404" s="4"/>
+      <c r="B404" s="57"/>
       <c r="C404" s="55" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
-      <c r="B405" s="4"/>
+      <c r="B405" s="57"/>
       <c r="C405" s="55"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
-      <c r="B406" s="4" t="s">
+      <c r="B406" s="57" t="s">
         <v>437</v>
       </c>
       <c r="C406" s="55"/>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
-      <c r="B407" s="4" t="s">
+      <c r="B407" s="57" t="s">
         <v>438</v>
       </c>
       <c r="C407" s="55" t="s">
@@ -4912,22 +4920,22 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
-      <c r="B408" s="4"/>
+      <c r="B408" s="57"/>
       <c r="C408" s="55" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
-      <c r="B409" s="4"/>
+      <c r="B409" s="57"/>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
-      <c r="B410" s="4"/>
+      <c r="B410" s="57"/>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
-      <c r="B411" s="4"/>
+      <c r="B411" s="57"/>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">

--- a/PPT/Resumen/Clases.xlsx
+++ b/PPT/Resumen/Clases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4950" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="457">
   <si>
     <t>System</t>
   </si>
@@ -1368,6 +1368,33 @@
   </si>
   <si>
     <t>ThrowsException&lt;T&gt;(() =&gt; clase.metodo(arg))</t>
+  </si>
+  <si>
+    <t>Fail()</t>
+  </si>
+  <si>
+    <t>Throws an AssertFailedException</t>
+  </si>
+  <si>
+    <t>(T)Convert.ChangeType(valor, typeof(T))</t>
+  </si>
+  <si>
+    <t>Returns an object of the specified type and whose value is equivalent to the specified object. value must implement the IConvertible interface</t>
+  </si>
+  <si>
+    <t>System.IO</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment </t>
+  </si>
+  <si>
+    <t>Gets the path to the system special folder that is identified by the specified enumeration. Return string</t>
+  </si>
+  <si>
+    <t>Environment.GetFolderPath(Environment.SpecialFolder.A)</t>
   </si>
 </sst>
 </file>
@@ -1883,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I414"/>
+  <dimension ref="A1:I425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K231" sqref="K231"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,383 +2143,389 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
+      <c r="C32" t="s">
+        <v>450</v>
+      </c>
+      <c r="D32" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="s">
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="13" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="13" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="13" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
+      <c r="C47" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="4" t="s">
-        <v>26</v>
+      <c r="C54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
-      <c r="C55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" t="s">
-        <v>42</v>
+      <c r="C55" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" t="s">
-        <v>371</v>
-      </c>
-      <c r="D58" t="s">
-        <v>372</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>371</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
+      <c r="C61" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
-      <c r="D62" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
-      <c r="C63" t="s">
-        <v>201</v>
-      </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D64" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D66" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D67" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D68" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D69" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" t="s">
-        <v>226</v>
+        <v>211</v>
+      </c>
+      <c r="D70" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" t="s">
-        <v>213</v>
-      </c>
-      <c r="D71" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" t="s">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="D73" t="s">
-        <v>295</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" t="s">
-        <v>227</v>
+        <v>294</v>
       </c>
       <c r="D74" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
+      <c r="C78" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
@@ -2501,338 +2534,336 @@
     <row r="80" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" t="s">
-        <v>393</v>
+      <c r="C81" s="13" t="s">
+        <v>456</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" t="s">
-        <v>396</v>
-      </c>
-      <c r="D82" t="s">
-        <v>401</v>
-      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
-      <c r="C83" t="s">
-        <v>392</v>
-      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
-      <c r="C84" t="s">
-        <v>394</v>
-      </c>
-      <c r="D84" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" t="s">
-        <v>395</v>
-      </c>
-      <c r="D85" t="s">
-        <v>405</v>
+    </row>
+    <row r="85" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" t="s">
-        <v>397</v>
-      </c>
-      <c r="D86" t="s">
-        <v>406</v>
+        <v>393</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D87" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" t="s">
-        <v>399</v>
-      </c>
-      <c r="D88" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
+      <c r="C89" t="s">
+        <v>394</v>
+      </c>
+      <c r="D89" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="4" t="s">
-        <v>26</v>
+      <c r="C90" t="s">
+        <v>395</v>
+      </c>
+      <c r="D90" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D91" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="D92" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="D93" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
-      <c r="C94" t="s">
-        <v>411</v>
-      </c>
-      <c r="D94" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" t="s">
-        <v>323</v>
-      </c>
-      <c r="D95" t="s">
-        <v>413</v>
+      <c r="C95" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D96" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="D97" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>376</v>
+      </c>
+      <c r="D98" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="8"/>
-    </row>
-    <row r="100" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>9</v>
+      <c r="B99" s="4"/>
+      <c r="C99" t="s">
+        <v>411</v>
+      </c>
+      <c r="D99" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" t="s">
+        <v>323</v>
+      </c>
+      <c r="D100" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="4" t="s">
-        <v>10</v>
+      <c r="B101" s="4"/>
+      <c r="C101" t="s">
+        <v>414</v>
+      </c>
+      <c r="D101" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-      <c r="B102" s="4" t="s">
-        <v>15</v>
+      <c r="B102" s="4"/>
+      <c r="C102" t="s">
+        <v>377</v>
+      </c>
+      <c r="D102" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" t="s">
-        <v>82</v>
+      <c r="B103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="8"/>
+    </row>
+    <row r="105" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" t="s">
-        <v>83</v>
+      <c r="B106" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" t="s">
-        <v>84</v>
+      <c r="B107" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" t="s">
-        <v>86</v>
+      <c r="B108" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
+      <c r="B109" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" t="s">
-        <v>389</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6" t="s">
-        <v>13</v>
+      <c r="C111" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="B113" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>89</v>
+      <c r="B113" s="4"/>
+      <c r="C113" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="D115" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="53"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="12" t="s">
-        <v>383</v>
+      <c r="C115" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" t="s">
-        <v>385</v>
-      </c>
-      <c r="D118" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="B118" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4" t="s">
-        <v>17</v>
+      <c r="D120" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6"/>
+      <c r="B121" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="53"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="12" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" t="s">
-        <v>88</v>
+        <v>385</v>
       </c>
       <c r="D123" t="s">
-        <v>87</v>
+        <v>382</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,680 +2872,679 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>34</v>
+      <c r="B125" s="4"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="B128" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B128" s="4"/>
       <c r="C128" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D128" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-    </row>
-    <row r="132" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="22"/>
-      <c r="B133" s="44" t="s">
+    <row r="138" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="22"/>
+      <c r="B138" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C133" s="45" t="s">
+      <c r="C138" s="45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="16"/>
-      <c r="B134" s="14"/>
-      <c r="C134" t="s">
-        <v>59</v>
-      </c>
-      <c r="D134" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="16"/>
-      <c r="B135" s="14"/>
-      <c r="C135" t="s">
-        <v>61</v>
-      </c>
-      <c r="D135" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="16"/>
-      <c r="B136" s="14"/>
-      <c r="C136" t="s">
-        <v>63</v>
-      </c>
-      <c r="D136" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="16"/>
-      <c r="B137" s="14"/>
-      <c r="C137" t="s">
-        <v>65</v>
-      </c>
-      <c r="D137" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="16"/>
       <c r="B139" s="14"/>
       <c r="C139" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D139" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="16"/>
       <c r="B140" s="14"/>
       <c r="C140" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D140" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="16"/>
       <c r="B141" s="14"/>
       <c r="C141" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="14"/>
       <c r="C142" t="s">
-        <v>69</v>
-      </c>
-      <c r="I142" s="52"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D142" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="14"/>
-      <c r="C143" t="s">
-        <v>228</v>
-      </c>
-      <c r="D143" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C143" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="14"/>
-      <c r="I144" s="51"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="14"/>
-    </row>
-    <row r="146" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="30" t="s">
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="16"/>
+      <c r="B146" s="14"/>
+      <c r="C146" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="16"/>
+      <c r="B147" s="14"/>
+      <c r="C147" t="s">
+        <v>69</v>
+      </c>
+      <c r="I147" s="52"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="16"/>
+      <c r="B148" s="14"/>
+      <c r="C148" t="s">
+        <v>228</v>
+      </c>
+      <c r="D148" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="16"/>
+      <c r="B149" s="14"/>
+      <c r="I149" s="51"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
+      <c r="B150" s="14"/>
+    </row>
+    <row r="151" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B146" s="46"/>
-    </row>
-    <row r="147" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="23" t="s">
+      <c r="B151" s="46"/>
+    </row>
+    <row r="152" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="19"/>
-      <c r="B148" s="25" t="s">
+    <row r="153" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="19"/>
+      <c r="B153" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C148" s="25" t="s">
+      <c r="C153" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="20"/>
-      <c r="B149" s="24"/>
-      <c r="C149" t="s">
-        <v>92</v>
-      </c>
-      <c r="D149" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
-      <c r="B150" s="24"/>
-      <c r="C150" t="s">
-        <v>94</v>
-      </c>
-      <c r="D150" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
-      <c r="B151" s="24"/>
-      <c r="C151" t="s">
-        <v>96</v>
-      </c>
-      <c r="D151" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
-      <c r="B152" s="24"/>
-      <c r="C152" t="s">
-        <v>99</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
-      <c r="B153" s="24"/>
-      <c r="C153" t="s">
-        <v>100</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
       <c r="B154" s="24"/>
       <c r="C154" t="s">
-        <v>102</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
       <c r="B155" s="24"/>
       <c r="C155" t="s">
-        <v>309</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="D155" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="B156" s="24"/>
       <c r="C156" t="s">
-        <v>312</v>
-      </c>
-      <c r="D156" s="11"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="B157" s="24"/>
       <c r="C157" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="B158" s="24"/>
       <c r="C158" t="s">
-        <v>352</v>
+        <v>100</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
       <c r="B159" s="24"/>
-      <c r="D159" s="11"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>102</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="B160" s="24"/>
-      <c r="C160" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D160" s="11"/>
+      <c r="C160" t="s">
+        <v>309</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="20"/>
       <c r="B161" s="24"/>
       <c r="C161" t="s">
-        <v>104</v>
-      </c>
-      <c r="D161" t="s">
-        <v>105</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D161" s="11"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
       <c r="B162" s="24"/>
       <c r="C162" t="s">
-        <v>106</v>
-      </c>
-      <c r="D162" t="s">
-        <v>107</v>
+        <v>138</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="20"/>
       <c r="B163" s="24"/>
       <c r="C163" t="s">
-        <v>108</v>
-      </c>
-      <c r="D163" t="s">
-        <v>311</v>
+        <v>352</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
       <c r="B164" s="24"/>
-      <c r="C164" t="s">
-        <v>109</v>
-      </c>
-      <c r="D164" t="s">
-        <v>110</v>
-      </c>
+      <c r="D164" s="11"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="20"/>
       <c r="B165" s="24"/>
+      <c r="C165" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" s="11"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
       <c r="B166" s="24"/>
+      <c r="C166" t="s">
+        <v>104</v>
+      </c>
+      <c r="D166" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="B167" s="24"/>
+      <c r="C167" t="s">
+        <v>106</v>
+      </c>
+      <c r="D167" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
       <c r="B168" s="24"/>
-      <c r="C168" s="24" t="s">
-        <v>111</v>
+      <c r="C168" t="s">
+        <v>108</v>
+      </c>
+      <c r="D168" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
       <c r="B169" s="24"/>
       <c r="C169" t="s">
-        <v>112</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>119</v>
+        <v>109</v>
+      </c>
+      <c r="D169" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
       <c r="B170" s="24"/>
-      <c r="C170" t="s">
-        <v>113</v>
-      </c>
-      <c r="D170" t="s">
-        <v>301</v>
-      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
       <c r="B171" s="24"/>
-      <c r="C171" t="s">
-        <v>114</v>
-      </c>
-      <c r="D171" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="20"/>
       <c r="B172" s="24"/>
-      <c r="C172" t="s">
-        <v>115</v>
-      </c>
-      <c r="D172" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="B173" s="24"/>
-      <c r="C173" t="s">
-        <v>116</v>
-      </c>
-      <c r="D173" t="s">
-        <v>122</v>
+      <c r="C173" s="24" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174" s="24"/>
       <c r="C174" t="s">
-        <v>117</v>
-      </c>
-      <c r="D174" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
       <c r="B175" s="24"/>
       <c r="C175" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D175" t="s">
-        <v>124</v>
+        <v>301</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="20"/>
       <c r="B176" s="24"/>
-    </row>
-    <row r="177" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="18"/>
-      <c r="B177" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C177" s="26" t="s">
-        <v>264</v>
+      <c r="C176" t="s">
+        <v>114</v>
+      </c>
+      <c r="D176" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="20"/>
+      <c r="B177" s="24"/>
+      <c r="C177" t="s">
+        <v>115</v>
+      </c>
+      <c r="D177" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
       <c r="B178" s="24"/>
       <c r="C178" t="s">
-        <v>259</v>
-      </c>
-      <c r="D178" s="11" t="s">
-        <v>260</v>
+        <v>116</v>
+      </c>
+      <c r="D178" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
       <c r="B179" s="24"/>
       <c r="C179" t="s">
-        <v>144</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>261</v>
+        <v>117</v>
+      </c>
+      <c r="D179" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="B180" s="24"/>
       <c r="C180" t="s">
-        <v>354</v>
-      </c>
-      <c r="D180" s="11" t="s">
-        <v>355</v>
+        <v>118</v>
+      </c>
+      <c r="D180" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
       <c r="B181" s="24"/>
-      <c r="C181" t="s">
-        <v>356</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="20"/>
-      <c r="B182" s="24"/>
-      <c r="C182" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D182" s="11"/>
+    </row>
+    <row r="182" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="18"/>
+      <c r="B182" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="20"/>
       <c r="B183" s="24"/>
       <c r="C183" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
       <c r="B184" s="24"/>
-      <c r="D184" s="11"/>
+      <c r="C184" t="s">
+        <v>144</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="20"/>
       <c r="B185" s="24"/>
-      <c r="D185" s="11"/>
+      <c r="C185" t="s">
+        <v>354</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
-      <c r="B186" s="24" t="s">
-        <v>149</v>
-      </c>
+      <c r="B186" s="24"/>
       <c r="C186" t="s">
-        <v>304</v>
-      </c>
-      <c r="D186" t="s">
-        <v>178</v>
+        <v>356</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
-      <c r="B187" s="24" t="s">
-        <v>150</v>
-      </c>
+      <c r="B187" s="24"/>
+      <c r="C187" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="D187" s="11"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
-      <c r="B188" s="24" t="s">
-        <v>152</v>
+      <c r="B188" s="24"/>
+      <c r="C188" t="s">
+        <v>299</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
-      <c r="B189" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="18"/>
-      <c r="B190" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="B189" s="24"/>
+      <c r="D189" s="11"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="20"/>
+      <c r="B190" s="24"/>
+      <c r="D190" s="11"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
-      <c r="B191" s="24"/>
-      <c r="C191" s="25" t="s">
-        <v>21</v>
+      <c r="B191" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C191" t="s">
+        <v>304</v>
+      </c>
+      <c r="D191" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="20"/>
-      <c r="B192" s="24"/>
-      <c r="C192" t="s">
-        <v>192</v>
+      <c r="B192" s="24" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
-      <c r="B193" s="24"/>
-      <c r="C193" t="s">
-        <v>194</v>
-      </c>
-      <c r="D193" t="s">
-        <v>193</v>
+      <c r="B193" s="24" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="20"/>
-      <c r="B194" s="24"/>
-      <c r="C194" t="s">
-        <v>195</v>
-      </c>
-      <c r="D194" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="20"/>
-      <c r="B195" s="24"/>
-      <c r="C195" t="s">
-        <v>379</v>
-      </c>
-      <c r="D195" t="s">
-        <v>380</v>
+      <c r="B194" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="18"/>
+      <c r="B195" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="20"/>
       <c r="B196" s="24"/>
+      <c r="C196" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="20"/>
       <c r="B197" s="24"/>
-      <c r="C197" s="24" t="s">
-        <v>358</v>
+      <c r="C197" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="20"/>
       <c r="B198" s="24"/>
       <c r="C198" t="s">
-        <v>360</v>
+        <v>194</v>
       </c>
       <c r="D198" t="s">
-        <v>359</v>
+        <v>193</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
       <c r="B199" s="24"/>
-    </row>
-    <row r="200" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="21"/>
-      <c r="B200" s="27"/>
+      <c r="C199" t="s">
+        <v>195</v>
+      </c>
+      <c r="D199" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="20"/>
+      <c r="B200" s="24"/>
+      <c r="C200" t="s">
+        <v>379</v>
+      </c>
+      <c r="D200" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
-      <c r="B201" s="24" t="s">
-        <v>154</v>
-      </c>
+      <c r="B201" s="24"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
-      <c r="B202" s="24" t="s">
-        <v>155</v>
+      <c r="B202" s="24"/>
+      <c r="C202" s="24" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
-      <c r="B203" s="24" t="s">
-        <v>130</v>
+      <c r="B203" s="24"/>
+      <c r="C203" t="s">
+        <v>360</v>
+      </c>
+      <c r="D203" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
-      <c r="B204" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C204" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="20"/>
-      <c r="B205" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C205" t="s">
-        <v>181</v>
-      </c>
+      <c r="B204" s="24"/>
+    </row>
+    <row r="205" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="21"/>
+      <c r="B205" s="27"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="20"/>
       <c r="B206" s="24" t="s">
-        <v>306</v>
+        <v>154</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="20"/>
-      <c r="B207" s="24"/>
+      <c r="B207" s="24" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="20"/>
       <c r="B208" s="24" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="20"/>
-      <c r="B209" s="24"/>
+      <c r="B209" s="24" t="s">
+        <v>156</v>
+      </c>
       <c r="C209" t="s">
-        <v>361</v>
+        <v>157</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="20"/>
-      <c r="B210" s="24"/>
+      <c r="B210" s="24" t="s">
+        <v>180</v>
+      </c>
       <c r="C210" t="s">
-        <v>302</v>
-      </c>
-      <c r="D210" t="s">
-        <v>362</v>
+        <v>181</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="20"/>
-      <c r="B211" s="24"/>
+      <c r="B211" s="24" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="20"/>
@@ -3522,918 +3552,915 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="20"/>
-      <c r="B213" s="24"/>
+      <c r="B213" s="24" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="20"/>
-      <c r="B214" s="24" t="s">
-        <v>159</v>
-      </c>
+      <c r="B214" s="24"/>
       <c r="C214" t="s">
-        <v>182</v>
+        <v>361</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="20"/>
       <c r="B215" s="24"/>
       <c r="C215" t="s">
-        <v>183</v>
+        <v>302</v>
+      </c>
+      <c r="D215" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
       <c r="B216" s="24"/>
-      <c r="C216" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="20"/>
-      <c r="B217" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C217" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="18"/>
-      <c r="B218" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C218" s="26" t="s">
-        <v>21</v>
-      </c>
+      <c r="B217" s="24"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="20"/>
+      <c r="B218" s="24"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="20"/>
-      <c r="B219" s="24"/>
+      <c r="B219" s="24" t="s">
+        <v>159</v>
+      </c>
       <c r="C219" t="s">
-        <v>126</v>
-      </c>
-      <c r="D219" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="20"/>
       <c r="B220" s="24"/>
       <c r="C220" t="s">
-        <v>128</v>
-      </c>
-      <c r="D220" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="20"/>
       <c r="B221" s="24"/>
       <c r="C221" t="s">
-        <v>130</v>
-      </c>
-      <c r="D221" t="s">
-        <v>131</v>
+        <v>184</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="20"/>
-      <c r="B222" s="24"/>
+      <c r="B222" s="24" t="s">
+        <v>160</v>
+      </c>
       <c r="C222" t="s">
-        <v>132</v>
-      </c>
-      <c r="D222" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="20"/>
-      <c r="B223" s="24"/>
-      <c r="C223" t="s">
-        <v>134</v>
-      </c>
-      <c r="D223" t="s">
-        <v>135</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="18"/>
+      <c r="B223" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C223" s="26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="20"/>
       <c r="B224" s="24"/>
       <c r="C224" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D224" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="20"/>
       <c r="B225" s="24"/>
       <c r="C225" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D225" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="20"/>
       <c r="B226" s="24"/>
       <c r="C226" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D226" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="20"/>
       <c r="B227" s="24"/>
       <c r="C227" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D227" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="20"/>
       <c r="B228" s="24"/>
       <c r="C228" t="s">
+        <v>134</v>
+      </c>
+      <c r="D228" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="20"/>
+      <c r="B229" s="24"/>
+      <c r="C229" t="s">
+        <v>136</v>
+      </c>
+      <c r="D229" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="20"/>
+      <c r="B230" s="24"/>
+      <c r="C230" t="s">
+        <v>138</v>
+      </c>
+      <c r="D230" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="20"/>
+      <c r="B231" s="24"/>
+      <c r="C231" t="s">
+        <v>140</v>
+      </c>
+      <c r="D231" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="20"/>
+      <c r="B232" s="24"/>
+      <c r="C232" t="s">
+        <v>142</v>
+      </c>
+      <c r="D232" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="20"/>
+      <c r="B233" s="24"/>
+      <c r="C233" t="s">
         <v>144</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D233" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="229" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="19"/>
-      <c r="B229" s="25"/>
-      <c r="C229" s="12" t="s">
+    <row r="234" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="19"/>
+      <c r="B234" s="25"/>
+      <c r="C234" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D229" s="12" t="s">
+      <c r="D234" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="230" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="19"/>
-      <c r="B230" s="25"/>
-    </row>
-    <row r="231" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="19"/>
-      <c r="B231" s="25"/>
-      <c r="C231" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="19"/>
-      <c r="B232" s="25"/>
-      <c r="C232" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D232" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="19"/>
-      <c r="B233" s="25"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="20"/>
-      <c r="B234" s="24"/>
-    </row>
-    <row r="235" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="18"/>
-      <c r="B235" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>163</v>
-      </c>
+    <row r="235" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="19"/>
+      <c r="B235" s="25"/>
     </row>
     <row r="236" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="19"/>
-      <c r="B236" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>387</v>
+      <c r="B236" s="25"/>
+      <c r="C236" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="237" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="19"/>
       <c r="B237" s="25"/>
-      <c r="C237" s="13"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="20"/>
-      <c r="B238" s="24" t="s">
-        <v>164</v>
-      </c>
+      <c r="C237" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D237" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="19"/>
+      <c r="B238" s="25"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="20"/>
-      <c r="B239" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="20"/>
-      <c r="B240" s="24"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="20"/>
-      <c r="B241" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C241" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="20"/>
-      <c r="B242" s="24"/>
-      <c r="C242" t="s">
-        <v>304</v>
-      </c>
-      <c r="D242" t="s">
-        <v>305</v>
-      </c>
+      <c r="B239" s="24"/>
+    </row>
+    <row r="240" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="18"/>
+      <c r="B240" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="19"/>
+      <c r="B241" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="19"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="13"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
-      <c r="B243" s="24"/>
+      <c r="B243" s="24" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="B244" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
-      <c r="B245" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="18"/>
-      <c r="B246" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>186</v>
+      <c r="B245" s="24"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="20"/>
+      <c r="B246" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C246" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="B247" s="24"/>
       <c r="C247" t="s">
-        <v>187</v>
+        <v>304</v>
+      </c>
+      <c r="D247" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="20"/>
       <c r="B248" s="24"/>
-      <c r="C248" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
-      <c r="B249" s="24"/>
-      <c r="C249" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="21"/>
-      <c r="B250" s="27"/>
-      <c r="C250" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="20"/>
-      <c r="B251" s="24"/>
+      <c r="B249" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="20"/>
+      <c r="B250" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="18"/>
+      <c r="B251" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
       <c r="B252" s="24"/>
+      <c r="C252" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="B253" s="24"/>
+      <c r="C253" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="20"/>
-      <c r="B254" s="24" t="s">
+      <c r="B254" s="24"/>
+      <c r="C254" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="21"/>
+      <c r="B255" s="27"/>
+      <c r="C255" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="20"/>
+      <c r="B256" s="24"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="20"/>
+      <c r="B257" s="24"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="20"/>
+      <c r="B258" s="24"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="20"/>
+      <c r="B259" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="255" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="18"/>
-      <c r="B255" s="26" t="s">
+    <row r="260" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="18"/>
+      <c r="B260" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C255" s="26" t="s">
+      <c r="C260" s="26" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="256" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="19"/>
-      <c r="B256" s="25"/>
-      <c r="C256" s="13" t="s">
+    <row r="261" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="19"/>
+      <c r="B261" s="25"/>
+      <c r="C261" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="257" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="19"/>
-      <c r="B257" s="25"/>
-      <c r="C257" s="13" t="s">
+    <row r="262" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="19"/>
+      <c r="B262" s="25"/>
+      <c r="C262" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="D257" s="12" t="s">
+      <c r="D262" s="12" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="258" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="19"/>
-      <c r="B258" s="25"/>
-      <c r="C258" s="13" t="s">
+    <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="19"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="D258" s="12" t="s">
+      <c r="D263" s="12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="19"/>
-      <c r="B259" s="25"/>
-      <c r="C259" s="13" t="s">
+    <row r="264" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="19"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="260" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="19"/>
-      <c r="B260" s="25"/>
-      <c r="C260" s="13"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="20"/>
-      <c r="B261" s="24"/>
-      <c r="C261" s="24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="20"/>
-      <c r="B262" s="24"/>
-      <c r="C262" t="s">
-        <v>271</v>
-      </c>
-      <c r="D262" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="20"/>
-      <c r="B263" s="24"/>
-      <c r="C263" t="s">
-        <v>273</v>
-      </c>
-      <c r="D263" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="20"/>
-      <c r="B264" s="24"/>
-      <c r="C264" t="s">
-        <v>275</v>
-      </c>
-      <c r="D264" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="20"/>
-      <c r="B265" s="24"/>
-      <c r="C265" t="s">
-        <v>277</v>
-      </c>
-      <c r="D265" t="s">
-        <v>278</v>
-      </c>
+    <row r="265" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="19"/>
+      <c r="B265" s="25"/>
+      <c r="C265" s="13"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="20"/>
       <c r="B266" s="24"/>
-      <c r="C266" t="s">
-        <v>266</v>
-      </c>
-      <c r="D266" t="s">
-        <v>267</v>
+      <c r="C266" s="24" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="20"/>
       <c r="B267" s="24"/>
       <c r="C267" t="s">
-        <v>279</v>
+        <v>271</v>
+      </c>
+      <c r="D267" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="20"/>
       <c r="B268" s="24"/>
       <c r="C268" t="s">
-        <v>280</v>
+        <v>273</v>
+      </c>
+      <c r="D268" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="20"/>
       <c r="B269" s="24"/>
       <c r="C269" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D269" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="20"/>
       <c r="B270" s="24"/>
       <c r="C270" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D270" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="20"/>
       <c r="B271" s="24"/>
+      <c r="C271" t="s">
+        <v>266</v>
+      </c>
+      <c r="D271" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="20"/>
       <c r="B272" s="24"/>
-      <c r="C272" s="24" t="s">
-        <v>26</v>
+      <c r="C272" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="20"/>
       <c r="B273" s="24"/>
       <c r="C273" t="s">
-        <v>268</v>
-      </c>
-      <c r="D273" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="21"/>
-      <c r="B274" s="27"/>
-      <c r="C274" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D274" s="9" t="s">
-        <v>270</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="20"/>
+      <c r="B274" s="24"/>
+      <c r="C274" t="s">
+        <v>281</v>
+      </c>
+      <c r="D274" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="20"/>
-      <c r="B275" s="24" t="s">
-        <v>170</v>
+      <c r="B275" s="24"/>
+      <c r="C275" t="s">
+        <v>283</v>
+      </c>
+      <c r="D275" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="20"/>
-      <c r="B276" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C276" t="s">
-        <v>172</v>
-      </c>
+      <c r="B276" s="24"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="20"/>
-      <c r="B277" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C277" t="s">
-        <v>174</v>
+      <c r="B277" s="24"/>
+      <c r="C277" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="20"/>
-      <c r="B278" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="20"/>
-      <c r="B279" s="24"/>
+      <c r="B278" s="24"/>
+      <c r="C278" t="s">
+        <v>268</v>
+      </c>
+      <c r="D278" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="21"/>
+      <c r="B279" s="27"/>
+      <c r="C279" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="20"/>
-      <c r="B280" s="24"/>
-    </row>
-    <row r="281" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="20" t="s">
-        <v>34</v>
+      <c r="B280" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="20"/>
+      <c r="B281" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C281" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="20"/>
       <c r="B282" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="C282" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="20"/>
       <c r="B283" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="20"/>
-      <c r="B284" s="24" t="s">
-        <v>388</v>
-      </c>
+      <c r="B284" s="24"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="20"/>
       <c r="B285" s="24"/>
     </row>
-    <row r="286" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="47" t="s">
+    <row r="286" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="20"/>
+      <c r="B287" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="20"/>
+      <c r="B288" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="20"/>
+      <c r="B289" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="20"/>
+      <c r="B290" s="24"/>
+    </row>
+    <row r="291" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B286" s="48"/>
-    </row>
-    <row r="287" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="31" t="s">
+      <c r="B291" s="48"/>
+    </row>
+    <row r="292" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B292" s="31" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="28"/>
-      <c r="B288" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C288" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="28"/>
-      <c r="B289" s="34"/>
-      <c r="C289" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="28"/>
-      <c r="B290" s="34"/>
-      <c r="C290" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D290" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="28"/>
-      <c r="B291" s="34"/>
-      <c r="C291" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D291" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="28"/>
-      <c r="B292" s="34"/>
-      <c r="C292" s="13" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="293" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="28"/>
-      <c r="B293" s="34"/>
-      <c r="C293" s="13" t="s">
-        <v>329</v>
+      <c r="B293" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="294" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="28"/>
       <c r="B294" s="34"/>
-      <c r="C294" s="13" t="s">
-        <v>336</v>
+      <c r="C294" s="12" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="295" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="28"/>
       <c r="B295" s="34"/>
-      <c r="C295" s="13" t="s">
-        <v>337</v>
+      <c r="C295" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D295" s="12" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="296" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="28"/>
       <c r="B296" s="34"/>
-      <c r="C296" s="13" t="s">
-        <v>338</v>
+      <c r="C296" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="297" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="28"/>
       <c r="B297" s="34"/>
       <c r="C297" s="13" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
     </row>
     <row r="298" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="28"/>
       <c r="B298" s="34"/>
       <c r="C298" s="13" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="299" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="28"/>
       <c r="B299" s="34"/>
+      <c r="C299" s="13" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="300" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="28"/>
-      <c r="B300" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C300" s="12" t="s">
-        <v>347</v>
+      <c r="B300" s="34"/>
+      <c r="C300" s="13" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="301" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="28"/>
       <c r="B301" s="34"/>
       <c r="C301" s="13" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
     </row>
     <row r="302" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="28"/>
       <c r="B302" s="34"/>
       <c r="C302" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D302" s="12" t="s">
-        <v>348</v>
+        <v>254</v>
       </c>
     </row>
     <row r="303" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="28"/>
       <c r="B303" s="34"/>
       <c r="C303" s="13" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="304" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="28"/>
       <c r="B304" s="34"/>
     </row>
-    <row r="305" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="28"/>
-      <c r="B305" s="34"/>
-    </row>
-    <row r="306" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="28"/>
       <c r="B306" s="34"/>
-    </row>
-    <row r="307" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C306" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="28"/>
-      <c r="B307" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C307" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="34"/>
+      <c r="C307" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D307" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="28"/>
       <c r="B308" s="34"/>
       <c r="C308" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="28"/>
       <c r="B309" s="34"/>
-      <c r="C309" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="28"/>
       <c r="B310" s="34"/>
     </row>
-    <row r="311" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="28"/>
       <c r="B311" s="34"/>
     </row>
-    <row r="312" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="28"/>
-      <c r="B312" s="34"/>
-    </row>
-    <row r="313" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C312" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="28"/>
-      <c r="B313" s="34" t="s">
+      <c r="B313" s="34"/>
+      <c r="C313" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="28"/>
+      <c r="B314" s="34"/>
+      <c r="C314" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="28"/>
+      <c r="B315" s="34"/>
+    </row>
+    <row r="316" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="28"/>
+      <c r="B316" s="34"/>
+    </row>
+    <row r="317" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="28"/>
+      <c r="B317" s="34"/>
+    </row>
+    <row r="318" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="28"/>
+      <c r="B318" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="C313" s="12" t="s">
+      <c r="C318" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="29"/>
-      <c r="B314" s="34"/>
-      <c r="C314" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="29"/>
-      <c r="B315" s="34"/>
-      <c r="C315" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="29"/>
-      <c r="B316" s="34"/>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="29"/>
-      <c r="B317" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="29"/>
-      <c r="B318" s="34"/>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="29"/>
       <c r="B319" s="34"/>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="29"/>
-      <c r="B320" s="29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B320" s="34"/>
+      <c r="C320" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="29"/>
       <c r="B321" s="34"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="29"/>
-      <c r="B322" s="34"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B322" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="29"/>
       <c r="B323" s="34"/>
     </row>
-    <row r="324" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="41" t="s">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="29"/>
+      <c r="B324" s="34"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="29"/>
+      <c r="B325" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="29"/>
+      <c r="B326" s="34"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="29"/>
+      <c r="B327" s="34"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="29"/>
+      <c r="B328" s="34"/>
+    </row>
+    <row r="329" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="B324" s="42"/>
-    </row>
-    <row r="325" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="37" t="s">
+      <c r="B329" s="42"/>
+    </row>
+    <row r="330" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="36"/>
-      <c r="B326" s="50" t="s">
+    <row r="331" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="36"/>
+      <c r="B331" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C326" s="50" t="s">
+      <c r="C331" s="50" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="33"/>
-      <c r="B327" s="38"/>
-      <c r="C327" t="s">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="33"/>
+      <c r="B332" s="38"/>
+      <c r="C332" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="33"/>
-      <c r="B328" s="38"/>
-      <c r="C328" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="33"/>
-      <c r="B329" s="38"/>
-      <c r="C329" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="33"/>
-      <c r="B330" s="38"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="33"/>
-      <c r="B331" s="38"/>
-    </row>
-    <row r="332" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="36"/>
-      <c r="B332" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C332" s="50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="33"/>
       <c r="B333" s="38"/>
       <c r="C333" t="s">
-        <v>253</v>
-      </c>
-      <c r="D333" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="33"/>
       <c r="B334" s="38"/>
       <c r="C334" t="s">
-        <v>254</v>
-      </c>
-      <c r="D334" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="33"/>
       <c r="B335" s="38"/>
-      <c r="C335" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="33"/>
       <c r="B336" s="38"/>
-      <c r="C336" t="s">
-        <v>367</v>
-      </c>
-      <c r="D336" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="33"/>
-      <c r="B337" s="38"/>
-    </row>
-    <row r="338" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="36"/>
-      <c r="B338" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="C338" s="50" t="s">
-        <v>237</v>
+    </row>
+    <row r="337" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="36"/>
+      <c r="B337" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C337" s="50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="33"/>
+      <c r="B338" s="38"/>
+      <c r="C338" t="s">
+        <v>253</v>
+      </c>
+      <c r="D338" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="33"/>
       <c r="B339" s="38"/>
       <c r="C339" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="D339" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="33"/>
       <c r="B340" s="38"/>
       <c r="C340" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="33"/>
       <c r="B341" s="38"/>
       <c r="C341" t="s">
-        <v>331</v>
+        <v>367</v>
+      </c>
+      <c r="D341" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -4443,458 +4470,460 @@
     <row r="343" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="36"/>
       <c r="B343" s="50" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C343" s="50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="33"/>
       <c r="B344" s="38"/>
       <c r="C344" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="33"/>
       <c r="B345" s="38"/>
       <c r="C345" t="s">
-        <v>258</v>
-      </c>
-      <c r="D345" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="33"/>
       <c r="B346" s="38"/>
       <c r="C346" t="s">
-        <v>317</v>
-      </c>
-      <c r="D346" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="33"/>
       <c r="B347" s="38"/>
-      <c r="C347" t="s">
-        <v>320</v>
-      </c>
-      <c r="D347" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="33"/>
-      <c r="B348" s="38"/>
-      <c r="C348" t="s">
-        <v>322</v>
+    </row>
+    <row r="348" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="36"/>
+      <c r="B348" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C348" s="50" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="33"/>
       <c r="B349" s="38"/>
       <c r="C349" t="s">
-        <v>323</v>
-      </c>
-      <c r="D349" t="s">
-        <v>324</v>
+        <v>257</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="33"/>
       <c r="B350" s="38"/>
       <c r="C350" t="s">
-        <v>325</v>
+        <v>258</v>
+      </c>
+      <c r="D350" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="33"/>
       <c r="B351" s="38"/>
       <c r="C351" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D351" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="33"/>
       <c r="B352" s="38"/>
       <c r="C352" t="s">
-        <v>328</v>
+        <v>320</v>
+      </c>
+      <c r="D352" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="33"/>
       <c r="B353" s="38"/>
       <c r="C353" t="s">
-        <v>329</v>
-      </c>
-      <c r="D353" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="33"/>
       <c r="B354" s="38"/>
       <c r="C354" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="D354" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="33"/>
       <c r="B355" s="38"/>
-    </row>
-    <row r="356" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="36"/>
-      <c r="B356" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C356" s="50" t="s">
-        <v>245</v>
+      <c r="C355" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="33"/>
+      <c r="B356" s="38"/>
+      <c r="C356" t="s">
+        <v>326</v>
+      </c>
+      <c r="D356" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="33"/>
       <c r="B357" s="38"/>
       <c r="C357" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="33"/>
       <c r="B358" s="38"/>
       <c r="C358" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D358" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="33"/>
       <c r="B359" s="38"/>
       <c r="C359" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="D359" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="33"/>
       <c r="B360" s="38"/>
-      <c r="C360" t="s">
-        <v>322</v>
-      </c>
-      <c r="D360" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="33"/>
-      <c r="B361" s="38"/>
-      <c r="C361" t="s">
-        <v>344</v>
+    </row>
+    <row r="361" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="36"/>
+      <c r="B361" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C361" s="50" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="33"/>
       <c r="B362" s="38"/>
       <c r="C362" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="33"/>
       <c r="B363" s="38"/>
       <c r="C363" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="D363" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="33"/>
       <c r="B364" s="38"/>
       <c r="C364" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D364" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="33"/>
       <c r="B365" s="38"/>
-    </row>
-    <row r="366" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B366" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C365" t="s">
+        <v>322</v>
+      </c>
+      <c r="D365" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="33"/>
+      <c r="B366" s="38"/>
+      <c r="C366" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="33"/>
-      <c r="B367" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="C367" s="38" t="s">
-        <v>291</v>
+      <c r="B367" s="38"/>
+      <c r="C367" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="33"/>
       <c r="B368" s="38"/>
-      <c r="C368" s="38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C368" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="33"/>
       <c r="B369" s="38"/>
       <c r="C369" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="D369" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="33"/>
       <c r="B370" s="38"/>
-      <c r="C370" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="33"/>
-      <c r="B371" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B371" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="33"/>
-      <c r="B372" s="38"/>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B372" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C372" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="33"/>
       <c r="B373" s="38"/>
-    </row>
-    <row r="374" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="39" t="s">
+      <c r="C373" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="33"/>
+      <c r="B374" s="38"/>
+      <c r="C374" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="33"/>
+      <c r="B375" s="38"/>
+      <c r="C375" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="33"/>
+      <c r="B376" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="33"/>
+      <c r="B377" s="38"/>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="33"/>
+      <c r="B378" s="38"/>
+    </row>
+    <row r="379" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B374" s="40" t="s">
+      <c r="B379" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="32"/>
-      <c r="B375" s="35" t="s">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="32"/>
+      <c r="B380" s="35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="32"/>
-      <c r="B376" s="35" t="s">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="32"/>
+      <c r="B381" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="32"/>
-      <c r="B377" s="35" t="s">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="32"/>
+      <c r="B382" s="35" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="32"/>
-      <c r="B378" s="35" t="s">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="32"/>
+      <c r="B383" s="35" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="32"/>
-      <c r="B379" s="35" t="s">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="32"/>
+      <c r="B384" s="35" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="32"/>
-      <c r="B380" s="35"/>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="32"/>
-      <c r="B381" s="35"/>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="32"/>
-      <c r="B382" s="35"/>
-    </row>
-    <row r="383" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="6" t="s">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="32"/>
+      <c r="B385" s="35"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="32"/>
+      <c r="B386" s="35"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="32"/>
+      <c r="B387" s="35"/>
+    </row>
+    <row r="388" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C383" s="54"/>
-    </row>
-    <row r="384" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B384" s="56" t="s">
+      <c r="C388" s="54"/>
+    </row>
+    <row r="389" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B389" s="56" t="s">
         <v>391</v>
       </c>
-      <c r="C384" s="58" t="s">
+      <c r="C389" s="58" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="4"/>
-      <c r="B385" s="57"/>
-      <c r="C385" s="57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="4"/>
-      <c r="B386" s="57"/>
-      <c r="C386" s="55" t="s">
-        <v>424</v>
-      </c>
-      <c r="D386" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="4"/>
-      <c r="B387" s="57"/>
-      <c r="C387" s="55" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="4"/>
-      <c r="B388" s="57"/>
-      <c r="C388" s="55" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="4"/>
-      <c r="B389" s="57"/>
-      <c r="C389" s="55" t="s">
-        <v>427</v>
-      </c>
-      <c r="D389" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="4"/>
       <c r="B390" s="57"/>
-      <c r="C390" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="D390" t="s">
-        <v>430</v>
+      <c r="C390" s="57" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="4"/>
       <c r="B391" s="57"/>
       <c r="C391" s="55" t="s">
-        <v>436</v>
+        <v>424</v>
+      </c>
+      <c r="D391" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="4"/>
       <c r="B392" s="57"/>
       <c r="C392" s="55" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="4"/>
       <c r="B393" s="57"/>
       <c r="C393" s="55" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="4"/>
       <c r="B394" s="57"/>
       <c r="C394" s="55" t="s">
-        <v>434</v>
+        <v>427</v>
+      </c>
+      <c r="D394" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="4"/>
       <c r="B395" s="57"/>
       <c r="C395" s="55" t="s">
-        <v>432</v>
+        <v>420</v>
+      </c>
+      <c r="D395" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="4"/>
       <c r="B396" s="57"/>
       <c r="C396" s="55" t="s">
-        <v>433</v>
+        <v>448</v>
+      </c>
+      <c r="D396" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="4"/>
       <c r="B397" s="57"/>
       <c r="C397" s="55" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="4"/>
       <c r="B398" s="57"/>
       <c r="C398" s="55" t="s">
-        <v>421</v>
-      </c>
-      <c r="D398" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="4"/>
       <c r="B399" s="57"/>
-      <c r="C399" s="55"/>
+      <c r="C399" s="55" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="4"/>
-      <c r="B400" s="57" t="s">
-        <v>439</v>
-      </c>
+      <c r="B400" s="57"/>
       <c r="C400" s="55" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="4"/>
       <c r="B401" s="57"/>
       <c r="C401" s="55" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="B402" s="57"/>
       <c r="C402" s="55" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="4"/>
       <c r="B403" s="57"/>
       <c r="C403" s="55" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="4"/>
       <c r="B404" s="57"/>
       <c r="C404" s="55" t="s">
-        <v>444</v>
+        <v>421</v>
+      </c>
+      <c r="D404" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -4905,49 +4934,114 @@
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="4"/>
       <c r="B406" s="57" t="s">
-        <v>437</v>
-      </c>
-      <c r="C406" s="55"/>
+        <v>439</v>
+      </c>
+      <c r="C406" s="55" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="4"/>
-      <c r="B407" s="57" t="s">
-        <v>438</v>
-      </c>
+      <c r="B407" s="57"/>
       <c r="C407" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="4"/>
       <c r="B408" s="57"/>
       <c r="C408" s="55" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="4"/>
       <c r="B409" s="57"/>
+      <c r="C409" s="55" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="4"/>
       <c r="B410" s="57"/>
+      <c r="C410" s="55" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="4"/>
       <c r="B411" s="57"/>
+      <c r="C411" s="55"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="4"/>
+      <c r="B412" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="C412" s="55"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="4"/>
+      <c r="B413" s="57" t="s">
+        <v>438</v>
+      </c>
+      <c r="C413" s="55" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
+      <c r="A414" s="4"/>
+      <c r="B414" s="57"/>
+      <c r="C414" s="55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="4"/>
+      <c r="B415" s="57"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="4"/>
+      <c r="B416" s="57"/>
+    </row>
+    <row r="417" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="15" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="16"/>
+      <c r="B418" s="14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="16"/>
+      <c r="B419" s="17"/>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="16"/>
+      <c r="B420" s="17"/>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="16"/>
+      <c r="B421" s="17"/>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="16"/>
+      <c r="B422" s="17"/>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
         <v>363</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B425" t="s">
         <v>364</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C425" t="s">
         <v>365</v>
       </c>
-      <c r="D414" t="s">
+      <c r="D425" t="s">
         <v>366</v>
       </c>
     </row>

--- a/PPT/Resumen/Clases.xlsx
+++ b/PPT/Resumen/Clases.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Programacion_Laboratorio2\PPT\Resumen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cami\Estudios\Facultad\Programación\02 Programacion_Laboratorio_2 - C#\git\Programacion_Laboratorio2\PPT\Resumen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1400,7 +1400,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1910,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I425"/>
+  <dimension ref="A1:I427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4982,46 +4982,48 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
-      <c r="B413" s="57" t="s">
-        <v>438</v>
-      </c>
-      <c r="C413" s="55" t="s">
-        <v>445</v>
-      </c>
+      <c r="B413" s="57"/>
+      <c r="C413" s="55"/>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="57"/>
-      <c r="C414" s="55" t="s">
-        <v>446</v>
-      </c>
+      <c r="C414" s="55"/>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
-      <c r="B415" s="57"/>
+      <c r="B415" s="57" t="s">
+        <v>438</v>
+      </c>
+      <c r="C415" s="55" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="57"/>
-    </row>
-    <row r="417" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="15" t="s">
+      <c r="C416" s="55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="4"/>
+      <c r="B417" s="57"/>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="4"/>
+      <c r="B418" s="57"/>
+    </row>
+    <row r="419" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="15" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="16"/>
-      <c r="B418" s="14" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="16"/>
-      <c r="B419" s="17"/>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="16"/>
-      <c r="B420" s="17"/>
+      <c r="B420" s="14" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="16"/>
@@ -5031,17 +5033,25 @@
       <c r="A422" s="16"/>
       <c r="B422" s="17"/>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="16"/>
+      <c r="B423" s="17"/>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="16"/>
+      <c r="B424" s="17"/>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
         <v>363</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B427" t="s">
         <v>364</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C427" t="s">
         <v>365</v>
       </c>
-      <c r="D425" t="s">
+      <c r="D427" t="s">
         <v>366</v>
       </c>
     </row>

--- a/PPT/Resumen/Clases.xlsx
+++ b/PPT/Resumen/Clases.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cami\Estudios\Facultad\Programación\02 Programacion_Laboratorio_2 - C#\git\Programacion_Laboratorio2\PPT\Resumen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Programacion_Laboratorio2\PPT\Resumen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="5850" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="466">
   <si>
     <t>System</t>
   </si>
@@ -1395,12 +1395,39 @@
   </si>
   <si>
     <t>Environment.GetFolderPath(Environment.SpecialFolder.A)</t>
+  </si>
+  <si>
+    <t>MenuStrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ToolStripDropDownItem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ToolStripMenuItem </t>
+  </si>
+  <si>
+    <t>derived from ToolStripItem.</t>
+  </si>
+  <si>
+    <t>ToolStripTextBox</t>
+  </si>
+  <si>
+    <t>ToolStripComboBox</t>
+  </si>
+  <si>
+    <t>The MenuStrip control represents the container for the menu structure of a form. You can add ToolStripMenuItem objects to the MenuStrip that represent the individual menu commands in the menu structure. Each ToolStripMenuItem can be a command for your application or a parent menu for other submenu items.</t>
+  </si>
+  <si>
+    <t>OpenFileDialog</t>
+  </si>
+  <si>
+    <t>Permite seleccionar y abrir un archivo. Instancio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1424,7 +1451,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1539,6 +1566,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1570,7 +1603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1630,6 +1663,9 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1910,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I427"/>
+  <dimension ref="A1:I450"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H231" sqref="H231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3617,1441 +3653,1521 @@
         <v>161</v>
       </c>
     </row>
-    <row r="223" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="18"/>
-      <c r="B223" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C223" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="20"/>
-      <c r="B224" s="24"/>
-      <c r="C224" t="s">
-        <v>126</v>
-      </c>
-      <c r="D224" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="20"/>
-      <c r="B225" s="24"/>
-      <c r="C225" t="s">
-        <v>128</v>
-      </c>
-      <c r="D225" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="20"/>
-      <c r="B226" s="24"/>
-      <c r="C226" t="s">
-        <v>130</v>
-      </c>
-      <c r="D226" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="20"/>
-      <c r="B227" s="24"/>
-      <c r="C227" t="s">
-        <v>132</v>
-      </c>
-      <c r="D227" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="20"/>
-      <c r="B228" s="24"/>
-      <c r="C228" t="s">
-        <v>134</v>
-      </c>
-      <c r="D228" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="20"/>
-      <c r="B229" s="24"/>
-      <c r="C229" t="s">
-        <v>136</v>
-      </c>
-      <c r="D229" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
-      <c r="B230" s="24"/>
-      <c r="C230" t="s">
-        <v>138</v>
-      </c>
-      <c r="D230" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="20"/>
-      <c r="B231" s="24"/>
-      <c r="C231" t="s">
-        <v>140</v>
-      </c>
-      <c r="D231" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
-      <c r="B232" s="24"/>
-      <c r="C232" t="s">
-        <v>142</v>
-      </c>
-      <c r="D232" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
-      <c r="B233" s="24"/>
-      <c r="C233" t="s">
-        <v>144</v>
-      </c>
-      <c r="D233" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="19"/>
-      <c r="B234" s="25"/>
-      <c r="C234" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D234" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="19"/>
-      <c r="B235" s="25"/>
-    </row>
-    <row r="236" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="19"/>
-      <c r="B236" s="25"/>
-      <c r="C236" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="19"/>
-      <c r="B237" s="25"/>
-      <c r="C237" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D237" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="19"/>
-      <c r="B238" s="25"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="20"/>
-      <c r="B239" s="24"/>
-    </row>
-    <row r="240" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="18"/>
-      <c r="B240" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="19"/>
-      <c r="B241" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="C241" s="13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="19"/>
-      <c r="B242" s="25"/>
-      <c r="C242" s="13"/>
+    <row r="223" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="60" t="s">
+        <v>457</v>
+      </c>
+      <c r="C223" s="60" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="61" t="s">
+        <v>458</v>
+      </c>
+      <c r="D229" s="61" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="61" t="s">
+        <v>459</v>
+      </c>
+      <c r="D232" s="61" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="61" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="61" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="C239" s="61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="D240" s="59" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="59" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
-      <c r="B243" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="20"/>
-      <c r="B244" s="24" t="s">
-        <v>165</v>
+      <c r="B243" s="24"/>
+    </row>
+    <row r="244" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="18"/>
+      <c r="B244" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C244" s="26" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
       <c r="B245" s="24"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>126</v>
+      </c>
+      <c r="D245" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
-      <c r="B246" s="24" t="s">
-        <v>166</v>
-      </c>
+      <c r="B246" s="24"/>
       <c r="C246" t="s">
-        <v>179</v>
+        <v>128</v>
+      </c>
+      <c r="D246" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="B247" s="24"/>
       <c r="C247" t="s">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="D247" t="s">
-        <v>305</v>
+        <v>131</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="20"/>
       <c r="B248" s="24"/>
+      <c r="C248" t="s">
+        <v>132</v>
+      </c>
+      <c r="D248" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
-      <c r="B249" s="24" t="s">
-        <v>167</v>
+      <c r="B249" s="24"/>
+      <c r="C249" t="s">
+        <v>134</v>
+      </c>
+      <c r="D249" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="20"/>
-      <c r="B250" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="18"/>
-      <c r="B251" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>186</v>
+      <c r="B250" s="24"/>
+      <c r="C250" t="s">
+        <v>136</v>
+      </c>
+      <c r="D250" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="20"/>
+      <c r="B251" s="24"/>
+      <c r="C251" t="s">
+        <v>138</v>
+      </c>
+      <c r="D251" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
       <c r="B252" s="24"/>
       <c r="C252" t="s">
-        <v>187</v>
+        <v>140</v>
+      </c>
+      <c r="D252" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="B253" s="24"/>
       <c r="C253" t="s">
-        <v>188</v>
+        <v>142</v>
+      </c>
+      <c r="D253" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="20"/>
       <c r="B254" s="24"/>
       <c r="C254" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="21"/>
-      <c r="B255" s="27"/>
-      <c r="C255" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="20"/>
-      <c r="B256" s="24"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="20"/>
-      <c r="B257" s="24"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="20"/>
-      <c r="B258" s="24"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="20"/>
-      <c r="B259" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="18"/>
-      <c r="B260" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C260" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="19"/>
-      <c r="B261" s="25"/>
-      <c r="C261" s="13" t="s">
         <v>144</v>
+      </c>
+      <c r="D254" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="19"/>
+      <c r="B255" s="25"/>
+      <c r="C255" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D255" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="19"/>
+      <c r="B256" s="25"/>
+    </row>
+    <row r="257" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="19"/>
+      <c r="B257" s="25"/>
+      <c r="C257" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="19"/>
+      <c r="B258" s="25"/>
+      <c r="C258" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D258" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="19"/>
+      <c r="B259" s="25"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="20"/>
+      <c r="B260" s="24"/>
+    </row>
+    <row r="261" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="18"/>
+      <c r="B261" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="262" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="19"/>
-      <c r="B262" s="25"/>
+      <c r="B262" s="25" t="s">
+        <v>386</v>
+      </c>
       <c r="C262" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D262" s="12" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
     </row>
     <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="19"/>
       <c r="B263" s="25"/>
-      <c r="C263" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D263" s="12" t="s">
-        <v>315</v>
-      </c>
+      <c r="C263" s="13"/>
     </row>
     <row r="264" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="19"/>
       <c r="B264" s="25"/>
-      <c r="C264" s="13" t="s">
-        <v>378</v>
-      </c>
+      <c r="C264" s="13"/>
     </row>
     <row r="265" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="19"/>
       <c r="B265" s="25"/>
       <c r="C265" s="13"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="20"/>
-      <c r="B266" s="24"/>
-      <c r="C266" s="24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="20"/>
-      <c r="B267" s="24"/>
-      <c r="C267" t="s">
-        <v>271</v>
-      </c>
-      <c r="D267" t="s">
-        <v>272</v>
-      </c>
+    <row r="266" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="19"/>
+      <c r="B266" s="25"/>
+      <c r="C266" s="13"/>
+    </row>
+    <row r="267" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="19"/>
+      <c r="B267" s="25"/>
+      <c r="C267" s="13"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="20"/>
-      <c r="B268" s="24"/>
-      <c r="C268" t="s">
-        <v>273</v>
-      </c>
-      <c r="D268" t="s">
-        <v>274</v>
+      <c r="B268" s="24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="20"/>
-      <c r="B269" s="24"/>
-      <c r="C269" t="s">
-        <v>275</v>
-      </c>
-      <c r="D269" t="s">
-        <v>276</v>
+      <c r="B269" s="24" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="20"/>
       <c r="B270" s="24"/>
-      <c r="C270" t="s">
-        <v>277</v>
-      </c>
-      <c r="D270" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="20"/>
-      <c r="B271" s="24"/>
+      <c r="B271" s="24" t="s">
+        <v>166</v>
+      </c>
       <c r="C271" t="s">
-        <v>266</v>
-      </c>
-      <c r="D271" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="20"/>
       <c r="B272" s="24"/>
       <c r="C272" t="s">
-        <v>279</v>
+        <v>304</v>
+      </c>
+      <c r="D272" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="20"/>
       <c r="B273" s="24"/>
-      <c r="C273" t="s">
-        <v>280</v>
-      </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
-      <c r="B274" s="24"/>
-      <c r="C274" t="s">
-        <v>281</v>
-      </c>
-      <c r="D274" t="s">
-        <v>282</v>
+      <c r="B274" s="24" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="20"/>
-      <c r="B275" s="24"/>
-      <c r="C275" t="s">
-        <v>283</v>
-      </c>
-      <c r="D275" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="20"/>
-      <c r="B276" s="24"/>
+      <c r="B275" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="18"/>
+      <c r="B276" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="20"/>
       <c r="B277" s="24"/>
-      <c r="C277" s="24" t="s">
-        <v>26</v>
+      <c r="C277" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="20"/>
       <c r="B278" s="24"/>
       <c r="C278" t="s">
-        <v>268</v>
-      </c>
-      <c r="D278" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="21"/>
-      <c r="B279" s="27"/>
-      <c r="C279" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D279" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="20"/>
-      <c r="B280" s="24" t="s">
-        <v>170</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="20"/>
+      <c r="B279" s="24"/>
+      <c r="C279" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="21"/>
+      <c r="B280" s="27"/>
+      <c r="C280" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="20"/>
-      <c r="B281" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C281" t="s">
-        <v>172</v>
-      </c>
+      <c r="B281" s="24"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="20"/>
-      <c r="B282" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C282" t="s">
-        <v>174</v>
-      </c>
+      <c r="B282" s="24"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="20"/>
-      <c r="B283" s="24" t="s">
-        <v>175</v>
-      </c>
+      <c r="B283" s="24"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="20"/>
-      <c r="B284" s="24"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="20"/>
-      <c r="B285" s="24"/>
-    </row>
-    <row r="286" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="20" t="s">
+      <c r="B284" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="18"/>
+      <c r="B285" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C285" s="26" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="19"/>
+      <c r="B286" s="25"/>
+      <c r="C286" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="19"/>
+      <c r="B287" s="25"/>
+      <c r="C287" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="19"/>
+      <c r="B288" s="25"/>
+      <c r="C288" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D288" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="19"/>
+      <c r="B289" s="25"/>
+      <c r="C289" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="19"/>
+      <c r="B290" s="25"/>
+      <c r="C290" s="13"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="20"/>
+      <c r="B291" s="24"/>
+      <c r="C291" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="20"/>
+      <c r="B292" s="24"/>
+      <c r="C292" t="s">
+        <v>271</v>
+      </c>
+      <c r="D292" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="20"/>
+      <c r="B293" s="24"/>
+      <c r="C293" t="s">
+        <v>273</v>
+      </c>
+      <c r="D293" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="20"/>
+      <c r="B294" s="24"/>
+      <c r="C294" t="s">
+        <v>275</v>
+      </c>
+      <c r="D294" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="20"/>
+      <c r="B295" s="24"/>
+      <c r="C295" t="s">
+        <v>277</v>
+      </c>
+      <c r="D295" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="20"/>
+      <c r="B296" s="24"/>
+      <c r="C296" t="s">
+        <v>266</v>
+      </c>
+      <c r="D296" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="20"/>
+      <c r="B297" s="24"/>
+      <c r="C297" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="20"/>
+      <c r="B298" s="24"/>
+      <c r="C298" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="20"/>
+      <c r="B299" s="24"/>
+      <c r="C299" t="s">
+        <v>281</v>
+      </c>
+      <c r="D299" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="20"/>
+      <c r="B300" s="24"/>
+      <c r="C300" t="s">
+        <v>283</v>
+      </c>
+      <c r="D300" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="20"/>
+      <c r="B301" s="24"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="20"/>
+      <c r="B302" s="24"/>
+      <c r="C302" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="20"/>
+      <c r="B303" s="24"/>
+      <c r="C303" t="s">
+        <v>268</v>
+      </c>
+      <c r="D303" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="21"/>
+      <c r="B304" s="27"/>
+      <c r="C304" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="20"/>
+      <c r="B305" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C305" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="20"/>
+      <c r="B306" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="20"/>
+      <c r="B307" s="24"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="20"/>
+      <c r="B308" s="24"/>
+    </row>
+    <row r="309" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="20"/>
-      <c r="B287" s="24" t="s">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="20"/>
+      <c r="B310" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="20"/>
-      <c r="B288" s="24" t="s">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="20"/>
+      <c r="B311" s="24" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="20"/>
-      <c r="B289" s="24" t="s">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="20"/>
+      <c r="B312" s="24" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="20"/>
-      <c r="B290" s="24"/>
-    </row>
-    <row r="291" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="47" t="s">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="20"/>
+      <c r="B313" s="24"/>
+    </row>
+    <row r="314" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B291" s="48"/>
-    </row>
-    <row r="292" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="31" t="s">
+      <c r="B314" s="48"/>
+    </row>
+    <row r="315" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="28"/>
-      <c r="B293" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C293" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="28"/>
-      <c r="B294" s="34"/>
-      <c r="C294" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="28"/>
-      <c r="B295" s="34"/>
-      <c r="C295" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D295" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="28"/>
-      <c r="B296" s="34"/>
-      <c r="C296" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D296" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="28"/>
-      <c r="B297" s="34"/>
-      <c r="C297" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="28"/>
-      <c r="B298" s="34"/>
-      <c r="C298" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="28"/>
-      <c r="B299" s="34"/>
-      <c r="C299" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="28"/>
-      <c r="B300" s="34"/>
-      <c r="C300" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="28"/>
-      <c r="B301" s="34"/>
-      <c r="C301" s="13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="28"/>
-      <c r="B302" s="34"/>
-      <c r="C302" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="28"/>
-      <c r="B303" s="34"/>
-      <c r="C303" s="13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="28"/>
-      <c r="B304" s="34"/>
-    </row>
-    <row r="305" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="28"/>
-      <c r="B305" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C305" s="12" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="28"/>
-      <c r="B306" s="34"/>
-      <c r="C306" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="28"/>
-      <c r="B307" s="34"/>
-      <c r="C307" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D307" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="28"/>
-      <c r="B308" s="34"/>
-      <c r="C308" s="13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="28"/>
-      <c r="B309" s="34"/>
-    </row>
-    <row r="310" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="28"/>
-      <c r="B310" s="34"/>
-    </row>
-    <row r="311" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="28"/>
-      <c r="B311" s="34"/>
-    </row>
-    <row r="312" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="28"/>
-      <c r="B312" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C312" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="28"/>
-      <c r="B313" s="34"/>
-      <c r="C313" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="28"/>
-      <c r="B314" s="34"/>
-      <c r="C314" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="28"/>
-      <c r="B315" s="34"/>
     </row>
     <row r="316" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="28"/>
-      <c r="B316" s="34"/>
+      <c r="B316" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="317" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="28"/>
       <c r="B317" s="34"/>
+      <c r="C317" s="12" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="318" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="28"/>
-      <c r="B318" s="34" t="s">
+      <c r="B318" s="34"/>
+      <c r="C318" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D318" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="28"/>
+      <c r="B319" s="34"/>
+      <c r="C319" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D319" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="28"/>
+      <c r="B320" s="34"/>
+      <c r="C320" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="28"/>
+      <c r="B321" s="34"/>
+      <c r="C321" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="28"/>
+      <c r="B322" s="34"/>
+      <c r="C322" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="28"/>
+      <c r="B323" s="34"/>
+      <c r="C323" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="28"/>
+      <c r="B324" s="34"/>
+      <c r="C324" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="28"/>
+      <c r="B325" s="34"/>
+      <c r="C325" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="28"/>
+      <c r="B326" s="34"/>
+      <c r="C326" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="28"/>
+      <c r="B327" s="34"/>
+    </row>
+    <row r="328" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="28"/>
+      <c r="B328" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="28"/>
+      <c r="B329" s="34"/>
+      <c r="C329" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="28"/>
+      <c r="B330" s="34"/>
+      <c r="C330" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D330" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="28"/>
+      <c r="B331" s="34"/>
+      <c r="C331" s="13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="28"/>
+      <c r="B332" s="34"/>
+    </row>
+    <row r="333" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="28"/>
+      <c r="B333" s="34"/>
+    </row>
+    <row r="334" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="28"/>
+      <c r="B334" s="34"/>
+    </row>
+    <row r="335" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="28"/>
+      <c r="B335" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C335" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="28"/>
+      <c r="B336" s="34"/>
+      <c r="C336" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="28"/>
+      <c r="B337" s="34"/>
+      <c r="C337" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="28"/>
+      <c r="B338" s="34"/>
+    </row>
+    <row r="339" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="28"/>
+      <c r="B339" s="34"/>
+    </row>
+    <row r="340" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="28"/>
+      <c r="B340" s="34"/>
+    </row>
+    <row r="341" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="28"/>
+      <c r="B341" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="C318" s="12" t="s">
+      <c r="C341" s="12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="29"/>
-      <c r="B319" s="34"/>
-      <c r="C319" t="s">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="29"/>
+      <c r="B342" s="34"/>
+      <c r="C342" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="29"/>
-      <c r="B320" s="34"/>
-      <c r="C320" t="s">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="29"/>
+      <c r="B343" s="34"/>
+      <c r="C343" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="29"/>
-      <c r="B321" s="34"/>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="29"/>
-      <c r="B322" s="29" t="s">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="29"/>
+      <c r="B344" s="34"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="29"/>
+      <c r="B345" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="29"/>
-      <c r="B323" s="34"/>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="29"/>
-      <c r="B324" s="34"/>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="29"/>
-      <c r="B325" s="29" t="s">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="29"/>
+      <c r="B346" s="34"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="29"/>
+      <c r="B347" s="34"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="29"/>
+      <c r="B348" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="29"/>
-      <c r="B326" s="34"/>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="29"/>
-      <c r="B327" s="34"/>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="29"/>
-      <c r="B328" s="34"/>
-    </row>
-    <row r="329" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="41" t="s">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="29"/>
+      <c r="B349" s="34"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="29"/>
+      <c r="B350" s="34"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="29"/>
+      <c r="B351" s="34"/>
+    </row>
+    <row r="352" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="B329" s="42"/>
-    </row>
-    <row r="330" spans="1:3" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="37" t="s">
+      <c r="B352" s="42"/>
+    </row>
+    <row r="353" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B353" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:3" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="36"/>
-      <c r="B331" s="50" t="s">
+    <row r="354" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="36"/>
+      <c r="B354" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C331" s="50" t="s">
+      <c r="C354" s="50" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="33"/>
-      <c r="B332" s="38"/>
-      <c r="C332" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="33"/>
-      <c r="B333" s="38"/>
-      <c r="C333" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="33"/>
-      <c r="B334" s="38"/>
-      <c r="C334" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="33"/>
-      <c r="B335" s="38"/>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="33"/>
-      <c r="B336" s="38"/>
-    </row>
-    <row r="337" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="36"/>
-      <c r="B337" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C337" s="50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="33"/>
-      <c r="B338" s="38"/>
-      <c r="C338" t="s">
-        <v>253</v>
-      </c>
-      <c r="D338" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="33"/>
-      <c r="B339" s="38"/>
-      <c r="C339" t="s">
-        <v>254</v>
-      </c>
-      <c r="D339" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="33"/>
-      <c r="B340" s="38"/>
-      <c r="C340" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="33"/>
-      <c r="B341" s="38"/>
-      <c r="C341" t="s">
-        <v>367</v>
-      </c>
-      <c r="D341" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="33"/>
-      <c r="B342" s="38"/>
-    </row>
-    <row r="343" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="36"/>
-      <c r="B343" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="C343" s="50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="33"/>
-      <c r="B344" s="38"/>
-      <c r="C344" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="33"/>
-      <c r="B345" s="38"/>
-      <c r="C345" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="33"/>
-      <c r="B346" s="38"/>
-      <c r="C346" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="33"/>
-      <c r="B347" s="38"/>
-    </row>
-    <row r="348" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="36"/>
-      <c r="B348" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C348" s="50" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="33"/>
-      <c r="B349" s="38"/>
-      <c r="C349" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="33"/>
-      <c r="B350" s="38"/>
-      <c r="C350" t="s">
-        <v>258</v>
-      </c>
-      <c r="D350" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="33"/>
-      <c r="B351" s="38"/>
-      <c r="C351" t="s">
-        <v>317</v>
-      </c>
-      <c r="D351" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="33"/>
-      <c r="B352" s="38"/>
-      <c r="C352" t="s">
-        <v>320</v>
-      </c>
-      <c r="D352" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="33"/>
-      <c r="B353" s="38"/>
-      <c r="C353" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="33"/>
-      <c r="B354" s="38"/>
-      <c r="C354" t="s">
-        <v>323</v>
-      </c>
-      <c r="D354" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="33"/>
       <c r="B355" s="38"/>
       <c r="C355" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="33"/>
       <c r="B356" s="38"/>
       <c r="C356" t="s">
-        <v>326</v>
-      </c>
-      <c r="D356" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="33"/>
       <c r="B357" s="38"/>
       <c r="C357" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="33"/>
       <c r="B358" s="38"/>
-      <c r="C358" t="s">
-        <v>329</v>
-      </c>
-      <c r="D358" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="33"/>
       <c r="B359" s="38"/>
-      <c r="C359" t="s">
-        <v>369</v>
-      </c>
-      <c r="D359" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" s="33"/>
-      <c r="B360" s="38"/>
-    </row>
-    <row r="361" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="36"/>
-      <c r="B361" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C361" s="50" t="s">
-        <v>245</v>
+    </row>
+    <row r="360" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="36"/>
+      <c r="B360" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C360" s="50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="33"/>
+      <c r="B361" s="38"/>
+      <c r="C361" t="s">
+        <v>253</v>
+      </c>
+      <c r="D361" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="33"/>
       <c r="B362" s="38"/>
       <c r="C362" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="D362" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="33"/>
       <c r="B363" s="38"/>
       <c r="C363" t="s">
-        <v>340</v>
-      </c>
-      <c r="D363" t="s">
-        <v>341</v>
+        <v>252</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="33"/>
       <c r="B364" s="38"/>
       <c r="C364" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="D364" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="33"/>
       <c r="B365" s="38"/>
-      <c r="C365" t="s">
-        <v>322</v>
-      </c>
-      <c r="D365" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="33"/>
-      <c r="B366" s="38"/>
-      <c r="C366" t="s">
-        <v>344</v>
+    </row>
+    <row r="366" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="36"/>
+      <c r="B366" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C366" s="50" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="33"/>
       <c r="B367" s="38"/>
       <c r="C367" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="33"/>
       <c r="B368" s="38"/>
       <c r="C368" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="33"/>
       <c r="B369" s="38"/>
       <c r="C369" t="s">
-        <v>345</v>
-      </c>
-      <c r="D369" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="33"/>
       <c r="B370" s="38"/>
     </row>
-    <row r="371" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="36"/>
+      <c r="B371" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C371" s="50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="33"/>
-      <c r="B372" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="C372" s="38" t="s">
-        <v>291</v>
+      <c r="B372" s="38"/>
+      <c r="C372" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="33"/>
       <c r="B373" s="38"/>
-      <c r="C373" s="38" t="s">
-        <v>21</v>
+      <c r="C373" t="s">
+        <v>258</v>
+      </c>
+      <c r="D373" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="33"/>
       <c r="B374" s="38"/>
       <c r="C374" t="s">
-        <v>292</v>
+        <v>317</v>
+      </c>
+      <c r="D374" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="33"/>
       <c r="B375" s="38"/>
       <c r="C375" t="s">
-        <v>293</v>
+        <v>320</v>
+      </c>
+      <c r="D375" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="33"/>
-      <c r="B376" s="33" t="s">
-        <v>34</v>
+      <c r="B376" s="38"/>
+      <c r="C376" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="33"/>
       <c r="B377" s="38"/>
+      <c r="C377" t="s">
+        <v>323</v>
+      </c>
+      <c r="D377" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="33"/>
       <c r="B378" s="38"/>
-    </row>
-    <row r="379" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="39" t="s">
+      <c r="C378" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="33"/>
+      <c r="B379" s="38"/>
+      <c r="C379" t="s">
+        <v>326</v>
+      </c>
+      <c r="D379" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="33"/>
+      <c r="B380" s="38"/>
+      <c r="C380" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="33"/>
+      <c r="B381" s="38"/>
+      <c r="C381" t="s">
+        <v>329</v>
+      </c>
+      <c r="D381" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="33"/>
+      <c r="B382" s="38"/>
+      <c r="C382" t="s">
+        <v>369</v>
+      </c>
+      <c r="D382" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="33"/>
+      <c r="B383" s="38"/>
+    </row>
+    <row r="384" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="36"/>
+      <c r="B384" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C384" s="50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="33"/>
+      <c r="B385" s="38"/>
+      <c r="C385" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="33"/>
+      <c r="B386" s="38"/>
+      <c r="C386" t="s">
+        <v>340</v>
+      </c>
+      <c r="D386" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="33"/>
+      <c r="B387" s="38"/>
+      <c r="C387" t="s">
+        <v>342</v>
+      </c>
+      <c r="D387" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="33"/>
+      <c r="B388" s="38"/>
+      <c r="C388" t="s">
+        <v>322</v>
+      </c>
+      <c r="D388" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="33"/>
+      <c r="B389" s="38"/>
+      <c r="C389" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="33"/>
+      <c r="B390" s="38"/>
+      <c r="C390" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="33"/>
+      <c r="B391" s="38"/>
+      <c r="C391" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="33"/>
+      <c r="B392" s="38"/>
+      <c r="C392" t="s">
+        <v>345</v>
+      </c>
+      <c r="D392" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="33"/>
+      <c r="B393" s="38"/>
+    </row>
+    <row r="394" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B394" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="33"/>
+      <c r="B395" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C395" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="33"/>
+      <c r="B396" s="38"/>
+      <c r="C396" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="33"/>
+      <c r="B397" s="38"/>
+      <c r="C397" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="33"/>
+      <c r="B398" s="38"/>
+      <c r="C398" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="33"/>
+      <c r="B399" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="33"/>
+      <c r="B400" s="38"/>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="33"/>
+      <c r="B401" s="38"/>
+    </row>
+    <row r="402" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B379" s="40" t="s">
+      <c r="B402" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="32"/>
-      <c r="B380" s="35" t="s">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="32"/>
+      <c r="B403" s="35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="32"/>
-      <c r="B381" s="35" t="s">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="32"/>
+      <c r="B404" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="32"/>
-      <c r="B382" s="35" t="s">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="32"/>
+      <c r="B405" s="35" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="32"/>
-      <c r="B383" s="35" t="s">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="32"/>
+      <c r="B406" s="35" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="32"/>
-      <c r="B384" s="35" t="s">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="32"/>
+      <c r="B407" s="35" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="32"/>
-      <c r="B385" s="35"/>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="32"/>
-      <c r="B386" s="35"/>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="32"/>
-      <c r="B387" s="35"/>
-    </row>
-    <row r="388" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="6" t="s">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="32"/>
+      <c r="B408" s="35"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="32"/>
+      <c r="B409" s="35"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="32"/>
+      <c r="B410" s="35"/>
+    </row>
+    <row r="411" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C388" s="54"/>
-    </row>
-    <row r="389" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B389" s="56" t="s">
+      <c r="C411" s="54"/>
+    </row>
+    <row r="412" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B412" s="56" t="s">
         <v>391</v>
       </c>
-      <c r="C389" s="58" t="s">
+      <c r="C412" s="58" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="4"/>
-      <c r="B390" s="57"/>
-      <c r="C390" s="57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="4"/>
-      <c r="B391" s="57"/>
-      <c r="C391" s="55" t="s">
-        <v>424</v>
-      </c>
-      <c r="D391" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="4"/>
-      <c r="B392" s="57"/>
-      <c r="C392" s="55" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="4"/>
-      <c r="B393" s="57"/>
-      <c r="C393" s="55" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="4"/>
-      <c r="B394" s="57"/>
-      <c r="C394" s="55" t="s">
-        <v>427</v>
-      </c>
-      <c r="D394" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="4"/>
-      <c r="B395" s="57"/>
-      <c r="C395" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="D395" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="4"/>
-      <c r="B396" s="57"/>
-      <c r="C396" s="55" t="s">
-        <v>448</v>
-      </c>
-      <c r="D396" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="4"/>
-      <c r="B397" s="57"/>
-      <c r="C397" s="55" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="4"/>
-      <c r="B398" s="57"/>
-      <c r="C398" s="55" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="4"/>
-      <c r="B399" s="57"/>
-      <c r="C399" s="55" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="4"/>
-      <c r="B400" s="57"/>
-      <c r="C400" s="55" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="4"/>
-      <c r="B401" s="57"/>
-      <c r="C401" s="55" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="4"/>
-      <c r="B402" s="57"/>
-      <c r="C402" s="55" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="4"/>
-      <c r="B403" s="57"/>
-      <c r="C403" s="55" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="4"/>
-      <c r="B404" s="57"/>
-      <c r="C404" s="55" t="s">
-        <v>421</v>
-      </c>
-      <c r="D404" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="4"/>
-      <c r="B405" s="57"/>
-      <c r="C405" s="55"/>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="4"/>
-      <c r="B406" s="57" t="s">
-        <v>439</v>
-      </c>
-      <c r="C406" s="55" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="4"/>
-      <c r="B407" s="57"/>
-      <c r="C407" s="55" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="4"/>
-      <c r="B408" s="57"/>
-      <c r="C408" s="55" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" s="4"/>
-      <c r="B409" s="57"/>
-      <c r="C409" s="55" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" s="4"/>
-      <c r="B410" s="57"/>
-      <c r="C410" s="55" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="4"/>
-      <c r="B411" s="57"/>
-      <c r="C411" s="55"/>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" s="4"/>
-      <c r="B412" s="57" t="s">
-        <v>437</v>
-      </c>
-      <c r="C412" s="55"/>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="4"/>
       <c r="B413" s="57"/>
-      <c r="C413" s="55"/>
+      <c r="C413" s="57" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="4"/>
       <c r="B414" s="57"/>
-      <c r="C414" s="55"/>
+      <c r="C414" s="55" t="s">
+        <v>424</v>
+      </c>
+      <c r="D414" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
-      <c r="B415" s="57" t="s">
-        <v>438</v>
-      </c>
+      <c r="B415" s="57"/>
       <c r="C415" s="55" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="57"/>
       <c r="C416" s="55" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="57"/>
+      <c r="C417" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="D417" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="57"/>
-    </row>
-    <row r="419" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="15" t="s">
+      <c r="C418" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="D418" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="4"/>
+      <c r="B419" s="57"/>
+      <c r="C419" s="55" t="s">
+        <v>448</v>
+      </c>
+      <c r="D419" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="4"/>
+      <c r="B420" s="57"/>
+      <c r="C420" s="55" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="4"/>
+      <c r="B421" s="57"/>
+      <c r="C421" s="55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="4"/>
+      <c r="B422" s="57"/>
+      <c r="C422" s="55" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="4"/>
+      <c r="B423" s="57"/>
+      <c r="C423" s="55" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="4"/>
+      <c r="B424" s="57"/>
+      <c r="C424" s="55" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="4"/>
+      <c r="B425" s="57"/>
+      <c r="C425" s="55" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="4"/>
+      <c r="B426" s="57"/>
+      <c r="C426" s="55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="4"/>
+      <c r="B427" s="57"/>
+      <c r="C427" s="55" t="s">
+        <v>421</v>
+      </c>
+      <c r="D427" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="4"/>
+      <c r="B428" s="57"/>
+      <c r="C428" s="55"/>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="4"/>
+      <c r="B429" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="C429" s="55" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="4"/>
+      <c r="B430" s="57"/>
+      <c r="C430" s="55" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="4"/>
+      <c r="B431" s="57"/>
+      <c r="C431" s="55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="4"/>
+      <c r="B432" s="57"/>
+      <c r="C432" s="55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="4"/>
+      <c r="B433" s="57"/>
+      <c r="C433" s="55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="4"/>
+      <c r="B434" s="57"/>
+      <c r="C434" s="55"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="4"/>
+      <c r="B435" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="C435" s="55"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="4"/>
+      <c r="B436" s="57"/>
+      <c r="C436" s="55"/>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="4"/>
+      <c r="B437" s="57"/>
+      <c r="C437" s="55"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="4"/>
+      <c r="B438" s="57" t="s">
+        <v>438</v>
+      </c>
+      <c r="C438" s="55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="4"/>
+      <c r="B439" s="57"/>
+      <c r="C439" s="55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="4"/>
+      <c r="B440" s="57"/>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="4"/>
+      <c r="B441" s="57"/>
+    </row>
+    <row r="442" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="15" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="16"/>
-      <c r="B420" s="14" t="s">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="16"/>
+      <c r="B443" s="14" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="16"/>
-      <c r="B421" s="17"/>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="16"/>
-      <c r="B422" s="17"/>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="16"/>
-      <c r="B423" s="17"/>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="16"/>
-      <c r="B424" s="17"/>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="16"/>
+      <c r="B444" s="17"/>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="16"/>
+      <c r="B445" s="17"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="16"/>
+      <c r="B446" s="17"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="16"/>
+      <c r="B447" s="17"/>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
         <v>363</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B450" t="s">
         <v>364</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C450" t="s">
         <v>365</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D450" t="s">
         <v>366</v>
       </c>
     </row>

--- a/PPT/Resumen/Clases.xlsx
+++ b/PPT/Resumen/Clases.xlsx
@@ -1948,8 +1948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H231" sqref="H231"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PPT/Resumen/Clases.xlsx
+++ b/PPT/Resumen/Clases.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Programacion_Laboratorio2\PPT\Resumen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cami\Estudios\Facultad\Programación\02 Programacion_Laboratorio_2 - C#\git\Programacion_Laboratorio2\PPT\Resumen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5850" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="624">
   <si>
     <t>System</t>
   </si>
@@ -1289,9 +1289,6 @@
     <t>Equals(expected,actual);</t>
   </si>
   <si>
-    <t>Throws&lt;claseException&gt;( () =&gt; Clase.MetodoAProbar(arg) );</t>
-  </si>
-  <si>
     <t>corrobora que el método lance una exc del tipo claseException</t>
   </si>
   <si>
@@ -1397,25 +1394,503 @@
     <t>Environment.GetFolderPath(Environment.SpecialFolder.A)</t>
   </si>
   <si>
+    <t xml:space="preserve">StreamWriter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">StreamReader </t>
+  </si>
+  <si>
+    <t>StreamWriter (string path)</t>
+  </si>
+  <si>
+    <t>Si el archivo existe, se sobrescribirá, sino se creará.</t>
+  </si>
+  <si>
+    <t>StreamWriter (string path, bool append)</t>
+  </si>
+  <si>
+    <t>si append es true, se agregarán datos al archivo existente. Caso contrario, se sobrescribirá el archivo.</t>
+  </si>
+  <si>
+    <t>StreamWriter (string path, bool append, Encoding e)</t>
+  </si>
+  <si>
+    <t>tipo de codificación que se utilizará al escribir en el archivo.</t>
+  </si>
+  <si>
+    <t>Constructores:</t>
+  </si>
+  <si>
+    <t>Write (string)</t>
+  </si>
+  <si>
+    <t>WriteLine(string)</t>
+  </si>
+  <si>
+    <t>Escribe una cadena en un archivo provocando salto de línea.</t>
+  </si>
+  <si>
+    <t>Cierra el objeto StreamWriter.</t>
+  </si>
+  <si>
+    <t>StreamReader (string path)</t>
+  </si>
+  <si>
+    <t>StreamReader (string path, Encoding e)</t>
+  </si>
+  <si>
+    <t>path especifica de donde se leerán los datos.</t>
+  </si>
+  <si>
+    <t>tipo de codificación que se utilizará para leer el archivo</t>
+  </si>
+  <si>
+    <t>Cierra el objeto StreamReader.</t>
+  </si>
+  <si>
+    <t>Read()</t>
+  </si>
+  <si>
+    <t>ReadLine()</t>
+  </si>
+  <si>
+    <t>ReadToEnd()</t>
+  </si>
+  <si>
+    <t>Lee un carácter del stream y avanza carácter a carácter. Retorna un entero.</t>
+  </si>
+  <si>
+    <t>Lee una línea de caracteres del stream y lo retorna como un string.</t>
+  </si>
+  <si>
+    <t>Lee todo el stream y lo retorna como una cadena de caracteres.</t>
+  </si>
+  <si>
+    <t>Excpeciones:</t>
+  </si>
+  <si>
+    <t>ArgumentException</t>
+  </si>
+  <si>
+    <t>ArgumentNullException</t>
+  </si>
+  <si>
+    <t>FileNotFoundException</t>
+  </si>
+  <si>
+    <t>DirectoryNotFoundException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ruta de acceso no es válida porque es una cadena de longitud cero, contiene sólo espacios en blanco, o contiene caracteres no válidos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ruta de acceso es Null </t>
+  </si>
+  <si>
+    <t>File señala a una ruta de acceso que no existe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El archivo está en uso por otro proceso o hay un error de E/S 
+</t>
+  </si>
+  <si>
+    <t>PathTooLongException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ruta supera la longitud máxima definida por el sistema </t>
+  </si>
+  <si>
+    <t>NotSupportedException</t>
+  </si>
+  <si>
+    <t>Un nombre de archivo o de directorio de la ruta de acceso contiene un signo de dos puntos (:) o tiene un formato no válido</t>
+  </si>
+  <si>
+    <t>SecurityException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El usuario no tiene los permisos necesarios para ver la ruta de acceso </t>
+  </si>
+  <si>
+    <t>File.Exists(string path)</t>
+  </si>
+  <si>
+    <t>Es true si tiene los permisos necesarios y path contiene el nombre de un archivo existente; de lo contrario, es false.</t>
+  </si>
+  <si>
+    <t>File.Copy(string, string):</t>
+  </si>
+  <si>
+    <t>Copia un archivo existente en un archivo nuevo. No se permite sobrescribir un archivo del mismo nombre</t>
+  </si>
+  <si>
+    <t>File.Delete(string path)</t>
+  </si>
+  <si>
+    <t>Elimina el archivo especificado</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>Directory.Delete(string path)</t>
+  </si>
+  <si>
+    <t>Elimina el directorio especificado, siempre y cuando esté vacio.</t>
+  </si>
+  <si>
+    <t>Elimina el directorio especificado y, si está indicado, los subdirectorios y archivos que contiene.</t>
+  </si>
+  <si>
+    <t>Determina si la ruta de acceso dada hace referencia a un directorio existente en el disco.</t>
+  </si>
+  <si>
+    <t>Devuelve los nombres de archivo (con sus rutas de acceso) del directorio especificado.</t>
+  </si>
+  <si>
+    <t>Directory.Delete(string, boolean)</t>
+  </si>
+  <si>
+    <t>Directory.Exists(string)</t>
+  </si>
+  <si>
+    <t>GetFiles(String)</t>
+  </si>
+  <si>
+    <t>Enums</t>
+  </si>
+  <si>
+    <t>SpecialFolder</t>
+  </si>
+  <si>
+    <t>System.Xml.Serialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XmlSerializer </t>
+  </si>
+  <si>
+    <t>XmlSerializer (System.Type type)</t>
+  </si>
+  <si>
+    <t>Inicializa una nueva instancia de la clase XmlSerializer la cual puede serializar objetos del tipo especificado en el parámetro type.</t>
+  </si>
+  <si>
+    <t>Serialize (System.IO.Stream stream, Object o)</t>
+  </si>
+  <si>
+    <t>Serializa el objeto especificado y escribe en un documento Xml usando el Stream especificado.</t>
+  </si>
+  <si>
+    <t>Deserialize (System.IO.Stream stream)</t>
+  </si>
+  <si>
+    <t>Deserializa el documento Xml contenido por el Stream especificado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XmlTextWriter </t>
+  </si>
+  <si>
+    <t>System.Xml</t>
+  </si>
+  <si>
+    <t>XmlTextWriter (string filename, System.Text.Encoding encoding)</t>
+  </si>
+  <si>
+    <t>Objeto que escribirá en XML.</t>
+  </si>
+  <si>
+    <t>XmlTextReader</t>
+  </si>
+  <si>
+    <t>XmlTextReader (string url)</t>
+  </si>
+  <si>
+    <t>El url indica en que archivo están los datos XML</t>
+  </si>
+  <si>
+    <t>Objeto que serializará/deserializará. Crea archivos C# (.cs) y los compila en archivos .dll</t>
+  </si>
+  <si>
+    <t>System.Runtime.Serialization.Formatters.Binary</t>
+  </si>
+  <si>
+    <t>BinaryFormatter</t>
+  </si>
+  <si>
+    <t>BinaryFormatter()</t>
+  </si>
+  <si>
+    <t>Serialize(System.IO.FileStream seralizationStream, Object graph)</t>
+  </si>
+  <si>
+    <t>Serializa el objeto especificado y escribe en un archivo binario usando el serializationStream especificado.</t>
+  </si>
+  <si>
+    <t>Deserialize(System.IO.FileStream serializationStream)</t>
+  </si>
+  <si>
+    <t>Deserializa el archivo binario contenido por el serializationStream especificado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FileStream </t>
+  </si>
+  <si>
+    <t>FileStream (string path, System.IO.FileMode mode)</t>
+  </si>
+  <si>
+    <t>Inicializa una instancia de FileStream, indicando ubicación y el modo en que se creará o abrirá el archivo.</t>
+  </si>
+  <si>
+    <t>Read (byte[] array, int offset, int count)</t>
+  </si>
+  <si>
+    <t>Lee un bloque de bytes y escribe los datos en el buffer dado.</t>
+  </si>
+  <si>
+    <t>Seek (long offset, System.IO.SeekOrigin origin)</t>
+  </si>
+  <si>
+    <t>Establece la posición del stream al valor dado.</t>
+  </si>
+  <si>
+    <t>Escribe un bloque de bytes en el stream.</t>
+  </si>
+  <si>
+    <t>Write (byte[] array, int offset, int count)</t>
+  </si>
+  <si>
+    <t>Escribe una cadena en el archivo sin provocar salto de línea. Puede ser otro tipo de dato aparte de string</t>
+  </si>
+  <si>
+    <t>NewLine</t>
+  </si>
+  <si>
+    <t>Gets or sets the line terminator string used by the current TextWriter.</t>
+  </si>
+  <si>
+    <t>EndOfStream</t>
+  </si>
+  <si>
+    <t>Gets a value that indicates whether the current stream position is at the end of the stream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Returns the next available character but does not consume it.</t>
+  </si>
+  <si>
+    <t>Provides static methods for the creation, copying, deletion, moving, and opening of a single file, and aids in the creation of FileStream objects. All File methods require the path to the file that you are manipulating</t>
+  </si>
+  <si>
+    <t>FileAccess</t>
+  </si>
+  <si>
+    <t>Specifies read and write access to a file.</t>
+  </si>
+  <si>
+    <t>FileShare</t>
+  </si>
+  <si>
+    <t>Specifies the level of access permitted for a file that is already in use.</t>
+  </si>
+  <si>
+    <t>FileMode</t>
+  </si>
+  <si>
+    <t>AppendText(String)</t>
+  </si>
+  <si>
+    <t>appends UTF-8 encoded text to an existing file, or to a new file if the specified file does not exist.</t>
+  </si>
+  <si>
+    <t>CreateText(String)</t>
+  </si>
+  <si>
+    <t>Creates or opens a file for writing UTF-8 encoded text. If the file already exists, its contents are overwritten.</t>
+  </si>
+  <si>
+    <t>GetCreationTime(String)</t>
+  </si>
+  <si>
+    <t>Returns the creation date and time of the specified file or directory.</t>
+  </si>
+  <si>
+    <t>GetLastAccessTime(String)</t>
+  </si>
+  <si>
+    <t>Returns the date and time the specified file or directory was last accessed.</t>
+  </si>
+  <si>
+    <t>GetLastWriteTime(String)</t>
+  </si>
+  <si>
+    <t>Returns the date and time the specified file or directory was last written to.</t>
+  </si>
+  <si>
+    <t>Move(String, String)</t>
+  </si>
+  <si>
+    <t>Moves a specified file to a new location, providing the option to specify a new file name.</t>
+  </si>
+  <si>
+    <t>Open(String, FileMode)</t>
+  </si>
+  <si>
+    <t>Opens a FileStream on the specified path with read/write access with no sharing.</t>
+  </si>
+  <si>
+    <t>OpenRead(String)</t>
+  </si>
+  <si>
+    <t>Opens an existing file for reading.</t>
+  </si>
+  <si>
+    <t>OpenText(String)</t>
+  </si>
+  <si>
+    <t>Opens an existing UTF-8 encoded text file for reading.</t>
+  </si>
+  <si>
+    <t>OpenWrite(String)</t>
+  </si>
+  <si>
+    <t>Opens an existing file or creates a new file for writing.</t>
+  </si>
+  <si>
+    <t>ReadAllBytes(String)</t>
+  </si>
+  <si>
+    <t>Opens a binary file, reads the contents of the file into a byte array, and then closes the file.</t>
+  </si>
+  <si>
+    <t>ReadAllLines(String)</t>
+  </si>
+  <si>
+    <t>Opens a text file, reads all lines of the file, and then closes the file</t>
+  </si>
+  <si>
+    <t>ReadAllText(String)</t>
+  </si>
+  <si>
+    <t>Opens a text file, reads all the text in the file, and then closes the file.</t>
+  </si>
+  <si>
+    <t>SetCreationTime(String, DateTime)</t>
+  </si>
+  <si>
+    <t>Sets the date and time the file was created</t>
+  </si>
+  <si>
+    <t>SetLastAccessTime(String, DateTime)</t>
+  </si>
+  <si>
+    <t>Sets the date and time the specified file was last accessed.</t>
+  </si>
+  <si>
+    <t>SetLastWriteTime(String, DateTime)</t>
+  </si>
+  <si>
+    <t>Sets the date and time that the specified file was last written to.</t>
+  </si>
+  <si>
+    <t>WriteAllText(String, String)</t>
+  </si>
+  <si>
+    <t>Creates a new file, writes the specified string to the file, and then closes the file. If the target file already exists, it is overwritten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static methods for creating, moving, and enumerating through directories and subdirectories. </t>
+  </si>
+  <si>
+    <t>To demand permissions for a directory and all its subdirectories, end the path string with the directory separator character(/). To demand permissions only for a specific directory, end the path string with a period.</t>
+  </si>
+  <si>
+    <t>the search string can be any combination of literal characters and two wildcard characters; * and ?</t>
+  </si>
+  <si>
+    <t>CreateDirectory(String)</t>
+  </si>
+  <si>
+    <t>Creates all directories and subdirectories in the specified path unless they already exist.</t>
+  </si>
+  <si>
+    <t>EnumerateDirectories(String, String)</t>
+  </si>
+  <si>
+    <t>Returns an enumerable collection of directory full names that match a search pattern in a specified path.</t>
+  </si>
+  <si>
+    <t>EnumerateFiles(String, String)</t>
+  </si>
+  <si>
+    <t>Returns an enumerable collection of full file names that match a search pattern in a specified path</t>
+  </si>
+  <si>
+    <t>Gets the creation date and time of a directory.</t>
+  </si>
+  <si>
+    <t>GetCurrentDirectory()</t>
+  </si>
+  <si>
+    <t>Gets the current working directory of the application</t>
+  </si>
+  <si>
+    <t>Returns the date and time the specified file or directory was last accessed</t>
+  </si>
+  <si>
+    <t>Returns the date and time the specified file or directory was last written to</t>
+  </si>
+  <si>
+    <t>Moves a file or a directory and its contents to a new location.</t>
+  </si>
+  <si>
+    <t>Sets the creation date and time for the specified file or directory.</t>
+  </si>
+  <si>
+    <t>Sets the date and time the specified file or directory was last accessed.</t>
+  </si>
+  <si>
+    <t>Sets the date and time a directory was last written to</t>
+  </si>
+  <si>
+    <t>IOException &gt; clase base</t>
+  </si>
+  <si>
+    <t>EndOfStreamException</t>
+  </si>
+  <si>
+    <t>CurrentDirectory</t>
+  </si>
+  <si>
+    <t>Gets or sets the fully qualified path of the current working directory.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desktop, MyDocuments </t>
+  </si>
+  <si>
+    <t>El filename indica en que archivo se escribirá. Con encoding se indicará cual será la codificación (Encoding.UTF8)</t>
+  </si>
+  <si>
+    <t>Append, Create, CreateNew, Open, OpenOrCreate, Truncate. Specifies whether the contents of an existing file are preserved or overwritten, and whether requests to create an existing file cause an exception.</t>
+  </si>
+  <si>
     <t>MenuStrip</t>
   </si>
   <si>
+    <t>The MenuStrip control represents the container for the menu structure of a form. You can add ToolStripMenuItem objects to the MenuStrip that represent the individual menu commands in the menu structure. Each ToolStripMenuItem can be a command for your application or a parent menu for other submenu items.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ToolStripDropDownItem </t>
   </si>
   <si>
+    <t>derived from ToolStripItem.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ToolStripMenuItem </t>
   </si>
   <si>
-    <t>derived from ToolStripItem.</t>
-  </si>
-  <si>
     <t>ToolStripTextBox</t>
   </si>
   <si>
     <t>ToolStripComboBox</t>
-  </si>
-  <si>
-    <t>The MenuStrip control represents the container for the menu structure of a form. You can add ToolStripMenuItem objects to the MenuStrip that represent the individual menu commands in the menu structure. Each ToolStripMenuItem can be a command for your application or a parent menu for other submenu items.</t>
   </si>
   <si>
     <t>OpenFileDialog</t>
@@ -1427,8 +1902,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1450,8 +1925,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1568,6 +2051,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1603,7 +2092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1663,9 +2152,19 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1946,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I450"/>
+  <dimension ref="A1:I572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,10 +2679,10 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
+        <v>449</v>
+      </c>
+      <c r="D32" t="s">
         <v>450</v>
-      </c>
-      <c r="D32" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2570,1349 +3069,1361 @@
     <row r="80" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
+      </c>
+      <c r="C80" s="64" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="13" t="s">
-        <v>456</v>
+      <c r="C81" t="s">
+        <v>610</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>455</v>
+        <v>611</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
+      <c r="C82" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="13"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
+      <c r="C83" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>400</v>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="57" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" t="s">
-        <v>393</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>404</v>
+        <v>511</v>
+      </c>
+      <c r="D86" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
-      <c r="C87" t="s">
-        <v>396</v>
-      </c>
-      <c r="D87" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" t="s">
-        <v>392</v>
+    </row>
+    <row r="88" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" t="s">
-        <v>394</v>
-      </c>
-      <c r="D89" t="s">
-        <v>403</v>
+        <v>393</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D90" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" t="s">
-        <v>397</v>
-      </c>
-      <c r="D91" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D92" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D93" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
+      <c r="C94" t="s">
+        <v>397</v>
+      </c>
+      <c r="D94" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="4" t="s">
-        <v>26</v>
+      <c r="C95" t="s">
+        <v>398</v>
+      </c>
+      <c r="D95" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D96" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
-      <c r="C97" t="s">
-        <v>409</v>
-      </c>
-      <c r="D97" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
-      <c r="C98" t="s">
-        <v>376</v>
-      </c>
-      <c r="D98" t="s">
-        <v>417</v>
+      <c r="C98" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D99" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
       <c r="D100" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="D101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="D102" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>323</v>
+      </c>
+      <c r="D103" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
-      <c r="B104" s="8"/>
-    </row>
-    <row r="105" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>9</v>
+      <c r="B104" s="4"/>
+      <c r="C104" t="s">
+        <v>414</v>
+      </c>
+      <c r="D104" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" t="s">
+        <v>377</v>
+      </c>
+      <c r="D105" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" t="s">
-        <v>82</v>
+      <c r="B110" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" t="s">
-        <v>84</v>
+      <c r="B111" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+      <c r="B112" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" t="s">
-        <v>389</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6" t="s">
-        <v>13</v>
+      <c r="C116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="4"/>
+      <c r="C118" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
+      <c r="B120" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6" t="s">
+    <row r="122" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D122" s="7" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="D120" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="53"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="12" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="C123" t="s">
-        <v>385</v>
-      </c>
       <c r="D123" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
+      <c r="B124" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="53"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="12" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="B126" s="4" t="s">
-        <v>16</v>
+      <c r="B126" s="4"/>
+      <c r="C126" t="s">
+        <v>385</v>
+      </c>
+      <c r="D126" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="B127" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B127" s="4"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-      <c r="C128" t="s">
-        <v>88</v>
-      </c>
-      <c r="D128" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
+      <c r="B129" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" t="s">
+        <v>88</v>
+      </c>
+      <c r="D131" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="B132" s="4"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C133" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-    </row>
-    <row r="137" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="15" t="s">
+      <c r="B136" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="22"/>
-      <c r="B138" s="44" t="s">
+    <row r="141" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="22"/>
+      <c r="B141" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C138" s="45" t="s">
+      <c r="C141" s="45" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="16"/>
-      <c r="B139" s="14"/>
-      <c r="C139" t="s">
-        <v>59</v>
-      </c>
-      <c r="D139" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="16"/>
-      <c r="B140" s="14"/>
-      <c r="C140" t="s">
-        <v>61</v>
-      </c>
-      <c r="D140" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="16"/>
-      <c r="B141" s="14"/>
-      <c r="C141" t="s">
-        <v>63</v>
-      </c>
-      <c r="D141" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="14"/>
       <c r="C142" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D142" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="16"/>
       <c r="B143" s="14"/>
-      <c r="C143" s="17" t="s">
-        <v>26</v>
+      <c r="C143" t="s">
+        <v>61</v>
+      </c>
+      <c r="D143" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="16"/>
       <c r="B144" s="14"/>
       <c r="C144" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="16"/>
       <c r="B145" s="14"/>
       <c r="C145" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="D145" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="16"/>
       <c r="B146" s="14"/>
-      <c r="C146" t="s">
-        <v>298</v>
+      <c r="C146" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="14"/>
       <c r="C147" t="s">
-        <v>69</v>
-      </c>
-      <c r="I147" s="52"/>
+        <v>67</v>
+      </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>228</v>
-      </c>
-      <c r="D148" t="s">
-        <v>229</v>
+        <v>68</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="14"/>
-      <c r="I149" s="51"/>
+      <c r="C149" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="14"/>
-    </row>
-    <row r="151" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="30" t="s">
+      <c r="C150" t="s">
+        <v>69</v>
+      </c>
+      <c r="I150" s="52"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="14"/>
+      <c r="C151" t="s">
+        <v>228</v>
+      </c>
+      <c r="D151" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="16"/>
+      <c r="B152" s="14"/>
+      <c r="I152" s="51"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" s="16"/>
+      <c r="B153" s="14"/>
+    </row>
+    <row r="154" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B151" s="46"/>
-    </row>
-    <row r="152" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="23" t="s">
+      <c r="B154" s="46"/>
+    </row>
+    <row r="155" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="19"/>
-      <c r="B153" s="25" t="s">
+    <row r="156" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="19"/>
+      <c r="B156" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C153" s="25" t="s">
+      <c r="C156" s="25" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="20"/>
-      <c r="B154" s="24"/>
-      <c r="C154" t="s">
-        <v>92</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="20"/>
-      <c r="B155" s="24"/>
-      <c r="C155" t="s">
-        <v>94</v>
-      </c>
-      <c r="D155" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="20"/>
-      <c r="B156" s="24"/>
-      <c r="C156" t="s">
-        <v>96</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="B157" s="24"/>
       <c r="C157" t="s">
-        <v>99</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="B158" s="24"/>
       <c r="C158" t="s">
-        <v>100</v>
-      </c>
-      <c r="D158" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="D158" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
       <c r="B159" s="24"/>
       <c r="C159" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="B160" s="24"/>
       <c r="C160" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>310</v>
+        <v>98</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="20"/>
       <c r="B161" s="24"/>
       <c r="C161" t="s">
-        <v>312</v>
-      </c>
-      <c r="D161" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
       <c r="B162" s="24"/>
       <c r="C162" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>313</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="20"/>
       <c r="B163" s="24"/>
       <c r="C163" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
       <c r="B164" s="24"/>
+      <c r="C164" t="s">
+        <v>312</v>
+      </c>
       <c r="D164" s="11"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="20"/>
       <c r="B165" s="24"/>
-      <c r="C165" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D165" s="11"/>
+      <c r="C165" t="s">
+        <v>138</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
       <c r="B166" s="24"/>
       <c r="C166" t="s">
-        <v>104</v>
-      </c>
-      <c r="D166" t="s">
-        <v>105</v>
+        <v>352</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="B167" s="24"/>
-      <c r="C167" t="s">
-        <v>106</v>
-      </c>
-      <c r="D167" t="s">
-        <v>107</v>
-      </c>
+      <c r="D167" s="11"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
       <c r="B168" s="24"/>
-      <c r="C168" t="s">
-        <v>108</v>
-      </c>
-      <c r="D168" t="s">
-        <v>311</v>
-      </c>
+      <c r="C168" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168" s="11"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
       <c r="B169" s="24"/>
       <c r="C169" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D169" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
       <c r="B170" s="24"/>
+      <c r="C170" t="s">
+        <v>106</v>
+      </c>
+      <c r="D170" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
       <c r="B171" s="24"/>
+      <c r="C171" t="s">
+        <v>108</v>
+      </c>
+      <c r="D171" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="20"/>
       <c r="B172" s="24"/>
+      <c r="C172" t="s">
+        <v>109</v>
+      </c>
+      <c r="D172" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="B173" s="24"/>
-      <c r="C173" s="24" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174" s="24"/>
-      <c r="C174" t="s">
-        <v>112</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
       <c r="B175" s="24"/>
-      <c r="C175" t="s">
-        <v>113</v>
-      </c>
-      <c r="D175" t="s">
-        <v>301</v>
-      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="20"/>
       <c r="B176" s="24"/>
-      <c r="C176" t="s">
-        <v>114</v>
-      </c>
-      <c r="D176" t="s">
-        <v>120</v>
+      <c r="C176" s="24" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="20"/>
       <c r="B177" s="24"/>
       <c r="C177" t="s">
-        <v>115</v>
-      </c>
-      <c r="D177" t="s">
-        <v>121</v>
+        <v>112</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
       <c r="B178" s="24"/>
       <c r="C178" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D178" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
       <c r="B179" s="24"/>
       <c r="C179" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D179" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="B180" s="24"/>
       <c r="C180" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D180" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
       <c r="B181" s="24"/>
-    </row>
-    <row r="182" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="18"/>
-      <c r="B182" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C182" s="26" t="s">
-        <v>264</v>
+      <c r="C181" t="s">
+        <v>116</v>
+      </c>
+      <c r="D181" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="20"/>
+      <c r="B182" s="24"/>
+      <c r="C182" t="s">
+        <v>117</v>
+      </c>
+      <c r="D182" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="20"/>
       <c r="B183" s="24"/>
       <c r="C183" t="s">
-        <v>259</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>260</v>
+        <v>118</v>
+      </c>
+      <c r="D183" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
       <c r="B184" s="24"/>
-      <c r="C184" t="s">
-        <v>144</v>
-      </c>
-      <c r="D184" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="20"/>
-      <c r="B185" s="24"/>
-      <c r="C185" t="s">
-        <v>354</v>
-      </c>
-      <c r="D185" s="11" t="s">
-        <v>355</v>
+    </row>
+    <row r="185" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="18"/>
+      <c r="B185" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
       <c r="B186" s="24"/>
       <c r="C186" t="s">
-        <v>356</v>
+        <v>259</v>
       </c>
       <c r="D186" s="11" t="s">
-        <v>357</v>
+        <v>260</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
       <c r="B187" s="24"/>
-      <c r="C187" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D187" s="11"/>
+      <c r="C187" t="s">
+        <v>144</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
       <c r="B188" s="24"/>
       <c r="C188" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
       <c r="B189" s="24"/>
-      <c r="D189" s="11"/>
+      <c r="C189" t="s">
+        <v>356</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="20"/>
       <c r="B190" s="24"/>
+      <c r="C190" s="24" t="s">
+        <v>265</v>
+      </c>
       <c r="D190" s="11"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
-      <c r="B191" s="24" t="s">
-        <v>149</v>
-      </c>
+      <c r="B191" s="24"/>
       <c r="C191" t="s">
-        <v>304</v>
-      </c>
-      <c r="D191" t="s">
-        <v>178</v>
+        <v>299</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="20"/>
-      <c r="B192" s="24" t="s">
-        <v>150</v>
-      </c>
+      <c r="B192" s="24"/>
+      <c r="D192" s="11"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
-      <c r="B193" s="24" t="s">
-        <v>152</v>
-      </c>
+      <c r="B193" s="24"/>
+      <c r="D193" s="11"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="20"/>
       <c r="B194" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="18"/>
-      <c r="B195" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>191</v>
+        <v>149</v>
+      </c>
+      <c r="C194" t="s">
+        <v>304</v>
+      </c>
+      <c r="D194" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="20"/>
+      <c r="B195" s="24" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="20"/>
-      <c r="B196" s="24"/>
-      <c r="C196" s="25" t="s">
-        <v>21</v>
+      <c r="B196" s="24" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="20"/>
-      <c r="B197" s="24"/>
-      <c r="C197" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="20"/>
-      <c r="B198" s="24"/>
-      <c r="C198" t="s">
-        <v>194</v>
-      </c>
-      <c r="D198" t="s">
-        <v>193</v>
+      <c r="B197" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="18"/>
+      <c r="B198" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
       <c r="B199" s="24"/>
-      <c r="C199" t="s">
-        <v>195</v>
-      </c>
-      <c r="D199" t="s">
-        <v>196</v>
+      <c r="C199" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="20"/>
       <c r="B200" s="24"/>
       <c r="C200" t="s">
-        <v>379</v>
-      </c>
-      <c r="D200" t="s">
-        <v>380</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
       <c r="B201" s="24"/>
+      <c r="C201" t="s">
+        <v>194</v>
+      </c>
+      <c r="D201" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
       <c r="B202" s="24"/>
-      <c r="C202" s="24" t="s">
-        <v>358</v>
+      <c r="C202" t="s">
+        <v>195</v>
+      </c>
+      <c r="D202" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
       <c r="B203" s="24"/>
       <c r="C203" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="D203" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
       <c r="B204" s="24"/>
     </row>
-    <row r="205" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="21"/>
-      <c r="B205" s="27"/>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="20"/>
+      <c r="B205" s="24"/>
+      <c r="C205" s="24" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="20"/>
-      <c r="B206" s="24" t="s">
-        <v>154</v>
+      <c r="B206" s="24"/>
+      <c r="C206" t="s">
+        <v>360</v>
+      </c>
+      <c r="D206" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="20"/>
-      <c r="B207" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="20"/>
-      <c r="B208" s="24" t="s">
-        <v>130</v>
-      </c>
+      <c r="B207" s="24"/>
+    </row>
+    <row r="208" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="21"/>
+      <c r="B208" s="27"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="20"/>
       <c r="B209" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C209" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="20"/>
       <c r="B210" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C210" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="20"/>
       <c r="B211" s="24" t="s">
-        <v>306</v>
+        <v>130</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="20"/>
-      <c r="B212" s="24"/>
+      <c r="B212" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C212" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="20"/>
       <c r="B213" s="24" t="s">
-        <v>158</v>
+        <v>180</v>
+      </c>
+      <c r="C213" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="20"/>
-      <c r="B214" s="24"/>
-      <c r="C214" t="s">
-        <v>361</v>
+      <c r="B214" s="24" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="20"/>
       <c r="B215" s="24"/>
-      <c r="C215" t="s">
-        <v>302</v>
-      </c>
-      <c r="D215" t="s">
-        <v>362</v>
-      </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
-      <c r="B216" s="24"/>
+      <c r="B216" s="24" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="20"/>
       <c r="B217" s="24"/>
+      <c r="C217" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="20"/>
       <c r="B218" s="24"/>
+      <c r="C218" t="s">
+        <v>302</v>
+      </c>
+      <c r="D218" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="20"/>
-      <c r="B219" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C219" t="s">
-        <v>182</v>
-      </c>
+      <c r="B219" s="24"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="20"/>
       <c r="B220" s="24"/>
-      <c r="C220" t="s">
-        <v>183</v>
-      </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="20"/>
       <c r="B221" s="24"/>
-      <c r="C221" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="20"/>
       <c r="B222" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C222" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="20"/>
+      <c r="B223" s="24"/>
+      <c r="C223" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="20"/>
+      <c r="B224" s="24"/>
+      <c r="C224" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="20"/>
+      <c r="B225" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C225" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="223" spans="1:4" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="60" t="s">
-        <v>457</v>
-      </c>
-      <c r="C223" s="60" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="61" t="s">
-        <v>458</v>
-      </c>
-      <c r="D229" s="61" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="230" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="61" t="s">
-        <v>459</v>
-      </c>
-      <c r="D232" s="61" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="233" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="61" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="235" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="61" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="237" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="61" t="s">
+    <row r="226" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="C226" s="65" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="66" t="s">
+        <v>617</v>
+      </c>
+      <c r="D232" s="66" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="66" t="s">
+        <v>619</v>
+      </c>
+      <c r="D235" s="66" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="66" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="66" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="66" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="239" spans="2:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="61" t="s">
+    <row r="242" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="C239" s="61" t="s">
+      <c r="C242" s="66" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="240" spans="2:4" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="D240" s="59" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="1:4" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="59" t="s">
+    <row r="243" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="67" t="s">
+        <v>622</v>
+      </c>
+      <c r="D243" s="67" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="67" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="20"/>
-      <c r="B243" s="24"/>
-    </row>
-    <row r="244" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="18"/>
-      <c r="B244" s="26" t="s">
+    <row r="246" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="18"/>
+      <c r="B248" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C244" s="26" t="s">
+      <c r="C248" s="26" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="20"/>
-      <c r="B245" s="24"/>
-      <c r="C245" t="s">
-        <v>126</v>
-      </c>
-      <c r="D245" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="20"/>
-      <c r="B246" s="24"/>
-      <c r="C246" t="s">
-        <v>128</v>
-      </c>
-      <c r="D246" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="20"/>
-      <c r="B247" s="24"/>
-      <c r="C247" t="s">
-        <v>130</v>
-      </c>
-      <c r="D247" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="20"/>
-      <c r="B248" s="24"/>
-      <c r="C248" t="s">
-        <v>132</v>
-      </c>
-      <c r="D248" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
       <c r="B249" s="24"/>
       <c r="C249" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D249" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="20"/>
       <c r="B250" s="24"/>
       <c r="C250" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D250" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="20"/>
       <c r="B251" s="24"/>
       <c r="C251" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D251" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
       <c r="B252" s="24"/>
       <c r="C252" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D252" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="B253" s="24"/>
       <c r="C253" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D253" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="20"/>
       <c r="B254" s="24"/>
       <c r="C254" t="s">
+        <v>136</v>
+      </c>
+      <c r="D254" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="20"/>
+      <c r="B255" s="24"/>
+      <c r="C255" t="s">
+        <v>138</v>
+      </c>
+      <c r="D255" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="20"/>
+      <c r="B256" s="24"/>
+      <c r="C256" t="s">
+        <v>140</v>
+      </c>
+      <c r="D256" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="20"/>
+      <c r="B257" s="24"/>
+      <c r="C257" t="s">
+        <v>142</v>
+      </c>
+      <c r="D257" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="20"/>
+      <c r="B258" s="24"/>
+      <c r="C258" t="s">
         <v>144</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D258" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="19"/>
-      <c r="B255" s="25"/>
-      <c r="C255" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D255" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="19"/>
-      <c r="B256" s="25"/>
-    </row>
-    <row r="257" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="19"/>
-      <c r="B257" s="25"/>
-      <c r="C257" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="19"/>
-      <c r="B258" s="25"/>
-      <c r="C258" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D258" s="13" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="19"/>
       <c r="B259" s="25"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="20"/>
-      <c r="B260" s="24"/>
-    </row>
-    <row r="261" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="18"/>
-      <c r="B261" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>163</v>
+      <c r="C259" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="19"/>
+      <c r="B260" s="25"/>
+    </row>
+    <row r="261" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="19"/>
+      <c r="B261" s="25"/>
+      <c r="C261" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="262" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="19"/>
-      <c r="B262" s="25" t="s">
-        <v>386</v>
-      </c>
+      <c r="B262" s="25"/>
       <c r="C262" s="13" t="s">
-        <v>387</v>
+        <v>307</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="19"/>
       <c r="B263" s="25"/>
-      <c r="C263" s="13"/>
-    </row>
-    <row r="264" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="19"/>
-      <c r="B264" s="25"/>
-      <c r="C264" s="13"/>
-    </row>
-    <row r="265" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="19"/>
-      <c r="B265" s="25"/>
-      <c r="C265" s="13"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="20"/>
+      <c r="B264" s="24"/>
+    </row>
+    <row r="265" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="18"/>
+      <c r="B265" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="266" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="19"/>
-      <c r="B266" s="25"/>
-      <c r="C266" s="13"/>
+      <c r="B266" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="267" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="19"/>
@@ -4198,193 +4709,200 @@
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="20"/>
       <c r="B305" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C305" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="20"/>
       <c r="B306" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="C306" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="20"/>
-      <c r="B307" s="24"/>
+      <c r="B307" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C307" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="20"/>
-      <c r="B308" s="24"/>
-    </row>
-    <row r="309" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="20" t="s">
-        <v>34</v>
-      </c>
+      <c r="B308" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="20"/>
+      <c r="B309" s="24"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="20"/>
-      <c r="B310" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="20"/>
-      <c r="B311" s="24" t="s">
-        <v>177</v>
+      <c r="B310" s="24"/>
+    </row>
+    <row r="311" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="20"/>
       <c r="B312" s="24" t="s">
-        <v>388</v>
+        <v>176</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="20"/>
-      <c r="B313" s="24"/>
-    </row>
-    <row r="314" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="47" t="s">
+      <c r="B313" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="20"/>
+      <c r="B314" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="20"/>
+      <c r="B315" s="24"/>
+    </row>
+    <row r="316" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B314" s="48"/>
-    </row>
-    <row r="315" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="31" t="s">
+      <c r="B316" s="48"/>
+    </row>
+    <row r="317" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="31" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="28"/>
-      <c r="B316" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C316" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="28"/>
-      <c r="B317" s="34"/>
-      <c r="C317" s="12" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="318" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="28"/>
-      <c r="B318" s="34"/>
+      <c r="B318" s="34" t="s">
+        <v>233</v>
+      </c>
       <c r="C318" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D318" s="12" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
     </row>
     <row r="319" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="28"/>
       <c r="B319" s="34"/>
       <c r="C319" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D319" s="12" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="320" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="28"/>
       <c r="B320" s="34"/>
-      <c r="C320" s="13" t="s">
-        <v>287</v>
+      <c r="C320" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="321" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="28"/>
       <c r="B321" s="34"/>
-      <c r="C321" s="13" t="s">
-        <v>329</v>
+      <c r="C321" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="322" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="28"/>
       <c r="B322" s="34"/>
       <c r="C322" s="13" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="28"/>
       <c r="B323" s="34"/>
       <c r="C323" s="13" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="324" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="28"/>
       <c r="B324" s="34"/>
       <c r="C324" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="325" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="28"/>
       <c r="B325" s="34"/>
       <c r="C325" s="13" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
     </row>
     <row r="326" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="28"/>
       <c r="B326" s="34"/>
       <c r="C326" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="327" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="28"/>
       <c r="B327" s="34"/>
+      <c r="C327" s="13" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="328" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="28"/>
-      <c r="B328" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C328" s="12" t="s">
-        <v>347</v>
+      <c r="B328" s="34"/>
+      <c r="C328" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="329" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="28"/>
       <c r="B329" s="34"/>
-      <c r="C329" s="13" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="330" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="28"/>
-      <c r="B330" s="34"/>
-      <c r="C330" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D330" s="12" t="s">
-        <v>348</v>
+      <c r="B330" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="331" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="28"/>
       <c r="B331" s="34"/>
       <c r="C331" s="13" t="s">
-        <v>344</v>
+        <v>254</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="28"/>
       <c r="B332" s="34"/>
+      <c r="C332" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D332" s="12" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="333" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="28"/>
       <c r="B333" s="34"/>
+      <c r="C333" s="13" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="334" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="28"/>
@@ -4392,34 +4910,34 @@
     </row>
     <row r="335" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28"/>
-      <c r="B335" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C335" s="12" t="s">
-        <v>237</v>
-      </c>
+      <c r="B335" s="34"/>
     </row>
     <row r="336" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="28"/>
       <c r="B336" s="34"/>
-      <c r="C336" s="13" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="337" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="28"/>
-      <c r="B337" s="34"/>
-      <c r="C337" s="13" t="s">
-        <v>256</v>
+      <c r="B337" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C337" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="338" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="28"/>
       <c r="B338" s="34"/>
+      <c r="C338" s="13" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="339" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="28"/>
       <c r="B339" s="34"/>
+      <c r="C339" s="13" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="340" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="28"/>
@@ -4427,35 +4945,33 @@
     </row>
     <row r="341" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="28"/>
-      <c r="B341" s="34" t="s">
+      <c r="B341" s="34"/>
+    </row>
+    <row r="342" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="28"/>
+      <c r="B342" s="34"/>
+    </row>
+    <row r="343" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="28"/>
+      <c r="B343" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="C341" s="12" t="s">
+      <c r="C343" s="12" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="29"/>
-      <c r="B342" s="34"/>
-      <c r="C342" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="29"/>
-      <c r="B343" s="34"/>
-      <c r="C343" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="29"/>
       <c r="B344" s="34"/>
+      <c r="C344" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="29"/>
-      <c r="B345" s="29" t="s">
-        <v>9</v>
+      <c r="B345" s="34"/>
+      <c r="C345" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4464,13 +4980,13 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="29"/>
-      <c r="B347" s="34"/>
+      <c r="B347" s="29" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="29"/>
-      <c r="B348" s="29" t="s">
-        <v>34</v>
-      </c>
+      <c r="B348" s="34"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="29"/>
@@ -4478,523 +4994,519 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="29"/>
-      <c r="B350" s="34"/>
+      <c r="B350" s="29" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="29"/>
       <c r="B351" s="34"/>
     </row>
-    <row r="352" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="41" t="s">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="29"/>
+      <c r="B352" s="34"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="29"/>
+      <c r="B353" s="34"/>
+    </row>
+    <row r="354" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="B352" s="42"/>
-    </row>
-    <row r="353" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B353" s="37" t="s">
+      <c r="B354" s="42"/>
+    </row>
+    <row r="355" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B355" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="36"/>
-      <c r="B354" s="50" t="s">
+    <row r="356" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="36"/>
+      <c r="B356" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="C354" s="50" t="s">
+      <c r="C356" s="50" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="33"/>
-      <c r="B355" s="38"/>
-      <c r="C355" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="33"/>
-      <c r="B356" s="38"/>
-      <c r="C356" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="33"/>
       <c r="B357" s="38"/>
       <c r="C357" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="33"/>
       <c r="B358" s="38"/>
+      <c r="C358" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="33"/>
       <c r="B359" s="38"/>
-    </row>
-    <row r="360" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="36"/>
-      <c r="B360" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C360" s="50" t="s">
-        <v>242</v>
-      </c>
+      <c r="C359" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="33"/>
+      <c r="B360" s="38"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="33"/>
       <c r="B361" s="38"/>
-      <c r="C361" t="s">
-        <v>253</v>
-      </c>
-      <c r="D361" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="33"/>
-      <c r="B362" s="38"/>
-      <c r="C362" t="s">
-        <v>254</v>
-      </c>
-      <c r="D362" t="s">
-        <v>373</v>
+    </row>
+    <row r="362" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="36"/>
+      <c r="B362" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C362" s="50" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="33"/>
       <c r="B363" s="38"/>
       <c r="C363" t="s">
-        <v>252</v>
+        <v>253</v>
+      </c>
+      <c r="D363" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="33"/>
       <c r="B364" s="38"/>
       <c r="C364" t="s">
-        <v>367</v>
+        <v>254</v>
       </c>
       <c r="D364" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="33"/>
       <c r="B365" s="38"/>
-    </row>
-    <row r="366" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="36"/>
-      <c r="B366" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="C366" s="50" t="s">
-        <v>237</v>
+      <c r="C365" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="33"/>
+      <c r="B366" s="38"/>
+      <c r="C366" t="s">
+        <v>367</v>
+      </c>
+      <c r="D366" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="33"/>
       <c r="B367" s="38"/>
-      <c r="C367" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" s="33"/>
-      <c r="B368" s="38"/>
-      <c r="C368" t="s">
-        <v>256</v>
+    </row>
+    <row r="368" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="36"/>
+      <c r="B368" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="C368" s="50" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="33"/>
       <c r="B369" s="38"/>
       <c r="C369" t="s">
-        <v>331</v>
+        <v>255</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="33"/>
       <c r="B370" s="38"/>
-    </row>
-    <row r="371" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="36"/>
-      <c r="B371" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C371" s="50" t="s">
-        <v>239</v>
+      <c r="C370" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="33"/>
+      <c r="B371" s="38"/>
+      <c r="C371" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="33"/>
       <c r="B372" s="38"/>
-      <c r="C372" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="33"/>
-      <c r="B373" s="38"/>
-      <c r="C373" t="s">
-        <v>258</v>
-      </c>
-      <c r="D373" t="s">
-        <v>318</v>
+    </row>
+    <row r="373" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="36"/>
+      <c r="B373" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C373" s="50" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="33"/>
       <c r="B374" s="38"/>
       <c r="C374" t="s">
-        <v>317</v>
-      </c>
-      <c r="D374" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="33"/>
       <c r="B375" s="38"/>
       <c r="C375" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="D375" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="33"/>
       <c r="B376" s="38"/>
       <c r="C376" t="s">
-        <v>322</v>
+        <v>317</v>
+      </c>
+      <c r="D376" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="33"/>
       <c r="B377" s="38"/>
       <c r="C377" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D377" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="33"/>
       <c r="B378" s="38"/>
       <c r="C378" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="33"/>
       <c r="B379" s="38"/>
       <c r="C379" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D379" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="33"/>
       <c r="B380" s="38"/>
       <c r="C380" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="33"/>
       <c r="B381" s="38"/>
       <c r="C381" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D381" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="33"/>
       <c r="B382" s="38"/>
       <c r="C382" t="s">
-        <v>369</v>
-      </c>
-      <c r="D382" t="s">
-        <v>370</v>
+        <v>328</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="33"/>
       <c r="B383" s="38"/>
-    </row>
-    <row r="384" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="36"/>
-      <c r="B384" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C384" s="50" t="s">
-        <v>245</v>
+      <c r="C383" t="s">
+        <v>329</v>
+      </c>
+      <c r="D383" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="33"/>
+      <c r="B384" s="38"/>
+      <c r="C384" t="s">
+        <v>369</v>
+      </c>
+      <c r="D384" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="33"/>
       <c r="B385" s="38"/>
-      <c r="C385" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="33"/>
-      <c r="B386" s="38"/>
-      <c r="C386" t="s">
-        <v>340</v>
-      </c>
-      <c r="D386" t="s">
-        <v>341</v>
+    </row>
+    <row r="386" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="36"/>
+      <c r="B386" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C386" s="50" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="33"/>
       <c r="B387" s="38"/>
       <c r="C387" t="s">
-        <v>342</v>
-      </c>
-      <c r="D387" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="33"/>
       <c r="B388" s="38"/>
       <c r="C388" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="D388" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="33"/>
       <c r="B389" s="38"/>
       <c r="C389" t="s">
-        <v>344</v>
+        <v>342</v>
+      </c>
+      <c r="D389" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="33"/>
       <c r="B390" s="38"/>
       <c r="C390" t="s">
-        <v>254</v>
+        <v>322</v>
+      </c>
+      <c r="D390" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="33"/>
       <c r="B391" s="38"/>
       <c r="C391" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="33"/>
       <c r="B392" s="38"/>
       <c r="C392" t="s">
-        <v>345</v>
-      </c>
-      <c r="D392" t="s">
-        <v>346</v>
+        <v>254</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="33"/>
       <c r="B393" s="38"/>
-    </row>
-    <row r="394" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B394" s="36" t="s">
+      <c r="C393" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="33"/>
+      <c r="B394" s="38"/>
+      <c r="C394" t="s">
+        <v>345</v>
+      </c>
+      <c r="D394" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="33"/>
+      <c r="B395" s="38"/>
+    </row>
+    <row r="396" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B396" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="33"/>
-      <c r="B395" s="38" t="s">
+    <row r="397" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="33"/>
+      <c r="B397" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="C395" s="38" t="s">
+      <c r="C397" s="38" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="33"/>
-      <c r="B396" s="38"/>
-      <c r="C396" s="38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="33"/>
-      <c r="B397" s="38"/>
-      <c r="C397" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="33"/>
       <c r="B398" s="38"/>
-      <c r="C398" t="s">
-        <v>293</v>
+      <c r="C398" s="38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="33"/>
-      <c r="B399" s="33" t="s">
-        <v>34</v>
+      <c r="B399" s="38"/>
+      <c r="C399" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="33"/>
       <c r="B400" s="38"/>
+      <c r="C400" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="33"/>
-      <c r="B401" s="38"/>
-    </row>
-    <row r="402" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="39" t="s">
+      <c r="B401" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="33"/>
+      <c r="B402" s="38"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="33"/>
+      <c r="B403" s="38"/>
+    </row>
+    <row r="404" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="B402" s="40" t="s">
+      <c r="B404" s="40" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="32"/>
-      <c r="B403" s="35" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="32"/>
-      <c r="B404" s="35" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="32"/>
       <c r="B405" s="35" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="32"/>
       <c r="B406" s="35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="32"/>
       <c r="B407" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="32"/>
-      <c r="B408" s="35"/>
+      <c r="B408" s="35" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="32"/>
-      <c r="B409" s="35"/>
+      <c r="B409" s="35" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="32"/>
       <c r="B410" s="35"/>
     </row>
-    <row r="411" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="C411" s="54"/>
-    </row>
-    <row r="412" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="56" t="s">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="32"/>
+      <c r="B411" s="35"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="32"/>
+      <c r="B412" s="35"/>
+    </row>
+    <row r="413" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C413" s="54"/>
+    </row>
+    <row r="414" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B414" s="56" t="s">
         <v>391</v>
       </c>
-      <c r="C412" s="58" t="s">
+      <c r="C414" s="58" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="4"/>
-      <c r="B413" s="57"/>
-      <c r="C413" s="57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="4"/>
-      <c r="B414" s="57"/>
-      <c r="C414" s="55" t="s">
-        <v>424</v>
-      </c>
-      <c r="D414" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="4"/>
       <c r="B415" s="57"/>
-      <c r="C415" s="55" t="s">
-        <v>426</v>
+      <c r="C415" s="57" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="4"/>
       <c r="B416" s="57"/>
       <c r="C416" s="55" t="s">
-        <v>429</v>
+        <v>423</v>
+      </c>
+      <c r="D416" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="4"/>
       <c r="B417" s="57"/>
       <c r="C417" s="55" t="s">
-        <v>427</v>
-      </c>
-      <c r="D417" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="57"/>
       <c r="C418" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="D418" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="57"/>
       <c r="C419" s="55" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="D419" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="57"/>
       <c r="C420" s="55" t="s">
-        <v>436</v>
+        <v>420</v>
+      </c>
+      <c r="D420" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="57"/>
       <c r="C421" s="55" t="s">
-        <v>431</v>
+        <v>447</v>
+      </c>
+      <c r="D421" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
@@ -5008,14 +5520,14 @@
       <c r="A423" s="4"/>
       <c r="B423" s="57"/>
       <c r="C423" s="55" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="57"/>
       <c r="C424" s="55" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -5029,43 +5541,41 @@
       <c r="A426" s="4"/>
       <c r="B426" s="57"/>
       <c r="C426" s="55" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
       <c r="B427" s="57"/>
       <c r="C427" s="55" t="s">
-        <v>421</v>
-      </c>
-      <c r="D427" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
       <c r="B428" s="57"/>
-      <c r="C428" s="55"/>
+      <c r="C428" s="55" t="s">
+        <v>446</v>
+      </c>
+      <c r="D428" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
-      <c r="B429" s="57" t="s">
-        <v>439</v>
-      </c>
-      <c r="C429" s="55" t="s">
-        <v>441</v>
-      </c>
+      <c r="B429" s="57"/>
+      <c r="C429" s="55"/>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="57"/>
-      <c r="C430" s="55" t="s">
-        <v>442</v>
-      </c>
+      <c r="C430" s="55"/>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
-      <c r="B431" s="57"/>
+      <c r="B431" s="57" t="s">
+        <v>438</v>
+      </c>
       <c r="C431" s="55" t="s">
         <v>440</v>
       </c>
@@ -5074,100 +5584,1123 @@
       <c r="A432" s="4"/>
       <c r="B432" s="57"/>
       <c r="C432" s="55" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="57"/>
       <c r="C433" s="55" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
       <c r="B434" s="57"/>
-      <c r="C434" s="55"/>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C434" s="55" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
-      <c r="B435" s="57" t="s">
-        <v>437</v>
-      </c>
-      <c r="C435" s="55"/>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B435" s="57"/>
+      <c r="C435" s="55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="57"/>
       <c r="C436" s="55"/>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
-      <c r="B437" s="57"/>
+      <c r="B437" s="57" t="s">
+        <v>436</v>
+      </c>
       <c r="C437" s="55"/>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
-      <c r="B438" s="57" t="s">
-        <v>438</v>
-      </c>
-      <c r="C438" s="55" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B438" s="57"/>
+      <c r="C438" s="55"/>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
       <c r="B439" s="57"/>
-      <c r="C439" s="55" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C439" s="55"/>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
-      <c r="B440" s="57"/>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B440" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="C440" s="55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="57"/>
-    </row>
-    <row r="442" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="15" t="s">
+      <c r="C441" s="55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="4"/>
+      <c r="B442" s="57"/>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="4"/>
+      <c r="B443" s="57"/>
+    </row>
+    <row r="444" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="16"/>
+      <c r="B445" s="14" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443" s="16"/>
-      <c r="B443" s="14" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" s="16"/>
-      <c r="B444" s="17"/>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445" s="16"/>
-      <c r="B445" s="17"/>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D445" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="16"/>
       <c r="B446" s="17"/>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C446" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="D446" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="16"/>
       <c r="B447" s="17"/>
+      <c r="C447" s="62" t="s">
+        <v>497</v>
+      </c>
+      <c r="D447" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="16"/>
+      <c r="B448" s="17"/>
+      <c r="C448" s="63" t="s">
+        <v>499</v>
+      </c>
+      <c r="D448" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" s="16"/>
+      <c r="B449" s="17"/>
+      <c r="C449" s="59" t="s">
+        <v>556</v>
+      </c>
+      <c r="D449" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
+      <c r="A450" s="16"/>
+      <c r="B450" s="17"/>
+      <c r="C450" s="59" t="s">
+        <v>558</v>
+      </c>
+      <c r="D450" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="16"/>
+      <c r="B451" s="17"/>
+      <c r="C451" s="59" t="s">
+        <v>560</v>
+      </c>
+      <c r="D451" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="16"/>
+      <c r="B452" s="17"/>
+      <c r="C452" s="59" t="s">
+        <v>562</v>
+      </c>
+      <c r="D452" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="16"/>
+      <c r="B453" s="17"/>
+      <c r="C453" s="59" t="s">
+        <v>564</v>
+      </c>
+      <c r="D453" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="16"/>
+      <c r="B454" s="17"/>
+      <c r="C454" s="59" t="s">
+        <v>566</v>
+      </c>
+      <c r="D454" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="16"/>
+      <c r="B455" s="17"/>
+      <c r="C455" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="D455" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="16"/>
+      <c r="B456" s="17"/>
+      <c r="C456" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="D456" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="16"/>
+      <c r="B457" s="17"/>
+      <c r="C457" s="59" t="s">
+        <v>572</v>
+      </c>
+      <c r="D457" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="16"/>
+      <c r="B458" s="17"/>
+      <c r="C458" s="59" t="s">
+        <v>574</v>
+      </c>
+      <c r="D458" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="16"/>
+      <c r="B459" s="17"/>
+      <c r="C459" s="59" t="s">
+        <v>576</v>
+      </c>
+      <c r="D459" s="11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="16"/>
+      <c r="B460" s="17"/>
+      <c r="C460" s="59" t="s">
+        <v>578</v>
+      </c>
+      <c r="D460" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="16"/>
+      <c r="B461" s="17"/>
+      <c r="C461" t="s">
+        <v>580</v>
+      </c>
+      <c r="D461" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="16"/>
+      <c r="B462" s="17"/>
+      <c r="C462" t="s">
+        <v>582</v>
+      </c>
+      <c r="D462" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="16"/>
+      <c r="B463" s="17"/>
+      <c r="C463" t="s">
+        <v>584</v>
+      </c>
+      <c r="D463" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="16"/>
+      <c r="B464" s="17"/>
+      <c r="C464" t="s">
+        <v>586</v>
+      </c>
+      <c r="D464" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="16"/>
+      <c r="B465" s="17"/>
+      <c r="C465" t="s">
+        <v>588</v>
+      </c>
+      <c r="D465" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="16"/>
+      <c r="B466" s="17"/>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="16"/>
+      <c r="B467" s="17"/>
+      <c r="C467" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="16"/>
+      <c r="B468" s="17"/>
+      <c r="C468" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="D468" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="16"/>
+      <c r="B469" s="17"/>
+      <c r="C469" s="59" t="s">
+        <v>553</v>
+      </c>
+      <c r="D469" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="16"/>
+      <c r="B470" s="17"/>
+      <c r="C470" s="59" t="s">
+        <v>555</v>
+      </c>
+      <c r="D470" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="16"/>
+      <c r="B471" s="17"/>
+    </row>
+    <row r="472" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="16"/>
+      <c r="B472" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="D472" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="16"/>
+      <c r="B473" s="17"/>
+      <c r="C473" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="16"/>
+      <c r="B474" s="17"/>
+      <c r="C474" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="16"/>
+      <c r="B475" s="17"/>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="16"/>
+      <c r="B476" s="17"/>
+      <c r="C476" t="s">
+        <v>593</v>
+      </c>
+      <c r="D476" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="16"/>
+      <c r="B477" s="17"/>
+      <c r="C477" t="s">
+        <v>502</v>
+      </c>
+      <c r="D477" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="16"/>
+      <c r="B478" s="17"/>
+      <c r="C478" t="s">
+        <v>507</v>
+      </c>
+      <c r="D478" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="16"/>
+      <c r="B479" s="17"/>
+      <c r="C479" t="s">
+        <v>595</v>
+      </c>
+      <c r="D479" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="16"/>
+      <c r="B480" s="17"/>
+      <c r="C480" t="s">
+        <v>597</v>
+      </c>
+      <c r="D480" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="16"/>
+      <c r="B481" s="17"/>
+      <c r="C481" t="s">
+        <v>508</v>
+      </c>
+      <c r="D481" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="16"/>
+      <c r="B482" s="17"/>
+      <c r="C482" t="s">
+        <v>560</v>
+      </c>
+      <c r="D482" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="16"/>
+      <c r="B483" s="17"/>
+      <c r="C483" t="s">
+        <v>600</v>
+      </c>
+      <c r="D483" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="16"/>
+      <c r="B484" s="17"/>
+      <c r="C484" t="s">
+        <v>509</v>
+      </c>
+      <c r="D484" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="16"/>
+      <c r="B485" s="17"/>
+      <c r="C485" t="s">
+        <v>562</v>
+      </c>
+      <c r="D485" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="16"/>
+      <c r="B486" s="17"/>
+      <c r="C486" t="s">
+        <v>564</v>
+      </c>
+      <c r="D486" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="16"/>
+      <c r="B487" s="17"/>
+      <c r="C487" t="s">
+        <v>566</v>
+      </c>
+      <c r="D487" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="16"/>
+      <c r="B488" s="17"/>
+      <c r="C488" t="s">
+        <v>582</v>
+      </c>
+      <c r="D488" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="16"/>
+      <c r="B489" s="17"/>
+      <c r="C489" t="s">
+        <v>584</v>
+      </c>
+      <c r="D489" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="16"/>
+      <c r="B490" s="17"/>
+      <c r="C490" t="s">
+        <v>586</v>
+      </c>
+      <c r="D490" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="16"/>
+      <c r="B491" s="17"/>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="16"/>
+      <c r="B492" s="17"/>
+    </row>
+    <row r="493" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="16"/>
+      <c r="B493" s="14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" s="16"/>
+      <c r="B494" s="17"/>
+      <c r="C494" s="17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="16"/>
+      <c r="B495" s="17"/>
+      <c r="C495" t="s">
+        <v>469</v>
+      </c>
+      <c r="D495" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" s="16"/>
+      <c r="B496" s="17"/>
+      <c r="C496" t="s">
+        <v>470</v>
+      </c>
+      <c r="D496" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="16"/>
+      <c r="B497" s="17"/>
+      <c r="C497" t="s">
+        <v>108</v>
+      </c>
+      <c r="D497" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="16"/>
+      <c r="B498" s="17"/>
+      <c r="C498" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="16"/>
+      <c r="B499" s="17"/>
+      <c r="C499" t="s">
+        <v>474</v>
+      </c>
+      <c r="D499" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="16"/>
+      <c r="B500" s="17"/>
+      <c r="C500" t="s">
+        <v>475</v>
+      </c>
+      <c r="D500" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="16"/>
+      <c r="B501" s="17"/>
+      <c r="C501" t="s">
+        <v>476</v>
+      </c>
+      <c r="D501" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="16"/>
+      <c r="B502" s="17"/>
+      <c r="C502" t="s">
+        <v>317</v>
+      </c>
+      <c r="D502" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="16"/>
+      <c r="B503" s="17"/>
+      <c r="C503" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="16"/>
+      <c r="B504" s="17"/>
+      <c r="C504" t="s">
+        <v>547</v>
+      </c>
+      <c r="D504" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="16"/>
+      <c r="B505" s="14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" s="16"/>
+      <c r="B506" s="17"/>
+      <c r="C506" s="17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" s="16"/>
+      <c r="B507" s="17"/>
+      <c r="C507" t="s">
+        <v>458</v>
+      </c>
+      <c r="D507" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" s="16"/>
+      <c r="B508" s="17"/>
+      <c r="C508" t="s">
+        <v>460</v>
+      </c>
+      <c r="D508" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" s="16"/>
+      <c r="B509" s="17"/>
+      <c r="C509" t="s">
+        <v>462</v>
+      </c>
+      <c r="D509" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="16"/>
+      <c r="B510" s="17"/>
+      <c r="C510" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" s="16"/>
+      <c r="B511" s="17"/>
+      <c r="C511" t="s">
+        <v>465</v>
+      </c>
+      <c r="D511" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" s="16"/>
+      <c r="B512" s="17"/>
+      <c r="C512" t="s">
+        <v>466</v>
+      </c>
+      <c r="D512" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" s="16"/>
+      <c r="B513" s="17"/>
+      <c r="C513" t="s">
+        <v>108</v>
+      </c>
+      <c r="D513" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" s="16"/>
+      <c r="B514" s="17"/>
+      <c r="C514" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" s="16"/>
+      <c r="B515" s="17"/>
+      <c r="C515" t="s">
+        <v>545</v>
+      </c>
+      <c r="D515" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="16"/>
+      <c r="B516" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" s="16"/>
+      <c r="B517" s="17"/>
+      <c r="C517" t="s">
+        <v>481</v>
+      </c>
+      <c r="D517" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" s="16"/>
+      <c r="B518" s="17"/>
+      <c r="C518" t="s">
+        <v>482</v>
+      </c>
+      <c r="D518" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" s="16"/>
+      <c r="B519" s="17"/>
+      <c r="C519" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" s="16"/>
+      <c r="B520" s="17"/>
+      <c r="C520" t="s">
+        <v>483</v>
+      </c>
+      <c r="D520" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="16"/>
+      <c r="B521" s="17"/>
+      <c r="C521" t="s">
+        <v>484</v>
+      </c>
+      <c r="D521" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" s="16"/>
+      <c r="B522" s="17"/>
+      <c r="C522" t="s">
+        <v>608</v>
+      </c>
+      <c r="D522" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" s="16"/>
+      <c r="B523" s="17"/>
+      <c r="C523" t="s">
+        <v>489</v>
+      </c>
+      <c r="D523" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A524" s="16"/>
+      <c r="B524" s="17"/>
+      <c r="C524" t="s">
+        <v>491</v>
+      </c>
+      <c r="D524" s="11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="16"/>
+      <c r="B525" s="17"/>
+      <c r="C525" t="s">
+        <v>493</v>
+      </c>
+      <c r="D525" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A526" s="16"/>
+      <c r="B526" s="17"/>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A527" s="16"/>
+      <c r="B527" s="17"/>
+    </row>
+    <row r="528" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="16"/>
+      <c r="B528" s="14" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A529" s="16"/>
+      <c r="B529" s="17"/>
+      <c r="C529" s="17" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A530" s="16"/>
+      <c r="B530" s="17"/>
+      <c r="C530" t="s">
+        <v>536</v>
+      </c>
+      <c r="D530" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A531" s="16"/>
+      <c r="B531" s="17"/>
+      <c r="C531" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A532" s="16"/>
+      <c r="B532" s="17"/>
+      <c r="C532" t="s">
+        <v>538</v>
+      </c>
+      <c r="D532" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="16"/>
+      <c r="B533" s="17"/>
+      <c r="C533" t="s">
+        <v>540</v>
+      </c>
+      <c r="D533" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A534" s="16"/>
+      <c r="B534" s="17"/>
+      <c r="C534" t="s">
+        <v>543</v>
+      </c>
+      <c r="D534" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A535" s="16"/>
+      <c r="B535" s="17"/>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A536" s="16"/>
+      <c r="B536" s="17"/>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="16"/>
+      <c r="B537" s="17"/>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A538" s="16"/>
+      <c r="B538" s="17"/>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A539" s="16"/>
+      <c r="B539" s="17"/>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A540" s="16"/>
+      <c r="B540" s="17"/>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A541" s="16"/>
+      <c r="B541" s="17"/>
+    </row>
+    <row r="542" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="61" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="61"/>
+      <c r="B543" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="D543" s="20" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="61"/>
+      <c r="B544" s="60"/>
+      <c r="C544" s="60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="61"/>
+      <c r="B545" s="60"/>
+      <c r="C545" t="s">
+        <v>522</v>
+      </c>
+      <c r="D545" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" s="61"/>
+      <c r="B546" s="60"/>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" s="61"/>
+      <c r="B547" s="60"/>
+    </row>
+    <row r="548" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="61"/>
+      <c r="B548" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="D548" s="20" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="61"/>
+      <c r="B549" s="60"/>
+      <c r="C549" s="60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" s="61"/>
+      <c r="B550" s="60"/>
+      <c r="C550" t="s">
+        <v>525</v>
+      </c>
+      <c r="D550" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="61"/>
+      <c r="B551" s="60"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="61"/>
+      <c r="B552" s="60"/>
+    </row>
+    <row r="553" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="61" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="61"/>
+      <c r="B554" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="D554" s="20" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="61"/>
+      <c r="B555" s="60"/>
+      <c r="C555" s="60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="61"/>
+      <c r="B556" s="60"/>
+      <c r="C556" t="s">
+        <v>514</v>
+      </c>
+      <c r="D556" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="61"/>
+      <c r="B557" s="60"/>
+      <c r="C557" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="61"/>
+      <c r="B558" s="60"/>
+      <c r="C558" t="s">
+        <v>516</v>
+      </c>
+      <c r="D558" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="61"/>
+      <c r="B559" s="60"/>
+      <c r="C559" t="s">
+        <v>518</v>
+      </c>
+      <c r="D559" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="61"/>
+      <c r="B560" s="60"/>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="61"/>
+      <c r="B561" s="60"/>
+    </row>
+    <row r="562" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="61" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="61"/>
+      <c r="B563" s="20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" s="61"/>
+      <c r="B564" s="60"/>
+      <c r="C564" s="60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" s="61"/>
+      <c r="B565" s="60"/>
+      <c r="C565" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="61"/>
+      <c r="B566" s="60"/>
+      <c r="C566" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" s="61"/>
+      <c r="B567" s="60"/>
+      <c r="C567" t="s">
+        <v>531</v>
+      </c>
+      <c r="D567" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" s="61"/>
+      <c r="B568" s="60"/>
+      <c r="C568" t="s">
+        <v>533</v>
+      </c>
+      <c r="D568" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" s="61"/>
+      <c r="B569" s="60"/>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" s="61"/>
+      <c r="B570" s="60"/>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
         <v>363</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B572" t="s">
         <v>364</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C572" t="s">
         <v>365</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D572" t="s">
         <v>366</v>
       </c>
     </row>

--- a/PPT/Resumen/Clases.xlsx
+++ b/PPT/Resumen/Clases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="654">
   <si>
     <t>System</t>
   </si>
@@ -527,13 +527,7 @@
     <t>RadioButton</t>
   </si>
   <si>
-    <t>SaveFileDialog</t>
-  </si>
-  <si>
     <t>ScrollBar</t>
-  </si>
-  <si>
-    <t>StatusBar / ToolStripStatusLabel / StatusStrip</t>
   </si>
   <si>
     <t>ToolStrip / ToolBar</t>
@@ -1692,9 +1686,6 @@
     <t>Specifies the level of access permitted for a file that is already in use.</t>
   </si>
   <si>
-    <t>FileMode</t>
-  </si>
-  <si>
     <t>AppendText(String)</t>
   </si>
   <si>
@@ -1860,9 +1851,6 @@
     <t>CurrentDirectory</t>
   </si>
   <si>
-    <t>Gets or sets the fully qualified path of the current working directory.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desktop, MyDocuments </t>
   </si>
   <si>
@@ -1884,19 +1872,121 @@
     <t>derived from ToolStripItem.</t>
   </si>
   <si>
-    <t xml:space="preserve">ToolStripMenuItem </t>
-  </si>
-  <si>
-    <t>ToolStripTextBox</t>
-  </si>
-  <si>
-    <t>ToolStripComboBox</t>
-  </si>
-  <si>
-    <t>OpenFileDialog</t>
-  </si>
-  <si>
-    <t>Permite seleccionar y abrir un archivo. Instancio</t>
+    <t>IsLetter(Char)</t>
+  </si>
+  <si>
+    <t>IsWhiteSpace(Char)</t>
+  </si>
+  <si>
+    <t>IsDigit(Char)</t>
+  </si>
+  <si>
+    <t>StatusStrip</t>
+  </si>
+  <si>
+    <t>Gets or sets the fully qualified path of the current working directory. is a value that can and will change throught the course of running an application</t>
+  </si>
+  <si>
+    <t>obj.ShowDialog()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenFileDialog / SaveFileDialog </t>
+  </si>
+  <si>
+    <t>obj.InitialDirectory</t>
+  </si>
+  <si>
+    <t>directorio donde estará parado cuando se abra la ventana</t>
+  </si>
+  <si>
+    <t>Para abrir, devuelve un DialogResult</t>
+  </si>
+  <si>
+    <t>Obj.FileName</t>
+  </si>
+  <si>
+    <t>archivo seleccionado, con path</t>
+  </si>
+  <si>
+    <t>Barra de estado. Contiene: ToolStripStatusLabel, ToolStripDropDownButton, ToolStripSplitButton, ToolStripProgressBar</t>
+  </si>
+  <si>
+    <t>is the base class for MenuStrip, StatusStrip, and ContextMenuStrip.</t>
+  </si>
+  <si>
+    <t>Contiene: ToolStripMenuItem, ToolStripTextBox, ToolStripComboBox, ToolStripSeparator</t>
+  </si>
+  <si>
+    <t>ObjToolStripMenuItem.HideDropDown()</t>
+  </si>
+  <si>
+    <t>para contraer el menu</t>
+  </si>
+  <si>
+    <t>ToolTipText &gt; texto que se muestra al colocar el puntero sobre el item</t>
+  </si>
+  <si>
+    <t>KeyPreview</t>
+  </si>
+  <si>
+    <t>to True para después crear atajos</t>
+  </si>
+  <si>
+    <t>KeyPreview to True, para crear atajos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ToolStripMenuItem.ShortcutKeys </t>
+  </si>
+  <si>
+    <t>Elijo la combinación de teclas. ShowShortcutKeys true</t>
+  </si>
+  <si>
+    <t>Permite seleccionar y abrir un archivo. Instancio OpenFileDialog dialog = new OpenFileDialog();</t>
+  </si>
+  <si>
+    <t>StatusBar / StatusStrip</t>
+  </si>
+  <si>
+    <t>obj.Filter= "Descripción | *.ext|2daOpcion| *.ext2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Files (*.*)|*.*. Multiple filter patterns: "Image Files (*.bmp, *.jpg)|*.bmp;*.jpg" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FileMode </t>
+  </si>
+  <si>
+    <t>Read, ReadWrite, Write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performs operations on String instances that contain file or directory path information. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path </t>
+  </si>
+  <si>
+    <t>Path.GetExtension(dialog.FileName)</t>
+  </si>
+  <si>
+    <t>return ".ext"</t>
+  </si>
+  <si>
+    <t>GetFileName(String)</t>
+  </si>
+  <si>
+    <t>Returns the file name and extension of the specified path string.</t>
+  </si>
+  <si>
+    <t>GetFullPath(String)</t>
+  </si>
+  <si>
+    <t>Returns the absolute path for the specified path string.</t>
+  </si>
+  <si>
+    <t>GetDirectoryName(String)</t>
+  </si>
+  <si>
+    <t>Returns the directory information for the specified path string. P/ pasar a Directory.Exists</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +2024,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2055,12 +2145,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2092,7 +2176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2162,9 +2246,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2445,10 +2527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I572"/>
+  <dimension ref="A1:I579"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C216" sqref="C216"/>
+    <sheetView tabSelected="1" topLeftCell="A472" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D496" sqref="D496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,10 +2620,10 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2662,7 +2744,7 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
@@ -2672,17 +2754,17 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D32" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2766,31 +2848,31 @@
     <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2878,30 +2960,30 @@
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D59" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D61" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2919,147 +3001,147 @@
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D69" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D74" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D75" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3069,7 +3151,7 @@
     <row r="80" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C80" s="64" t="s">
         <v>21</v>
@@ -3079,10 +3161,10 @@
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3097,10 +3179,10 @@
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3111,17 +3193,17 @@
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="57" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D86" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3131,90 +3213,90 @@
     <row r="88" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D90" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D92" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D93" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D94" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D95" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D96" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,70 +3314,70 @@
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D99" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D100" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D101" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D102" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D103" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D104" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D105" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3328,141 +3410,140 @@
       <c r="B111" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6" t="s">
-        <v>12</v>
+      <c r="C111" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" t="s">
-        <v>82</v>
+        <v>617</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
-      <c r="C114" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
-      <c r="C115" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
-      <c r="C116" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" t="s">
-        <v>86</v>
+    </row>
+    <row r="117" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" t="s">
-        <v>389</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6" t="s">
-        <v>13</v>
+      <c r="C119" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>89</v>
+      <c r="B121" s="4"/>
+      <c r="C121" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
-      <c r="D123" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="53"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="12" t="s">
-        <v>383</v>
+      <c r="C123" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6"/>
+      <c r="B125" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" t="s">
-        <v>385</v>
-      </c>
-      <c r="D126" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6"/>
+      <c r="B127" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4" t="s">
-        <v>17</v>
+      <c r="D128" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="53"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="12" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" t="s">
-        <v>88</v>
+        <v>383</v>
       </c>
       <c r="D131" t="s">
-        <v>87</v>
+        <v>380</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3471,1060 +3552,1158 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>34</v>
+      <c r="B133" s="4"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="B136" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B136" s="4"/>
       <c r="C136" t="s">
-        <v>349</v>
+        <v>88</v>
+      </c>
+      <c r="D136" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
-      <c r="B137" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B137" s="4"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-    </row>
-    <row r="140" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="15" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+    </row>
+    <row r="145" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="22"/>
-      <c r="B141" s="44" t="s">
+    <row r="146" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="22"/>
+      <c r="B146" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C141" s="45" t="s">
+      <c r="C146" s="45" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="16"/>
-      <c r="B142" s="14"/>
-      <c r="C142" t="s">
-        <v>59</v>
-      </c>
-      <c r="D142" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="16"/>
-      <c r="B143" s="14"/>
-      <c r="C143" t="s">
-        <v>61</v>
-      </c>
-      <c r="D143" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="16"/>
-      <c r="B144" s="14"/>
-      <c r="C144" t="s">
-        <v>63</v>
-      </c>
-      <c r="D144" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="16"/>
-      <c r="B145" s="14"/>
-      <c r="C145" t="s">
-        <v>65</v>
-      </c>
-      <c r="D145" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="16"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="16"/>
       <c r="B147" s="14"/>
       <c r="C147" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="D147" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="16"/>
       <c r="B148" s="14"/>
       <c r="C148" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="D148" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="16"/>
       <c r="B149" s="14"/>
       <c r="C149" t="s">
-        <v>298</v>
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="16"/>
       <c r="B150" s="14"/>
       <c r="C150" t="s">
-        <v>69</v>
-      </c>
-      <c r="I150" s="52"/>
+        <v>65</v>
+      </c>
+      <c r="D150" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="14"/>
-      <c r="C151" t="s">
-        <v>228</v>
-      </c>
-      <c r="D151" t="s">
-        <v>229</v>
+      <c r="C151" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="14"/>
-      <c r="I152" s="51"/>
+      <c r="C152" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="16"/>
       <c r="B153" s="14"/>
-    </row>
-    <row r="154" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="30" t="s">
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="14"/>
+      <c r="C154" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
+      <c r="B155" s="14"/>
+      <c r="C155" t="s">
+        <v>69</v>
+      </c>
+      <c r="I155" s="52"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="14"/>
+      <c r="C156" t="s">
+        <v>226</v>
+      </c>
+      <c r="D156" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" s="16"/>
+      <c r="B157" s="14"/>
+      <c r="I157" s="51"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="16"/>
+      <c r="B158" s="14"/>
+    </row>
+    <row r="159" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B154" s="46"/>
-    </row>
-    <row r="155" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="23" t="s">
+      <c r="B159" s="46"/>
+    </row>
+    <row r="160" spans="1:9" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="19"/>
-      <c r="B156" s="25" t="s">
+    <row r="161" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="19"/>
+      <c r="B161" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C156" s="25" t="s">
+      <c r="C161" s="25" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="20"/>
-      <c r="B157" s="24"/>
-      <c r="C157" t="s">
-        <v>92</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="20"/>
-      <c r="B158" s="24"/>
-      <c r="C158" t="s">
-        <v>94</v>
-      </c>
-      <c r="D158" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="20"/>
-      <c r="B159" s="24"/>
-      <c r="C159" t="s">
-        <v>96</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
-      <c r="B160" s="24"/>
-      <c r="C160" t="s">
-        <v>99</v>
-      </c>
-      <c r="D160" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="20"/>
-      <c r="B161" s="24"/>
-      <c r="C161" t="s">
-        <v>100</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
       <c r="B162" s="24"/>
       <c r="C162" t="s">
-        <v>102</v>
-      </c>
-      <c r="D162" s="11" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="20"/>
       <c r="B163" s="24"/>
       <c r="C163" t="s">
-        <v>309</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>310</v>
+        <v>94</v>
+      </c>
+      <c r="D163" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
       <c r="B164" s="24"/>
       <c r="C164" t="s">
-        <v>312</v>
-      </c>
-      <c r="D164" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="20"/>
       <c r="B165" s="24"/>
       <c r="C165" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="D165" s="11" t="s">
-        <v>313</v>
+        <v>98</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
       <c r="B166" s="24"/>
       <c r="C166" t="s">
-        <v>352</v>
+        <v>100</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>353</v>
+        <v>101</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="B167" s="24"/>
-      <c r="D167" s="11"/>
+      <c r="C167" t="s">
+        <v>102</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
       <c r="B168" s="24"/>
-      <c r="C168" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D168" s="11"/>
+      <c r="C168" t="s">
+        <v>307</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
       <c r="B169" s="24"/>
       <c r="C169" t="s">
-        <v>104</v>
-      </c>
-      <c r="D169" t="s">
-        <v>105</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="D169" s="11"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
       <c r="B170" s="24"/>
       <c r="C170" t="s">
-        <v>106</v>
-      </c>
-      <c r="D170" t="s">
-        <v>107</v>
+        <v>138</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
       <c r="B171" s="24"/>
       <c r="C171" t="s">
-        <v>108</v>
-      </c>
-      <c r="D171" t="s">
-        <v>311</v>
+        <v>350</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="20"/>
       <c r="B172" s="24"/>
       <c r="C172" t="s">
-        <v>109</v>
-      </c>
-      <c r="D172" t="s">
-        <v>110</v>
+        <v>633</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="B173" s="24"/>
+      <c r="D173" s="11"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174" s="24"/>
+      <c r="C174" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D174" s="11"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
       <c r="B175" s="24"/>
+      <c r="C175" t="s">
+        <v>104</v>
+      </c>
+      <c r="D175" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="20"/>
       <c r="B176" s="24"/>
-      <c r="C176" s="24" t="s">
-        <v>111</v>
+      <c r="C176" t="s">
+        <v>106</v>
+      </c>
+      <c r="D176" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="20"/>
       <c r="B177" s="24"/>
       <c r="C177" t="s">
-        <v>112</v>
-      </c>
-      <c r="D177" s="11" t="s">
-        <v>119</v>
+        <v>108</v>
+      </c>
+      <c r="D177" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
       <c r="B178" s="24"/>
       <c r="C178" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D178" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
       <c r="B179" s="24"/>
-      <c r="C179" t="s">
-        <v>114</v>
-      </c>
-      <c r="D179" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="B180" s="24"/>
-      <c r="C180" t="s">
-        <v>115</v>
-      </c>
-      <c r="D180" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
       <c r="B181" s="24"/>
-      <c r="C181" t="s">
-        <v>116</v>
-      </c>
-      <c r="D181" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="20"/>
       <c r="B182" s="24"/>
-      <c r="C182" t="s">
-        <v>117</v>
-      </c>
-      <c r="D182" t="s">
-        <v>123</v>
+      <c r="C182" s="24" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="20"/>
       <c r="B183" s="24"/>
       <c r="C183" t="s">
-        <v>118</v>
-      </c>
-      <c r="D183" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
       <c r="B184" s="24"/>
-    </row>
-    <row r="185" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="18"/>
-      <c r="B185" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C185" s="26" t="s">
-        <v>264</v>
+      <c r="C184" t="s">
+        <v>113</v>
+      </c>
+      <c r="D184" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="20"/>
+      <c r="B185" s="24"/>
+      <c r="C185" t="s">
+        <v>114</v>
+      </c>
+      <c r="D185" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
       <c r="B186" s="24"/>
       <c r="C186" t="s">
-        <v>259</v>
-      </c>
-      <c r="D186" s="11" t="s">
-        <v>260</v>
+        <v>115</v>
+      </c>
+      <c r="D186" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
       <c r="B187" s="24"/>
       <c r="C187" t="s">
-        <v>144</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>261</v>
+        <v>116</v>
+      </c>
+      <c r="D187" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
       <c r="B188" s="24"/>
       <c r="C188" t="s">
-        <v>354</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>355</v>
+        <v>117</v>
+      </c>
+      <c r="D188" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
       <c r="B189" s="24"/>
       <c r="C189" t="s">
-        <v>356</v>
-      </c>
-      <c r="D189" s="11" t="s">
-        <v>357</v>
+        <v>118</v>
+      </c>
+      <c r="D189" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="20"/>
       <c r="B190" s="24"/>
-      <c r="C190" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D190" s="11"/>
+      <c r="C190" t="s">
+        <v>273</v>
+      </c>
+      <c r="D190" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
       <c r="B191" s="24"/>
-      <c r="C191" t="s">
-        <v>299</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="20"/>
-      <c r="B192" s="24"/>
-      <c r="D192" s="11"/>
+    </row>
+    <row r="192" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="18"/>
+      <c r="B192" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
       <c r="B193" s="24"/>
-      <c r="D193" s="11"/>
+      <c r="C193" t="s">
+        <v>257</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="20"/>
-      <c r="B194" s="24" t="s">
-        <v>149</v>
-      </c>
+      <c r="B194" s="24"/>
       <c r="C194" t="s">
-        <v>304</v>
-      </c>
-      <c r="D194" t="s">
-        <v>178</v>
+        <v>144</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="20"/>
-      <c r="B195" s="24" t="s">
-        <v>150</v>
+      <c r="B195" s="24"/>
+      <c r="C195" t="s">
+        <v>352</v>
+      </c>
+      <c r="D195" s="11" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="20"/>
-      <c r="B196" s="24" t="s">
-        <v>152</v>
+      <c r="B196" s="24"/>
+      <c r="C196" t="s">
+        <v>354</v>
+      </c>
+      <c r="D196" s="11" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="20"/>
-      <c r="B197" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="18"/>
-      <c r="B198" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>191</v>
+      <c r="B197" s="24"/>
+      <c r="C197" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D197" s="11"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="20"/>
+      <c r="B198" s="24"/>
+      <c r="C198" t="s">
+        <v>297</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
       <c r="B199" s="24"/>
-      <c r="C199" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="D199" s="11"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="20"/>
       <c r="B200" s="24"/>
-      <c r="C200" t="s">
-        <v>192</v>
-      </c>
+      <c r="D200" s="11"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
-      <c r="B201" s="24"/>
+      <c r="B201" s="24" t="s">
+        <v>149</v>
+      </c>
       <c r="C201" t="s">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="D201" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
-      <c r="B202" s="24"/>
-      <c r="C202" t="s">
-        <v>195</v>
-      </c>
-      <c r="D202" t="s">
-        <v>196</v>
+      <c r="B202" s="24" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
-      <c r="B203" s="24"/>
-      <c r="C203" t="s">
-        <v>379</v>
-      </c>
-      <c r="D203" t="s">
-        <v>380</v>
+      <c r="B203" s="24" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
-      <c r="B204" s="24"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="20"/>
-      <c r="B205" s="24"/>
-      <c r="C205" s="24" t="s">
-        <v>358</v>
+      <c r="B204" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="18"/>
+      <c r="B205" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="20"/>
       <c r="B206" s="24"/>
-      <c r="C206" t="s">
-        <v>360</v>
-      </c>
-      <c r="D206" t="s">
-        <v>359</v>
+      <c r="C206" s="25" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="20"/>
       <c r="B207" s="24"/>
-    </row>
-    <row r="208" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="21"/>
-      <c r="B208" s="27"/>
+      <c r="C207" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="20"/>
+      <c r="B208" s="24"/>
+      <c r="C208" t="s">
+        <v>192</v>
+      </c>
+      <c r="D208" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="20"/>
-      <c r="B209" s="24" t="s">
-        <v>154</v>
+      <c r="B209" s="24"/>
+      <c r="C209" t="s">
+        <v>193</v>
+      </c>
+      <c r="D209" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="20"/>
-      <c r="B210" s="24" t="s">
-        <v>155</v>
+      <c r="B210" s="24"/>
+      <c r="C210" t="s">
+        <v>377</v>
+      </c>
+      <c r="D210" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="20"/>
-      <c r="B211" s="24" t="s">
-        <v>130</v>
-      </c>
+      <c r="B211" s="24"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="20"/>
-      <c r="B212" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C212" t="s">
-        <v>157</v>
+      <c r="B212" s="24"/>
+      <c r="C212" s="24" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="20"/>
-      <c r="B213" s="24" t="s">
-        <v>180</v>
-      </c>
+      <c r="B213" s="24"/>
       <c r="C213" t="s">
-        <v>181</v>
+        <v>358</v>
+      </c>
+      <c r="D213" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="20"/>
-      <c r="B214" s="24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
-      <c r="B215" s="24"/>
+      <c r="B214" s="24"/>
+    </row>
+    <row r="215" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="21"/>
+      <c r="B215" s="27"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
       <c r="B216" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="20"/>
-      <c r="B217" s="24"/>
-      <c r="C217" t="s">
-        <v>361</v>
+      <c r="B217" s="24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="20"/>
-      <c r="B218" s="24"/>
-      <c r="C218" t="s">
-        <v>302</v>
-      </c>
-      <c r="D218" t="s">
-        <v>362</v>
+      <c r="B218" s="24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="20"/>
-      <c r="B219" s="24"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="20"/>
-      <c r="B220" s="24"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="20"/>
-      <c r="B221" s="24"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="20"/>
-      <c r="B222" s="24" t="s">
+      <c r="B219" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C219" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="18"/>
+      <c r="B220" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="C220" s="65"/>
+      <c r="D220" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="19"/>
+      <c r="B221" s="25"/>
+      <c r="C221" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="19"/>
+      <c r="B222" s="25"/>
+      <c r="C222" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="19"/>
+      <c r="B223" s="25"/>
+      <c r="C223" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="19"/>
+      <c r="B224" s="25"/>
+      <c r="C224" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="D224" s="13" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="19"/>
+      <c r="B225" s="25"/>
+      <c r="C225" s="13"/>
+    </row>
+    <row r="226" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="19"/>
+      <c r="B226" s="25"/>
+      <c r="C226" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="19"/>
+      <c r="B227" s="25"/>
+    </row>
+    <row r="228" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="19"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="13"/>
+    </row>
+    <row r="229" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="18"/>
+      <c r="B229" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="20"/>
+      <c r="B230" s="24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="20"/>
+      <c r="B231" s="24"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="20"/>
+      <c r="B232" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="20"/>
+      <c r="B233" s="24"/>
+      <c r="C233" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="20"/>
+      <c r="B234" s="24"/>
+      <c r="C234" t="s">
+        <v>300</v>
+      </c>
+      <c r="D234" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="20"/>
+      <c r="B235" s="24"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="20"/>
+      <c r="B236" s="24"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="20"/>
+      <c r="B237" s="24"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="20"/>
+      <c r="B238" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C238" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="20"/>
+      <c r="B239" s="24"/>
+      <c r="C239" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="20"/>
+      <c r="B240" s="24"/>
+      <c r="C240" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="20"/>
-      <c r="B223" s="24"/>
-      <c r="C223" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="20"/>
-      <c r="B224" s="24"/>
-      <c r="C224" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="20"/>
-      <c r="B225" s="24" t="s">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="20"/>
+      <c r="B241" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C241" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="226" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="65" t="s">
-        <v>615</v>
-      </c>
-      <c r="C226" s="65" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="66" t="s">
-        <v>617</v>
-      </c>
-      <c r="D232" s="66" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="66" t="s">
-        <v>619</v>
-      </c>
-      <c r="D235" s="66" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="66" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="66" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="66" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="C242" s="66" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="67" t="s">
-        <v>622</v>
-      </c>
-      <c r="D243" s="67" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="67" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="18"/>
-      <c r="B248" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C248" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="18"/>
+      <c r="B242" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="C242" s="65" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="20"/>
+      <c r="B243" s="24"/>
+      <c r="C243" s="13" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="20"/>
+      <c r="B244" s="24"/>
+      <c r="C244" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="D244" s="55" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="20"/>
+      <c r="B245" s="24"/>
+      <c r="C245" s="13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="20"/>
+      <c r="B246" s="24"/>
+      <c r="C246" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="D246" s="55" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="20"/>
+      <c r="B247" s="24"/>
+      <c r="C247" s="13"/>
+    </row>
+    <row r="248" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="20"/>
+      <c r="B248" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="D248" s="55" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
       <c r="B249" s="24"/>
-      <c r="C249" t="s">
-        <v>126</v>
-      </c>
-      <c r="D249" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="20"/>
       <c r="B250" s="24"/>
-      <c r="C250" t="s">
-        <v>128</v>
-      </c>
-      <c r="D250" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="20"/>
-      <c r="B251" s="24"/>
-      <c r="C251" t="s">
-        <v>130</v>
-      </c>
-      <c r="D251" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B251" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C251" s="55" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
-      <c r="B252" s="24"/>
-      <c r="C252" t="s">
-        <v>132</v>
-      </c>
-      <c r="D252" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C252" s="55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="B253" s="24"/>
-      <c r="C253" t="s">
-        <v>134</v>
-      </c>
-      <c r="D253" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="20"/>
-      <c r="B254" s="24"/>
-      <c r="C254" t="s">
-        <v>136</v>
-      </c>
-      <c r="D254" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="20"/>
-      <c r="B255" s="24"/>
-      <c r="C255" t="s">
-        <v>138</v>
-      </c>
-      <c r="D255" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="20"/>
-      <c r="B256" s="24"/>
-      <c r="C256" t="s">
-        <v>140</v>
-      </c>
-      <c r="D256" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="18"/>
+      <c r="B254" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="C254" s="65" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="19"/>
+      <c r="B255" s="25"/>
+      <c r="C255" s="13" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="19"/>
+      <c r="B256" s="25"/>
+    </row>
+    <row r="257" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="20"/>
       <c r="B257" s="24"/>
-      <c r="C257" t="s">
-        <v>142</v>
-      </c>
-      <c r="D257" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="20"/>
-      <c r="B258" s="24"/>
-      <c r="C258" t="s">
-        <v>144</v>
-      </c>
-      <c r="D258" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="19"/>
-      <c r="B259" s="25"/>
-      <c r="C259" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D259" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="19"/>
-      <c r="B260" s="25"/>
-    </row>
-    <row r="261" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="19"/>
-      <c r="B261" s="25"/>
-      <c r="C261" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="19"/>
-      <c r="B262" s="25"/>
-      <c r="C262" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D262" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="19"/>
-      <c r="B263" s="25"/>
+    </row>
+    <row r="258" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="18"/>
+      <c r="B258" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C258" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="20"/>
+      <c r="B259" s="24"/>
+      <c r="C259" t="s">
+        <v>126</v>
+      </c>
+      <c r="D259" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="20"/>
+      <c r="B260" s="24"/>
+      <c r="C260" t="s">
+        <v>128</v>
+      </c>
+      <c r="D260" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="20"/>
+      <c r="B261" s="24"/>
+      <c r="C261" t="s">
+        <v>130</v>
+      </c>
+      <c r="D261" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="20"/>
+      <c r="B262" s="24"/>
+      <c r="C262" t="s">
+        <v>132</v>
+      </c>
+      <c r="D262" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="20"/>
+      <c r="B263" s="24"/>
+      <c r="C263" t="s">
+        <v>134</v>
+      </c>
+      <c r="D263" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="20"/>
       <c r="B264" s="24"/>
-    </row>
-    <row r="265" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="18"/>
-      <c r="B265" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="19"/>
-      <c r="B266" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="C266" s="13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="19"/>
-      <c r="B267" s="25"/>
-      <c r="C267" s="13"/>
+      <c r="C264" t="s">
+        <v>136</v>
+      </c>
+      <c r="D264" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="20"/>
+      <c r="B265" s="24"/>
+      <c r="C265" t="s">
+        <v>138</v>
+      </c>
+      <c r="D265" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="20"/>
+      <c r="B266" s="24"/>
+      <c r="C266" t="s">
+        <v>140</v>
+      </c>
+      <c r="D266" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="20"/>
+      <c r="B267" s="24"/>
+      <c r="C267" t="s">
+        <v>142</v>
+      </c>
+      <c r="D267" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="20"/>
-      <c r="B268" s="24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="20"/>
-      <c r="B269" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="20"/>
-      <c r="B270" s="24"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="20"/>
-      <c r="B271" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C271" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="20"/>
-      <c r="B272" s="24"/>
-      <c r="C272" t="s">
-        <v>304</v>
-      </c>
-      <c r="D272" t="s">
+      <c r="B268" s="24"/>
+      <c r="C268" t="s">
+        <v>144</v>
+      </c>
+      <c r="D268" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="19"/>
+      <c r="B269" s="25"/>
+      <c r="C269" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D269" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="19"/>
+      <c r="B270" s="25"/>
+    </row>
+    <row r="271" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="19"/>
+      <c r="B271" s="25"/>
+      <c r="C271" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="19"/>
+      <c r="B272" s="25"/>
+      <c r="C272" s="13" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="20"/>
-      <c r="B273" s="24"/>
+      <c r="D272" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="19"/>
+      <c r="B273" s="25"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
-      <c r="B274" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="20"/>
-      <c r="B275" s="24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="18"/>
-      <c r="B276" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="20"/>
-      <c r="B277" s="24"/>
-      <c r="C277" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="20"/>
-      <c r="B278" s="24"/>
-      <c r="C278" t="s">
-        <v>188</v>
+      <c r="B274" s="24"/>
+    </row>
+    <row r="275" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="18"/>
+      <c r="B275" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="19"/>
+      <c r="B276" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="C276" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="19"/>
+      <c r="B277" s="25"/>
+      <c r="C277" s="13"/>
+    </row>
+    <row r="278" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="18"/>
+      <c r="B278" s="26" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="20"/>
-      <c r="B279" s="24"/>
-      <c r="C279" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="21"/>
-      <c r="B280" s="27"/>
-      <c r="C280" s="9" t="s">
-        <v>190</v>
-      </c>
+      <c r="B279" s="24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="20"/>
+      <c r="B280" s="24"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="20"/>
-      <c r="B281" s="24"/>
+      <c r="B281" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C281" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="20"/>
       <c r="B282" s="24"/>
+      <c r="C282" t="s">
+        <v>302</v>
+      </c>
+      <c r="D282" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="20"/>
@@ -4532,461 +4711,469 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="20"/>
-      <c r="B284" s="24" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="18"/>
-      <c r="B285" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C285" s="26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="19"/>
-      <c r="B286" s="25"/>
-      <c r="C286" s="13" t="s">
+      <c r="B284" s="24"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="20"/>
+      <c r="B285" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="18"/>
+      <c r="B286" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="20"/>
+      <c r="B287" s="24"/>
+      <c r="C287" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="20"/>
+      <c r="B288" s="24"/>
+      <c r="C288" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="20"/>
+      <c r="B289" s="24"/>
+      <c r="C289" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="21"/>
+      <c r="B290" s="27"/>
+      <c r="C290" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="18"/>
+      <c r="B291" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C291" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="19"/>
+      <c r="B292" s="25"/>
+      <c r="C292" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="287" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="19"/>
-      <c r="B287" s="25"/>
-      <c r="C287" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D287" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="19"/>
-      <c r="B288" s="25"/>
-      <c r="C288" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="D288" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="19"/>
-      <c r="B289" s="25"/>
-      <c r="C289" s="13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="19"/>
-      <c r="B290" s="25"/>
-      <c r="C290" s="13"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="20"/>
-      <c r="B291" s="24"/>
-      <c r="C291" s="24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="20"/>
-      <c r="B292" s="24"/>
-      <c r="C292" t="s">
-        <v>271</v>
-      </c>
-      <c r="D292" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="20"/>
-      <c r="B293" s="24"/>
-      <c r="C293" t="s">
-        <v>273</v>
-      </c>
-      <c r="D293" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="20"/>
-      <c r="B294" s="24"/>
-      <c r="C294" t="s">
-        <v>275</v>
-      </c>
-      <c r="D294" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="20"/>
-      <c r="B295" s="24"/>
-      <c r="C295" t="s">
-        <v>277</v>
-      </c>
-      <c r="D295" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="20"/>
-      <c r="B296" s="24"/>
-      <c r="C296" t="s">
-        <v>266</v>
-      </c>
-      <c r="D296" t="s">
-        <v>267</v>
-      </c>
+    <row r="293" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="19"/>
+      <c r="B293" s="25"/>
+      <c r="C293" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="19"/>
+      <c r="B294" s="25"/>
+      <c r="C294" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D294" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="19"/>
+      <c r="B295" s="25"/>
+      <c r="C295" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="19"/>
+      <c r="B296" s="25"/>
+      <c r="C296" s="13"/>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="20"/>
       <c r="B297" s="24"/>
-      <c r="C297" t="s">
-        <v>279</v>
+      <c r="C297" s="24" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="20"/>
       <c r="B298" s="24"/>
       <c r="C298" t="s">
-        <v>280</v>
+        <v>269</v>
+      </c>
+      <c r="D298" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="20"/>
       <c r="B299" s="24"/>
       <c r="C299" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D299" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="20"/>
       <c r="B300" s="24"/>
       <c r="C300" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D300" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="20"/>
       <c r="B301" s="24"/>
+      <c r="C301" t="s">
+        <v>275</v>
+      </c>
+      <c r="D301" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="20"/>
       <c r="B302" s="24"/>
-      <c r="C302" s="24" t="s">
-        <v>26</v>
+      <c r="C302" t="s">
+        <v>264</v>
+      </c>
+      <c r="D302" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="20"/>
       <c r="B303" s="24"/>
       <c r="C303" t="s">
-        <v>268</v>
-      </c>
-      <c r="D303" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="21"/>
-      <c r="B304" s="27"/>
-      <c r="C304" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D304" s="9" t="s">
-        <v>270</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="20"/>
+      <c r="B304" s="24"/>
+      <c r="C304" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="20"/>
-      <c r="B305" s="24" t="s">
-        <v>170</v>
+      <c r="B305" s="24"/>
+      <c r="C305" t="s">
+        <v>279</v>
+      </c>
+      <c r="D305" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="20"/>
-      <c r="B306" s="24" t="s">
-        <v>171</v>
-      </c>
+      <c r="B306" s="24"/>
       <c r="C306" t="s">
-        <v>172</v>
+        <v>281</v>
+      </c>
+      <c r="D306" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="20"/>
-      <c r="B307" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C307" t="s">
-        <v>174</v>
-      </c>
+      <c r="B307" s="24"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="20"/>
-      <c r="B308" s="24" t="s">
-        <v>175</v>
+      <c r="B308" s="24"/>
+      <c r="C308" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="20"/>
       <c r="B309" s="24"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="20"/>
-      <c r="B310" s="24"/>
-    </row>
-    <row r="311" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="20" t="s">
-        <v>34</v>
+      <c r="C309" t="s">
+        <v>266</v>
+      </c>
+      <c r="D309" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="21"/>
+      <c r="B310" s="27"/>
+      <c r="C310" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="20"/>
+      <c r="B311" s="24" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="20"/>
       <c r="B312" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="C312" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="20"/>
-      <c r="B313" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="20"/>
-      <c r="B314" s="24" t="s">
-        <v>388</v>
+      <c r="B313" s="24"/>
+    </row>
+    <row r="314" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="20"/>
-      <c r="B315" s="24"/>
-    </row>
-    <row r="316" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="B316" s="48"/>
-    </row>
-    <row r="317" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="31" t="s">
+      <c r="B315" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="20"/>
+      <c r="B316" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="20"/>
+      <c r="B317" s="24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="20"/>
+      <c r="B318" s="24"/>
+    </row>
+    <row r="319" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B319" s="48"/>
+    </row>
+    <row r="320" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="31" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="28"/>
-      <c r="B318" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C318" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="28"/>
-      <c r="B319" s="34"/>
-      <c r="C319" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="28"/>
-      <c r="B320" s="34"/>
-      <c r="C320" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D320" s="12" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="321" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="28"/>
-      <c r="B321" s="34"/>
+      <c r="B321" s="34" t="s">
+        <v>231</v>
+      </c>
       <c r="C321" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D321" s="12" t="s">
-        <v>333</v>
+        <v>232</v>
       </c>
     </row>
     <row r="322" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="28"/>
       <c r="B322" s="34"/>
-      <c r="C322" s="13" t="s">
-        <v>287</v>
+      <c r="C322" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="28"/>
       <c r="B323" s="34"/>
-      <c r="C323" s="13" t="s">
-        <v>329</v>
+      <c r="C323" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D323" s="12" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="324" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="28"/>
       <c r="B324" s="34"/>
-      <c r="C324" s="13" t="s">
-        <v>336</v>
+      <c r="C324" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D324" s="12" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="325" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="28"/>
       <c r="B325" s="34"/>
       <c r="C325" s="13" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
     </row>
     <row r="326" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="28"/>
       <c r="B326" s="34"/>
       <c r="C326" s="13" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="327" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="28"/>
       <c r="B327" s="34"/>
       <c r="C327" s="13" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
     </row>
     <row r="328" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="28"/>
       <c r="B328" s="34"/>
       <c r="C328" s="13" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="329" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="28"/>
       <c r="B329" s="34"/>
+      <c r="C329" s="13" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="330" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="28"/>
-      <c r="B330" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C330" s="12" t="s">
-        <v>347</v>
+      <c r="B330" s="34"/>
+      <c r="C330" s="13" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="331" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="28"/>
       <c r="B331" s="34"/>
       <c r="C331" s="13" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
     </row>
     <row r="332" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="28"/>
       <c r="B332" s="34"/>
-      <c r="C332" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D332" s="12" t="s">
-        <v>348</v>
-      </c>
     </row>
     <row r="333" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="28"/>
-      <c r="B333" s="34"/>
-      <c r="C333" s="13" t="s">
-        <v>344</v>
+      <c r="B333" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C333" s="12" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="334" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="28"/>
       <c r="B334" s="34"/>
+      <c r="C334" s="13" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="335" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28"/>
       <c r="B335" s="34"/>
+      <c r="C335" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D335" s="12" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="336" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="28"/>
       <c r="B336" s="34"/>
+      <c r="C336" s="13" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="337" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="28"/>
-      <c r="B337" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="C337" s="12" t="s">
-        <v>237</v>
-      </c>
+      <c r="B337" s="34"/>
     </row>
     <row r="338" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="28"/>
       <c r="B338" s="34"/>
-      <c r="C338" s="13" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="339" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="28"/>
       <c r="B339" s="34"/>
-      <c r="C339" s="13" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="340" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="28"/>
-      <c r="B340" s="34"/>
+      <c r="B340" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="341" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="28"/>
       <c r="B341" s="34"/>
+      <c r="C341" s="13" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="342" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="28"/>
       <c r="B342" s="34"/>
+      <c r="C342" s="13" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="343" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="28"/>
-      <c r="B343" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C343" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="29"/>
+      <c r="B343" s="34"/>
+    </row>
+    <row r="344" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="28"/>
       <c r="B344" s="34"/>
-      <c r="C344" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="29"/>
+    </row>
+    <row r="345" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="28"/>
       <c r="B345" s="34"/>
-      <c r="C345" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="29"/>
-      <c r="B346" s="34"/>
+    </row>
+    <row r="346" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="28"/>
+      <c r="B346" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="29"/>
-      <c r="B347" s="29" t="s">
-        <v>9</v>
+      <c r="B347" s="34"/>
+      <c r="C347" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="29"/>
       <c r="B348" s="34"/>
+      <c r="C348" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="29"/>
@@ -4995,7 +5182,7 @@
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="29"/>
       <c r="B350" s="29" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -5008,526 +5195,519 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="29"/>
-      <c r="B353" s="34"/>
-    </row>
-    <row r="354" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="B354" s="42"/>
-    </row>
-    <row r="355" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B355" s="37" t="s">
+      <c r="B353" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="29"/>
+      <c r="B354" s="34"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="29"/>
+      <c r="B355" s="34"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="29"/>
+      <c r="B356" s="34"/>
+    </row>
+    <row r="357" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="B357" s="42"/>
+    </row>
+    <row r="358" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B358" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="36"/>
-      <c r="B356" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="C356" s="50" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" s="33"/>
-      <c r="B357" s="38"/>
-      <c r="C357" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="33"/>
-      <c r="B358" s="38"/>
-      <c r="C358" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" s="33"/>
-      <c r="B359" s="38"/>
-      <c r="C359" t="s">
-        <v>296</v>
+    <row r="359" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="36"/>
+      <c r="B359" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="C359" s="50" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="33"/>
       <c r="B360" s="38"/>
+      <c r="C360" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="33"/>
       <c r="B361" s="38"/>
-    </row>
-    <row r="362" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="36"/>
-      <c r="B362" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C362" s="50" t="s">
-        <v>242</v>
+      <c r="C361" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="33"/>
+      <c r="B362" s="38"/>
+      <c r="C362" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="33"/>
       <c r="B363" s="38"/>
-      <c r="C363" t="s">
-        <v>253</v>
-      </c>
-      <c r="D363" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="33"/>
       <c r="B364" s="38"/>
-      <c r="C364" t="s">
-        <v>254</v>
-      </c>
-      <c r="D364" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="33"/>
-      <c r="B365" s="38"/>
-      <c r="C365" t="s">
-        <v>252</v>
+    </row>
+    <row r="365" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="36"/>
+      <c r="B365" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C365" s="50" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="33"/>
       <c r="B366" s="38"/>
       <c r="C366" t="s">
-        <v>367</v>
+        <v>251</v>
       </c>
       <c r="D366" t="s">
-        <v>368</v>
+        <v>19</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="33"/>
       <c r="B367" s="38"/>
-    </row>
-    <row r="368" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="36"/>
-      <c r="B368" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="C368" s="50" t="s">
-        <v>237</v>
+      <c r="C367" t="s">
+        <v>252</v>
+      </c>
+      <c r="D367" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="33"/>
+      <c r="B368" s="38"/>
+      <c r="C368" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="33"/>
       <c r="B369" s="38"/>
       <c r="C369" t="s">
-        <v>255</v>
+        <v>365</v>
+      </c>
+      <c r="D369" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="33"/>
       <c r="B370" s="38"/>
-      <c r="C370" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" s="33"/>
-      <c r="B371" s="38"/>
-      <c r="C371" t="s">
-        <v>331</v>
+    </row>
+    <row r="371" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="36"/>
+      <c r="B371" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C371" s="50" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="33"/>
       <c r="B372" s="38"/>
-    </row>
-    <row r="373" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="36"/>
-      <c r="B373" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C373" s="50" t="s">
-        <v>239</v>
+      <c r="C372" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="33"/>
+      <c r="B373" s="38"/>
+      <c r="C373" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="33"/>
       <c r="B374" s="38"/>
       <c r="C374" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="33"/>
       <c r="B375" s="38"/>
-      <c r="C375" t="s">
-        <v>258</v>
-      </c>
-      <c r="D375" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" s="33"/>
-      <c r="B376" s="38"/>
-      <c r="C376" t="s">
-        <v>317</v>
-      </c>
-      <c r="D376" t="s">
-        <v>319</v>
+    </row>
+    <row r="376" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="36"/>
+      <c r="B376" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C376" s="50" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="33"/>
       <c r="B377" s="38"/>
       <c r="C377" t="s">
-        <v>320</v>
-      </c>
-      <c r="D377" t="s">
-        <v>321</v>
+        <v>255</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="33"/>
       <c r="B378" s="38"/>
       <c r="C378" t="s">
-        <v>322</v>
+        <v>256</v>
+      </c>
+      <c r="D378" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="33"/>
       <c r="B379" s="38"/>
       <c r="C379" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D379" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="33"/>
       <c r="B380" s="38"/>
       <c r="C380" t="s">
-        <v>325</v>
+        <v>318</v>
+      </c>
+      <c r="D380" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="33"/>
       <c r="B381" s="38"/>
       <c r="C381" t="s">
-        <v>326</v>
-      </c>
-      <c r="D381" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="33"/>
       <c r="B382" s="38"/>
       <c r="C382" t="s">
-        <v>328</v>
+        <v>321</v>
+      </c>
+      <c r="D382" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="33"/>
       <c r="B383" s="38"/>
       <c r="C383" t="s">
-        <v>329</v>
-      </c>
-      <c r="D383" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="33"/>
       <c r="B384" s="38"/>
       <c r="C384" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="D384" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="33"/>
       <c r="B385" s="38"/>
-    </row>
-    <row r="386" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="36"/>
-      <c r="B386" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C386" s="50" t="s">
-        <v>245</v>
+      <c r="C385" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="33"/>
+      <c r="B386" s="38"/>
+      <c r="C386" t="s">
+        <v>327</v>
+      </c>
+      <c r="D386" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="33"/>
       <c r="B387" s="38"/>
       <c r="C387" t="s">
-        <v>253</v>
+        <v>367</v>
+      </c>
+      <c r="D387" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="33"/>
       <c r="B388" s="38"/>
-      <c r="C388" t="s">
-        <v>340</v>
-      </c>
-      <c r="D388" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="33"/>
-      <c r="B389" s="38"/>
-      <c r="C389" t="s">
-        <v>342</v>
-      </c>
-      <c r="D389" t="s">
-        <v>343</v>
+    </row>
+    <row r="389" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="36"/>
+      <c r="B389" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C389" s="50" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="33"/>
       <c r="B390" s="38"/>
       <c r="C390" t="s">
-        <v>322</v>
-      </c>
-      <c r="D390" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="33"/>
       <c r="B391" s="38"/>
       <c r="C391" t="s">
-        <v>344</v>
+        <v>338</v>
+      </c>
+      <c r="D391" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="33"/>
       <c r="B392" s="38"/>
       <c r="C392" t="s">
-        <v>254</v>
+        <v>340</v>
+      </c>
+      <c r="D392" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="33"/>
       <c r="B393" s="38"/>
       <c r="C393" t="s">
-        <v>339</v>
+        <v>320</v>
+      </c>
+      <c r="D393" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="33"/>
       <c r="B394" s="38"/>
       <c r="C394" t="s">
-        <v>345</v>
-      </c>
-      <c r="D394" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="33"/>
       <c r="B395" s="38"/>
-    </row>
-    <row r="396" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B396" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C395" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="33"/>
+      <c r="B396" s="38"/>
+      <c r="C396" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="33"/>
-      <c r="B397" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="C397" s="38" t="s">
-        <v>291</v>
+      <c r="B397" s="38"/>
+      <c r="C397" t="s">
+        <v>343</v>
+      </c>
+      <c r="D397" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="33"/>
       <c r="B398" s="38"/>
-      <c r="C398" s="38" t="s">
+    </row>
+    <row r="399" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B399" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="33"/>
+      <c r="B400" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C400" s="38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="33"/>
+      <c r="B401" s="38"/>
+      <c r="C401" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="33"/>
-      <c r="B399" s="38"/>
-      <c r="C399" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="33"/>
-      <c r="B400" s="38"/>
-      <c r="C400" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="33"/>
-      <c r="B401" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="33"/>
       <c r="B402" s="38"/>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C402" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="33"/>
       <c r="B403" s="38"/>
-    </row>
-    <row r="404" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="B404" s="40" t="s">
+      <c r="C403" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="33"/>
+      <c r="B404" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="33"/>
+      <c r="B405" s="38"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="33"/>
+      <c r="B406" s="38"/>
+    </row>
+    <row r="407" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="B407" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="32"/>
-      <c r="B405" s="35" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="32"/>
-      <c r="B406" s="35" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="32"/>
-      <c r="B407" s="35" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="32"/>
       <c r="B408" s="35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="32"/>
       <c r="B409" s="35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="32"/>
-      <c r="B410" s="35"/>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B410" s="35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="32"/>
-      <c r="B411" s="35"/>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B411" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="32"/>
-      <c r="B412" s="35"/>
-    </row>
-    <row r="413" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C413" s="54"/>
-    </row>
-    <row r="414" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B414" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="C414" s="58" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="4"/>
-      <c r="B415" s="57"/>
-      <c r="C415" s="57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="4"/>
-      <c r="B416" s="57"/>
-      <c r="C416" s="55" t="s">
-        <v>423</v>
-      </c>
-      <c r="D416" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="4"/>
-      <c r="B417" s="57"/>
-      <c r="C417" s="55" t="s">
-        <v>425</v>
+      <c r="B412" s="35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="32"/>
+      <c r="B413" s="35"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="32"/>
+      <c r="B414" s="35"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="32"/>
+      <c r="B415" s="35"/>
+    </row>
+    <row r="416" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C416" s="54"/>
+    </row>
+    <row r="417" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B417" s="56" t="s">
+        <v>389</v>
+      </c>
+      <c r="C417" s="58" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="B418" s="57"/>
-      <c r="C418" s="55" t="s">
-        <v>428</v>
+      <c r="C418" s="57" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="B419" s="57"/>
       <c r="C419" s="55" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D419" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
       <c r="B420" s="57"/>
       <c r="C420" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="D420" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="B421" s="57"/>
       <c r="C421" s="55" t="s">
-        <v>447</v>
-      </c>
-      <c r="D421" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="B422" s="57"/>
       <c r="C422" s="55" t="s">
-        <v>435</v>
+        <v>424</v>
+      </c>
+      <c r="D422" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
       <c r="B423" s="57"/>
       <c r="C423" s="55" t="s">
-        <v>430</v>
+        <v>418</v>
+      </c>
+      <c r="D423" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
       <c r="B424" s="57"/>
       <c r="C424" s="55" t="s">
-        <v>434</v>
+        <v>445</v>
+      </c>
+      <c r="D424" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -5541,7 +5721,7 @@
       <c r="A426" s="4"/>
       <c r="B426" s="57"/>
       <c r="C426" s="55" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -5555,75 +5735,79 @@
       <c r="A428" s="4"/>
       <c r="B428" s="57"/>
       <c r="C428" s="55" t="s">
-        <v>446</v>
-      </c>
-      <c r="D428" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
       <c r="B429" s="57"/>
-      <c r="C429" s="55"/>
+      <c r="C429" s="55" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
       <c r="B430" s="57"/>
-      <c r="C430" s="55"/>
+      <c r="C430" s="55" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
-      <c r="B431" s="57" t="s">
-        <v>438</v>
-      </c>
+      <c r="B431" s="57"/>
       <c r="C431" s="55" t="s">
-        <v>440</v>
+        <v>444</v>
+      </c>
+      <c r="D431" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
       <c r="B432" s="57"/>
-      <c r="C432" s="55" t="s">
-        <v>441</v>
-      </c>
+      <c r="C432" s="55"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
       <c r="B433" s="57"/>
-      <c r="C433" s="55" t="s">
-        <v>439</v>
-      </c>
+      <c r="C433" s="55"/>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
-      <c r="B434" s="57"/>
+      <c r="B434" s="57" t="s">
+        <v>436</v>
+      </c>
       <c r="C434" s="55" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
       <c r="B435" s="57"/>
       <c r="C435" s="55" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
       <c r="B436" s="57"/>
-      <c r="C436" s="55"/>
+      <c r="C436" s="55" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
-      <c r="B437" s="57" t="s">
-        <v>436</v>
-      </c>
-      <c r="C437" s="55"/>
+      <c r="B437" s="57"/>
+      <c r="C437" s="55" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
       <c r="B438" s="57"/>
-      <c r="C438" s="55"/>
+      <c r="C438" s="55" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
@@ -5633,281 +5817,266 @@
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
       <c r="B440" s="57" t="s">
-        <v>437</v>
-      </c>
-      <c r="C440" s="55" t="s">
-        <v>444</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C440" s="55"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
       <c r="B441" s="57"/>
-      <c r="C441" s="55" t="s">
-        <v>445</v>
-      </c>
+      <c r="C441" s="55"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
       <c r="B442" s="57"/>
+      <c r="C442" s="55"/>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
-      <c r="B443" s="57"/>
-    </row>
-    <row r="444" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="16"/>
-      <c r="B445" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D445" s="14" t="s">
-        <v>550</v>
-      </c>
+      <c r="B443" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="C443" s="55" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="4"/>
+      <c r="B444" s="57"/>
+      <c r="C444" s="55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="4"/>
+      <c r="B445" s="57"/>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="16"/>
-      <c r="B446" s="17"/>
-      <c r="C446" s="62" t="s">
-        <v>495</v>
-      </c>
-      <c r="D446" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="16"/>
-      <c r="B447" s="17"/>
-      <c r="C447" s="62" t="s">
-        <v>497</v>
-      </c>
-      <c r="D447" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="4"/>
+      <c r="B446" s="57"/>
+    </row>
+    <row r="447" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="16"/>
-      <c r="B448" s="17"/>
-      <c r="C448" s="63" t="s">
-        <v>499</v>
-      </c>
-      <c r="D448" t="s">
-        <v>500</v>
+      <c r="B448" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="D448" s="14" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="16"/>
       <c r="B449" s="17"/>
-      <c r="C449" s="59" t="s">
-        <v>556</v>
+      <c r="C449" s="62" t="s">
+        <v>493</v>
       </c>
       <c r="D449" t="s">
-        <v>557</v>
+        <v>494</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="16"/>
       <c r="B450" s="17"/>
-      <c r="C450" s="59" t="s">
-        <v>558</v>
+      <c r="C450" s="62" t="s">
+        <v>495</v>
       </c>
       <c r="D450" t="s">
-        <v>559</v>
+        <v>496</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="16"/>
       <c r="B451" s="17"/>
-      <c r="C451" s="59" t="s">
-        <v>560</v>
+      <c r="C451" s="63" t="s">
+        <v>497</v>
       </c>
       <c r="D451" t="s">
-        <v>561</v>
+        <v>498</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="16"/>
       <c r="B452" s="17"/>
       <c r="C452" s="59" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D452" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="16"/>
       <c r="B453" s="17"/>
       <c r="C453" s="59" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D453" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="16"/>
       <c r="B454" s="17"/>
       <c r="C454" s="59" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D454" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="16"/>
       <c r="B455" s="17"/>
       <c r="C455" s="59" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D455" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="16"/>
       <c r="B456" s="17"/>
       <c r="C456" s="59" t="s">
-        <v>570</v>
-      </c>
-      <c r="D456" s="11" t="s">
-        <v>571</v>
+        <v>561</v>
+      </c>
+      <c r="D456" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="16"/>
       <c r="B457" s="17"/>
       <c r="C457" s="59" t="s">
-        <v>572</v>
-      </c>
-      <c r="D457" s="11" t="s">
-        <v>573</v>
+        <v>563</v>
+      </c>
+      <c r="D457" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="16"/>
       <c r="B458" s="17"/>
       <c r="C458" s="59" t="s">
-        <v>574</v>
-      </c>
-      <c r="D458" s="11" t="s">
-        <v>575</v>
+        <v>565</v>
+      </c>
+      <c r="D458" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="16"/>
       <c r="B459" s="17"/>
       <c r="C459" s="59" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D459" s="11" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="16"/>
       <c r="B460" s="17"/>
       <c r="C460" s="59" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D460" s="11" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="16"/>
       <c r="B461" s="17"/>
-      <c r="C461" t="s">
-        <v>580</v>
-      </c>
-      <c r="D461" t="s">
-        <v>581</v>
+      <c r="C461" s="59" t="s">
+        <v>571</v>
+      </c>
+      <c r="D461" s="11" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="16"/>
       <c r="B462" s="17"/>
-      <c r="C462" t="s">
-        <v>582</v>
-      </c>
-      <c r="D462" t="s">
-        <v>583</v>
+      <c r="C462" s="59" t="s">
+        <v>573</v>
+      </c>
+      <c r="D462" s="11" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="16"/>
       <c r="B463" s="17"/>
-      <c r="C463" t="s">
-        <v>584</v>
-      </c>
-      <c r="D463" t="s">
-        <v>585</v>
+      <c r="C463" s="59" t="s">
+        <v>575</v>
+      </c>
+      <c r="D463" s="11" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="16"/>
       <c r="B464" s="17"/>
       <c r="C464" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D464" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="16"/>
       <c r="B465" s="17"/>
       <c r="C465" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D465" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="16"/>
       <c r="B466" s="17"/>
+      <c r="C466" t="s">
+        <v>581</v>
+      </c>
+      <c r="D466" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="16"/>
       <c r="B467" s="17"/>
-      <c r="C467" s="17" t="s">
-        <v>5</v>
+      <c r="C467" t="s">
+        <v>583</v>
+      </c>
+      <c r="D467" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="16"/>
       <c r="B468" s="17"/>
-      <c r="C468" s="59" t="s">
-        <v>551</v>
+      <c r="C468" t="s">
+        <v>585</v>
       </c>
       <c r="D468" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="16"/>
       <c r="B469" s="17"/>
-      <c r="C469" s="59" t="s">
-        <v>553</v>
-      </c>
-      <c r="D469" t="s">
-        <v>554</v>
-      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="16"/>
       <c r="B470" s="17"/>
-      <c r="C470" s="59" t="s">
-        <v>555</v>
-      </c>
-      <c r="D470" t="s">
-        <v>614</v>
-      </c>
+      <c r="C470" s="59"/>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="16"/>
@@ -5916,24 +6085,24 @@
     <row r="472" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="16"/>
       <c r="B472" s="14" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D472" s="14" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="16"/>
       <c r="B473" s="17"/>
       <c r="C473" s="11" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="16"/>
       <c r="B474" s="17"/>
       <c r="C474" s="11" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
@@ -5944,544 +6113,573 @@
       <c r="A476" s="16"/>
       <c r="B476" s="17"/>
       <c r="C476" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D476" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="16"/>
       <c r="B477" s="17"/>
       <c r="C477" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D477" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="16"/>
       <c r="B478" s="17"/>
       <c r="C478" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D478" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="16"/>
       <c r="B479" s="17"/>
       <c r="C479" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D479" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="16"/>
       <c r="B480" s="17"/>
       <c r="C480" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D480" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="16"/>
       <c r="B481" s="17"/>
       <c r="C481" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D481" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="16"/>
       <c r="B482" s="17"/>
       <c r="C482" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D482" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="16"/>
       <c r="B483" s="17"/>
       <c r="C483" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D483" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="16"/>
       <c r="B484" s="17"/>
       <c r="C484" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D484" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="16"/>
       <c r="B485" s="17"/>
       <c r="C485" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D485" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="16"/>
       <c r="B486" s="17"/>
       <c r="C486" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D486" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="16"/>
       <c r="B487" s="17"/>
       <c r="C487" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D487" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="16"/>
       <c r="B488" s="17"/>
       <c r="C488" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D488" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="16"/>
       <c r="B489" s="17"/>
       <c r="C489" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D489" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="16"/>
       <c r="B490" s="17"/>
       <c r="C490" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D490" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="16"/>
       <c r="B491" s="17"/>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="16"/>
-      <c r="B492" s="17"/>
-    </row>
-    <row r="493" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B492" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="D492" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="16"/>
-      <c r="B493" s="14" t="s">
-        <v>457</v>
+      <c r="B493" s="17"/>
+      <c r="C493" t="s">
+        <v>646</v>
+      </c>
+      <c r="D493" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="16"/>
       <c r="B494" s="17"/>
-      <c r="C494" s="17" t="s">
-        <v>464</v>
+      <c r="C494" t="s">
+        <v>648</v>
+      </c>
+      <c r="D494" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="16"/>
       <c r="B495" s="17"/>
       <c r="C495" t="s">
-        <v>469</v>
+        <v>652</v>
       </c>
       <c r="D495" t="s">
-        <v>471</v>
+        <v>653</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="16"/>
       <c r="B496" s="17"/>
       <c r="C496" t="s">
-        <v>470</v>
+        <v>650</v>
       </c>
       <c r="D496" t="s">
-        <v>472</v>
+        <v>651</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="16"/>
       <c r="B497" s="17"/>
-      <c r="C497" t="s">
-        <v>108</v>
-      </c>
-      <c r="D497" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="16"/>
-      <c r="B498" s="17"/>
-      <c r="C498" s="17" t="s">
-        <v>26</v>
+      <c r="B498" s="14" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="16"/>
       <c r="B499" s="17"/>
-      <c r="C499" t="s">
-        <v>474</v>
-      </c>
-      <c r="D499" t="s">
-        <v>477</v>
+      <c r="C499" s="17" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="16"/>
       <c r="B500" s="17"/>
       <c r="C500" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="D500" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="16"/>
       <c r="B501" s="17"/>
       <c r="C501" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D501" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="16"/>
       <c r="B502" s="17"/>
       <c r="C502" t="s">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="D502" t="s">
-        <v>549</v>
+        <v>471</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="16"/>
       <c r="B503" s="17"/>
       <c r="C503" s="17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="16"/>
       <c r="B504" s="17"/>
       <c r="C504" t="s">
-        <v>547</v>
+        <v>472</v>
       </c>
       <c r="D504" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="16"/>
-      <c r="B505" s="14" t="s">
-        <v>456</v>
+      <c r="B505" s="17"/>
+      <c r="C505" t="s">
+        <v>473</v>
+      </c>
+      <c r="D505" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="16"/>
       <c r="B506" s="17"/>
-      <c r="C506" s="17" t="s">
-        <v>464</v>
+      <c r="C506" t="s">
+        <v>474</v>
+      </c>
+      <c r="D506" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="16"/>
       <c r="B507" s="17"/>
       <c r="C507" t="s">
-        <v>458</v>
-      </c>
-      <c r="D507" s="11" t="s">
-        <v>459</v>
+        <v>315</v>
+      </c>
+      <c r="D507" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="16"/>
       <c r="B508" s="17"/>
-      <c r="C508" t="s">
-        <v>460</v>
-      </c>
-      <c r="D508" t="s">
-        <v>461</v>
+      <c r="C508" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="16"/>
       <c r="B509" s="17"/>
       <c r="C509" t="s">
-        <v>462</v>
+        <v>545</v>
       </c>
       <c r="D509" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="16"/>
-      <c r="B510" s="17"/>
-      <c r="C510" s="17" t="s">
-        <v>26</v>
+      <c r="B510" s="14" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="16"/>
       <c r="B511" s="17"/>
-      <c r="C511" t="s">
-        <v>465</v>
-      </c>
-      <c r="D511" t="s">
-        <v>544</v>
+      <c r="C511" s="17" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="16"/>
       <c r="B512" s="17"/>
       <c r="C512" t="s">
-        <v>466</v>
-      </c>
-      <c r="D512" t="s">
-        <v>467</v>
+        <v>456</v>
+      </c>
+      <c r="D512" s="11" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="16"/>
       <c r="B513" s="17"/>
       <c r="C513" t="s">
-        <v>108</v>
+        <v>458</v>
       </c>
       <c r="D513" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="16"/>
       <c r="B514" s="17"/>
-      <c r="C514" s="17" t="s">
-        <v>21</v>
+      <c r="C514" t="s">
+        <v>460</v>
+      </c>
+      <c r="D514" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="16"/>
       <c r="B515" s="17"/>
-      <c r="C515" t="s">
-        <v>545</v>
-      </c>
-      <c r="D515" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C515" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="16"/>
-      <c r="B516" s="14" t="s">
-        <v>480</v>
+      <c r="B516" s="17"/>
+      <c r="C516" t="s">
+        <v>463</v>
+      </c>
+      <c r="D516" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="16"/>
       <c r="B517" s="17"/>
       <c r="C517" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D517" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="16"/>
       <c r="B518" s="17"/>
       <c r="C518" t="s">
-        <v>482</v>
+        <v>108</v>
       </c>
       <c r="D518" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="16"/>
       <c r="B519" s="17"/>
-      <c r="C519" t="s">
-        <v>609</v>
+      <c r="C519" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="16"/>
       <c r="B520" s="17"/>
       <c r="C520" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
       <c r="D520" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A521" s="16"/>
-      <c r="B521" s="17"/>
-      <c r="C521" t="s">
-        <v>484</v>
-      </c>
-      <c r="D521" t="s">
-        <v>487</v>
+      <c r="B521" s="14" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="16"/>
       <c r="B522" s="17"/>
       <c r="C522" t="s">
-        <v>608</v>
-      </c>
-      <c r="D522" s="11" t="s">
-        <v>488</v>
+        <v>479</v>
+      </c>
+      <c r="D522" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="16"/>
       <c r="B523" s="17"/>
       <c r="C523" t="s">
-        <v>489</v>
-      </c>
-      <c r="D523" s="11" t="s">
-        <v>490</v>
+        <v>480</v>
+      </c>
+      <c r="D523" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="16"/>
       <c r="B524" s="17"/>
       <c r="C524" t="s">
-        <v>491</v>
-      </c>
-      <c r="D524" s="11" t="s">
-        <v>492</v>
+        <v>606</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="16"/>
       <c r="B525" s="17"/>
       <c r="C525" t="s">
-        <v>493</v>
-      </c>
-      <c r="D525" s="11" t="s">
-        <v>494</v>
+        <v>481</v>
+      </c>
+      <c r="D525" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="16"/>
       <c r="B526" s="17"/>
+      <c r="C526" t="s">
+        <v>482</v>
+      </c>
+      <c r="D526" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="16"/>
       <c r="B527" s="17"/>
-    </row>
-    <row r="528" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C527" t="s">
+        <v>605</v>
+      </c>
+      <c r="D527" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="16"/>
-      <c r="B528" s="14" t="s">
-        <v>535</v>
+      <c r="B528" s="17"/>
+      <c r="C528" t="s">
+        <v>487</v>
+      </c>
+      <c r="D528" s="11" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="16"/>
       <c r="B529" s="17"/>
-      <c r="C529" s="17" t="s">
-        <v>464</v>
+      <c r="C529" t="s">
+        <v>489</v>
+      </c>
+      <c r="D529" s="11" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="16"/>
       <c r="B530" s="17"/>
       <c r="C530" t="s">
-        <v>536</v>
-      </c>
-      <c r="D530" t="s">
-        <v>537</v>
+        <v>491</v>
+      </c>
+      <c r="D530" s="11" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="16"/>
       <c r="B531" s="17"/>
-      <c r="C531" s="17" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="16"/>
       <c r="B532" s="17"/>
-      <c r="C532" t="s">
-        <v>538</v>
-      </c>
-      <c r="D532" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="16"/>
-      <c r="B533" s="17"/>
-      <c r="C533" t="s">
-        <v>540</v>
-      </c>
-      <c r="D533" t="s">
-        <v>541</v>
+      <c r="B533" s="14" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="16"/>
       <c r="B534" s="17"/>
-      <c r="C534" t="s">
-        <v>543</v>
-      </c>
-      <c r="D534" t="s">
-        <v>542</v>
+      <c r="C534" s="17" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="16"/>
       <c r="B535" s="17"/>
+      <c r="C535" t="s">
+        <v>534</v>
+      </c>
+      <c r="D535" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="16"/>
       <c r="B536" s="17"/>
+      <c r="C536" s="17" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="16"/>
       <c r="B537" s="17"/>
+      <c r="C537" t="s">
+        <v>536</v>
+      </c>
+      <c r="D537" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="16"/>
       <c r="B538" s="17"/>
+      <c r="C538" t="s">
+        <v>538</v>
+      </c>
+      <c r="D538" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="16"/>
       <c r="B539" s="17"/>
+      <c r="C539" t="s">
+        <v>541</v>
+      </c>
+      <c r="D539" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="16"/>
@@ -6491,217 +6689,265 @@
       <c r="A541" s="16"/>
       <c r="B541" s="17"/>
     </row>
-    <row r="542" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="61" t="s">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A542" s="16"/>
+      <c r="B542" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A543" s="16"/>
+      <c r="B543" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="C543" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="16"/>
+      <c r="B544" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="C544" t="s">
+        <v>643</v>
+      </c>
+      <c r="D544" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="16"/>
+      <c r="B545" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="C545" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A546" s="16"/>
+      <c r="B546" s="17"/>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A547" s="16"/>
+      <c r="B547" s="17"/>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" s="16"/>
+      <c r="B548" s="17"/>
+    </row>
+    <row r="549" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="61" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="61"/>
+      <c r="B550" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D550" s="20" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="61"/>
-      <c r="B543" s="20" t="s">
-        <v>520</v>
-      </c>
-      <c r="D543" s="20" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A544" s="61"/>
-      <c r="B544" s="60"/>
-      <c r="C544" s="60" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A545" s="61"/>
-      <c r="B545" s="60"/>
-      <c r="C545" t="s">
-        <v>522</v>
-      </c>
-      <c r="D545" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A546" s="61"/>
-      <c r="B546" s="60"/>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A547" s="61"/>
-      <c r="B547" s="60"/>
-    </row>
-    <row r="548" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="61"/>
-      <c r="B548" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="D548" s="20" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A549" s="61"/>
-      <c r="B549" s="60"/>
-      <c r="C549" s="60" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A550" s="61"/>
-      <c r="B550" s="60"/>
-      <c r="C550" t="s">
-        <v>525</v>
-      </c>
-      <c r="D550" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="61"/>
       <c r="B551" s="60"/>
+      <c r="C551" s="60" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="61"/>
       <c r="B552" s="60"/>
-    </row>
-    <row r="553" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="61" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C552" t="s">
+        <v>520</v>
+      </c>
+      <c r="D552" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="61"/>
+      <c r="B553" s="60"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="61"/>
-      <c r="B554" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="D554" s="20" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B554" s="60"/>
+    </row>
+    <row r="555" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A555" s="61"/>
-      <c r="B555" s="60"/>
-      <c r="C555" s="60" t="s">
-        <v>464</v>
+      <c r="B555" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="D555" s="20" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="61"/>
       <c r="B556" s="60"/>
-      <c r="C556" t="s">
-        <v>514</v>
-      </c>
-      <c r="D556" t="s">
-        <v>515</v>
+      <c r="C556" s="60" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="61"/>
       <c r="B557" s="60"/>
-      <c r="C557" s="60" t="s">
-        <v>26</v>
+      <c r="C557" t="s">
+        <v>523</v>
+      </c>
+      <c r="D557" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="61"/>
       <c r="B558" s="60"/>
-      <c r="C558" t="s">
-        <v>516</v>
-      </c>
-      <c r="D558" t="s">
-        <v>517</v>
-      </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="61"/>
       <c r="B559" s="60"/>
-      <c r="C559" t="s">
-        <v>518</v>
-      </c>
-      <c r="D559" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A560" s="61"/>
-      <c r="B560" s="60"/>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="61" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="61"/>
-      <c r="B561" s="60"/>
-    </row>
-    <row r="562" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="61" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B561" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="D561" s="20" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="61"/>
+      <c r="B562" s="60"/>
+      <c r="C562" s="60" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="61"/>
-      <c r="B563" s="20" t="s">
-        <v>529</v>
+      <c r="B563" s="60"/>
+      <c r="C563" t="s">
+        <v>512</v>
+      </c>
+      <c r="D563" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="61"/>
       <c r="B564" s="60"/>
       <c r="C564" s="60" t="s">
-        <v>464</v>
+        <v>26</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="61"/>
       <c r="B565" s="60"/>
       <c r="C565" t="s">
-        <v>530</v>
+        <v>514</v>
+      </c>
+      <c r="D565" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="61"/>
       <c r="B566" s="60"/>
-      <c r="C566" s="60" t="s">
-        <v>26</v>
+      <c r="C566" t="s">
+        <v>516</v>
+      </c>
+      <c r="D566" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="61"/>
       <c r="B567" s="60"/>
-      <c r="C567" t="s">
-        <v>531</v>
-      </c>
-      <c r="D567" t="s">
-        <v>532</v>
-      </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="61"/>
       <c r="B568" s="60"/>
-      <c r="C568" t="s">
-        <v>533</v>
-      </c>
-      <c r="D568" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A569" s="61"/>
-      <c r="B569" s="60"/>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="569" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="61" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="61"/>
-      <c r="B570" s="60"/>
+      <c r="B570" s="20" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" s="61"/>
+      <c r="B571" s="60"/>
+      <c r="C571" s="60" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
+      <c r="A572" s="61"/>
+      <c r="B572" s="60"/>
+      <c r="C572" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="61"/>
+      <c r="B573" s="60"/>
+      <c r="C573" s="60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="61"/>
+      <c r="B574" s="60"/>
+      <c r="C574" t="s">
+        <v>529</v>
+      </c>
+      <c r="D574" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" s="61"/>
+      <c r="B575" s="60"/>
+      <c r="C575" t="s">
+        <v>531</v>
+      </c>
+      <c r="D575" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="61"/>
+      <c r="B576" s="60"/>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" s="61"/>
+      <c r="B577" s="60"/>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>361</v>
+      </c>
+      <c r="B579" t="s">
+        <v>362</v>
+      </c>
+      <c r="C579" t="s">
         <v>363</v>
       </c>
-      <c r="B572" t="s">
+      <c r="D579" t="s">
         <v>364</v>
-      </c>
-      <c r="C572" t="s">
-        <v>365</v>
-      </c>
-      <c r="D572" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/PPT/Resumen/Clases.xlsx
+++ b/PPT/Resumen/Clases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="727">
   <si>
     <t>System</t>
   </si>
@@ -1113,9 +1113,6 @@
   </si>
   <si>
     <t>Thread</t>
-  </si>
-  <si>
-    <t>Sleep(miliseconds)</t>
   </si>
   <si>
     <t>Suspende el subproceso actual</t>
@@ -1987,6 +1984,228 @@
   </si>
   <si>
     <t>Returns the directory information for the specified path string. P/ pasar a Directory.Exists</t>
+  </si>
+  <si>
+    <t>System.Data.SqlClient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SqlConnection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SqlCommand </t>
+  </si>
+  <si>
+    <t>Representa un procedimiento almacenado o una instrucción de Transact-SQL que se ejecuta en una base de datos de SQL Server. Deberá estar asociado a una conexión, en la cual ejecutará sus acciones</t>
+  </si>
+  <si>
+    <t>comando.CommandType = System.Data.CommandType.Text;</t>
+  </si>
+  <si>
+    <t>comando.Connection = conexion;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conexión: instancia de SqlConnection </t>
+  </si>
+  <si>
+    <t>SqlCommand command = new SqlCommand(comando,connection);</t>
+  </si>
+  <si>
+    <t>SqlConnection connection = new SqlConnection(connectionString)</t>
+  </si>
+  <si>
+    <t>comando.CommandText = "SELECT nombre FROM Personas;";</t>
+  </si>
+  <si>
+    <t>conexion.Open();</t>
+  </si>
+  <si>
+    <t>SqlDataReader</t>
+  </si>
+  <si>
+    <t>SqlDataReader dataReader = command.ExecuteReader();</t>
+  </si>
+  <si>
+    <t>Represents a connection to a SQL Server database</t>
+  </si>
+  <si>
+    <t>ConnectionString</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Gets the name of the current database or the database to be used after a connection is opened.</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>==System.Data.ConnectionState.Open</t>
+  </si>
+  <si>
+    <t>ChangeDatabase(String)</t>
+  </si>
+  <si>
+    <t>ChangePassword(String, String)</t>
+  </si>
+  <si>
+    <t>CreateCommand()</t>
+  </si>
+  <si>
+    <t>Creates and returns a SqlCommand object associated with the SqlConnection.</t>
+  </si>
+  <si>
+    <t>Dispose()</t>
+  </si>
+  <si>
+    <t>command.ExecuteNonQuery();</t>
+  </si>
+  <si>
+    <t>command.ExecuteReader();</t>
+  </si>
+  <si>
+    <t>command.ExecuteScalar();</t>
+  </si>
+  <si>
+    <t>command.ExecuteXmlReader();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sends the CommandText to the Connection and builds an XmlReader object.</t>
+  </si>
+  <si>
+    <t>Gets or sets a value indicating how the CommandText property is to be interpreted.</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Cancel()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tries to cancel the execution of a SqlCommand.</t>
+  </si>
+  <si>
+    <t>Executes commands such as Transact-SQL INSERT, DELETE, UPDATE, and SET statements. returns the number of rows affected</t>
+  </si>
+  <si>
+    <t>Executes commands that return rows. Builds a SqlDataReader.</t>
+  </si>
+  <si>
+    <t>Retrieves a single value (for example, an aggregate value) from a database. Returns the first column of the first row in the result set returned by the query. Additional columns or rows are ignored.</t>
+  </si>
+  <si>
+    <t>Gets the SqlParameterCollection. command.Parameters.AddWithValue("@nombreCampo", nombreCampo); o por separado .Add/.Value</t>
+  </si>
+  <si>
+    <t>Provides a way of reading a forward-only stream of rows from a SQL Server database.</t>
+  </si>
+  <si>
+    <t>"Constructores"</t>
+  </si>
+  <si>
+    <t>FieldCount</t>
+  </si>
+  <si>
+    <t>Gets the number of columns in the current row.</t>
+  </si>
+  <si>
+    <t>HasRows</t>
+  </si>
+  <si>
+    <t>Gets a value that indicates whether the SqlDataReader contains one or more rows.</t>
+  </si>
+  <si>
+    <t>Item[Int32]</t>
+  </si>
+  <si>
+    <t>Gets the value of the specified column in its native format given the column ordinal.</t>
+  </si>
+  <si>
+    <t>Item[String]</t>
+  </si>
+  <si>
+    <t>Gets the value of the specified column in its native format given the column name.</t>
+  </si>
+  <si>
+    <t>RecordsAffected</t>
+  </si>
+  <si>
+    <t>Gets the number of rows changed, inserted, or deleted by execution of the Transact-SQL statement.</t>
+  </si>
+  <si>
+    <t>GetBoolean(Int32)</t>
+  </si>
+  <si>
+    <t>Gets the value of the specified column as a Boolean.</t>
+  </si>
+  <si>
+    <t>GetByte(Int32)</t>
+  </si>
+  <si>
+    <t>Gets the value of the specified column as a byte.</t>
+  </si>
+  <si>
+    <t>GetChar(Int32)</t>
+  </si>
+  <si>
+    <t>GetDataTypeName(Int32)</t>
+  </si>
+  <si>
+    <t>Gets a string representing the data type of the specified column.</t>
+  </si>
+  <si>
+    <t>GetDateTime(Int32)</t>
+  </si>
+  <si>
+    <t>GetFieldType(Int32)</t>
+  </si>
+  <si>
+    <t>Gets the Type that is the data type of the object.</t>
+  </si>
+  <si>
+    <t>GetFloat(Int32)</t>
+  </si>
+  <si>
+    <t>GetInt32(Int32)</t>
+  </si>
+  <si>
+    <t>GetName(Int32)</t>
+  </si>
+  <si>
+    <t>Gets the name of the specified column.</t>
+  </si>
+  <si>
+    <t>GetOrdinal(String)</t>
+  </si>
+  <si>
+    <t>Gets the column ordinal, given the name of the column.</t>
+  </si>
+  <si>
+    <t>GetString(Int32)</t>
+  </si>
+  <si>
+    <t>GetStream(Int32)</t>
+  </si>
+  <si>
+    <t>Retrieves binary, image, varbinary, UDT, and variant data types as a Stream.</t>
+  </si>
+  <si>
+    <t>NextResult()</t>
+  </si>
+  <si>
+    <t>Advances the data reader to the next result, when reading the results of batch Transact-SQL statements.</t>
+  </si>
+  <si>
+    <t>Advances the SqlDataReader to the next record.</t>
+  </si>
+  <si>
+    <t>ParameterizedThreadStart</t>
+  </si>
+  <si>
+    <t>ThreadStart</t>
+  </si>
+  <si>
+    <t>Thread.Sleep(miliseconds)</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2145,6 +2364,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2176,7 +2401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2231,11 +2456,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2247,6 +2469,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2527,10 +2753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I579"/>
+  <dimension ref="A1:I663"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D496" sqref="D496"/>
+    <sheetView tabSelected="1" topLeftCell="A618" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C646" sqref="C646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,10 +2987,10 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
+        <v>446</v>
+      </c>
+      <c r="D32" t="s">
         <v>447</v>
-      </c>
-      <c r="D32" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2848,17 +3074,17 @@
     <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2872,7 +3098,7 @@
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2960,10 +3186,10 @@
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" t="s">
+        <v>368</v>
+      </c>
+      <c r="D59" t="s">
         <v>369</v>
-      </c>
-      <c r="D59" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3151,9 +3377,9 @@
     <row r="80" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="C80" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="C80" s="61" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3161,16 +3387,16 @@
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="57" t="s">
+      <c r="C82" s="55" t="s">
         <v>26</v>
       </c>
       <c r="D82" s="13"/>
@@ -3179,10 +3405,10 @@
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3192,18 +3418,18 @@
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="57" t="s">
-        <v>508</v>
+      <c r="C85" s="55" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D86" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,90 +3439,90 @@
     <row r="88" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D90" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D92" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D93" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D94" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D95" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D96" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3314,40 +3540,40 @@
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D99" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" t="s">
+        <v>406</v>
+      </c>
+      <c r="D100" t="s">
         <v>407</v>
-      </c>
-      <c r="D100" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D101" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" t="s">
+        <v>408</v>
+      </c>
+      <c r="D102" t="s">
         <v>409</v>
-      </c>
-      <c r="D102" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3357,27 +3583,27 @@
         <v>321</v>
       </c>
       <c r="D103" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D104" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D105" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3411,21 +3637,21 @@
         <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,7 +3711,7 @@
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3523,27 +3749,27 @@
     <row r="129" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="53"/>
       <c r="B130" s="53"/>
       <c r="C130" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D131" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3853,10 +4079,10 @@
       <c r="A172" s="20"/>
       <c r="B172" s="24"/>
       <c r="C172" t="s">
+        <v>632</v>
+      </c>
+      <c r="D172" s="11" t="s">
         <v>633</v>
-      </c>
-      <c r="D172" s="11" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4008,7 +4234,7 @@
         <v>273</v>
       </c>
       <c r="D190" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4169,10 +4395,10 @@
       <c r="A210" s="20"/>
       <c r="B210" s="24"/>
       <c r="C210" t="s">
+        <v>376</v>
+      </c>
+      <c r="D210" t="s">
         <v>377</v>
-      </c>
-      <c r="D210" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4234,11 +4460,11 @@
     <row r="220" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="18"/>
       <c r="B220" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="C220" s="65"/>
+        <v>620</v>
+      </c>
+      <c r="C220" s="62"/>
       <c r="D220" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="221" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4252,30 +4478,30 @@
       <c r="A222" s="19"/>
       <c r="B222" s="25"/>
       <c r="C222" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="D222" s="12" t="s">
         <v>622</v>
-      </c>
-      <c r="D222" s="12" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="223" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="19"/>
       <c r="B223" s="25"/>
       <c r="C223" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="D223" s="12" t="s">
         <v>625</v>
-      </c>
-      <c r="D223" s="12" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="224" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="19"/>
       <c r="B224" s="25"/>
       <c r="C224" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="D224" s="13" t="s">
         <v>640</v>
-      </c>
-      <c r="D224" s="13" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="225" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4287,10 +4513,10 @@
       <c r="A226" s="19"/>
       <c r="B226" s="25"/>
       <c r="C226" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="227" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4388,114 +4614,114 @@
         <v>161</v>
       </c>
     </row>
-    <row r="242" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="18"/>
       <c r="B242" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="C242" s="62" t="s">
         <v>611</v>
       </c>
-      <c r="C242" s="65" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="B243" s="24"/>
       <c r="C243" s="13" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="B244" s="24"/>
       <c r="C244" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="D244" s="54" t="s">
         <v>630</v>
       </c>
-      <c r="D244" s="55" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
       <c r="B245" s="24"/>
       <c r="C245" s="13" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
       <c r="B246" s="24"/>
       <c r="C246" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="D246" s="54" t="s">
         <v>636</v>
       </c>
-      <c r="D246" s="55" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="B247" s="24"/>
       <c r="C247" s="13"/>
     </row>
-    <row r="248" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="20"/>
       <c r="B248" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="D248" s="54" t="s">
         <v>613</v>
       </c>
-      <c r="D248" s="55" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
       <c r="B249" s="24"/>
     </row>
-    <row r="250" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="20"/>
       <c r="B250" s="24"/>
     </row>
-    <row r="251" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="20"/>
       <c r="B251" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C251" s="55" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C251" s="54" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
       <c r="B252" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C252" s="55" t="s">
+      <c r="C252" s="54" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="253" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="B253" s="24"/>
     </row>
-    <row r="254" spans="1:4" s="65" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="18"/>
       <c r="B254" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="C254" s="65" t="s">
-        <v>627</v>
+        <v>617</v>
+      </c>
+      <c r="C254" s="62" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="255" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="19"/>
       <c r="B255" s="25"/>
       <c r="C255" s="13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="256" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="19"/>
       <c r="B256" s="25"/>
     </row>
-    <row r="257" spans="1:4" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="20"/>
       <c r="B257" s="24"/>
     </row>
@@ -4659,10 +4885,10 @@
     <row r="276" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="19"/>
       <c r="B276" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="C276" s="13" t="s">
         <v>384</v>
-      </c>
-      <c r="C276" s="13" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4796,7 +5022,7 @@
       <c r="A295" s="19"/>
       <c r="B295" s="25"/>
       <c r="C295" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="296" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4965,7 +5191,7 @@
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="20"/>
       <c r="B317" s="24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -5286,7 +5512,7 @@
         <v>252</v>
       </c>
       <c r="D367" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -5300,10 +5526,10 @@
       <c r="A369" s="33"/>
       <c r="B369" s="38"/>
       <c r="C369" t="s">
+        <v>364</v>
+      </c>
+      <c r="D369" t="s">
         <v>365</v>
-      </c>
-      <c r="D369" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -5445,10 +5671,10 @@
       <c r="A387" s="33"/>
       <c r="B387" s="38"/>
       <c r="C387" t="s">
+        <v>366</v>
+      </c>
+      <c r="D387" t="s">
         <v>367</v>
-      </c>
-      <c r="D387" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
@@ -5635,1320 +5861,1890 @@
       <c r="A415" s="32"/>
       <c r="B415" s="35"/>
     </row>
-    <row r="416" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C416" s="54"/>
+    <row r="416" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C416" s="64"/>
     </row>
     <row r="417" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B417" s="56" t="s">
-        <v>389</v>
-      </c>
-      <c r="C417" s="58" t="s">
-        <v>417</v>
+      <c r="B417" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="C417" s="65" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
-      <c r="B418" s="57"/>
-      <c r="C418" s="57" t="s">
+      <c r="B418" s="55"/>
+      <c r="C418" s="55" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
-      <c r="B419" s="57"/>
-      <c r="C419" s="55" t="s">
+      <c r="B419" s="55"/>
+      <c r="C419" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="D419" t="s">
         <v>421</v>
-      </c>
-      <c r="D419" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="4"/>
-      <c r="B420" s="57"/>
-      <c r="C420" s="55" t="s">
-        <v>423</v>
+      <c r="B420" s="55"/>
+      <c r="C420" s="54" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
-      <c r="B421" s="57"/>
-      <c r="C421" s="55" t="s">
-        <v>426</v>
+      <c r="B421" s="55"/>
+      <c r="C421" s="54" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
-      <c r="B422" s="57"/>
-      <c r="C422" s="55" t="s">
+      <c r="B422" s="55"/>
+      <c r="C422" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="D422" t="s">
         <v>424</v>
-      </c>
-      <c r="D422" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="4"/>
-      <c r="B423" s="57"/>
-      <c r="C423" s="55" t="s">
-        <v>418</v>
+      <c r="B423" s="55"/>
+      <c r="C423" s="54" t="s">
+        <v>417</v>
       </c>
       <c r="D423" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="4"/>
-      <c r="B424" s="57"/>
-      <c r="C424" s="55" t="s">
+      <c r="B424" s="55"/>
+      <c r="C424" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="D424" t="s">
         <v>445</v>
-      </c>
-      <c r="D424" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="4"/>
-      <c r="B425" s="57"/>
-      <c r="C425" s="55" t="s">
-        <v>433</v>
+      <c r="B425" s="55"/>
+      <c r="C425" s="54" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="4"/>
-      <c r="B426" s="57"/>
-      <c r="C426" s="55" t="s">
-        <v>428</v>
+      <c r="B426" s="55"/>
+      <c r="C426" s="54" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="4"/>
-      <c r="B427" s="57"/>
-      <c r="C427" s="55" t="s">
-        <v>432</v>
+      <c r="B427" s="55"/>
+      <c r="C427" s="54" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="4"/>
-      <c r="B428" s="57"/>
-      <c r="C428" s="55" t="s">
-        <v>431</v>
+      <c r="B428" s="55"/>
+      <c r="C428" s="54" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="4"/>
-      <c r="B429" s="57"/>
-      <c r="C429" s="55" t="s">
-        <v>429</v>
+      <c r="B429" s="55"/>
+      <c r="C429" s="54" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="4"/>
-      <c r="B430" s="57"/>
-      <c r="C430" s="55" t="s">
-        <v>430</v>
+      <c r="B430" s="55"/>
+      <c r="C430" s="54" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
-      <c r="B431" s="57"/>
-      <c r="C431" s="55" t="s">
-        <v>444</v>
+      <c r="B431" s="55"/>
+      <c r="C431" s="54" t="s">
+        <v>443</v>
       </c>
       <c r="D431" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="4"/>
-      <c r="B432" s="57"/>
-      <c r="C432" s="55"/>
+      <c r="B432" s="55"/>
+      <c r="C432" s="54"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
-      <c r="B433" s="57"/>
-      <c r="C433" s="55"/>
+      <c r="B433" s="55"/>
+      <c r="C433" s="54"/>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
-      <c r="B434" s="57" t="s">
-        <v>436</v>
-      </c>
-      <c r="C434" s="55" t="s">
-        <v>438</v>
+      <c r="B434" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C434" s="54" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
-      <c r="B435" s="57"/>
-      <c r="C435" s="55" t="s">
-        <v>439</v>
+      <c r="B435" s="55"/>
+      <c r="C435" s="54" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
-      <c r="B436" s="57"/>
-      <c r="C436" s="55" t="s">
-        <v>437</v>
+      <c r="B436" s="55"/>
+      <c r="C436" s="54" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
-      <c r="B437" s="57"/>
-      <c r="C437" s="55" t="s">
-        <v>440</v>
+      <c r="B437" s="55"/>
+      <c r="C437" s="54" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
-      <c r="B438" s="57"/>
-      <c r="C438" s="55" t="s">
-        <v>441</v>
+      <c r="B438" s="55"/>
+      <c r="C438" s="54" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
-      <c r="B439" s="57"/>
-      <c r="C439" s="55"/>
+      <c r="B439" s="55"/>
+      <c r="C439" s="54"/>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
-      <c r="B440" s="57" t="s">
-        <v>434</v>
-      </c>
-      <c r="C440" s="55"/>
+      <c r="B440" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C440" s="54"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
-      <c r="B441" s="57"/>
-      <c r="C441" s="55"/>
+      <c r="B441" s="55"/>
+      <c r="C441" s="54"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
-      <c r="B442" s="57"/>
-      <c r="C442" s="55"/>
+      <c r="B442" s="55"/>
+      <c r="C442" s="54"/>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
-      <c r="B443" s="57" t="s">
-        <v>435</v>
-      </c>
-      <c r="C443" s="55" t="s">
-        <v>442</v>
+      <c r="B443" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C443" s="54" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
-      <c r="B444" s="57"/>
-      <c r="C444" s="55" t="s">
-        <v>443</v>
+      <c r="B444" s="55"/>
+      <c r="C444" s="54" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
-      <c r="B445" s="57"/>
+      <c r="B445" s="55"/>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
-      <c r="B446" s="57"/>
+      <c r="B446" s="55"/>
     </row>
     <row r="447" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B448" s="14" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="16"/>
-      <c r="B448" s="14" t="s">
-        <v>450</v>
-      </c>
       <c r="D448" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" s="16"/>
+      <c r="A449" s="14"/>
       <c r="B449" s="17"/>
-      <c r="C449" s="62" t="s">
+      <c r="C449" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="D449" t="s">
         <v>493</v>
       </c>
-      <c r="D449" t="s">
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" s="14"/>
+      <c r="B450" s="17"/>
+      <c r="C450" s="59" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" s="16"/>
-      <c r="B450" s="17"/>
-      <c r="C450" s="62" t="s">
+      <c r="D450" t="s">
         <v>495</v>
       </c>
-      <c r="D450" t="s">
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="14"/>
+      <c r="B451" s="17"/>
+      <c r="C451" s="60" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" s="16"/>
-      <c r="B451" s="17"/>
-      <c r="C451" s="63" t="s">
+      <c r="D451" t="s">
         <v>497</v>
       </c>
-      <c r="D451" t="s">
-        <v>498</v>
-      </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" s="16"/>
+      <c r="A452" s="14"/>
       <c r="B452" s="17"/>
-      <c r="C452" s="59" t="s">
+      <c r="C452" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="D452" t="s">
         <v>553</v>
       </c>
-      <c r="D452" t="s">
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="14"/>
+      <c r="B453" s="17"/>
+      <c r="C453" s="56" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" s="16"/>
-      <c r="B453" s="17"/>
-      <c r="C453" s="59" t="s">
+      <c r="D453" t="s">
         <v>555</v>
       </c>
-      <c r="D453" t="s">
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" s="14"/>
+      <c r="B454" s="17"/>
+      <c r="C454" s="56" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" s="16"/>
-      <c r="B454" s="17"/>
-      <c r="C454" s="59" t="s">
+      <c r="D454" t="s">
         <v>557</v>
       </c>
-      <c r="D454" t="s">
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" s="14"/>
+      <c r="B455" s="17"/>
+      <c r="C455" s="56" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A455" s="16"/>
-      <c r="B455" s="17"/>
-      <c r="C455" s="59" t="s">
+      <c r="D455" t="s">
         <v>559</v>
       </c>
-      <c r="D455" t="s">
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" s="14"/>
+      <c r="B456" s="17"/>
+      <c r="C456" s="56" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456" s="16"/>
-      <c r="B456" s="17"/>
-      <c r="C456" s="59" t="s">
+      <c r="D456" t="s">
         <v>561</v>
       </c>
-      <c r="D456" t="s">
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="14"/>
+      <c r="B457" s="17"/>
+      <c r="C457" s="56" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="16"/>
-      <c r="B457" s="17"/>
-      <c r="C457" s="59" t="s">
+      <c r="D457" t="s">
         <v>563</v>
       </c>
-      <c r="D457" t="s">
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="14"/>
+      <c r="B458" s="17"/>
+      <c r="C458" s="56" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458" s="16"/>
-      <c r="B458" s="17"/>
-      <c r="C458" s="59" t="s">
+      <c r="D458" t="s">
         <v>565</v>
       </c>
-      <c r="D458" t="s">
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="14"/>
+      <c r="B459" s="17"/>
+      <c r="C459" s="56" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" s="16"/>
-      <c r="B459" s="17"/>
-      <c r="C459" s="59" t="s">
+      <c r="D459" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="D459" s="11" t="s">
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="14"/>
+      <c r="B460" s="17"/>
+      <c r="C460" s="56" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" s="16"/>
-      <c r="B460" s="17"/>
-      <c r="C460" s="59" t="s">
+      <c r="D460" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="D460" s="11" t="s">
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="14"/>
+      <c r="B461" s="17"/>
+      <c r="C461" s="56" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" s="16"/>
-      <c r="B461" s="17"/>
-      <c r="C461" s="59" t="s">
+      <c r="D461" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="D461" s="11" t="s">
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="14"/>
+      <c r="B462" s="17"/>
+      <c r="C462" s="56" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" s="16"/>
-      <c r="B462" s="17"/>
-      <c r="C462" s="59" t="s">
+      <c r="D462" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="D462" s="11" t="s">
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="14"/>
+      <c r="B463" s="17"/>
+      <c r="C463" s="56" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" s="16"/>
-      <c r="B463" s="17"/>
-      <c r="C463" s="59" t="s">
+      <c r="D463" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="D463" s="11" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" s="16"/>
+      <c r="A464" s="14"/>
       <c r="B464" s="17"/>
       <c r="C464" t="s">
+        <v>576</v>
+      </c>
+      <c r="D464" t="s">
         <v>577</v>
       </c>
-      <c r="D464" t="s">
-        <v>578</v>
-      </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="16"/>
+      <c r="A465" s="14"/>
       <c r="B465" s="17"/>
       <c r="C465" t="s">
+        <v>578</v>
+      </c>
+      <c r="D465" t="s">
         <v>579</v>
       </c>
-      <c r="D465" t="s">
-        <v>580</v>
-      </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" s="16"/>
+      <c r="A466" s="14"/>
       <c r="B466" s="17"/>
       <c r="C466" t="s">
+        <v>580</v>
+      </c>
+      <c r="D466" t="s">
         <v>581</v>
       </c>
-      <c r="D466" t="s">
-        <v>582</v>
-      </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467" s="16"/>
+      <c r="A467" s="14"/>
       <c r="B467" s="17"/>
       <c r="C467" t="s">
+        <v>582</v>
+      </c>
+      <c r="D467" t="s">
         <v>583</v>
       </c>
-      <c r="D467" t="s">
-        <v>584</v>
-      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468" s="16"/>
+      <c r="A468" s="14"/>
       <c r="B468" s="17"/>
       <c r="C468" t="s">
+        <v>584</v>
+      </c>
+      <c r="D468" t="s">
         <v>585</v>
       </c>
-      <c r="D468" t="s">
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="14"/>
+      <c r="B469" s="17"/>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="14"/>
+      <c r="B470" s="17"/>
+      <c r="C470" s="56"/>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="14"/>
+      <c r="B471" s="17"/>
+    </row>
+    <row r="472" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B472" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D472" s="14" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469" s="16"/>
-      <c r="B469" s="17"/>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" s="16"/>
-      <c r="B470" s="17"/>
-      <c r="C470" s="59"/>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" s="16"/>
-      <c r="B471" s="17"/>
-    </row>
-    <row r="472" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="16"/>
-      <c r="B472" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="D472" s="14" t="s">
-        <v>587</v>
-      </c>
-    </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473" s="16"/>
+      <c r="A473" s="14"/>
       <c r="B473" s="17"/>
       <c r="C473" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474" s="16"/>
+      <c r="A474" s="14"/>
       <c r="B474" s="17"/>
       <c r="C474" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475" s="16"/>
+      <c r="A475" s="14"/>
       <c r="B475" s="17"/>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" s="16"/>
+      <c r="A476" s="14"/>
       <c r="B476" s="17"/>
       <c r="C476" t="s">
+        <v>589</v>
+      </c>
+      <c r="D476" t="s">
         <v>590</v>
       </c>
-      <c r="D476" t="s">
-        <v>591</v>
-      </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" s="16"/>
+      <c r="A477" s="14"/>
       <c r="B477" s="17"/>
       <c r="C477" t="s">
+        <v>499</v>
+      </c>
+      <c r="D477" t="s">
         <v>500</v>
       </c>
-      <c r="D477" t="s">
-        <v>501</v>
-      </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478" s="16"/>
+      <c r="A478" s="14"/>
       <c r="B478" s="17"/>
       <c r="C478" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D478" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479" s="16"/>
+      <c r="A479" s="14"/>
       <c r="B479" s="17"/>
       <c r="C479" t="s">
+        <v>591</v>
+      </c>
+      <c r="D479" t="s">
         <v>592</v>
       </c>
-      <c r="D479" t="s">
-        <v>593</v>
-      </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480" s="16"/>
+      <c r="A480" s="14"/>
       <c r="B480" s="17"/>
       <c r="C480" t="s">
+        <v>593</v>
+      </c>
+      <c r="D480" t="s">
         <v>594</v>
       </c>
-      <c r="D480" t="s">
-        <v>595</v>
-      </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481" s="16"/>
+      <c r="A481" s="14"/>
       <c r="B481" s="17"/>
       <c r="C481" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D481" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482" s="16"/>
+      <c r="A482" s="14"/>
       <c r="B482" s="17"/>
       <c r="C482" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D482" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483" s="16"/>
+      <c r="A483" s="14"/>
       <c r="B483" s="17"/>
       <c r="C483" t="s">
+        <v>596</v>
+      </c>
+      <c r="D483" t="s">
         <v>597</v>
       </c>
-      <c r="D483" t="s">
-        <v>598</v>
-      </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" s="16"/>
+      <c r="A484" s="14"/>
       <c r="B484" s="17"/>
       <c r="C484" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D484" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485" s="16"/>
+      <c r="A485" s="14"/>
       <c r="B485" s="17"/>
       <c r="C485" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D485" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486" s="16"/>
+      <c r="A486" s="14"/>
       <c r="B486" s="17"/>
       <c r="C486" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D486" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" s="16"/>
+      <c r="A487" s="14"/>
       <c r="B487" s="17"/>
       <c r="C487" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D487" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" s="16"/>
+      <c r="A488" s="14"/>
       <c r="B488" s="17"/>
       <c r="C488" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D488" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="16"/>
+      <c r="A489" s="14"/>
       <c r="B489" s="17"/>
       <c r="C489" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D489" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="16"/>
+      <c r="A490" s="14"/>
       <c r="B490" s="17"/>
       <c r="C490" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D490" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="16"/>
+      <c r="A491" s="14"/>
       <c r="B491" s="17"/>
     </row>
     <row r="492" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="16"/>
       <c r="B492" s="14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D492" s="14" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" s="16"/>
+      <c r="A493" s="14"/>
       <c r="B493" s="17"/>
       <c r="C493" t="s">
+        <v>645</v>
+      </c>
+      <c r="D493" t="s">
         <v>646</v>
       </c>
-      <c r="D493" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494" s="16"/>
+      <c r="A494" s="14"/>
       <c r="B494" s="17"/>
       <c r="C494" t="s">
+        <v>647</v>
+      </c>
+      <c r="D494" t="s">
         <v>648</v>
       </c>
-      <c r="D494" t="s">
-        <v>649</v>
-      </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495" s="16"/>
+      <c r="A495" s="14"/>
       <c r="B495" s="17"/>
       <c r="C495" t="s">
+        <v>651</v>
+      </c>
+      <c r="D495" t="s">
         <v>652</v>
       </c>
-      <c r="D495" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A496" s="16"/>
+      <c r="A496" s="14"/>
       <c r="B496" s="17"/>
       <c r="C496" t="s">
+        <v>649</v>
+      </c>
+      <c r="D496" t="s">
         <v>650</v>
       </c>
-      <c r="D496" t="s">
-        <v>651</v>
-      </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497" s="16"/>
+      <c r="A497" s="14"/>
       <c r="B497" s="17"/>
     </row>
     <row r="498" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="16"/>
       <c r="B498" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A499" s="16"/>
+      <c r="A499" s="14"/>
       <c r="B499" s="17"/>
       <c r="C499" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A500" s="16"/>
+      <c r="A500" s="14"/>
       <c r="B500" s="17"/>
       <c r="C500" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D500" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A501" s="16"/>
+      <c r="A501" s="14"/>
       <c r="B501" s="17"/>
       <c r="C501" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D501" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A502" s="16"/>
+      <c r="A502" s="14"/>
       <c r="B502" s="17"/>
       <c r="C502" t="s">
         <v>108</v>
       </c>
       <c r="D502" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A503" s="16"/>
+      <c r="A503" s="14"/>
       <c r="B503" s="17"/>
       <c r="C503" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A504" s="16"/>
+      <c r="A504" s="14"/>
       <c r="B504" s="17"/>
       <c r="C504" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D504" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A505" s="16"/>
+      <c r="A505" s="14"/>
       <c r="B505" s="17"/>
       <c r="C505" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D505" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" s="16"/>
+      <c r="A506" s="14"/>
       <c r="B506" s="17"/>
       <c r="C506" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D506" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A507" s="16"/>
+      <c r="A507" s="14"/>
       <c r="B507" s="17"/>
       <c r="C507" t="s">
         <v>315</v>
       </c>
       <c r="D507" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A508" s="16"/>
+      <c r="A508" s="14"/>
       <c r="B508" s="17"/>
       <c r="C508" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A509" s="16"/>
+      <c r="A509" s="14"/>
       <c r="B509" s="17"/>
       <c r="C509" t="s">
+        <v>544</v>
+      </c>
+      <c r="D509" t="s">
         <v>545</v>
       </c>
-      <c r="D509" t="s">
-        <v>546</v>
-      </c>
     </row>
     <row r="510" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="16"/>
       <c r="B510" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A511" s="16"/>
+      <c r="A511" s="14"/>
       <c r="B511" s="17"/>
       <c r="C511" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A512" s="16"/>
+      <c r="A512" s="14"/>
       <c r="B512" s="17"/>
       <c r="C512" t="s">
+        <v>455</v>
+      </c>
+      <c r="D512" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D512" s="11" t="s">
-        <v>457</v>
-      </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A513" s="16"/>
+      <c r="A513" s="14"/>
       <c r="B513" s="17"/>
       <c r="C513" t="s">
+        <v>457</v>
+      </c>
+      <c r="D513" t="s">
         <v>458</v>
       </c>
-      <c r="D513" t="s">
-        <v>459</v>
-      </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A514" s="16"/>
+      <c r="A514" s="14"/>
       <c r="B514" s="17"/>
       <c r="C514" t="s">
+        <v>459</v>
+      </c>
+      <c r="D514" t="s">
         <v>460</v>
       </c>
-      <c r="D514" t="s">
-        <v>461</v>
-      </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A515" s="16"/>
+      <c r="A515" s="14"/>
       <c r="B515" s="17"/>
       <c r="C515" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A516" s="16"/>
+      <c r="A516" s="14"/>
       <c r="B516" s="17"/>
       <c r="C516" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D516" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A517" s="16"/>
+      <c r="A517" s="14"/>
       <c r="B517" s="17"/>
       <c r="C517" t="s">
+        <v>463</v>
+      </c>
+      <c r="D517" t="s">
         <v>464</v>
       </c>
-      <c r="D517" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A518" s="16"/>
+      <c r="A518" s="14"/>
       <c r="B518" s="17"/>
       <c r="C518" t="s">
         <v>108</v>
       </c>
       <c r="D518" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519" s="16"/>
+      <c r="A519" s="14"/>
       <c r="B519" s="17"/>
       <c r="C519" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520" s="16"/>
+      <c r="A520" s="14"/>
       <c r="B520" s="17"/>
       <c r="C520" t="s">
+        <v>542</v>
+      </c>
+      <c r="D520" t="s">
         <v>543</v>
       </c>
-      <c r="D520" t="s">
-        <v>544</v>
-      </c>
     </row>
     <row r="521" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="16"/>
       <c r="B521" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A522" s="16"/>
+      <c r="A522" s="14"/>
       <c r="B522" s="17"/>
       <c r="C522" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D522" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A523" s="16"/>
+      <c r="A523" s="14"/>
       <c r="B523" s="17"/>
       <c r="C523" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D523" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A524" s="16"/>
+      <c r="A524" s="14"/>
       <c r="B524" s="17"/>
       <c r="C524" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A525" s="16"/>
+      <c r="A525" s="14"/>
       <c r="B525" s="17"/>
       <c r="C525" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D525" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A526" s="16"/>
+      <c r="A526" s="14"/>
       <c r="B526" s="17"/>
       <c r="C526" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D526" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A527" s="16"/>
+      <c r="A527" s="14"/>
       <c r="B527" s="17"/>
       <c r="C527" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D527" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A528" s="16"/>
+      <c r="A528" s="14"/>
       <c r="B528" s="17"/>
       <c r="C528" t="s">
+        <v>486</v>
+      </c>
+      <c r="D528" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="D528" s="11" t="s">
-        <v>488</v>
-      </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A529" s="16"/>
+      <c r="A529" s="14"/>
       <c r="B529" s="17"/>
       <c r="C529" t="s">
+        <v>488</v>
+      </c>
+      <c r="D529" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="D529" s="11" t="s">
-        <v>490</v>
-      </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A530" s="16"/>
+      <c r="A530" s="14"/>
       <c r="B530" s="17"/>
       <c r="C530" t="s">
+        <v>490</v>
+      </c>
+      <c r="D530" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="D530" s="11" t="s">
-        <v>492</v>
-      </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A531" s="16"/>
+      <c r="A531" s="14"/>
       <c r="B531" s="17"/>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A532" s="16"/>
+      <c r="A532" s="14"/>
       <c r="B532" s="17"/>
     </row>
     <row r="533" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="16"/>
       <c r="B533" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A534" s="16"/>
+      <c r="A534" s="14"/>
       <c r="B534" s="17"/>
       <c r="C534" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A535" s="16"/>
+      <c r="A535" s="14"/>
       <c r="B535" s="17"/>
       <c r="C535" t="s">
+        <v>533</v>
+      </c>
+      <c r="D535" t="s">
         <v>534</v>
       </c>
-      <c r="D535" t="s">
-        <v>535</v>
-      </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A536" s="16"/>
+      <c r="A536" s="14"/>
       <c r="B536" s="17"/>
       <c r="C536" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A537" s="16"/>
+      <c r="A537" s="14"/>
       <c r="B537" s="17"/>
       <c r="C537" t="s">
+        <v>535</v>
+      </c>
+      <c r="D537" t="s">
         <v>536</v>
       </c>
-      <c r="D537" t="s">
-        <v>537</v>
-      </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A538" s="16"/>
+      <c r="A538" s="14"/>
       <c r="B538" s="17"/>
       <c r="C538" t="s">
+        <v>537</v>
+      </c>
+      <c r="D538" t="s">
         <v>538</v>
       </c>
-      <c r="D538" t="s">
-        <v>539</v>
-      </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A539" s="16"/>
+      <c r="A539" s="14"/>
       <c r="B539" s="17"/>
       <c r="C539" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D539" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A540" s="16"/>
+      <c r="A540" s="14"/>
       <c r="B540" s="17"/>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A541" s="16"/>
+      <c r="A541" s="14"/>
       <c r="B541" s="17"/>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A542" s="16"/>
+      <c r="A542" s="14"/>
       <c r="B542" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A543" s="16"/>
+      <c r="A543" s="14"/>
       <c r="B543" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="C543" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A544" s="14"/>
+      <c r="B544" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="C544" t="s">
         <v>642</v>
       </c>
-      <c r="C543" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A544" s="16"/>
-      <c r="B544" s="17" t="s">
+      <c r="D544" t="s">
         <v>549</v>
       </c>
-      <c r="C544" t="s">
-        <v>643</v>
-      </c>
-      <c r="D544" t="s">
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A545" s="14"/>
+      <c r="B545" s="17" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A545" s="16"/>
-      <c r="B545" s="17" t="s">
+      <c r="C545" t="s">
         <v>551</v>
       </c>
-      <c r="C545" t="s">
-        <v>552</v>
-      </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A546" s="16"/>
+      <c r="A546" s="14"/>
       <c r="B546" s="17"/>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A547" s="16"/>
+      <c r="A547" s="14"/>
       <c r="B547" s="17"/>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A548" s="16"/>
+      <c r="A548" s="14"/>
       <c r="B548" s="17"/>
     </row>
-    <row r="549" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="61" t="s">
+    <row r="549" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="58" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B550" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D550" s="20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="20"/>
+      <c r="B551" s="57"/>
+      <c r="C551" s="57" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="20"/>
+      <c r="B552" s="57"/>
+      <c r="C552" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="550" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="61"/>
-      <c r="B550" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="D550" s="20" t="s">
+      <c r="D552" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="20"/>
+      <c r="B553" s="57"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="20"/>
+      <c r="B554" s="57"/>
+    </row>
+    <row r="555" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B555" s="20" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A551" s="61"/>
-      <c r="B551" s="60"/>
-      <c r="C551" s="60" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A552" s="61"/>
-      <c r="B552" s="60"/>
-      <c r="C552" t="s">
+      <c r="D555" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="D552" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A553" s="61"/>
-      <c r="B553" s="60"/>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A554" s="61"/>
-      <c r="B554" s="60"/>
-    </row>
-    <row r="555" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="61"/>
-      <c r="B555" s="20" t="s">
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="20"/>
+      <c r="B556" s="57"/>
+      <c r="C556" s="57" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="20"/>
+      <c r="B557" s="57"/>
+      <c r="C557" t="s">
         <v>522</v>
       </c>
-      <c r="D555" s="20" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A556" s="61"/>
-      <c r="B556" s="60"/>
-      <c r="C556" s="60" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A557" s="61"/>
-      <c r="B557" s="60"/>
-      <c r="C557" t="s">
+      <c r="D557" t="s">
         <v>523</v>
       </c>
-      <c r="D557" t="s">
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="20"/>
+      <c r="B558" s="57"/>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="20"/>
+      <c r="B559" s="57"/>
+    </row>
+    <row r="560" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="58" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B561" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="D561" s="20" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A558" s="61"/>
-      <c r="B558" s="60"/>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A559" s="61"/>
-      <c r="B559" s="60"/>
-    </row>
-    <row r="560" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="61" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="61"/>
-      <c r="B561" s="20" t="s">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="20"/>
+      <c r="B562" s="57"/>
+      <c r="C562" s="57" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" s="20"/>
+      <c r="B563" s="57"/>
+      <c r="C563" t="s">
         <v>511</v>
       </c>
-      <c r="D561" s="20" t="s">
+      <c r="D563" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" s="20"/>
+      <c r="B564" s="57"/>
+      <c r="C564" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" s="20"/>
+      <c r="B565" s="57"/>
+      <c r="C565" t="s">
+        <v>513</v>
+      </c>
+      <c r="D565" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="20"/>
+      <c r="B566" s="57"/>
+      <c r="C566" t="s">
+        <v>515</v>
+      </c>
+      <c r="D566" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" s="20"/>
+      <c r="B567" s="57"/>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" s="20"/>
+      <c r="B568" s="57"/>
+    </row>
+    <row r="569" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="58" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A562" s="61"/>
-      <c r="B562" s="60"/>
-      <c r="C562" s="60" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A563" s="61"/>
-      <c r="B563" s="60"/>
-      <c r="C563" t="s">
-        <v>512</v>
-      </c>
-      <c r="D563" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A564" s="61"/>
-      <c r="B564" s="60"/>
-      <c r="C564" s="60" t="s">
+    <row r="570" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B570" s="20" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" s="20"/>
+      <c r="B571" s="57"/>
+      <c r="C571" s="57" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" s="20"/>
+      <c r="B572" s="57"/>
+      <c r="C572" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="20"/>
+      <c r="B573" s="57"/>
+      <c r="C573" s="57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A565" s="61"/>
-      <c r="B565" s="60"/>
-      <c r="C565" t="s">
-        <v>514</v>
-      </c>
-      <c r="D565" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A566" s="61"/>
-      <c r="B566" s="60"/>
-      <c r="C566" t="s">
-        <v>516</v>
-      </c>
-      <c r="D566" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A567" s="61"/>
-      <c r="B567" s="60"/>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A568" s="61"/>
-      <c r="B568" s="60"/>
-    </row>
-    <row r="569" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="61" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="61"/>
-      <c r="B570" s="20" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A571" s="61"/>
-      <c r="B571" s="60"/>
-      <c r="C571" s="60" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A572" s="61"/>
-      <c r="B572" s="60"/>
-      <c r="C572" t="s">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="20"/>
+      <c r="B574" s="57"/>
+      <c r="C574" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A573" s="61"/>
-      <c r="B573" s="60"/>
-      <c r="C573" s="60" t="s">
+      <c r="D574" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" s="20"/>
+      <c r="B575" s="57"/>
+      <c r="C575" t="s">
+        <v>530</v>
+      </c>
+      <c r="D575" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="20"/>
+      <c r="B576" s="57"/>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" s="20"/>
+      <c r="B577" s="57"/>
+    </row>
+    <row r="578" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="63" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B579" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="C579" s="33" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" s="33"/>
+      <c r="B580" s="38"/>
+      <c r="C580" s="38" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="33"/>
+      <c r="B581" s="38"/>
+      <c r="C581" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" s="33"/>
+      <c r="B582" s="38"/>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" s="33"/>
+      <c r="B583" s="38"/>
+      <c r="C583" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" s="33"/>
+      <c r="B584" s="38"/>
+      <c r="C584" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" s="33"/>
+      <c r="B585" s="38"/>
+      <c r="C585" t="s">
+        <v>668</v>
+      </c>
+      <c r="D585" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" s="33"/>
+      <c r="B586" s="38"/>
+      <c r="C586" t="s">
+        <v>670</v>
+      </c>
+      <c r="D586" s="10" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" s="33"/>
+      <c r="B587" s="38"/>
+      <c r="D587" s="10"/>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="33"/>
+      <c r="B588" s="38"/>
+      <c r="D588" s="10"/>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="33"/>
+      <c r="B589" s="38"/>
+      <c r="C589" s="38" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A574" s="61"/>
-      <c r="B574" s="60"/>
-      <c r="C574" t="s">
-        <v>529</v>
-      </c>
-      <c r="D574" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A575" s="61"/>
-      <c r="B575" s="60"/>
-      <c r="C575" t="s">
-        <v>531</v>
-      </c>
-      <c r="D575" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A576" s="61"/>
-      <c r="B576" s="60"/>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A577" s="61"/>
-      <c r="B577" s="60"/>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
+      <c r="D589" s="10"/>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="33"/>
+      <c r="B590" s="38"/>
+      <c r="C590" t="s">
+        <v>672</v>
+      </c>
+      <c r="D590" s="10"/>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" s="33"/>
+      <c r="B591" s="38"/>
+      <c r="C591" t="s">
+        <v>673</v>
+      </c>
+      <c r="D591" s="10"/>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" s="33"/>
+      <c r="B592" s="38"/>
+      <c r="C592" t="s">
+        <v>108</v>
+      </c>
+      <c r="D592" s="10"/>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="33"/>
+      <c r="B593" s="38"/>
+      <c r="C593" t="s">
+        <v>674</v>
+      </c>
+      <c r="D593" s="10" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="33"/>
+      <c r="B594" s="38"/>
+      <c r="C594" t="s">
+        <v>676</v>
+      </c>
+      <c r="D594" s="10"/>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="33"/>
+      <c r="B595" s="38"/>
+      <c r="C595" t="s">
+        <v>663</v>
+      </c>
+      <c r="D595" s="10"/>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" s="33"/>
+      <c r="B596" s="38"/>
+      <c r="D596" s="10"/>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" s="33"/>
+      <c r="B597" s="38"/>
+    </row>
+    <row r="598" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B598" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="C598" s="33" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="33"/>
+      <c r="B599" s="38"/>
+      <c r="C599" s="38" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="33"/>
+      <c r="B600" s="38"/>
+      <c r="C600" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="33"/>
+      <c r="B601" s="38"/>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="33"/>
+      <c r="B602" s="38"/>
+      <c r="C602" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" s="33"/>
+      <c r="B603" s="38"/>
+      <c r="C603" t="s">
+        <v>657</v>
+      </c>
+      <c r="D603" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" s="33"/>
+      <c r="B604" s="38"/>
+      <c r="C604" t="s">
+        <v>658</v>
+      </c>
+      <c r="D604" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="33"/>
+      <c r="B605" s="38"/>
+      <c r="C605" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="33"/>
+      <c r="B606" s="38"/>
+      <c r="C606" t="s">
+        <v>683</v>
+      </c>
+      <c r="D606" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" s="33"/>
+      <c r="B607" s="38"/>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" s="33"/>
+      <c r="B608" s="38"/>
+      <c r="C608" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" s="33"/>
+      <c r="B609" s="38"/>
+      <c r="C609" t="s">
+        <v>678</v>
+      </c>
+      <c r="D609" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" s="33"/>
+      <c r="B610" s="38"/>
+      <c r="C610" t="s">
+        <v>677</v>
+      </c>
+      <c r="D610" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" s="33"/>
+      <c r="B611" s="38"/>
+      <c r="C611" t="s">
+        <v>679</v>
+      </c>
+      <c r="D611" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" s="33"/>
+      <c r="B612" s="38"/>
+      <c r="C612" t="s">
+        <v>680</v>
+      </c>
+      <c r="D612" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" s="33"/>
+      <c r="B613" s="38"/>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" s="33"/>
+      <c r="B614" s="38"/>
+      <c r="C614" t="s">
+        <v>684</v>
+      </c>
+      <c r="D614" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" s="33"/>
+      <c r="B615" s="38"/>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616" s="33"/>
+      <c r="B616" s="38"/>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" s="33"/>
+      <c r="B617" s="38"/>
+    </row>
+    <row r="618" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B618" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="C618" s="33" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" s="33"/>
+      <c r="B619" s="38"/>
+      <c r="C619" s="38" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" s="33"/>
+      <c r="B620" s="38"/>
+      <c r="C620" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" s="33"/>
+      <c r="B621" s="38"/>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622" s="33"/>
+      <c r="B622" s="38"/>
+      <c r="C622" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" s="33"/>
+      <c r="B623" s="38"/>
+      <c r="C623" t="s">
+        <v>692</v>
+      </c>
+      <c r="D623" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624" s="33"/>
+      <c r="B624" s="38"/>
+      <c r="C624" t="s">
+        <v>694</v>
+      </c>
+      <c r="D624" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625" s="33"/>
+      <c r="B625" s="38"/>
+      <c r="C625" t="s">
+        <v>696</v>
+      </c>
+      <c r="D625" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626" s="33"/>
+      <c r="B626" s="38"/>
+      <c r="C626" t="s">
+        <v>698</v>
+      </c>
+      <c r="D626" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627" s="33"/>
+      <c r="B627" s="38"/>
+      <c r="C627" t="s">
+        <v>700</v>
+      </c>
+      <c r="D627" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628" s="33"/>
+      <c r="B628" s="38"/>
+      <c r="C628" t="s">
+        <v>702</v>
+      </c>
+      <c r="D628" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629" s="33"/>
+      <c r="B629" s="38"/>
+      <c r="C629" t="s">
+        <v>704</v>
+      </c>
+      <c r="D629" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630" s="33"/>
+      <c r="B630" s="38"/>
+      <c r="C630" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631" s="33"/>
+      <c r="B631" s="38"/>
+      <c r="C631" t="s">
+        <v>707</v>
+      </c>
+      <c r="D631" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632" s="33"/>
+      <c r="B632" s="38"/>
+      <c r="C632" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633" s="33"/>
+      <c r="B633" s="38"/>
+      <c r="C633" t="s">
+        <v>710</v>
+      </c>
+      <c r="D633" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634" s="33"/>
+      <c r="B634" s="38"/>
+      <c r="C634" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635" s="33"/>
+      <c r="B635" s="38"/>
+      <c r="C635" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636" s="33"/>
+      <c r="B636" s="38"/>
+      <c r="C636" t="s">
+        <v>714</v>
+      </c>
+      <c r="D636" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637" s="33"/>
+      <c r="B637" s="38"/>
+      <c r="C637" t="s">
+        <v>716</v>
+      </c>
+      <c r="D637" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638" s="33"/>
+      <c r="B638" s="38"/>
+      <c r="C638" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639" s="33"/>
+      <c r="B639" s="38"/>
+      <c r="C639" t="s">
+        <v>719</v>
+      </c>
+      <c r="D639" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640" s="33"/>
+      <c r="B640" s="38"/>
+      <c r="C640" t="s">
+        <v>721</v>
+      </c>
+      <c r="D640" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" s="33"/>
+      <c r="B641" s="38"/>
+      <c r="C641" t="s">
+        <v>471</v>
+      </c>
+      <c r="D641" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642" s="33"/>
+      <c r="B642" s="38"/>
+    </row>
+    <row r="643" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="B579" t="s">
+    </row>
+    <row r="644" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B644" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="C579" t="s">
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645" s="32"/>
+      <c r="B645" s="35"/>
+      <c r="C645" t="s">
+        <v>726</v>
+      </c>
+      <c r="D645" t="s">
         <v>363</v>
       </c>
-      <c r="D579" t="s">
-        <v>364</v>
-      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646" s="32"/>
+      <c r="B646" s="35"/>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647" s="32"/>
+      <c r="B647" s="35"/>
+    </row>
+    <row r="648" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B648" s="32" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649" s="32"/>
+      <c r="B649" s="35"/>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650" s="32"/>
+      <c r="B650" s="35"/>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651" s="32"/>
+      <c r="B651" s="35"/>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652" s="32"/>
+      <c r="B652" s="35"/>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653" s="32"/>
+      <c r="B653" s="35"/>
+    </row>
+    <row r="654" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B654" s="32" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655" s="32"/>
+      <c r="B655" s="35"/>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656" s="32"/>
+      <c r="B656" s="35"/>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" s="32"/>
+      <c r="B657" s="35"/>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" s="32"/>
+      <c r="B658" s="35"/>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" s="32"/>
+      <c r="B659" s="35"/>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" s="32"/>
+      <c r="B660" s="35"/>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" s="32"/>
+      <c r="B661" s="35"/>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" s="32"/>
+      <c r="B662" s="35"/>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" s="32"/>
+      <c r="B663" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PPT/Resumen/Clases.xlsx
+++ b/PPT/Resumen/Clases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="761">
   <si>
     <t>System</t>
   </si>
@@ -1152,12 +1152,6 @@
   </si>
   <si>
     <t>ReadOnly</t>
-  </si>
-  <si>
-    <t>DataSource</t>
-  </si>
-  <si>
-    <t>cmb.DataSource = Enum.GetValues(typeof(enumerado));</t>
   </si>
   <si>
     <t>Guid</t>
@@ -2196,9 +2190,6 @@
     <t>Advances the data reader to the next result, when reading the results of batch Transact-SQL statements.</t>
   </si>
   <si>
-    <t>Advances the SqlDataReader to the next record.</t>
-  </si>
-  <si>
     <t>ParameterizedThreadStart</t>
   </si>
   <si>
@@ -2206,6 +2197,119 @@
   </si>
   <si>
     <t>Thread.Sleep(miliseconds)</t>
+  </si>
+  <si>
+    <t>Advances the SqlDataReader to the next record. Returns true if there are more rows; otherwise false.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enum.GetValues(typeof(Enumerado)); </t>
+  </si>
+  <si>
+    <t>Returns An array that contains the values of the constants in enumType.</t>
+  </si>
+  <si>
+    <t>DataSource = array/list</t>
+  </si>
+  <si>
+    <t>DataSource= array/list</t>
+  </si>
+  <si>
+    <t>Valores que va a contener. cmb.DataSource = Enum.GetValues(typeof(enumerado));</t>
+  </si>
+  <si>
+    <t>Valores que va a contener</t>
+  </si>
+  <si>
+    <t>AllowDrop</t>
+  </si>
+  <si>
+    <t>Gets or sets a value indicating whether the control can accept data that the user drags onto it.</t>
+  </si>
+  <si>
+    <t>MultiColumn</t>
+  </si>
+  <si>
+    <t>Gets or sets a value indicating whether the ListBox supports multiple columns.</t>
+  </si>
+  <si>
+    <t>SelectedIndex</t>
+  </si>
+  <si>
+    <t>Gets or sets the zero-based index of the currently selected item in a ListBox.</t>
+  </si>
+  <si>
+    <t>SelectedIndices</t>
+  </si>
+  <si>
+    <t>Gets a collection that contains the zero-based indexes of all currently selected items in the ListBox.</t>
+  </si>
+  <si>
+    <t>SelectedItem</t>
+  </si>
+  <si>
+    <t>SelectedItems</t>
+  </si>
+  <si>
+    <t>Gets a collection containing the currently selected items in the ListBox.</t>
+  </si>
+  <si>
+    <t>SelectedValue</t>
+  </si>
+  <si>
+    <t>Gets or sets the value of the member property specified by the ValueMember property.</t>
+  </si>
+  <si>
+    <t>Gets or sets the method in which items are selected in the ListBox.</t>
+  </si>
+  <si>
+    <t>Sorted</t>
+  </si>
+  <si>
+    <t>Gets or sets a value indicating whether the items in the ListBox are sorted alphabetically.</t>
+  </si>
+  <si>
+    <t>Gets or searches for the text of the currently selected item in the ListBox.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisplayMember </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ValueMember </t>
+  </si>
+  <si>
+    <t>value to be returned when a row is selected</t>
+  </si>
+  <si>
+    <t>ClearSelected()</t>
+  </si>
+  <si>
+    <t>Unselects all items in the ListBox.</t>
+  </si>
+  <si>
+    <t>FindString(String)</t>
+  </si>
+  <si>
+    <t>Finds the first item in the ListBox that starts with the specified string.</t>
+  </si>
+  <si>
+    <t>GetSelected(Int32)</t>
+  </si>
+  <si>
+    <t>Returns a value indicating whether the specified item is selected.</t>
+  </si>
+  <si>
+    <t>Sorts the items in the ListBox.</t>
+  </si>
+  <si>
+    <t>property to be displayed. Por defecto se muestra el elemento del array ToString()</t>
+  </si>
+  <si>
+    <t>Gets or sets the currently selected item in the ListBox. Para usar los metodos y propiedades del objeto seleccionado, lo casteo a la clase correspondiente (Persona)lstPersonas.SelectedItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p/leer valor seleccionado:
+Franjas franjas; 
+Enum.TryParse&lt;Franjas&gt;(cmbFranja.SelectedValue.ToString(), out franjas); </t>
   </si>
 </sst>
 </file>
@@ -2753,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I663"/>
+  <dimension ref="A1:I690"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A618" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C646" sqref="C646"/>
+    <sheetView tabSelected="1" topLeftCell="A609" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J632" sqref="J632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,10 +3091,10 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D32" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3001,6 +3105,12 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>725</v>
+      </c>
+      <c r="D34" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3377,7 +3487,7 @@
     <row r="80" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C80" s="61" t="s">
         <v>21</v>
@@ -3387,10 +3497,10 @@
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3405,10 +3515,10 @@
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3419,17 +3529,17 @@
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="55" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D86" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3439,90 +3549,90 @@
     <row r="88" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D90" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D92" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D93" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D94" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D95" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D96" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3540,20 +3650,20 @@
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D99" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D100" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3563,17 +3673,17 @@
         <v>373</v>
       </c>
       <c r="D101" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D102" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3583,17 +3693,17 @@
         <v>321</v>
       </c>
       <c r="D103" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D104" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3603,7 +3713,7 @@
         <v>374</v>
       </c>
       <c r="D105" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3637,21 +3747,21 @@
         <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3711,7 +3821,7 @@
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3749,27 +3859,27 @@
     <row r="129" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="53"/>
       <c r="B130" s="53"/>
       <c r="C130" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D131" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4079,10 +4189,10 @@
       <c r="A172" s="20"/>
       <c r="B172" s="24"/>
       <c r="C172" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4234,7 +4344,7 @@
         <v>273</v>
       </c>
       <c r="D190" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4395,10 +4505,10 @@
       <c r="A210" s="20"/>
       <c r="B210" s="24"/>
       <c r="C210" t="s">
-        <v>376</v>
+        <v>728</v>
       </c>
       <c r="D210" t="s">
-        <v>377</v>
+        <v>729</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4426,157 +4536,160 @@
       <c r="A214" s="20"/>
       <c r="B214" s="24"/>
     </row>
-    <row r="215" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="21"/>
-      <c r="B215" s="27"/>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="20"/>
+      <c r="B215" s="24"/>
+      <c r="D215" s="11" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
-      <c r="B216" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="20"/>
-      <c r="B217" s="24" t="s">
-        <v>155</v>
-      </c>
+      <c r="B216" s="24"/>
+    </row>
+    <row r="217" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="21"/>
+      <c r="B217" s="27"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="20"/>
       <c r="B218" s="24" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="20"/>
       <c r="B219" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="20"/>
+      <c r="B220" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="20"/>
+      <c r="B221" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C221" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="220" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="18"/>
-      <c r="B220" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="C220" s="62"/>
-      <c r="D220" s="7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="19"/>
-      <c r="B221" s="25"/>
-      <c r="C221" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="19"/>
-      <c r="B222" s="25"/>
-      <c r="C222" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="D222" s="12" t="s">
-        <v>622</v>
+    <row r="222" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="18"/>
+      <c r="B222" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="C222" s="62"/>
+      <c r="D222" s="7" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="223" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="19"/>
       <c r="B223" s="25"/>
-      <c r="C223" s="13" t="s">
-        <v>624</v>
-      </c>
-      <c r="D223" s="12" t="s">
-        <v>625</v>
+      <c r="C223" s="25" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="224" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="19"/>
       <c r="B224" s="25"/>
       <c r="C224" s="13" t="s">
-        <v>639</v>
-      </c>
-      <c r="D224" s="13" t="s">
-        <v>640</v>
+        <v>619</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="225" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="19"/>
       <c r="B225" s="25"/>
-      <c r="C225" s="13"/>
+      <c r="C225" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="226" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="19"/>
       <c r="B226" s="25"/>
       <c r="C226" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="D226" s="12" t="s">
-        <v>623</v>
+        <v>637</v>
+      </c>
+      <c r="D226" s="13" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="227" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="19"/>
       <c r="B227" s="25"/>
+      <c r="C227" s="13"/>
     </row>
     <row r="228" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="19"/>
       <c r="B228" s="25"/>
-      <c r="C228" s="13"/>
-    </row>
-    <row r="229" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="18"/>
-      <c r="B229" s="26" t="s">
+      <c r="C228" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D228" s="12" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="19"/>
+      <c r="B229" s="25"/>
+    </row>
+    <row r="230" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="19"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="13"/>
+    </row>
+    <row r="231" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="18"/>
+      <c r="B231" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C231" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
-      <c r="B230" s="24" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="20"/>
-      <c r="B231" s="24"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="20"/>
       <c r="B232" s="24" t="s">
-        <v>158</v>
+        <v>304</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="20"/>
       <c r="B233" s="24"/>
-      <c r="C233" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="20"/>
-      <c r="B234" s="24"/>
-      <c r="C234" t="s">
-        <v>300</v>
-      </c>
-      <c r="D234" t="s">
-        <v>360</v>
+      <c r="B234" s="24" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="20"/>
       <c r="B235" s="24"/>
+      <c r="C235" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="20"/>
       <c r="B236" s="24"/>
+      <c r="C236" t="s">
+        <v>300</v>
+      </c>
+      <c r="D236" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="20"/>
@@ -4584,541 +4697,544 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="20"/>
-      <c r="B238" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C238" t="s">
-        <v>180</v>
-      </c>
+      <c r="B238" s="24"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="20"/>
       <c r="B239" s="24"/>
-      <c r="C239" t="s">
+    </row>
+    <row r="240" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="18"/>
+      <c r="B240" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="19"/>
+      <c r="B241" s="25"/>
+      <c r="C241" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="20"/>
+      <c r="B242" s="24"/>
+      <c r="C242" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="20"/>
-      <c r="B240" s="24"/>
-      <c r="C240" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="20"/>
-      <c r="B241" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C241" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="18"/>
-      <c r="B242" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="C242" s="62" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="B243" s="24"/>
-      <c r="C243" s="13" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="B244" s="24"/>
-      <c r="C244" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="D244" s="54" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
       <c r="B245" s="24"/>
-      <c r="C245" s="13" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>727</v>
+      </c>
+      <c r="D245" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
       <c r="B246" s="24"/>
-      <c r="C246" s="13" t="s">
-        <v>635</v>
-      </c>
-      <c r="D246" s="54" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="B247" s="24"/>
-      <c r="C247" s="13"/>
-    </row>
-    <row r="248" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>731</v>
+      </c>
+      <c r="D247" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="20"/>
-      <c r="B248" s="24" t="s">
-        <v>612</v>
-      </c>
-      <c r="D248" s="54" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="24"/>
+      <c r="C248" t="s">
+        <v>733</v>
+      </c>
+      <c r="D248" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
       <c r="B249" s="24"/>
-    </row>
-    <row r="250" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>735</v>
+      </c>
+      <c r="D249" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="20"/>
       <c r="B250" s="24"/>
-    </row>
-    <row r="251" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>737</v>
+      </c>
+      <c r="D250" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="20"/>
-      <c r="B251" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C251" s="54" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="24"/>
+      <c r="C251" t="s">
+        <v>739</v>
+      </c>
+      <c r="D251" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
-      <c r="B252" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C252" s="54" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="24"/>
+      <c r="C252" t="s">
+        <v>740</v>
+      </c>
+      <c r="D252" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="B253" s="24"/>
-    </row>
-    <row r="254" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="18"/>
-      <c r="B254" s="26" t="s">
-        <v>617</v>
-      </c>
-      <c r="C254" s="62" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="19"/>
-      <c r="B255" s="25"/>
-      <c r="C255" s="13" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="19"/>
-      <c r="B256" s="25"/>
-    </row>
-    <row r="257" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>742</v>
+      </c>
+      <c r="D253" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="20"/>
+      <c r="B254" s="24"/>
+      <c r="C254" t="s">
+        <v>183</v>
+      </c>
+      <c r="D254" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="20"/>
+      <c r="B255" s="24"/>
+      <c r="C255" t="s">
+        <v>745</v>
+      </c>
+      <c r="D255" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="20"/>
+      <c r="B256" s="24"/>
+      <c r="C256" t="s">
+        <v>144</v>
+      </c>
+      <c r="D256" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="20"/>
       <c r="B257" s="24"/>
-    </row>
-    <row r="258" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="18"/>
-      <c r="B258" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C258" s="26" t="s">
-        <v>21</v>
+      <c r="C257" t="s">
+        <v>748</v>
+      </c>
+      <c r="D257" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="20"/>
+      <c r="B258" s="24"/>
+      <c r="C258" t="s">
+        <v>749</v>
+      </c>
+      <c r="D258" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="20"/>
       <c r="B259" s="24"/>
-      <c r="C259" t="s">
-        <v>126</v>
-      </c>
-      <c r="D259" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="20"/>
       <c r="B260" s="24"/>
-      <c r="C260" t="s">
-        <v>128</v>
-      </c>
-      <c r="D260" t="s">
-        <v>129</v>
+      <c r="C260" s="24" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="20"/>
       <c r="B261" s="24"/>
       <c r="C261" t="s">
-        <v>130</v>
+        <v>751</v>
       </c>
       <c r="D261" t="s">
-        <v>131</v>
+        <v>752</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="20"/>
       <c r="B262" s="24"/>
       <c r="C262" t="s">
-        <v>132</v>
+        <v>753</v>
       </c>
       <c r="D262" t="s">
-        <v>133</v>
+        <v>754</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="20"/>
       <c r="B263" s="24"/>
       <c r="C263" t="s">
-        <v>134</v>
+        <v>755</v>
       </c>
       <c r="D263" t="s">
-        <v>135</v>
+        <v>756</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="20"/>
       <c r="B264" s="24"/>
       <c r="C264" t="s">
-        <v>136</v>
+        <v>285</v>
       </c>
       <c r="D264" t="s">
-        <v>137</v>
+        <v>757</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="20"/>
       <c r="B265" s="24"/>
-      <c r="C265" t="s">
-        <v>138</v>
-      </c>
-      <c r="D265" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="20"/>
       <c r="B266" s="24"/>
-      <c r="C266" t="s">
-        <v>140</v>
-      </c>
-      <c r="D266" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="20"/>
       <c r="B267" s="24"/>
-      <c r="C267" t="s">
-        <v>142</v>
-      </c>
-      <c r="D267" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="20"/>
-      <c r="B268" s="24"/>
+      <c r="B268" s="24" t="s">
+        <v>160</v>
+      </c>
       <c r="C268" t="s">
-        <v>144</v>
-      </c>
-      <c r="D268" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="19"/>
-      <c r="B269" s="25"/>
-      <c r="C269" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D269" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="19"/>
-      <c r="B270" s="25"/>
-    </row>
-    <row r="271" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="19"/>
-      <c r="B271" s="25"/>
-      <c r="C271" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="19"/>
-      <c r="B272" s="25"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="18"/>
+      <c r="B269" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="C269" s="62" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="20"/>
+      <c r="B270" s="24"/>
+      <c r="C270" s="13" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="20"/>
+      <c r="B271" s="24"/>
+      <c r="C271" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="D271" s="54" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="20"/>
+      <c r="B272" s="24"/>
       <c r="C272" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D272" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="19"/>
-      <c r="B273" s="25"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="20"/>
+      <c r="B273" s="24"/>
+      <c r="C273" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="D273" s="54" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
       <c r="B274" s="24"/>
-    </row>
-    <row r="275" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="18"/>
-      <c r="B275" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="19"/>
-      <c r="B276" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="C276" s="13" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="19"/>
-      <c r="B277" s="25"/>
-      <c r="C277" s="13"/>
-    </row>
-    <row r="278" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="18"/>
-      <c r="B278" s="26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C274" s="13"/>
+    </row>
+    <row r="275" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="20"/>
+      <c r="B275" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="D275" s="54" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="20"/>
+      <c r="B276" s="24"/>
+    </row>
+    <row r="277" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="20"/>
+      <c r="B277" s="24"/>
+    </row>
+    <row r="278" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="20"/>
+      <c r="B278" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C278" s="54" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="20"/>
       <c r="B279" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="C279" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="20"/>
       <c r="B280" s="24"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="20"/>
-      <c r="B281" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C281" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="20"/>
-      <c r="B282" s="24"/>
-      <c r="C282" t="s">
-        <v>302</v>
-      </c>
-      <c r="D282" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="20"/>
-      <c r="B283" s="24"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="18"/>
+      <c r="B281" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="C281" s="62" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="19"/>
+      <c r="B282" s="25"/>
+      <c r="C282" s="13" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="19"/>
+      <c r="B283" s="25"/>
+    </row>
+    <row r="284" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="20"/>
       <c r="B284" s="24"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="20"/>
-      <c r="B285" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="18"/>
-      <c r="B286" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C286" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="18"/>
+      <c r="B285" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C285" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="20"/>
+      <c r="B286" s="24"/>
+      <c r="C286" t="s">
+        <v>126</v>
+      </c>
+      <c r="D286" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="20"/>
       <c r="B287" s="24"/>
       <c r="C287" t="s">
-        <v>185</v>
+        <v>128</v>
+      </c>
+      <c r="D287" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="20"/>
       <c r="B288" s="24"/>
       <c r="C288" t="s">
-        <v>186</v>
+        <v>130</v>
+      </c>
+      <c r="D288" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="20"/>
       <c r="B289" s="24"/>
       <c r="C289" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="21"/>
-      <c r="B290" s="27"/>
-      <c r="C290" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="18"/>
-      <c r="B291" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C291" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="19"/>
-      <c r="B292" s="25"/>
-      <c r="C292" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D289" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="20"/>
+      <c r="B290" s="24"/>
+      <c r="C290" t="s">
+        <v>134</v>
+      </c>
+      <c r="D290" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="20"/>
+      <c r="B291" s="24"/>
+      <c r="C291" t="s">
+        <v>136</v>
+      </c>
+      <c r="D291" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="20"/>
+      <c r="B292" s="24"/>
+      <c r="C292" t="s">
+        <v>138</v>
+      </c>
+      <c r="D292" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="20"/>
+      <c r="B293" s="24"/>
+      <c r="C293" t="s">
+        <v>140</v>
+      </c>
+      <c r="D293" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="20"/>
+      <c r="B294" s="24"/>
+      <c r="C294" t="s">
+        <v>142</v>
+      </c>
+      <c r="D294" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="20"/>
+      <c r="B295" s="24"/>
+      <c r="C295" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="19"/>
-      <c r="B293" s="25"/>
-      <c r="C293" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D293" s="12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="19"/>
-      <c r="B294" s="25"/>
-      <c r="C294" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="D294" s="12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="19"/>
-      <c r="B295" s="25"/>
-      <c r="C295" s="13" t="s">
-        <v>375</v>
+      <c r="D295" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="296" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="19"/>
       <c r="B296" s="25"/>
-      <c r="C296" s="13"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="20"/>
-      <c r="B297" s="24"/>
-      <c r="C297" s="24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="20"/>
-      <c r="B298" s="24"/>
-      <c r="C298" t="s">
-        <v>269</v>
-      </c>
-      <c r="D298" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="20"/>
-      <c r="B299" s="24"/>
-      <c r="C299" t="s">
-        <v>271</v>
-      </c>
-      <c r="D299" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="20"/>
-      <c r="B300" s="24"/>
-      <c r="C300" t="s">
-        <v>273</v>
-      </c>
-      <c r="D300" t="s">
-        <v>274</v>
-      </c>
+      <c r="C296" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="19"/>
+      <c r="B297" s="25"/>
+    </row>
+    <row r="298" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="19"/>
+      <c r="B298" s="25"/>
+      <c r="C298" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="19"/>
+      <c r="B299" s="25"/>
+      <c r="C299" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D299" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="19"/>
+      <c r="B300" s="25"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="20"/>
       <c r="B301" s="24"/>
-      <c r="C301" t="s">
-        <v>275</v>
-      </c>
-      <c r="D301" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="20"/>
-      <c r="B302" s="24"/>
-      <c r="C302" t="s">
-        <v>264</v>
-      </c>
-      <c r="D302" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="20"/>
-      <c r="B303" s="24"/>
-      <c r="C303" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="20"/>
-      <c r="B304" s="24"/>
-      <c r="C304" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="20"/>
-      <c r="B305" s="24"/>
-      <c r="C305" t="s">
-        <v>279</v>
-      </c>
-      <c r="D305" t="s">
-        <v>280</v>
+    </row>
+    <row r="302" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="18"/>
+      <c r="B302" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="19"/>
+      <c r="B303" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C303" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="19"/>
+      <c r="B304" s="25"/>
+      <c r="C304" s="13"/>
+    </row>
+    <row r="305" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="18"/>
+      <c r="B305" s="26" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="20"/>
-      <c r="B306" s="24"/>
-      <c r="C306" t="s">
-        <v>281</v>
-      </c>
-      <c r="D306" t="s">
-        <v>282</v>
+      <c r="B306" s="24" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -5127,2624 +5243,2837 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="20"/>
-      <c r="B308" s="24"/>
-      <c r="C308" s="24" t="s">
-        <v>26</v>
+      <c r="B308" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C308" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="20"/>
       <c r="B309" s="24"/>
       <c r="C309" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="D309" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="21"/>
-      <c r="B310" s="27"/>
-      <c r="C310" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D310" s="9" t="s">
-        <v>268</v>
-      </c>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="20"/>
+      <c r="B310" s="24"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="20"/>
-      <c r="B311" s="24" t="s">
-        <v>171</v>
-      </c>
+      <c r="B311" s="24"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="20"/>
       <c r="B312" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C312" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="20"/>
-      <c r="B313" s="24"/>
-    </row>
-    <row r="314" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B314" s="20" t="s">
-        <v>34</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="18"/>
+      <c r="B313" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="20"/>
+      <c r="B314" s="24"/>
+      <c r="C314" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="20"/>
-      <c r="B315" s="24" t="s">
-        <v>174</v>
+      <c r="B315" s="24"/>
+      <c r="C315" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="20"/>
-      <c r="B316" s="24" t="s">
+      <c r="B316" s="24"/>
+      <c r="C316" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="21"/>
+      <c r="B317" s="27"/>
+      <c r="C317" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="18"/>
+      <c r="B318" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C318" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="19"/>
+      <c r="B319" s="25"/>
+      <c r="C319" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="19"/>
+      <c r="B320" s="25"/>
+      <c r="C320" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D320" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="19"/>
+      <c r="B321" s="25"/>
+      <c r="C321" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D321" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="19"/>
+      <c r="B322" s="25"/>
+      <c r="C322" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="19"/>
+      <c r="B323" s="25"/>
+      <c r="C323" s="13"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="20"/>
+      <c r="B324" s="24"/>
+      <c r="C324" s="24" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="20"/>
+      <c r="B325" s="24"/>
+      <c r="C325" t="s">
+        <v>269</v>
+      </c>
+      <c r="D325" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="20"/>
+      <c r="B326" s="24"/>
+      <c r="C326" t="s">
+        <v>271</v>
+      </c>
+      <c r="D326" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="20"/>
+      <c r="B327" s="24"/>
+      <c r="C327" t="s">
+        <v>273</v>
+      </c>
+      <c r="D327" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="20"/>
+      <c r="B328" s="24"/>
+      <c r="C328" t="s">
+        <v>275</v>
+      </c>
+      <c r="D328" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="20"/>
+      <c r="B329" s="24"/>
+      <c r="C329" t="s">
+        <v>264</v>
+      </c>
+      <c r="D329" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="20"/>
+      <c r="B330" s="24"/>
+      <c r="C330" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="20"/>
+      <c r="B331" s="24"/>
+      <c r="C331" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="20"/>
+      <c r="B332" s="24"/>
+      <c r="C332" t="s">
+        <v>279</v>
+      </c>
+      <c r="D332" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="20"/>
+      <c r="B333" s="24"/>
+      <c r="C333" t="s">
+        <v>281</v>
+      </c>
+      <c r="D333" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="20"/>
+      <c r="B334" s="24"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="20"/>
+      <c r="B335" s="24"/>
+      <c r="C335" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="20"/>
+      <c r="B336" s="24"/>
+      <c r="C336" t="s">
+        <v>266</v>
+      </c>
+      <c r="D336" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="21"/>
+      <c r="B337" s="27"/>
+      <c r="C337" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="20"/>
+      <c r="B338" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="20"/>
+      <c r="B339" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C339" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="20"/>
+      <c r="B340" s="24"/>
+    </row>
+    <row r="341" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="20"/>
+      <c r="B342" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="20"/>
+      <c r="B343" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="20"/>
-      <c r="B317" s="24" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="20"/>
-      <c r="B318" s="24"/>
-    </row>
-    <row r="319" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="47" t="s">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="20"/>
+      <c r="B344" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="20"/>
+      <c r="B345" s="24"/>
+    </row>
+    <row r="346" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="B319" s="48"/>
-    </row>
-    <row r="320" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="31" t="s">
+      <c r="B346" s="48"/>
+    </row>
+    <row r="347" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="28"/>
-      <c r="B321" s="34" t="s">
+    <row r="348" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="28"/>
+      <c r="B348" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="C321" s="12" t="s">
+      <c r="C348" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="322" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="28"/>
-      <c r="B322" s="34"/>
-      <c r="C322" s="12" t="s">
+    <row r="349" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="28"/>
+      <c r="B349" s="34"/>
+      <c r="C349" s="12" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="323" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="28"/>
-      <c r="B323" s="34"/>
-      <c r="C323" s="12" t="s">
+    <row r="350" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="28"/>
+      <c r="B350" s="34"/>
+      <c r="C350" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="D323" s="12" t="s">
+      <c r="D350" s="12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="324" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="28"/>
-      <c r="B324" s="34"/>
-      <c r="C324" s="12" t="s">
+    <row r="351" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="28"/>
+      <c r="B351" s="34"/>
+      <c r="C351" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D324" s="12" t="s">
+      <c r="D351" s="12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="325" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="28"/>
-      <c r="B325" s="34"/>
-      <c r="C325" s="13" t="s">
+    <row r="352" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="28"/>
+      <c r="B352" s="34"/>
+      <c r="C352" s="13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="326" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="28"/>
-      <c r="B326" s="34"/>
-      <c r="C326" s="13" t="s">
+    <row r="353" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="28"/>
+      <c r="B353" s="34"/>
+      <c r="C353" s="13" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="327" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="28"/>
-      <c r="B327" s="34"/>
-      <c r="C327" s="13" t="s">
+    <row r="354" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="28"/>
+      <c r="B354" s="34"/>
+      <c r="C354" s="13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="328" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="28"/>
-      <c r="B328" s="34"/>
-      <c r="C328" s="13" t="s">
+    <row r="355" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="28"/>
+      <c r="B355" s="34"/>
+      <c r="C355" s="13" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="329" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="28"/>
-      <c r="B329" s="34"/>
-      <c r="C329" s="13" t="s">
+    <row r="356" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="28"/>
+      <c r="B356" s="34"/>
+      <c r="C356" s="13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="330" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="28"/>
-      <c r="B330" s="34"/>
-      <c r="C330" s="13" t="s">
+    <row r="357" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="28"/>
+      <c r="B357" s="34"/>
+      <c r="C357" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="331" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="28"/>
-      <c r="B331" s="34"/>
-      <c r="C331" s="13" t="s">
+    <row r="358" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="28"/>
+      <c r="B358" s="34"/>
+      <c r="C358" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="332" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="28"/>
-      <c r="B332" s="34"/>
-    </row>
-    <row r="333" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="28"/>
-      <c r="B333" s="34" t="s">
+    <row r="359" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="28"/>
+      <c r="B359" s="34"/>
+    </row>
+    <row r="360" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="28"/>
+      <c r="B360" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="C333" s="12" t="s">
+      <c r="C360" s="12" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="334" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="28"/>
-      <c r="B334" s="34"/>
-      <c r="C334" s="13" t="s">
+    <row r="361" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="28"/>
+      <c r="B361" s="34"/>
+      <c r="C361" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="335" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="28"/>
-      <c r="B335" s="34"/>
-      <c r="C335" s="13" t="s">
+    <row r="362" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="28"/>
+      <c r="B362" s="34"/>
+      <c r="C362" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="D335" s="12" t="s">
+      <c r="D362" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="336" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="28"/>
-      <c r="B336" s="34"/>
-      <c r="C336" s="13" t="s">
+    <row r="363" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="28"/>
+      <c r="B363" s="34"/>
+      <c r="C363" s="13" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="337" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="28"/>
-      <c r="B337" s="34"/>
-    </row>
-    <row r="338" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="28"/>
-      <c r="B338" s="34"/>
-    </row>
-    <row r="339" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="28"/>
-      <c r="B339" s="34"/>
-    </row>
-    <row r="340" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="28"/>
-      <c r="B340" s="34" t="s">
+    <row r="364" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="28"/>
+      <c r="B364" s="34"/>
+    </row>
+    <row r="365" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="28"/>
+      <c r="B365" s="34"/>
+    </row>
+    <row r="366" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="28"/>
+      <c r="B366" s="34"/>
+    </row>
+    <row r="367" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="28"/>
+      <c r="B367" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="C340" s="12" t="s">
+      <c r="C367" s="12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="341" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="28"/>
-      <c r="B341" s="34"/>
-      <c r="C341" s="13" t="s">
+    <row r="368" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="28"/>
+      <c r="B368" s="34"/>
+      <c r="C368" s="13" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="342" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="28"/>
-      <c r="B342" s="34"/>
-      <c r="C342" s="13" t="s">
+    <row r="369" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="28"/>
+      <c r="B369" s="34"/>
+      <c r="C369" s="13" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="343" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="28"/>
-      <c r="B343" s="34"/>
-    </row>
-    <row r="344" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="28"/>
-      <c r="B344" s="34"/>
-    </row>
-    <row r="345" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="28"/>
-      <c r="B345" s="34"/>
-    </row>
-    <row r="346" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="28"/>
-      <c r="B346" s="34" t="s">
+    <row r="370" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="28"/>
+      <c r="B370" s="34"/>
+    </row>
+    <row r="371" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="28"/>
+      <c r="B371" s="34"/>
+    </row>
+    <row r="372" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="28"/>
+      <c r="B372" s="34"/>
+    </row>
+    <row r="373" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="28"/>
+      <c r="B373" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="C346" s="12" t="s">
+      <c r="C373" s="12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="29"/>
-      <c r="B347" s="34"/>
-      <c r="C347" t="s">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="29"/>
+      <c r="B374" s="34"/>
+      <c r="C374" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="29"/>
-      <c r="B348" s="34"/>
-      <c r="C348" t="s">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="29"/>
+      <c r="B375" s="34"/>
+      <c r="C375" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="29"/>
-      <c r="B349" s="34"/>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="29"/>
-      <c r="B350" s="29" t="s">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="29"/>
+      <c r="B376" s="34"/>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="29"/>
+      <c r="B377" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="29"/>
-      <c r="B351" s="34"/>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="29"/>
-      <c r="B352" s="34"/>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="29"/>
-      <c r="B353" s="29" t="s">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="29"/>
+      <c r="B378" s="34"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="29"/>
+      <c r="B379" s="34"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="29"/>
+      <c r="B380" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="29"/>
-      <c r="B354" s="34"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="29"/>
-      <c r="B355" s="34"/>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="29"/>
-      <c r="B356" s="34"/>
-    </row>
-    <row r="357" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="41" t="s">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="29"/>
+      <c r="B381" s="34"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="29"/>
+      <c r="B382" s="34"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="29"/>
+      <c r="B383" s="34"/>
+    </row>
+    <row r="384" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="B357" s="42"/>
-    </row>
-    <row r="358" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B358" s="37" t="s">
+      <c r="B384" s="42"/>
+    </row>
+    <row r="385" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B385" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="36"/>
-      <c r="B359" s="50" t="s">
+    <row r="386" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="36"/>
+      <c r="B386" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="C359" s="50" t="s">
+      <c r="C386" s="50" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" s="33"/>
-      <c r="B360" s="38"/>
-      <c r="C360" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="33"/>
-      <c r="B361" s="38"/>
-      <c r="C361" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="33"/>
-      <c r="B362" s="38"/>
-      <c r="C362" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" s="33"/>
-      <c r="B363" s="38"/>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="33"/>
-      <c r="B364" s="38"/>
-    </row>
-    <row r="365" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="36"/>
-      <c r="B365" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="C365" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="33"/>
-      <c r="B366" s="38"/>
-      <c r="C366" t="s">
-        <v>251</v>
-      </c>
-      <c r="D366" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" s="33"/>
-      <c r="B367" s="38"/>
-      <c r="C367" t="s">
-        <v>252</v>
-      </c>
-      <c r="D367" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" s="33"/>
-      <c r="B368" s="38"/>
-      <c r="C368" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" s="33"/>
-      <c r="B369" s="38"/>
-      <c r="C369" t="s">
-        <v>364</v>
-      </c>
-      <c r="D369" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" s="33"/>
-      <c r="B370" s="38"/>
-    </row>
-    <row r="371" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="36"/>
-      <c r="B371" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C371" s="50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" s="33"/>
-      <c r="B372" s="38"/>
-      <c r="C372" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="33"/>
-      <c r="B373" s="38"/>
-      <c r="C373" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" s="33"/>
-      <c r="B374" s="38"/>
-      <c r="C374" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" s="33"/>
-      <c r="B375" s="38"/>
-    </row>
-    <row r="376" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="36"/>
-      <c r="B376" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C376" s="50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="33"/>
-      <c r="B377" s="38"/>
-      <c r="C377" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" s="33"/>
-      <c r="B378" s="38"/>
-      <c r="C378" t="s">
-        <v>256</v>
-      </c>
-      <c r="D378" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="33"/>
-      <c r="B379" s="38"/>
-      <c r="C379" t="s">
-        <v>315</v>
-      </c>
-      <c r="D379" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="33"/>
-      <c r="B380" s="38"/>
-      <c r="C380" t="s">
-        <v>318</v>
-      </c>
-      <c r="D380" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="33"/>
-      <c r="B381" s="38"/>
-      <c r="C381" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="33"/>
-      <c r="B382" s="38"/>
-      <c r="C382" t="s">
-        <v>321</v>
-      </c>
-      <c r="D382" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="33"/>
-      <c r="B383" s="38"/>
-      <c r="C383" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="33"/>
-      <c r="B384" s="38"/>
-      <c r="C384" t="s">
-        <v>324</v>
-      </c>
-      <c r="D384" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="33"/>
-      <c r="B385" s="38"/>
-      <c r="C385" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="33"/>
-      <c r="B386" s="38"/>
-      <c r="C386" t="s">
-        <v>327</v>
-      </c>
-      <c r="D386" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="33"/>
       <c r="B387" s="38"/>
       <c r="C387" t="s">
-        <v>366</v>
-      </c>
-      <c r="D387" t="s">
-        <v>367</v>
+        <v>287</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="33"/>
       <c r="B388" s="38"/>
-    </row>
-    <row r="389" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="36"/>
-      <c r="B389" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="C389" s="50" t="s">
-        <v>243</v>
+      <c r="C388" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="33"/>
+      <c r="B389" s="38"/>
+      <c r="C389" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="33"/>
       <c r="B390" s="38"/>
-      <c r="C390" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="33"/>
       <c r="B391" s="38"/>
-      <c r="C391" t="s">
-        <v>338</v>
-      </c>
-      <c r="D391" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="33"/>
-      <c r="B392" s="38"/>
-      <c r="C392" t="s">
-        <v>340</v>
-      </c>
-      <c r="D392" t="s">
-        <v>341</v>
+    </row>
+    <row r="392" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="36"/>
+      <c r="B392" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C392" s="50" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="33"/>
       <c r="B393" s="38"/>
       <c r="C393" t="s">
-        <v>320</v>
+        <v>251</v>
       </c>
       <c r="D393" t="s">
-        <v>290</v>
+        <v>19</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="33"/>
       <c r="B394" s="38"/>
       <c r="C394" t="s">
-        <v>342</v>
+        <v>252</v>
+      </c>
+      <c r="D394" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="33"/>
       <c r="B395" s="38"/>
       <c r="C395" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="33"/>
       <c r="B396" s="38"/>
       <c r="C396" t="s">
-        <v>337</v>
+        <v>364</v>
+      </c>
+      <c r="D396" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="33"/>
       <c r="B397" s="38"/>
-      <c r="C397" t="s">
-        <v>343</v>
-      </c>
-      <c r="D397" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="33"/>
-      <c r="B398" s="38"/>
-    </row>
-    <row r="399" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B399" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="36"/>
+      <c r="B398" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C398" s="50" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="33"/>
+      <c r="B399" s="38"/>
+      <c r="C399" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="33"/>
-      <c r="B400" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="C400" s="38" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B400" s="38"/>
+      <c r="C400" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="33"/>
       <c r="B401" s="38"/>
-      <c r="C401" s="38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C401" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="33"/>
       <c r="B402" s="38"/>
-      <c r="C402" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="33"/>
-      <c r="B403" s="38"/>
-      <c r="C403" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="36"/>
+      <c r="B403" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C403" s="50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="33"/>
-      <c r="B404" s="33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B404" s="38"/>
+      <c r="C404" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="33"/>
       <c r="B405" s="38"/>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C405" t="s">
+        <v>256</v>
+      </c>
+      <c r="D405" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="33"/>
       <c r="B406" s="38"/>
-    </row>
-    <row r="407" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="39" t="s">
+      <c r="C406" t="s">
+        <v>315</v>
+      </c>
+      <c r="D406" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="33"/>
+      <c r="B407" s="38"/>
+      <c r="C407" t="s">
+        <v>318</v>
+      </c>
+      <c r="D407" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="33"/>
+      <c r="B408" s="38"/>
+      <c r="C408" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="33"/>
+      <c r="B409" s="38"/>
+      <c r="C409" t="s">
+        <v>321</v>
+      </c>
+      <c r="D409" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="33"/>
+      <c r="B410" s="38"/>
+      <c r="C410" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="33"/>
+      <c r="B411" s="38"/>
+      <c r="C411" t="s">
+        <v>324</v>
+      </c>
+      <c r="D411" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="33"/>
+      <c r="B412" s="38"/>
+      <c r="C412" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="33"/>
+      <c r="B413" s="38"/>
+      <c r="C413" t="s">
+        <v>327</v>
+      </c>
+      <c r="D413" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="33"/>
+      <c r="B414" s="38"/>
+      <c r="C414" t="s">
+        <v>366</v>
+      </c>
+      <c r="D414" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="33"/>
+      <c r="B415" s="38"/>
+    </row>
+    <row r="416" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="36"/>
+      <c r="B416" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C416" s="50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="33"/>
+      <c r="B417" s="38"/>
+      <c r="C417" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="33"/>
+      <c r="B418" s="38"/>
+      <c r="C418" t="s">
+        <v>338</v>
+      </c>
+      <c r="D418" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="33"/>
+      <c r="B419" s="38"/>
+      <c r="C419" t="s">
+        <v>340</v>
+      </c>
+      <c r="D419" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="33"/>
+      <c r="B420" s="38"/>
+      <c r="C420" t="s">
+        <v>320</v>
+      </c>
+      <c r="D420" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="33"/>
+      <c r="B421" s="38"/>
+      <c r="C421" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="33"/>
+      <c r="B422" s="38"/>
+      <c r="C422" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="33"/>
+      <c r="B423" s="38"/>
+      <c r="C423" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="33"/>
+      <c r="B424" s="38"/>
+      <c r="C424" t="s">
+        <v>343</v>
+      </c>
+      <c r="D424" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="33"/>
+      <c r="B425" s="38"/>
+    </row>
+    <row r="426" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B426" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="33"/>
+      <c r="B427" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C427" s="38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="33"/>
+      <c r="B428" s="38"/>
+      <c r="C428" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="33"/>
+      <c r="B429" s="38"/>
+      <c r="C429" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="33"/>
+      <c r="B430" s="38"/>
+      <c r="C430" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="33"/>
+      <c r="B431" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="33"/>
+      <c r="B432" s="38"/>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="33"/>
+      <c r="B433" s="38"/>
+    </row>
+    <row r="434" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="B407" s="40" t="s">
+      <c r="B434" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="32"/>
-      <c r="B408" s="35" t="s">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="32"/>
+      <c r="B435" s="35" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="32"/>
-      <c r="B409" s="35" t="s">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="32"/>
+      <c r="B436" s="35" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="32"/>
-      <c r="B410" s="35" t="s">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="32"/>
+      <c r="B437" s="35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="32"/>
-      <c r="B411" s="35" t="s">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="32"/>
+      <c r="B438" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="32"/>
-      <c r="B412" s="35" t="s">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="32"/>
+      <c r="B439" s="35" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="32"/>
-      <c r="B413" s="35"/>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="32"/>
-      <c r="B414" s="35"/>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="32"/>
-      <c r="B415" s="35"/>
-    </row>
-    <row r="416" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C416" s="64"/>
-    </row>
-    <row r="417" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B417" s="53" t="s">
-        <v>388</v>
-      </c>
-      <c r="C417" s="65" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="4"/>
-      <c r="B418" s="55"/>
-      <c r="C418" s="55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="4"/>
-      <c r="B419" s="55"/>
-      <c r="C419" s="54" t="s">
-        <v>420</v>
-      </c>
-      <c r="D419" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="4"/>
-      <c r="B420" s="55"/>
-      <c r="C420" s="54" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="4"/>
-      <c r="B421" s="55"/>
-      <c r="C421" s="54" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="4"/>
-      <c r="B422" s="55"/>
-      <c r="C422" s="54" t="s">
-        <v>423</v>
-      </c>
-      <c r="D422" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="4"/>
-      <c r="B423" s="55"/>
-      <c r="C423" s="54" t="s">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="32"/>
+      <c r="B440" s="35"/>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="32"/>
+      <c r="B441" s="35"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="32"/>
+      <c r="B442" s="35"/>
+    </row>
+    <row r="443" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="D423" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="4"/>
-      <c r="B424" s="55"/>
-      <c r="C424" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="D424" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="4"/>
-      <c r="B425" s="55"/>
-      <c r="C425" s="54" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="4"/>
-      <c r="B426" s="55"/>
-      <c r="C426" s="54" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" s="4"/>
-      <c r="B427" s="55"/>
-      <c r="C427" s="54" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" s="4"/>
-      <c r="B428" s="55"/>
-      <c r="C428" s="54" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="4"/>
-      <c r="B429" s="55"/>
-      <c r="C429" s="54" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="4"/>
-      <c r="B430" s="55"/>
-      <c r="C430" s="54" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="4"/>
-      <c r="B431" s="55"/>
-      <c r="C431" s="54" t="s">
-        <v>443</v>
-      </c>
-      <c r="D431" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="4"/>
-      <c r="B432" s="55"/>
-      <c r="C432" s="54"/>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" s="4"/>
-      <c r="B433" s="55"/>
-      <c r="C433" s="54"/>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" s="4"/>
-      <c r="B434" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C434" s="54" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" s="4"/>
-      <c r="B435" s="55"/>
-      <c r="C435" s="54" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="4"/>
-      <c r="B436" s="55"/>
-      <c r="C436" s="54" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="4"/>
-      <c r="B437" s="55"/>
-      <c r="C437" s="54" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" s="4"/>
-      <c r="B438" s="55"/>
-      <c r="C438" s="54" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" s="4"/>
-      <c r="B439" s="55"/>
-      <c r="C439" s="54"/>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="4"/>
-      <c r="B440" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C440" s="54"/>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="4"/>
-      <c r="B441" s="55"/>
-      <c r="C441" s="54"/>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="4"/>
-      <c r="B442" s="55"/>
-      <c r="C442" s="54"/>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="4"/>
-      <c r="B443" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C443" s="54" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" s="4"/>
-      <c r="B444" s="55"/>
-      <c r="C444" s="54" t="s">
-        <v>442</v>
+      <c r="C443" s="64"/>
+    </row>
+    <row r="444" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B444" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="C444" s="65" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
       <c r="B445" s="55"/>
+      <c r="C445" s="55" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
       <c r="B446" s="55"/>
-    </row>
-    <row r="447" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="15" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="D448" s="14" t="s">
-        <v>547</v>
+      <c r="C446" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="D446" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="4"/>
+      <c r="B447" s="55"/>
+      <c r="C447" s="54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="4"/>
+      <c r="B448" s="55"/>
+      <c r="C448" s="54" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" s="14"/>
-      <c r="B449" s="17"/>
-      <c r="C449" s="59" t="s">
-        <v>492</v>
+      <c r="A449" s="4"/>
+      <c r="B449" s="55"/>
+      <c r="C449" s="54" t="s">
+        <v>421</v>
       </c>
       <c r="D449" t="s">
-        <v>493</v>
+        <v>422</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" s="14"/>
-      <c r="B450" s="17"/>
-      <c r="C450" s="59" t="s">
-        <v>494</v>
+      <c r="A450" s="4"/>
+      <c r="B450" s="55"/>
+      <c r="C450" s="54" t="s">
+        <v>415</v>
       </c>
       <c r="D450" t="s">
-        <v>495</v>
+        <v>424</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" s="14"/>
-      <c r="B451" s="17"/>
-      <c r="C451" s="60" t="s">
-        <v>496</v>
+      <c r="A451" s="4"/>
+      <c r="B451" s="55"/>
+      <c r="C451" s="54" t="s">
+        <v>442</v>
       </c>
       <c r="D451" t="s">
-        <v>497</v>
+        <v>443</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" s="14"/>
-      <c r="B452" s="17"/>
-      <c r="C452" s="56" t="s">
-        <v>552</v>
-      </c>
-      <c r="D452" t="s">
-        <v>553</v>
+      <c r="A452" s="4"/>
+      <c r="B452" s="55"/>
+      <c r="C452" s="54" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" s="14"/>
-      <c r="B453" s="17"/>
-      <c r="C453" s="56" t="s">
-        <v>554</v>
-      </c>
-      <c r="D453" t="s">
-        <v>555</v>
+      <c r="A453" s="4"/>
+      <c r="B453" s="55"/>
+      <c r="C453" s="54" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" s="14"/>
-      <c r="B454" s="17"/>
-      <c r="C454" s="56" t="s">
-        <v>556</v>
-      </c>
-      <c r="D454" t="s">
-        <v>557</v>
+      <c r="A454" s="4"/>
+      <c r="B454" s="55"/>
+      <c r="C454" s="54" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A455" s="14"/>
-      <c r="B455" s="17"/>
-      <c r="C455" s="56" t="s">
-        <v>558</v>
-      </c>
-      <c r="D455" t="s">
-        <v>559</v>
+      <c r="A455" s="4"/>
+      <c r="B455" s="55"/>
+      <c r="C455" s="54" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456" s="14"/>
-      <c r="B456" s="17"/>
-      <c r="C456" s="56" t="s">
-        <v>560</v>
-      </c>
-      <c r="D456" t="s">
-        <v>561</v>
+      <c r="A456" s="4"/>
+      <c r="B456" s="55"/>
+      <c r="C456" s="54" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="14"/>
-      <c r="B457" s="17"/>
-      <c r="C457" s="56" t="s">
-        <v>562</v>
-      </c>
-      <c r="D457" t="s">
-        <v>563</v>
+      <c r="A457" s="4"/>
+      <c r="B457" s="55"/>
+      <c r="C457" s="54" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458" s="14"/>
-      <c r="B458" s="17"/>
-      <c r="C458" s="56" t="s">
-        <v>564</v>
+      <c r="A458" s="4"/>
+      <c r="B458" s="55"/>
+      <c r="C458" s="54" t="s">
+        <v>441</v>
       </c>
       <c r="D458" t="s">
-        <v>565</v>
+        <v>416</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" s="14"/>
-      <c r="B459" s="17"/>
-      <c r="C459" s="56" t="s">
-        <v>566</v>
-      </c>
-      <c r="D459" s="11" t="s">
-        <v>567</v>
-      </c>
+      <c r="A459" s="4"/>
+      <c r="B459" s="55"/>
+      <c r="C459" s="54"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" s="14"/>
-      <c r="B460" s="17"/>
-      <c r="C460" s="56" t="s">
-        <v>568</v>
-      </c>
-      <c r="D460" s="11" t="s">
-        <v>569</v>
-      </c>
+      <c r="A460" s="4"/>
+      <c r="B460" s="55"/>
+      <c r="C460" s="54"/>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" s="14"/>
-      <c r="B461" s="17"/>
-      <c r="C461" s="56" t="s">
-        <v>570</v>
-      </c>
-      <c r="D461" s="11" t="s">
-        <v>571</v>
+      <c r="A461" s="4"/>
+      <c r="B461" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C461" s="54" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" s="14"/>
-      <c r="B462" s="17"/>
-      <c r="C462" s="56" t="s">
-        <v>572</v>
-      </c>
-      <c r="D462" s="11" t="s">
-        <v>573</v>
+      <c r="A462" s="4"/>
+      <c r="B462" s="55"/>
+      <c r="C462" s="54" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" s="14"/>
-      <c r="B463" s="17"/>
-      <c r="C463" s="56" t="s">
-        <v>574</v>
-      </c>
-      <c r="D463" s="11" t="s">
-        <v>575</v>
+      <c r="A463" s="4"/>
+      <c r="B463" s="55"/>
+      <c r="C463" s="54" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" s="14"/>
-      <c r="B464" s="17"/>
-      <c r="C464" t="s">
-        <v>576</v>
-      </c>
-      <c r="D464" t="s">
-        <v>577</v>
+      <c r="A464" s="4"/>
+      <c r="B464" s="55"/>
+      <c r="C464" s="54" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="14"/>
-      <c r="B465" s="17"/>
-      <c r="C465" t="s">
-        <v>578</v>
-      </c>
-      <c r="D465" t="s">
-        <v>579</v>
+      <c r="A465" s="4"/>
+      <c r="B465" s="55"/>
+      <c r="C465" s="54" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" s="14"/>
-      <c r="B466" s="17"/>
-      <c r="C466" t="s">
-        <v>580</v>
-      </c>
-      <c r="D466" t="s">
-        <v>581</v>
-      </c>
+      <c r="A466" s="4"/>
+      <c r="B466" s="55"/>
+      <c r="C466" s="54"/>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467" s="14"/>
-      <c r="B467" s="17"/>
-      <c r="C467" t="s">
-        <v>582</v>
-      </c>
-      <c r="D467" t="s">
-        <v>583</v>
-      </c>
+      <c r="A467" s="4"/>
+      <c r="B467" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C467" s="54"/>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468" s="14"/>
-      <c r="B468" s="17"/>
-      <c r="C468" t="s">
-        <v>584</v>
-      </c>
-      <c r="D468" t="s">
-        <v>585</v>
-      </c>
+      <c r="A468" s="4"/>
+      <c r="B468" s="55"/>
+      <c r="C468" s="54"/>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469" s="14"/>
-      <c r="B469" s="17"/>
+      <c r="A469" s="4"/>
+      <c r="B469" s="55"/>
+      <c r="C469" s="54"/>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" s="14"/>
-      <c r="B470" s="17"/>
-      <c r="C470" s="56"/>
+      <c r="A470" s="4"/>
+      <c r="B470" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C470" s="54" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" s="14"/>
-      <c r="B471" s="17"/>
-    </row>
-    <row r="472" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B472" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="D472" s="14" t="s">
-        <v>586</v>
-      </c>
+      <c r="A471" s="4"/>
+      <c r="B471" s="55"/>
+      <c r="C471" s="54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="4"/>
+      <c r="B472" s="55"/>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473" s="14"/>
-      <c r="B473" s="17"/>
-      <c r="C473" s="11" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474" s="14"/>
-      <c r="B474" s="17"/>
-      <c r="C474" s="11" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475" s="14"/>
-      <c r="B475" s="17"/>
+      <c r="A473" s="4"/>
+      <c r="B473" s="55"/>
+    </row>
+    <row r="474" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B475" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="D475" s="14" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="14"/>
       <c r="B476" s="17"/>
-      <c r="C476" t="s">
-        <v>589</v>
+      <c r="C476" s="59" t="s">
+        <v>490</v>
       </c>
       <c r="D476" t="s">
-        <v>590</v>
+        <v>491</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="14"/>
       <c r="B477" s="17"/>
-      <c r="C477" t="s">
-        <v>499</v>
+      <c r="C477" s="59" t="s">
+        <v>492</v>
       </c>
       <c r="D477" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="14"/>
       <c r="B478" s="17"/>
-      <c r="C478" t="s">
-        <v>504</v>
+      <c r="C478" s="60" t="s">
+        <v>494</v>
       </c>
       <c r="D478" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="14"/>
       <c r="B479" s="17"/>
-      <c r="C479" t="s">
-        <v>591</v>
+      <c r="C479" s="56" t="s">
+        <v>550</v>
       </c>
       <c r="D479" t="s">
-        <v>592</v>
+        <v>551</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="14"/>
       <c r="B480" s="17"/>
-      <c r="C480" t="s">
-        <v>593</v>
+      <c r="C480" s="56" t="s">
+        <v>552</v>
       </c>
       <c r="D480" t="s">
-        <v>594</v>
+        <v>553</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="14"/>
       <c r="B481" s="17"/>
-      <c r="C481" t="s">
-        <v>505</v>
+      <c r="C481" s="56" t="s">
+        <v>554</v>
       </c>
       <c r="D481" t="s">
-        <v>502</v>
+        <v>555</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="14"/>
       <c r="B482" s="17"/>
-      <c r="C482" t="s">
+      <c r="C482" s="56" t="s">
         <v>556</v>
       </c>
       <c r="D482" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="14"/>
       <c r="B483" s="17"/>
-      <c r="C483" t="s">
-        <v>596</v>
+      <c r="C483" s="56" t="s">
+        <v>558</v>
       </c>
       <c r="D483" t="s">
-        <v>597</v>
+        <v>559</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="14"/>
       <c r="B484" s="17"/>
-      <c r="C484" t="s">
-        <v>506</v>
+      <c r="C484" s="56" t="s">
+        <v>560</v>
       </c>
       <c r="D484" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="14"/>
       <c r="B485" s="17"/>
-      <c r="C485" t="s">
-        <v>558</v>
+      <c r="C485" s="56" t="s">
+        <v>562</v>
       </c>
       <c r="D485" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="14"/>
       <c r="B486" s="17"/>
-      <c r="C486" t="s">
-        <v>560</v>
-      </c>
-      <c r="D486" t="s">
-        <v>599</v>
+      <c r="C486" s="56" t="s">
+        <v>564</v>
+      </c>
+      <c r="D486" s="11" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="14"/>
       <c r="B487" s="17"/>
-      <c r="C487" t="s">
-        <v>562</v>
-      </c>
-      <c r="D487" t="s">
-        <v>600</v>
+      <c r="C487" s="56" t="s">
+        <v>566</v>
+      </c>
+      <c r="D487" s="11" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="14"/>
       <c r="B488" s="17"/>
-      <c r="C488" t="s">
-        <v>578</v>
-      </c>
-      <c r="D488" t="s">
-        <v>601</v>
+      <c r="C488" s="56" t="s">
+        <v>568</v>
+      </c>
+      <c r="D488" s="11" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="14"/>
       <c r="B489" s="17"/>
-      <c r="C489" t="s">
-        <v>580</v>
-      </c>
-      <c r="D489" t="s">
-        <v>602</v>
+      <c r="C489" s="56" t="s">
+        <v>570</v>
+      </c>
+      <c r="D489" s="11" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="14"/>
       <c r="B490" s="17"/>
-      <c r="C490" t="s">
-        <v>582</v>
-      </c>
-      <c r="D490" t="s">
-        <v>603</v>
+      <c r="C490" s="56" t="s">
+        <v>572</v>
+      </c>
+      <c r="D490" s="11" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="14"/>
       <c r="B491" s="17"/>
-    </row>
-    <row r="492" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B492" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="D492" s="14" t="s">
-        <v>643</v>
+      <c r="C491" t="s">
+        <v>574</v>
+      </c>
+      <c r="D491" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="14"/>
+      <c r="B492" s="17"/>
+      <c r="C492" t="s">
+        <v>576</v>
+      </c>
+      <c r="D492" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="14"/>
       <c r="B493" s="17"/>
       <c r="C493" t="s">
-        <v>645</v>
+        <v>578</v>
       </c>
       <c r="D493" t="s">
-        <v>646</v>
+        <v>579</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="14"/>
       <c r="B494" s="17"/>
       <c r="C494" t="s">
-        <v>647</v>
+        <v>580</v>
       </c>
       <c r="D494" t="s">
-        <v>648</v>
+        <v>581</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="14"/>
       <c r="B495" s="17"/>
       <c r="C495" t="s">
-        <v>651</v>
+        <v>582</v>
       </c>
       <c r="D495" t="s">
-        <v>652</v>
+        <v>583</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="14"/>
       <c r="B496" s="17"/>
-      <c r="C496" t="s">
-        <v>649</v>
-      </c>
-      <c r="D496" t="s">
-        <v>650</v>
-      </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="14"/>
       <c r="B497" s="17"/>
-    </row>
-    <row r="498" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B498" s="14" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A499" s="14"/>
-      <c r="B499" s="17"/>
-      <c r="C499" s="17" t="s">
-        <v>461</v>
+      <c r="C497" s="56"/>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="14"/>
+      <c r="B498" s="17"/>
+    </row>
+    <row r="499" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B499" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D499" s="14" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="14"/>
       <c r="B500" s="17"/>
-      <c r="C500" t="s">
-        <v>466</v>
-      </c>
-      <c r="D500" t="s">
-        <v>468</v>
+      <c r="C500" s="11" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="14"/>
       <c r="B501" s="17"/>
-      <c r="C501" t="s">
-        <v>467</v>
-      </c>
-      <c r="D501" t="s">
-        <v>469</v>
+      <c r="C501" s="11" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="14"/>
       <c r="B502" s="17"/>
-      <c r="C502" t="s">
-        <v>108</v>
-      </c>
-      <c r="D502" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="14"/>
       <c r="B503" s="17"/>
-      <c r="C503" s="17" t="s">
-        <v>26</v>
+      <c r="C503" t="s">
+        <v>587</v>
+      </c>
+      <c r="D503" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="14"/>
       <c r="B504" s="17"/>
       <c r="C504" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="D504" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="14"/>
       <c r="B505" s="17"/>
       <c r="C505" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="D505" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="14"/>
       <c r="B506" s="17"/>
       <c r="C506" t="s">
-        <v>473</v>
+        <v>589</v>
       </c>
       <c r="D506" t="s">
-        <v>476</v>
+        <v>590</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="14"/>
       <c r="B507" s="17"/>
       <c r="C507" t="s">
-        <v>315</v>
+        <v>591</v>
       </c>
       <c r="D507" t="s">
-        <v>546</v>
+        <v>592</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="14"/>
       <c r="B508" s="17"/>
-      <c r="C508" s="17" t="s">
-        <v>21</v>
+      <c r="C508" t="s">
+        <v>503</v>
+      </c>
+      <c r="D508" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="14"/>
       <c r="B509" s="17"/>
       <c r="C509" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="D509" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B510" s="14" t="s">
-        <v>453</v>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" s="14"/>
+      <c r="B510" s="17"/>
+      <c r="C510" t="s">
+        <v>594</v>
+      </c>
+      <c r="D510" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="14"/>
       <c r="B511" s="17"/>
-      <c r="C511" s="17" t="s">
-        <v>461</v>
+      <c r="C511" t="s">
+        <v>504</v>
+      </c>
+      <c r="D511" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="14"/>
       <c r="B512" s="17"/>
       <c r="C512" t="s">
-        <v>455</v>
-      </c>
-      <c r="D512" s="11" t="s">
-        <v>456</v>
+        <v>556</v>
+      </c>
+      <c r="D512" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="14"/>
       <c r="B513" s="17"/>
       <c r="C513" t="s">
-        <v>457</v>
+        <v>558</v>
       </c>
       <c r="D513" t="s">
-        <v>458</v>
+        <v>597</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="14"/>
       <c r="B514" s="17"/>
       <c r="C514" t="s">
-        <v>459</v>
+        <v>560</v>
       </c>
       <c r="D514" t="s">
-        <v>460</v>
+        <v>598</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="14"/>
       <c r="B515" s="17"/>
-      <c r="C515" s="17" t="s">
-        <v>26</v>
+      <c r="C515" t="s">
+        <v>576</v>
+      </c>
+      <c r="D515" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="14"/>
       <c r="B516" s="17"/>
       <c r="C516" t="s">
-        <v>462</v>
+        <v>578</v>
       </c>
       <c r="D516" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="14"/>
       <c r="B517" s="17"/>
       <c r="C517" t="s">
-        <v>463</v>
+        <v>580</v>
       </c>
       <c r="D517" t="s">
-        <v>464</v>
+        <v>601</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="14"/>
       <c r="B518" s="17"/>
-      <c r="C518" t="s">
-        <v>108</v>
-      </c>
-      <c r="D518" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519" s="14"/>
-      <c r="B519" s="17"/>
-      <c r="C519" s="17" t="s">
-        <v>21</v>
+    </row>
+    <row r="519" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B519" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="D519" s="14" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="14"/>
       <c r="B520" s="17"/>
       <c r="C520" t="s">
-        <v>542</v>
+        <v>643</v>
       </c>
       <c r="D520" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B521" s="14" t="s">
-        <v>477</v>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" s="14"/>
+      <c r="B521" s="17"/>
+      <c r="C521" t="s">
+        <v>645</v>
+      </c>
+      <c r="D521" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="14"/>
       <c r="B522" s="17"/>
       <c r="C522" t="s">
-        <v>478</v>
+        <v>649</v>
       </c>
       <c r="D522" t="s">
-        <v>482</v>
+        <v>650</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="14"/>
       <c r="B523" s="17"/>
       <c r="C523" t="s">
-        <v>479</v>
+        <v>647</v>
       </c>
       <c r="D523" t="s">
-        <v>483</v>
+        <v>648</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="14"/>
       <c r="B524" s="17"/>
-      <c r="C524" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A525" s="14"/>
-      <c r="B525" s="17"/>
-      <c r="C525" t="s">
-        <v>480</v>
-      </c>
-      <c r="D525" t="s">
-        <v>484</v>
+    </row>
+    <row r="525" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B525" s="14" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="14"/>
       <c r="B526" s="17"/>
-      <c r="C526" t="s">
-        <v>481</v>
-      </c>
-      <c r="D526" t="s">
-        <v>484</v>
+      <c r="C526" s="17" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="14"/>
       <c r="B527" s="17"/>
       <c r="C527" t="s">
-        <v>604</v>
-      </c>
-      <c r="D527" s="11" t="s">
-        <v>485</v>
+        <v>464</v>
+      </c>
+      <c r="D527" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="14"/>
       <c r="B528" s="17"/>
       <c r="C528" t="s">
-        <v>486</v>
-      </c>
-      <c r="D528" s="11" t="s">
-        <v>487</v>
+        <v>465</v>
+      </c>
+      <c r="D528" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="14"/>
       <c r="B529" s="17"/>
       <c r="C529" t="s">
-        <v>488</v>
-      </c>
-      <c r="D529" s="11" t="s">
-        <v>489</v>
+        <v>108</v>
+      </c>
+      <c r="D529" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="14"/>
       <c r="B530" s="17"/>
-      <c r="C530" t="s">
-        <v>490</v>
-      </c>
-      <c r="D530" s="11" t="s">
-        <v>491</v>
+      <c r="C530" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="14"/>
       <c r="B531" s="17"/>
+      <c r="C531" t="s">
+        <v>469</v>
+      </c>
+      <c r="D531" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="14"/>
       <c r="B532" s="17"/>
-    </row>
-    <row r="533" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B533" s="14" t="s">
-        <v>532</v>
+      <c r="C532" t="s">
+        <v>470</v>
+      </c>
+      <c r="D532" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A533" s="14"/>
+      <c r="B533" s="17"/>
+      <c r="C533" t="s">
+        <v>471</v>
+      </c>
+      <c r="D533" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="14"/>
       <c r="B534" s="17"/>
-      <c r="C534" s="17" t="s">
-        <v>461</v>
+      <c r="C534" t="s">
+        <v>315</v>
+      </c>
+      <c r="D534" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="14"/>
       <c r="B535" s="17"/>
-      <c r="C535" t="s">
-        <v>533</v>
-      </c>
-      <c r="D535" t="s">
-        <v>534</v>
+      <c r="C535" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="14"/>
       <c r="B536" s="17"/>
-      <c r="C536" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A537" s="14"/>
-      <c r="B537" s="17"/>
-      <c r="C537" t="s">
-        <v>535</v>
-      </c>
-      <c r="D537" t="s">
-        <v>536</v>
+      <c r="C536" t="s">
+        <v>542</v>
+      </c>
+      <c r="D536" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B537" s="14" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="14"/>
       <c r="B538" s="17"/>
-      <c r="C538" t="s">
-        <v>537</v>
-      </c>
-      <c r="D538" t="s">
-        <v>538</v>
+      <c r="C538" s="17" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="14"/>
       <c r="B539" s="17"/>
       <c r="C539" t="s">
-        <v>540</v>
-      </c>
-      <c r="D539" t="s">
-        <v>539</v>
+        <v>453</v>
+      </c>
+      <c r="D539" s="11" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="14"/>
       <c r="B540" s="17"/>
+      <c r="C540" t="s">
+        <v>455</v>
+      </c>
+      <c r="D540" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="14"/>
       <c r="B541" s="17"/>
+      <c r="C541" t="s">
+        <v>457</v>
+      </c>
+      <c r="D541" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="14"/>
-      <c r="B542" s="16" t="s">
-        <v>34</v>
+      <c r="B542" s="17"/>
+      <c r="C542" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="14"/>
-      <c r="B543" s="17" t="s">
-        <v>641</v>
-      </c>
+      <c r="B543" s="17"/>
       <c r="C543" t="s">
-        <v>609</v>
+        <v>460</v>
+      </c>
+      <c r="D543" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="14"/>
-      <c r="B544" s="17" t="s">
-        <v>548</v>
-      </c>
+      <c r="B544" s="17"/>
       <c r="C544" t="s">
-        <v>642</v>
+        <v>461</v>
       </c>
       <c r="D544" t="s">
-        <v>549</v>
+        <v>462</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="14"/>
-      <c r="B545" s="17" t="s">
-        <v>550</v>
-      </c>
+      <c r="B545" s="17"/>
       <c r="C545" t="s">
-        <v>551</v>
+        <v>108</v>
+      </c>
+      <c r="D545" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="14"/>
       <c r="B546" s="17"/>
+      <c r="C546" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="14"/>
       <c r="B547" s="17"/>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A548" s="14"/>
-      <c r="B548" s="17"/>
-    </row>
-    <row r="549" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="58" t="s">
+      <c r="C547" t="s">
+        <v>540</v>
+      </c>
+      <c r="D547" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B548" s="14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A549" s="14"/>
+      <c r="B549" s="17"/>
+      <c r="C549" t="s">
+        <v>476</v>
+      </c>
+      <c r="D549" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A550" s="14"/>
+      <c r="B550" s="17"/>
+      <c r="C550" t="s">
+        <v>477</v>
+      </c>
+      <c r="D550" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A551" s="14"/>
+      <c r="B551" s="17"/>
+      <c r="C551" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A552" s="14"/>
+      <c r="B552" s="17"/>
+      <c r="C552" t="s">
+        <v>478</v>
+      </c>
+      <c r="D552" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A553" s="14"/>
+      <c r="B553" s="17"/>
+      <c r="C553" t="s">
+        <v>479</v>
+      </c>
+      <c r="D553" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A554" s="14"/>
+      <c r="B554" s="17"/>
+      <c r="C554" t="s">
+        <v>602</v>
+      </c>
+      <c r="D554" s="11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A555" s="14"/>
+      <c r="B555" s="17"/>
+      <c r="C555" t="s">
+        <v>484</v>
+      </c>
+      <c r="D555" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A556" s="14"/>
+      <c r="B556" s="17"/>
+      <c r="C556" t="s">
+        <v>486</v>
+      </c>
+      <c r="D556" s="11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A557" s="14"/>
+      <c r="B557" s="17"/>
+      <c r="C557" t="s">
+        <v>488</v>
+      </c>
+      <c r="D557" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A558" s="14"/>
+      <c r="B558" s="17"/>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A559" s="14"/>
+      <c r="B559" s="17"/>
+    </row>
+    <row r="560" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B560" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" s="14"/>
+      <c r="B561" s="17"/>
+      <c r="C561" s="17" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" s="14"/>
+      <c r="B562" s="17"/>
+      <c r="C562" t="s">
+        <v>531</v>
+      </c>
+      <c r="D562" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" s="14"/>
+      <c r="B563" s="17"/>
+      <c r="C563" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" s="14"/>
+      <c r="B564" s="17"/>
+      <c r="C564" t="s">
+        <v>533</v>
+      </c>
+      <c r="D564" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" s="14"/>
+      <c r="B565" s="17"/>
+      <c r="C565" t="s">
+        <v>535</v>
+      </c>
+      <c r="D565" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" s="14"/>
+      <c r="B566" s="17"/>
+      <c r="C566" t="s">
+        <v>538</v>
+      </c>
+      <c r="D566" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" s="14"/>
+      <c r="B567" s="17"/>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" s="14"/>
+      <c r="B568" s="17"/>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" s="14"/>
+      <c r="B569" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" s="14"/>
+      <c r="B570" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="C570" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" s="14"/>
+      <c r="B571" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="C571" t="s">
+        <v>640</v>
+      </c>
+      <c r="D571" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" s="14"/>
+      <c r="B572" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="C572" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" s="14"/>
+      <c r="B573" s="17"/>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" s="14"/>
+      <c r="B574" s="17"/>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" s="14"/>
+      <c r="B575" s="17"/>
+    </row>
+    <row r="576" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="58" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B577" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="D577" s="20" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="550" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B550" s="20" t="s">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" s="20"/>
+      <c r="B578" s="57"/>
+      <c r="C578" s="57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" s="20"/>
+      <c r="B579" s="57"/>
+      <c r="C579" t="s">
         <v>517</v>
       </c>
-      <c r="D550" s="20" t="s">
+      <c r="D579" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" s="20"/>
+      <c r="B580" s="57"/>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="20"/>
+      <c r="B581" s="57"/>
+    </row>
+    <row r="582" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B582" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="D582" s="20" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" s="20"/>
+      <c r="B583" s="57"/>
+      <c r="C583" s="57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" s="20"/>
+      <c r="B584" s="57"/>
+      <c r="C584" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A551" s="20"/>
-      <c r="B551" s="57"/>
-      <c r="C551" s="57" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A552" s="20"/>
-      <c r="B552" s="57"/>
-      <c r="C552" t="s">
-        <v>519</v>
-      </c>
-      <c r="D552" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A553" s="20"/>
-      <c r="B553" s="57"/>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A554" s="20"/>
-      <c r="B554" s="57"/>
-    </row>
-    <row r="555" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B555" s="20" t="s">
+      <c r="D584" t="s">
         <v>521</v>
       </c>
-      <c r="D555" s="20" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A556" s="20"/>
-      <c r="B556" s="57"/>
-      <c r="C556" s="57" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A557" s="20"/>
-      <c r="B557" s="57"/>
-      <c r="C557" t="s">
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" s="20"/>
+      <c r="B585" s="57"/>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" s="20"/>
+      <c r="B586" s="57"/>
+    </row>
+    <row r="587" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="58" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B588" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="D588" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="D557" t="s">
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" s="20"/>
+      <c r="B589" s="57"/>
+      <c r="C589" s="57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" s="20"/>
+      <c r="B590" s="57"/>
+      <c r="C590" t="s">
+        <v>509</v>
+      </c>
+      <c r="D590" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" s="20"/>
+      <c r="B591" s="57"/>
+      <c r="C591" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" s="20"/>
+      <c r="B592" s="57"/>
+      <c r="C592" t="s">
+        <v>511</v>
+      </c>
+      <c r="D592" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" s="20"/>
+      <c r="B593" s="57"/>
+      <c r="C593" t="s">
+        <v>513</v>
+      </c>
+      <c r="D593" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" s="20"/>
+      <c r="B594" s="57"/>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" s="20"/>
+      <c r="B595" s="57"/>
+    </row>
+    <row r="596" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="58" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A558" s="20"/>
-      <c r="B558" s="57"/>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A559" s="20"/>
-      <c r="B559" s="57"/>
-    </row>
-    <row r="560" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="58" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B561" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="D561" s="20" t="s">
+    <row r="597" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B597" s="20" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A562" s="20"/>
-      <c r="B562" s="57"/>
-      <c r="C562" s="57" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A563" s="20"/>
-      <c r="B563" s="57"/>
-      <c r="C563" t="s">
-        <v>511</v>
-      </c>
-      <c r="D563" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A564" s="20"/>
-      <c r="B564" s="57"/>
-      <c r="C564" s="57" t="s">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" s="20"/>
+      <c r="B598" s="57"/>
+      <c r="C598" s="57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" s="20"/>
+      <c r="B599" s="57"/>
+      <c r="C599" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" s="20"/>
+      <c r="B600" s="57"/>
+      <c r="C600" s="57" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A565" s="20"/>
-      <c r="B565" s="57"/>
-      <c r="C565" t="s">
-        <v>513</v>
-      </c>
-      <c r="D565" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A566" s="20"/>
-      <c r="B566" s="57"/>
-      <c r="C566" t="s">
-        <v>515</v>
-      </c>
-      <c r="D566" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A567" s="20"/>
-      <c r="B567" s="57"/>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A568" s="20"/>
-      <c r="B568" s="57"/>
-    </row>
-    <row r="569" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="58" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B570" s="20" t="s">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" s="20"/>
+      <c r="B601" s="57"/>
+      <c r="C601" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A571" s="20"/>
-      <c r="B571" s="57"/>
-      <c r="C571" s="57" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A572" s="20"/>
-      <c r="B572" s="57"/>
-      <c r="C572" t="s">
+      <c r="D601" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A573" s="20"/>
-      <c r="B573" s="57"/>
-      <c r="C573" s="57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A574" s="20"/>
-      <c r="B574" s="57"/>
-      <c r="C574" t="s">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" s="20"/>
+      <c r="B602" s="57"/>
+      <c r="C602" t="s">
         <v>528</v>
       </c>
-      <c r="D574" t="s">
+      <c r="D602" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A575" s="20"/>
-      <c r="B575" s="57"/>
-      <c r="C575" t="s">
-        <v>530</v>
-      </c>
-      <c r="D575" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A576" s="20"/>
-      <c r="B576" s="57"/>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A577" s="20"/>
-      <c r="B577" s="57"/>
-    </row>
-    <row r="578" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="63" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B579" s="33" t="s">
-        <v>654</v>
-      </c>
-      <c r="C579" s="33" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A580" s="33"/>
-      <c r="B580" s="38"/>
-      <c r="C580" s="38" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A581" s="33"/>
-      <c r="B581" s="38"/>
-      <c r="C581" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A582" s="33"/>
-      <c r="B582" s="38"/>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A583" s="33"/>
-      <c r="B583" s="38"/>
-      <c r="C583" s="38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A584" s="33"/>
-      <c r="B584" s="38"/>
-      <c r="C584" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A585" s="33"/>
-      <c r="B585" s="38"/>
-      <c r="C585" t="s">
-        <v>668</v>
-      </c>
-      <c r="D585" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A586" s="33"/>
-      <c r="B586" s="38"/>
-      <c r="C586" t="s">
-        <v>670</v>
-      </c>
-      <c r="D586" s="10" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A587" s="33"/>
-      <c r="B587" s="38"/>
-      <c r="D587" s="10"/>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A588" s="33"/>
-      <c r="B588" s="38"/>
-      <c r="D588" s="10"/>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A589" s="33"/>
-      <c r="B589" s="38"/>
-      <c r="C589" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D589" s="10"/>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A590" s="33"/>
-      <c r="B590" s="38"/>
-      <c r="C590" t="s">
-        <v>672</v>
-      </c>
-      <c r="D590" s="10"/>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A591" s="33"/>
-      <c r="B591" s="38"/>
-      <c r="C591" t="s">
-        <v>673</v>
-      </c>
-      <c r="D591" s="10"/>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A592" s="33"/>
-      <c r="B592" s="38"/>
-      <c r="C592" t="s">
-        <v>108</v>
-      </c>
-      <c r="D592" s="10"/>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A593" s="33"/>
-      <c r="B593" s="38"/>
-      <c r="C593" t="s">
-        <v>674</v>
-      </c>
-      <c r="D593" s="10" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A594" s="33"/>
-      <c r="B594" s="38"/>
-      <c r="C594" t="s">
-        <v>676</v>
-      </c>
-      <c r="D594" s="10"/>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A595" s="33"/>
-      <c r="B595" s="38"/>
-      <c r="C595" t="s">
-        <v>663</v>
-      </c>
-      <c r="D595" s="10"/>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A596" s="33"/>
-      <c r="B596" s="38"/>
-      <c r="D596" s="10"/>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A597" s="33"/>
-      <c r="B597" s="38"/>
-    </row>
-    <row r="598" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B598" s="33" t="s">
-        <v>655</v>
-      </c>
-      <c r="C598" s="33" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A599" s="33"/>
-      <c r="B599" s="38"/>
-      <c r="C599" s="38" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A600" s="33"/>
-      <c r="B600" s="38"/>
-      <c r="C600" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A601" s="33"/>
-      <c r="B601" s="38"/>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A602" s="33"/>
-      <c r="B602" s="38"/>
-      <c r="C602" s="38" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A603" s="33"/>
-      <c r="B603" s="38"/>
-      <c r="C603" t="s">
-        <v>657</v>
-      </c>
-      <c r="D603" t="s">
-        <v>682</v>
-      </c>
+      <c r="A603" s="20"/>
+      <c r="B603" s="57"/>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A604" s="33"/>
-      <c r="B604" s="38"/>
-      <c r="C604" t="s">
-        <v>658</v>
-      </c>
-      <c r="D604" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A605" s="33"/>
-      <c r="B605" s="38"/>
-      <c r="C605" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A606" s="33"/>
-      <c r="B606" s="38"/>
-      <c r="C606" t="s">
-        <v>683</v>
-      </c>
-      <c r="D606" t="s">
-        <v>689</v>
+      <c r="A604" s="20"/>
+      <c r="B604" s="57"/>
+    </row>
+    <row r="605" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A605" s="63" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B606" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="C606" s="33" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="33"/>
       <c r="B607" s="38"/>
+      <c r="C607" s="38" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="33"/>
       <c r="B608" s="38"/>
-      <c r="C608" s="38" t="s">
-        <v>26</v>
+      <c r="C608" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="33"/>
       <c r="B609" s="38"/>
-      <c r="C609" t="s">
-        <v>678</v>
-      </c>
-      <c r="D609" t="s">
-        <v>687</v>
-      </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="33"/>
       <c r="B610" s="38"/>
-      <c r="C610" t="s">
-        <v>677</v>
-      </c>
-      <c r="D610" t="s">
-        <v>686</v>
+      <c r="C610" s="38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="33"/>
       <c r="B611" s="38"/>
       <c r="C611" t="s">
-        <v>679</v>
-      </c>
-      <c r="D611" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="33"/>
       <c r="B612" s="38"/>
       <c r="C612" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="D612" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="33"/>
       <c r="B613" s="38"/>
+      <c r="C613" t="s">
+        <v>668</v>
+      </c>
+      <c r="D613" s="10" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="33"/>
       <c r="B614" s="38"/>
-      <c r="C614" t="s">
-        <v>684</v>
-      </c>
-      <c r="D614" t="s">
-        <v>685</v>
-      </c>
+      <c r="D614" s="10"/>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="33"/>
       <c r="B615" s="38"/>
+      <c r="D615" s="10"/>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="33"/>
       <c r="B616" s="38"/>
+      <c r="C616" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D616" s="10"/>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="33"/>
       <c r="B617" s="38"/>
-    </row>
-    <row r="618" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B618" s="33" t="s">
-        <v>664</v>
-      </c>
-      <c r="C618" s="33" t="s">
-        <v>690</v>
-      </c>
+      <c r="C617" t="s">
+        <v>670</v>
+      </c>
+      <c r="D617" s="10"/>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" s="33"/>
+      <c r="B618" s="38"/>
+      <c r="C618" t="s">
+        <v>671</v>
+      </c>
+      <c r="D618" s="10"/>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="33"/>
       <c r="B619" s="38"/>
-      <c r="C619" s="38" t="s">
-        <v>691</v>
-      </c>
+      <c r="C619" t="s">
+        <v>108</v>
+      </c>
+      <c r="D619" s="10"/>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="33"/>
       <c r="B620" s="38"/>
       <c r="C620" t="s">
-        <v>665</v>
+        <v>672</v>
+      </c>
+      <c r="D620" s="10" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="33"/>
       <c r="B621" s="38"/>
+      <c r="C621" t="s">
+        <v>674</v>
+      </c>
+      <c r="D621" s="10"/>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="33"/>
       <c r="B622" s="38"/>
-      <c r="C622" s="38" t="s">
-        <v>21</v>
-      </c>
+      <c r="C622" t="s">
+        <v>661</v>
+      </c>
+      <c r="D622" s="10"/>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="33"/>
       <c r="B623" s="38"/>
-      <c r="C623" t="s">
-        <v>692</v>
-      </c>
-      <c r="D623" t="s">
-        <v>693</v>
-      </c>
+      <c r="D623" s="10"/>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="33"/>
       <c r="B624" s="38"/>
-      <c r="C624" t="s">
-        <v>694</v>
-      </c>
-      <c r="D624" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A625" s="33"/>
-      <c r="B625" s="38"/>
-      <c r="C625" t="s">
-        <v>696</v>
-      </c>
-      <c r="D625" t="s">
-        <v>697</v>
+    </row>
+    <row r="625" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B625" s="33" t="s">
+        <v>653</v>
+      </c>
+      <c r="C625" s="33" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="33"/>
       <c r="B626" s="38"/>
-      <c r="C626" t="s">
-        <v>698</v>
-      </c>
-      <c r="D626" t="s">
-        <v>699</v>
+      <c r="C626" s="38" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="33"/>
       <c r="B627" s="38"/>
       <c r="C627" t="s">
-        <v>700</v>
-      </c>
-      <c r="D627" t="s">
-        <v>701</v>
+        <v>658</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="33"/>
       <c r="B628" s="38"/>
-      <c r="C628" t="s">
-        <v>702</v>
-      </c>
-      <c r="D628" t="s">
-        <v>703</v>
-      </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="33"/>
       <c r="B629" s="38"/>
-      <c r="C629" t="s">
-        <v>704</v>
-      </c>
-      <c r="D629" t="s">
-        <v>705</v>
+      <c r="C629" s="38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="33"/>
       <c r="B630" s="38"/>
       <c r="C630" t="s">
-        <v>706</v>
+        <v>655</v>
+      </c>
+      <c r="D630" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="33"/>
       <c r="B631" s="38"/>
       <c r="C631" t="s">
-        <v>707</v>
+        <v>656</v>
       </c>
       <c r="D631" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="33"/>
       <c r="B632" s="38"/>
       <c r="C632" t="s">
-        <v>709</v>
+        <v>660</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="33"/>
       <c r="B633" s="38"/>
       <c r="C633" t="s">
-        <v>710</v>
+        <v>681</v>
       </c>
       <c r="D633" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="33"/>
       <c r="B634" s="38"/>
-      <c r="C634" t="s">
-        <v>712</v>
-      </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="33"/>
       <c r="B635" s="38"/>
-      <c r="C635" t="s">
-        <v>713</v>
+      <c r="C635" s="38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="33"/>
       <c r="B636" s="38"/>
       <c r="C636" t="s">
-        <v>714</v>
+        <v>676</v>
       </c>
       <c r="D636" t="s">
-        <v>715</v>
+        <v>685</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="33"/>
       <c r="B637" s="38"/>
       <c r="C637" t="s">
-        <v>716</v>
+        <v>675</v>
       </c>
       <c r="D637" t="s">
-        <v>717</v>
+        <v>684</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="33"/>
       <c r="B638" s="38"/>
       <c r="C638" t="s">
-        <v>718</v>
+        <v>677</v>
+      </c>
+      <c r="D638" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="33"/>
       <c r="B639" s="38"/>
       <c r="C639" t="s">
-        <v>719</v>
+        <v>678</v>
       </c>
       <c r="D639" t="s">
-        <v>720</v>
+        <v>679</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="33"/>
       <c r="B640" s="38"/>
-      <c r="C640" t="s">
-        <v>721</v>
-      </c>
-      <c r="D640" t="s">
-        <v>722</v>
-      </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="33"/>
       <c r="B641" s="38"/>
       <c r="C641" t="s">
-        <v>471</v>
+        <v>682</v>
       </c>
       <c r="D641" t="s">
-        <v>723</v>
+        <v>683</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="33"/>
       <c r="B642" s="38"/>
     </row>
-    <row r="643" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A643" s="66" t="s">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643" s="33"/>
+      <c r="B643" s="38"/>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644" s="33"/>
+      <c r="B644" s="38"/>
+    </row>
+    <row r="645" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B645" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="C645" s="33" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646" s="33"/>
+      <c r="B646" s="38"/>
+      <c r="C646" s="38" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647" s="33"/>
+      <c r="B647" s="38"/>
+      <c r="C647" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648" s="33"/>
+      <c r="B648" s="38"/>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649" s="33"/>
+      <c r="B649" s="38"/>
+      <c r="C649" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650" s="33"/>
+      <c r="B650" s="38"/>
+      <c r="C650" t="s">
+        <v>690</v>
+      </c>
+      <c r="D650" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651" s="33"/>
+      <c r="B651" s="38"/>
+      <c r="C651" t="s">
+        <v>692</v>
+      </c>
+      <c r="D651" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652" s="33"/>
+      <c r="B652" s="38"/>
+      <c r="C652" t="s">
+        <v>694</v>
+      </c>
+      <c r="D652" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653" s="33"/>
+      <c r="B653" s="38"/>
+      <c r="C653" t="s">
+        <v>696</v>
+      </c>
+      <c r="D653" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654" s="33"/>
+      <c r="B654" s="38"/>
+      <c r="C654" t="s">
+        <v>698</v>
+      </c>
+      <c r="D654" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655" s="33"/>
+      <c r="B655" s="38"/>
+      <c r="C655" t="s">
+        <v>700</v>
+      </c>
+      <c r="D655" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656" s="33"/>
+      <c r="B656" s="38"/>
+      <c r="C656" t="s">
+        <v>702</v>
+      </c>
+      <c r="D656" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657" s="33"/>
+      <c r="B657" s="38"/>
+      <c r="C657" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658" s="33"/>
+      <c r="B658" s="38"/>
+      <c r="C658" t="s">
+        <v>705</v>
+      </c>
+      <c r="D658" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659" s="33"/>
+      <c r="B659" s="38"/>
+      <c r="C659" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660" s="33"/>
+      <c r="B660" s="38"/>
+      <c r="C660" t="s">
+        <v>708</v>
+      </c>
+      <c r="D660" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661" s="33"/>
+      <c r="B661" s="38"/>
+      <c r="C661" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662" s="33"/>
+      <c r="B662" s="38"/>
+      <c r="C662" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663" s="33"/>
+      <c r="B663" s="38"/>
+      <c r="C663" t="s">
+        <v>712</v>
+      </c>
+      <c r="D663" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664" s="33"/>
+      <c r="B664" s="38"/>
+      <c r="C664" t="s">
+        <v>714</v>
+      </c>
+      <c r="D664" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665" s="33"/>
+      <c r="B665" s="38"/>
+      <c r="C665" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666" s="33"/>
+      <c r="B666" s="38"/>
+      <c r="C666" t="s">
+        <v>717</v>
+      </c>
+      <c r="D666" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667" s="33"/>
+      <c r="B667" s="38"/>
+      <c r="C667" t="s">
+        <v>719</v>
+      </c>
+      <c r="D667" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668" s="33"/>
+      <c r="B668" s="38"/>
+      <c r="C668" t="s">
+        <v>469</v>
+      </c>
+      <c r="D668" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669" s="33"/>
+      <c r="B669" s="38"/>
+    </row>
+    <row r="670" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="66" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="644" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B644" s="32" t="s">
+    <row r="671" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B671" s="32" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A645" s="32"/>
-      <c r="B645" s="35"/>
-      <c r="C645" t="s">
-        <v>726</v>
-      </c>
-      <c r="D645" t="s">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672" s="32"/>
+      <c r="B672" s="35"/>
+      <c r="C672" t="s">
+        <v>723</v>
+      </c>
+      <c r="D672" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A646" s="32"/>
-      <c r="B646" s="35"/>
-    </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A647" s="32"/>
-      <c r="B647" s="35"/>
-    </row>
-    <row r="648" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B648" s="32" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A649" s="32"/>
-      <c r="B649" s="35"/>
-    </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A650" s="32"/>
-      <c r="B650" s="35"/>
-    </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A651" s="32"/>
-      <c r="B651" s="35"/>
-    </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A652" s="32"/>
-      <c r="B652" s="35"/>
-    </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A653" s="32"/>
-      <c r="B653" s="35"/>
-    </row>
-    <row r="654" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B654" s="32" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A655" s="32"/>
-      <c r="B655" s="35"/>
-    </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A656" s="32"/>
-      <c r="B656" s="35"/>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" s="32"/>
-      <c r="B657" s="35"/>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" s="32"/>
-      <c r="B658" s="35"/>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" s="32"/>
-      <c r="B659" s="35"/>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" s="32"/>
-      <c r="B660" s="35"/>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" s="32"/>
-      <c r="B661" s="35"/>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" s="32"/>
-      <c r="B662" s="35"/>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" s="32"/>
-      <c r="B663" s="35"/>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" s="32"/>
+      <c r="B673" s="35"/>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" s="32"/>
+      <c r="B674" s="35"/>
+    </row>
+    <row r="675" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B675" s="32" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" s="32"/>
+      <c r="B676" s="35"/>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" s="32"/>
+      <c r="B677" s="35"/>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" s="32"/>
+      <c r="B678" s="35"/>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" s="32"/>
+      <c r="B679" s="35"/>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" s="32"/>
+      <c r="B680" s="35"/>
+    </row>
+    <row r="681" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B681" s="32" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" s="32"/>
+      <c r="B682" s="35"/>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" s="32"/>
+      <c r="B683" s="35"/>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" s="32"/>
+      <c r="B684" s="35"/>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" s="32"/>
+      <c r="B685" s="35"/>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" s="32"/>
+      <c r="B686" s="35"/>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" s="32"/>
+      <c r="B687" s="35"/>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" s="32"/>
+      <c r="B688" s="35"/>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" s="32"/>
+      <c r="B689" s="35"/>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" s="32"/>
+      <c r="B690" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PPT/Resumen/Clases.xlsx
+++ b/PPT/Resumen/Clases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="782">
   <si>
     <t>System</t>
   </si>
@@ -2310,13 +2310,99 @@
     <t xml:space="preserve">p/leer valor seleccionado:
 Franjas franjas; 
 Enum.TryParse&lt;Franjas&gt;(cmbFranja.SelectedValue.ToString(), out franjas); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control.Invoke </t>
+  </si>
+  <si>
+    <t>Executes a delegate on the thread that owns the control's underlying window handle.</t>
+  </si>
+  <si>
+    <t>Invoke(Delegate)</t>
+  </si>
+  <si>
+    <t>Invoke(Delegate, Object[])  &gt; callback + param</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread.Name </t>
+  </si>
+  <si>
+    <t>Thread.CurrentThread.Name</t>
+  </si>
+  <si>
+    <t>Thread.Join</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>allows one thread to wait until another thread completes its execution. HiloQueSeTieneQCompletar.Join(); HiloSiguiente.Start();</t>
+  </si>
+  <si>
+    <t>Delegate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>delegate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> void Delegado(string mensaje);</t>
+    </r>
+  </si>
+  <si>
+    <t>PictureBox</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Recibo un objeto bitmap, metafile, icon, JPEG, GIF, or PNG file.</t>
+  </si>
+  <si>
+    <t>ImageLocation</t>
+  </si>
+  <si>
+    <t>Recibe un string path. Se carga la imagen con el método Load</t>
+  </si>
+  <si>
+    <t>Load()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaskedTextBox </t>
+  </si>
+  <si>
+    <t>Propiedad Mask &gt; elijo la máscara</t>
+  </si>
+  <si>
+    <t>mtxt.TextMaskFormat = MaskFormat.IncludeLiterals;</t>
+  </si>
+  <si>
+    <t>El string que va a devolver el control, IncludeLiterals: solo los literales y lo que ingrese el usuario, sin los caracteres de relleno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2346,8 +2432,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2474,6 +2575,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2505,7 +2612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2577,6 +2684,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2857,10 +2966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I690"/>
+  <dimension ref="A1:I723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A609" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J632" sqref="J632"/>
+    <sheetView tabSelected="1" topLeftCell="A626" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H637" sqref="H637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4078,133 +4187,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="19"/>
       <c r="B161" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>761</v>
+      </c>
+      <c r="D161" s="13" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="19"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="13" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="19"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="13" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="19"/>
+      <c r="B164" s="25"/>
+    </row>
+    <row r="165" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="19"/>
+      <c r="B165" s="25"/>
+    </row>
+    <row r="166" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="19"/>
+      <c r="B166" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C161" s="25" t="s">
+      <c r="C166" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="20"/>
-      <c r="B162" s="24"/>
-      <c r="C162" t="s">
-        <v>92</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="20"/>
-      <c r="B163" s="24"/>
-      <c r="C163" t="s">
-        <v>94</v>
-      </c>
-      <c r="D163" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
-      <c r="B164" s="24"/>
-      <c r="C164" t="s">
-        <v>96</v>
-      </c>
-      <c r="D164" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
-      <c r="B165" s="24"/>
-      <c r="C165" t="s">
-        <v>99</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
-      <c r="B166" s="24"/>
-      <c r="C166" t="s">
-        <v>100</v>
-      </c>
-      <c r="D166" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
+      <c r="A167" s="19"/>
       <c r="B167" s="24"/>
       <c r="C167" t="s">
-        <v>102</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>103</v>
+        <v>92</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
+      <c r="A168" s="19"/>
       <c r="B168" s="24"/>
       <c r="C168" t="s">
-        <v>307</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>308</v>
+        <v>94</v>
+      </c>
+      <c r="D168" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
       <c r="B169" s="24"/>
       <c r="C169" t="s">
-        <v>310</v>
-      </c>
-      <c r="D169" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
       <c r="B170" s="24"/>
       <c r="C170" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="D170" s="11" t="s">
-        <v>311</v>
+        <v>98</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
       <c r="B171" s="24"/>
       <c r="C171" t="s">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>351</v>
+        <v>101</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="20"/>
       <c r="B172" s="24"/>
       <c r="C172" t="s">
-        <v>630</v>
+        <v>102</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>631</v>
+        <v>103</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="B173" s="24"/>
-      <c r="D173" s="11"/>
+      <c r="C173" t="s">
+        <v>307</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174" s="24"/>
-      <c r="C174" s="24" t="s">
-        <v>26</v>
+      <c r="C174" t="s">
+        <v>310</v>
       </c>
       <c r="D174" s="11"/>
     </row>
@@ -4212,488 +4312,500 @@
       <c r="A175" s="20"/>
       <c r="B175" s="24"/>
       <c r="C175" t="s">
-        <v>104</v>
-      </c>
-      <c r="D175" t="s">
-        <v>105</v>
+        <v>138</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="20"/>
       <c r="B176" s="24"/>
       <c r="C176" t="s">
-        <v>106</v>
-      </c>
-      <c r="D176" t="s">
-        <v>107</v>
+        <v>350</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="20"/>
       <c r="B177" s="24"/>
       <c r="C177" t="s">
-        <v>108</v>
-      </c>
-      <c r="D177" t="s">
-        <v>309</v>
+        <v>630</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
       <c r="B178" s="24"/>
-      <c r="C178" t="s">
-        <v>109</v>
-      </c>
-      <c r="D178" t="s">
-        <v>110</v>
-      </c>
+      <c r="D178" s="11"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
       <c r="B179" s="24"/>
+      <c r="C179" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" s="11"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="B180" s="24"/>
+      <c r="C180" t="s">
+        <v>104</v>
+      </c>
+      <c r="D180" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
       <c r="B181" s="24"/>
+      <c r="C181" t="s">
+        <v>106</v>
+      </c>
+      <c r="D181" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="20"/>
       <c r="B182" s="24"/>
-      <c r="C182" s="24" t="s">
-        <v>111</v>
+      <c r="C182" t="s">
+        <v>108</v>
+      </c>
+      <c r="D182" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="20"/>
       <c r="B183" s="24"/>
       <c r="C183" t="s">
-        <v>112</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>119</v>
+        <v>109</v>
+      </c>
+      <c r="D183" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
       <c r="B184" s="24"/>
-      <c r="C184" t="s">
-        <v>113</v>
-      </c>
-      <c r="D184" t="s">
-        <v>299</v>
-      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="20"/>
       <c r="B185" s="24"/>
-      <c r="C185" t="s">
-        <v>114</v>
-      </c>
-      <c r="D185" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
       <c r="B186" s="24"/>
-      <c r="C186" t="s">
-        <v>115</v>
-      </c>
-      <c r="D186" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
       <c r="B187" s="24"/>
-      <c r="C187" t="s">
-        <v>116</v>
-      </c>
-      <c r="D187" t="s">
-        <v>122</v>
+      <c r="C187" s="24" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
       <c r="B188" s="24"/>
       <c r="C188" t="s">
-        <v>117</v>
-      </c>
-      <c r="D188" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
       <c r="B189" s="24"/>
       <c r="C189" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D189" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="20"/>
       <c r="B190" s="24"/>
       <c r="C190" t="s">
-        <v>273</v>
+        <v>114</v>
       </c>
       <c r="D190" t="s">
-        <v>632</v>
+        <v>120</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
       <c r="B191" s="24"/>
-    </row>
-    <row r="192" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="18"/>
-      <c r="B192" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="C192" s="26" t="s">
-        <v>262</v>
+      <c r="C191" t="s">
+        <v>115</v>
+      </c>
+      <c r="D191" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="20"/>
+      <c r="B192" s="24"/>
+      <c r="C192" t="s">
+        <v>116</v>
+      </c>
+      <c r="D192" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
       <c r="B193" s="24"/>
       <c r="C193" t="s">
-        <v>257</v>
-      </c>
-      <c r="D193" s="11" t="s">
-        <v>258</v>
+        <v>117</v>
+      </c>
+      <c r="D193" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="20"/>
       <c r="B194" s="24"/>
       <c r="C194" t="s">
-        <v>144</v>
-      </c>
-      <c r="D194" s="11" t="s">
-        <v>259</v>
+        <v>118</v>
+      </c>
+      <c r="D194" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="20"/>
       <c r="B195" s="24"/>
       <c r="C195" t="s">
-        <v>352</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>353</v>
+        <v>273</v>
+      </c>
+      <c r="D195" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="20"/>
       <c r="B196" s="24"/>
-      <c r="C196" t="s">
-        <v>354</v>
-      </c>
-      <c r="D196" s="11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="20"/>
-      <c r="B197" s="24"/>
-      <c r="C197" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="D197" s="11"/>
+    </row>
+    <row r="197" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="18"/>
+      <c r="B197" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C197" s="26" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="20"/>
       <c r="B198" s="24"/>
       <c r="C198" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
       <c r="B199" s="24"/>
-      <c r="D199" s="11"/>
+      <c r="C199" t="s">
+        <v>144</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="20"/>
       <c r="B200" s="24"/>
-      <c r="D200" s="11"/>
+      <c r="C200" t="s">
+        <v>352</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
-      <c r="B201" s="24" t="s">
-        <v>149</v>
-      </c>
+      <c r="B201" s="24"/>
       <c r="C201" t="s">
-        <v>302</v>
-      </c>
-      <c r="D201" t="s">
-        <v>176</v>
+        <v>354</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
-      <c r="B202" s="24" t="s">
-        <v>150</v>
-      </c>
+      <c r="B202" s="24"/>
+      <c r="C202" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D202" s="11"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
-      <c r="B203" s="24" t="s">
-        <v>152</v>
+      <c r="B203" s="24"/>
+      <c r="C203" t="s">
+        <v>297</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
-      <c r="B204" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="18"/>
-      <c r="B205" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>189</v>
-      </c>
+      <c r="B204" s="24"/>
+      <c r="D204" s="11"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="20"/>
+      <c r="B205" s="24"/>
+      <c r="D205" s="11"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="20"/>
-      <c r="B206" s="24"/>
-      <c r="C206" s="25" t="s">
-        <v>21</v>
+      <c r="B206" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C206" t="s">
+        <v>302</v>
+      </c>
+      <c r="D206" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="20"/>
-      <c r="B207" s="24"/>
-      <c r="C207" t="s">
-        <v>190</v>
+      <c r="B207" s="24" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="20"/>
-      <c r="B208" s="24"/>
-      <c r="C208" t="s">
-        <v>192</v>
-      </c>
-      <c r="D208" t="s">
-        <v>191</v>
+      <c r="B208" s="24" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="20"/>
-      <c r="B209" s="24"/>
-      <c r="C209" t="s">
-        <v>193</v>
-      </c>
-      <c r="D209" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="20"/>
-      <c r="B210" s="24"/>
-      <c r="C210" t="s">
-        <v>728</v>
-      </c>
-      <c r="D210" t="s">
-        <v>729</v>
+      <c r="B209" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="18"/>
+      <c r="B210" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="20"/>
       <c r="B211" s="24"/>
+      <c r="C211" s="25" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="20"/>
       <c r="B212" s="24"/>
-      <c r="C212" s="24" t="s">
-        <v>356</v>
+      <c r="C212" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="20"/>
       <c r="B213" s="24"/>
       <c r="C213" t="s">
-        <v>358</v>
+        <v>192</v>
       </c>
       <c r="D213" t="s">
-        <v>357</v>
+        <v>191</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="20"/>
       <c r="B214" s="24"/>
+      <c r="C214" t="s">
+        <v>193</v>
+      </c>
+      <c r="D214" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="20"/>
       <c r="B215" s="24"/>
-      <c r="D215" s="11" t="s">
-        <v>760</v>
+      <c r="C215" t="s">
+        <v>728</v>
+      </c>
+      <c r="D215" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
       <c r="B216" s="24"/>
     </row>
-    <row r="217" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="21"/>
-      <c r="B217" s="27"/>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="20"/>
+      <c r="B217" s="24"/>
+      <c r="C217" s="24" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="20"/>
-      <c r="B218" s="24" t="s">
-        <v>154</v>
+      <c r="B218" s="24"/>
+      <c r="C218" t="s">
+        <v>358</v>
+      </c>
+      <c r="D218" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="20"/>
-      <c r="B219" s="24" t="s">
-        <v>155</v>
-      </c>
+      <c r="B219" s="24"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="20"/>
-      <c r="B220" s="24" t="s">
-        <v>130</v>
+      <c r="B220" s="24"/>
+      <c r="D220" s="11" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="20"/>
-      <c r="B221" s="24" t="s">
+      <c r="B221" s="24"/>
+    </row>
+    <row r="222" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="21"/>
+      <c r="B222" s="27"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="20"/>
+      <c r="B223" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="20"/>
+      <c r="B224" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="20"/>
+      <c r="B225" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="20"/>
+      <c r="B226" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C226" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="222" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="18"/>
-      <c r="B222" s="26" t="s">
+    <row r="227" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="18"/>
+      <c r="B227" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="C222" s="62"/>
-      <c r="D222" s="7" t="s">
+      <c r="C227" s="62"/>
+      <c r="D227" s="7" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="19"/>
-      <c r="B223" s="25"/>
-      <c r="C223" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="19"/>
-      <c r="B224" s="25"/>
-      <c r="C224" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="D224" s="12" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="19"/>
-      <c r="B225" s="25"/>
-      <c r="C225" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="19"/>
-      <c r="B226" s="25"/>
-      <c r="C226" s="13" t="s">
-        <v>637</v>
-      </c>
-      <c r="D226" s="13" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="19"/>
-      <c r="B227" s="25"/>
-      <c r="C227" s="13"/>
     </row>
     <row r="228" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="19"/>
       <c r="B228" s="25"/>
-      <c r="C228" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="D228" s="12" t="s">
-        <v>621</v>
+      <c r="C228" s="25" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="229" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="19"/>
       <c r="B229" s="25"/>
+      <c r="C229" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="230" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="19"/>
       <c r="B230" s="25"/>
-      <c r="C230" s="13"/>
-    </row>
-    <row r="231" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="18"/>
-      <c r="B231" s="26" t="s">
+      <c r="C230" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="D230" s="12" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="19"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="D231" s="13" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="19"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="13"/>
+    </row>
+    <row r="233" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="19"/>
+      <c r="B233" s="25"/>
+      <c r="C233" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D233" s="12" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="19"/>
+      <c r="B234" s="25"/>
+    </row>
+    <row r="235" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="19"/>
+      <c r="B235" s="25"/>
+      <c r="C235" s="13"/>
+    </row>
+    <row r="236" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="18"/>
+      <c r="B236" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C236" s="7" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
-      <c r="B232" s="24" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
-      <c r="B233" s="24"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="20"/>
-      <c r="B234" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="20"/>
-      <c r="B235" s="24"/>
-      <c r="C235" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="20"/>
-      <c r="B236" s="24"/>
-      <c r="C236" t="s">
-        <v>300</v>
-      </c>
-      <c r="D236" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="20"/>
-      <c r="B237" s="24"/>
+      <c r="B237" s="24" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="20"/>
@@ -4701,657 +4813,644 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="20"/>
-      <c r="B239" s="24"/>
-    </row>
-    <row r="240" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="18"/>
-      <c r="B240" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="19"/>
-      <c r="B241" s="25"/>
-      <c r="C241" s="25" t="s">
-        <v>262</v>
+      <c r="B239" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="20"/>
+      <c r="B240" s="24"/>
+      <c r="C240" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="20"/>
+      <c r="B241" s="24"/>
+      <c r="C241" t="s">
+        <v>300</v>
+      </c>
+      <c r="D241" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="20"/>
       <c r="B242" s="24"/>
-      <c r="C242" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="B243" s="24"/>
-      <c r="C243" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="B244" s="24"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="20"/>
-      <c r="B245" s="24"/>
-      <c r="C245" t="s">
-        <v>727</v>
-      </c>
-      <c r="D245" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="20"/>
-      <c r="B246" s="24"/>
+    <row r="245" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="18"/>
+      <c r="B245" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="19"/>
+      <c r="B246" s="25"/>
+      <c r="C246" s="25" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="B247" s="24"/>
       <c r="C247" t="s">
-        <v>731</v>
-      </c>
-      <c r="D247" t="s">
-        <v>732</v>
+        <v>181</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="20"/>
       <c r="B248" s="24"/>
       <c r="C248" t="s">
-        <v>733</v>
-      </c>
-      <c r="D248" t="s">
-        <v>734</v>
+        <v>182</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
       <c r="B249" s="24"/>
-      <c r="C249" t="s">
-        <v>735</v>
-      </c>
-      <c r="D249" t="s">
-        <v>736</v>
-      </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="20"/>
       <c r="B250" s="24"/>
       <c r="C250" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D250" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="20"/>
       <c r="B251" s="24"/>
-      <c r="C251" t="s">
-        <v>739</v>
-      </c>
-      <c r="D251" t="s">
-        <v>759</v>
-      </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
       <c r="B252" s="24"/>
       <c r="C252" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D252" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="B253" s="24"/>
       <c r="C253" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D253" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="20"/>
       <c r="B254" s="24"/>
       <c r="C254" t="s">
-        <v>183</v>
+        <v>735</v>
       </c>
       <c r="D254" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="20"/>
       <c r="B255" s="24"/>
       <c r="C255" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="D255" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="20"/>
       <c r="B256" s="24"/>
       <c r="C256" t="s">
-        <v>144</v>
+        <v>739</v>
       </c>
       <c r="D256" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="20"/>
       <c r="B257" s="24"/>
       <c r="C257" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="D257" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="20"/>
       <c r="B258" s="24"/>
       <c r="C258" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="D258" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="20"/>
       <c r="B259" s="24"/>
+      <c r="C259" t="s">
+        <v>183</v>
+      </c>
+      <c r="D259" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="20"/>
       <c r="B260" s="24"/>
-      <c r="C260" s="24" t="s">
-        <v>356</v>
+      <c r="C260" t="s">
+        <v>745</v>
+      </c>
+      <c r="D260" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="20"/>
       <c r="B261" s="24"/>
       <c r="C261" t="s">
-        <v>751</v>
+        <v>144</v>
       </c>
       <c r="D261" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="20"/>
       <c r="B262" s="24"/>
       <c r="C262" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D262" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="20"/>
       <c r="B263" s="24"/>
       <c r="C263" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D263" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="20"/>
       <c r="B264" s="24"/>
-      <c r="C264" t="s">
-        <v>285</v>
-      </c>
-      <c r="D264" t="s">
-        <v>757</v>
-      </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="20"/>
       <c r="B265" s="24"/>
+      <c r="C265" s="24" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="20"/>
       <c r="B266" s="24"/>
+      <c r="C266" t="s">
+        <v>751</v>
+      </c>
+      <c r="D266" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="20"/>
       <c r="B267" s="24"/>
+      <c r="C267" t="s">
+        <v>753</v>
+      </c>
+      <c r="D267" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="20"/>
-      <c r="B268" s="24" t="s">
-        <v>160</v>
-      </c>
+      <c r="B268" s="24"/>
       <c r="C268" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="18"/>
-      <c r="B269" s="26" t="s">
-        <v>608</v>
-      </c>
-      <c r="C269" s="62" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+      <c r="D268" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="20"/>
+      <c r="B269" s="24"/>
+      <c r="C269" t="s">
+        <v>285</v>
+      </c>
+      <c r="D269" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="20"/>
       <c r="B270" s="24"/>
-      <c r="C270" s="13" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="20"/>
       <c r="B271" s="24"/>
-      <c r="C271" s="13" t="s">
-        <v>627</v>
-      </c>
-      <c r="D271" s="54" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="20"/>
       <c r="B272" s="24"/>
-      <c r="C272" s="13" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="20"/>
-      <c r="B273" s="24"/>
-      <c r="C273" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="D273" s="54" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C273" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
       <c r="B274" s="24"/>
-      <c r="C274" s="13"/>
-    </row>
-    <row r="275" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="20"/>
-      <c r="B275" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="D275" s="54" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="18"/>
+      <c r="B275" s="26" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="20"/>
       <c r="B276" s="24"/>
-    </row>
-    <row r="277" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="20"/>
       <c r="B277" s="24"/>
-    </row>
-    <row r="278" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>780</v>
+      </c>
+      <c r="D277" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="20"/>
-      <c r="B278" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C278" s="54" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="24"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="20"/>
-      <c r="B279" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C279" s="54" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="24"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="20"/>
       <c r="B280" s="24"/>
     </row>
     <row r="281" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="18"/>
       <c r="B281" s="26" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C281" s="62" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="19"/>
-      <c r="B282" s="25"/>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="20"/>
+      <c r="B282" s="24"/>
       <c r="C282" s="13" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="19"/>
-      <c r="B283" s="25"/>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="20"/>
+      <c r="B283" s="24"/>
+      <c r="C283" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="D283" s="54" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="284" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="20"/>
       <c r="B284" s="24"/>
-    </row>
-    <row r="285" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="18"/>
-      <c r="B285" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="C285" s="26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C284" s="13" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="20"/>
+      <c r="B285" s="24"/>
+      <c r="C285" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="D285" s="54" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="20"/>
       <c r="B286" s="24"/>
-      <c r="C286" t="s">
-        <v>126</v>
-      </c>
-      <c r="D286" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C286" s="13"/>
+    </row>
+    <row r="287" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="20"/>
-      <c r="B287" s="24"/>
-      <c r="C287" t="s">
-        <v>128</v>
-      </c>
-      <c r="D287" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B287" s="24" t="s">
+        <v>610</v>
+      </c>
+      <c r="D287" s="54" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="20"/>
       <c r="B288" s="24"/>
-      <c r="C288" t="s">
-        <v>130</v>
-      </c>
-      <c r="D288" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="20"/>
       <c r="B289" s="24"/>
-      <c r="C289" t="s">
-        <v>132</v>
-      </c>
-      <c r="D289" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="20"/>
-      <c r="B290" s="24"/>
-      <c r="C290" t="s">
-        <v>134</v>
-      </c>
-      <c r="D290" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B290" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C290" s="54" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="20"/>
-      <c r="B291" s="24"/>
-      <c r="C291" t="s">
-        <v>136</v>
-      </c>
-      <c r="D291" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B291" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C291" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="20"/>
       <c r="B292" s="24"/>
-      <c r="C292" t="s">
-        <v>138</v>
-      </c>
-      <c r="D292" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="20"/>
-      <c r="B293" s="24"/>
-      <c r="C293" t="s">
-        <v>140</v>
-      </c>
-      <c r="D293" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="20"/>
-      <c r="B294" s="24"/>
-      <c r="C294" t="s">
-        <v>142</v>
-      </c>
-      <c r="D294" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="20"/>
-      <c r="B295" s="24"/>
-      <c r="C295" t="s">
-        <v>144</v>
-      </c>
-      <c r="D295" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="19"/>
-      <c r="B296" s="25"/>
-      <c r="C296" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D296" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="19"/>
-      <c r="B297" s="25"/>
-    </row>
-    <row r="298" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="19"/>
-      <c r="B298" s="25"/>
-      <c r="C298" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="19"/>
-      <c r="B299" s="25"/>
-      <c r="C299" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D299" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="19"/>
-      <c r="B300" s="25"/>
+    </row>
+    <row r="293" spans="1:4" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="18"/>
+      <c r="B293" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="C293" s="62" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="19"/>
+      <c r="B294" s="25"/>
+      <c r="C294" s="13" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="19"/>
+      <c r="B295" s="25"/>
+    </row>
+    <row r="296" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="20"/>
+      <c r="B296" s="24"/>
+    </row>
+    <row r="297" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="18"/>
+      <c r="B297" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C297" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="20"/>
+      <c r="B298" s="24"/>
+      <c r="C298" t="s">
+        <v>126</v>
+      </c>
+      <c r="D298" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="20"/>
+      <c r="B299" s="24"/>
+      <c r="C299" t="s">
+        <v>128</v>
+      </c>
+      <c r="D299" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="20"/>
+      <c r="B300" s="24"/>
+      <c r="C300" t="s">
+        <v>130</v>
+      </c>
+      <c r="D300" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="20"/>
       <c r="B301" s="24"/>
-    </row>
-    <row r="302" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="18"/>
-      <c r="B302" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C302" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="19"/>
-      <c r="B303" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="C303" s="13" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="19"/>
-      <c r="B304" s="25"/>
-      <c r="C304" s="13"/>
-    </row>
-    <row r="305" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="18"/>
-      <c r="B305" s="26" t="s">
-        <v>164</v>
+      <c r="C301" t="s">
+        <v>132</v>
+      </c>
+      <c r="D301" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="20"/>
+      <c r="B302" s="24"/>
+      <c r="C302" t="s">
+        <v>134</v>
+      </c>
+      <c r="D302" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="20"/>
+      <c r="B303" s="24"/>
+      <c r="C303" t="s">
+        <v>136</v>
+      </c>
+      <c r="D303" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="20"/>
+      <c r="B304" s="24"/>
+      <c r="C304" t="s">
+        <v>138</v>
+      </c>
+      <c r="D304" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="20"/>
+      <c r="B305" s="24"/>
+      <c r="C305" t="s">
+        <v>140</v>
+      </c>
+      <c r="D305" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="20"/>
-      <c r="B306" s="24" t="s">
-        <v>165</v>
+      <c r="B306" s="24"/>
+      <c r="C306" t="s">
+        <v>142</v>
+      </c>
+      <c r="D306" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="20"/>
       <c r="B307" s="24"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="20"/>
-      <c r="B308" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C308" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="20"/>
-      <c r="B309" s="24"/>
-      <c r="C309" t="s">
-        <v>302</v>
-      </c>
-      <c r="D309" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="20"/>
-      <c r="B310" s="24"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="20"/>
-      <c r="B311" s="24"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="20"/>
-      <c r="B312" s="24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="18"/>
-      <c r="B313" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="20"/>
-      <c r="B314" s="24"/>
-      <c r="C314" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="20"/>
-      <c r="B315" s="24"/>
-      <c r="C315" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="20"/>
-      <c r="B316" s="24"/>
-      <c r="C316" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="21"/>
-      <c r="B317" s="27"/>
-      <c r="C317" s="9" t="s">
-        <v>188</v>
-      </c>
+      <c r="C307" t="s">
+        <v>144</v>
+      </c>
+      <c r="D307" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="19"/>
+      <c r="B308" s="25"/>
+      <c r="C308" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D308" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="19"/>
+      <c r="B309" s="25"/>
+    </row>
+    <row r="310" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="19"/>
+      <c r="B310" s="25"/>
+      <c r="C310" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="19"/>
+      <c r="B311" s="25"/>
+      <c r="C311" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D311" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="19"/>
+      <c r="B312" s="25"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="20"/>
+      <c r="B313" s="24"/>
+    </row>
+    <row r="314" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="18"/>
+      <c r="B314" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="19"/>
+      <c r="B315" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="C315" s="13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="19"/>
+      <c r="B316" s="25"/>
+      <c r="C316" s="13"/>
+    </row>
+    <row r="317" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="19"/>
+      <c r="B317" s="25"/>
+      <c r="C317" s="13"/>
     </row>
     <row r="318" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="18"/>
       <c r="B318" s="26" t="s">
-        <v>261</v>
+        <v>772</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>262</v>
+        <v>21</v>
       </c>
     </row>
     <row r="319" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="19"/>
       <c r="B319" s="25"/>
       <c r="C319" s="13" t="s">
-        <v>144</v>
+        <v>773</v>
+      </c>
+      <c r="D319" s="12" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="320" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="19"/>
       <c r="B320" s="25"/>
       <c r="C320" s="13" t="s">
-        <v>300</v>
+        <v>775</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>301</v>
+        <v>776</v>
       </c>
     </row>
     <row r="321" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="19"/>
       <c r="B321" s="25"/>
-      <c r="C321" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="D321" s="12" t="s">
-        <v>313</v>
-      </c>
+      <c r="C321" s="13"/>
     </row>
     <row r="322" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="19"/>
       <c r="B322" s="25"/>
       <c r="C322" s="13" t="s">
-        <v>375</v>
+        <v>777</v>
       </c>
     </row>
     <row r="323" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5359,1458 +5458,1417 @@
       <c r="B323" s="25"/>
       <c r="C323" s="13"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="20"/>
-      <c r="B324" s="24"/>
-      <c r="C324" s="24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="20"/>
-      <c r="B325" s="24"/>
-      <c r="C325" t="s">
-        <v>269</v>
-      </c>
-      <c r="D325" t="s">
-        <v>270</v>
+    <row r="324" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="19"/>
+      <c r="B324" s="25"/>
+      <c r="C324" s="13"/>
+    </row>
+    <row r="325" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="18"/>
+      <c r="B325" s="26" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="20"/>
-      <c r="B326" s="24"/>
-      <c r="C326" t="s">
-        <v>271</v>
-      </c>
-      <c r="D326" t="s">
-        <v>272</v>
+      <c r="B326" s="24" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="20"/>
       <c r="B327" s="24"/>
-      <c r="C327" t="s">
-        <v>273</v>
-      </c>
-      <c r="D327" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="20"/>
-      <c r="B328" s="24"/>
+      <c r="B328" s="24" t="s">
+        <v>166</v>
+      </c>
       <c r="C328" t="s">
-        <v>275</v>
-      </c>
-      <c r="D328" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="20"/>
       <c r="B329" s="24"/>
       <c r="C329" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="D329" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="20"/>
       <c r="B330" s="24"/>
-      <c r="C330" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="20"/>
       <c r="B331" s="24"/>
-      <c r="C331" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="20"/>
-      <c r="B332" s="24"/>
-      <c r="C332" t="s">
-        <v>279</v>
-      </c>
-      <c r="D332" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="20"/>
-      <c r="B333" s="24"/>
-      <c r="C333" t="s">
-        <v>281</v>
-      </c>
-      <c r="D333" t="s">
-        <v>282</v>
+      <c r="B332" s="24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="18"/>
+      <c r="B333" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="20"/>
       <c r="B334" s="24"/>
+      <c r="C334" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="20"/>
       <c r="B335" s="24"/>
-      <c r="C335" s="24" t="s">
-        <v>26</v>
+      <c r="C335" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="20"/>
       <c r="B336" s="24"/>
       <c r="C336" t="s">
-        <v>266</v>
-      </c>
-      <c r="D336" t="s">
-        <v>314</v>
+        <v>187</v>
       </c>
     </row>
     <row r="337" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="21"/>
       <c r="B337" s="27"/>
       <c r="C337" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D337" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="20"/>
-      <c r="B338" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="20"/>
-      <c r="B339" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C339" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="20"/>
-      <c r="B340" s="24"/>
-    </row>
-    <row r="341" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="20"/>
-      <c r="B342" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="20"/>
-      <c r="B343" s="24" t="s">
-        <v>175</v>
-      </c>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="18"/>
+      <c r="B338" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="C338" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="19"/>
+      <c r="B339" s="25"/>
+      <c r="C339" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="19"/>
+      <c r="B340" s="25"/>
+      <c r="C340" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D340" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="19"/>
+      <c r="B341" s="25"/>
+      <c r="C341" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D341" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="19"/>
+      <c r="B342" s="25"/>
+      <c r="C342" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="19"/>
+      <c r="B343" s="25"/>
+      <c r="C343" s="13"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="20"/>
-      <c r="B344" s="24" t="s">
-        <v>383</v>
+      <c r="B344" s="24"/>
+      <c r="C344" s="24" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="20"/>
       <c r="B345" s="24"/>
-    </row>
-    <row r="346" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="47" t="s">
+      <c r="C345" t="s">
+        <v>269</v>
+      </c>
+      <c r="D345" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="20"/>
+      <c r="B346" s="24"/>
+      <c r="C346" t="s">
+        <v>271</v>
+      </c>
+      <c r="D346" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="20"/>
+      <c r="B347" s="24"/>
+      <c r="C347" t="s">
+        <v>273</v>
+      </c>
+      <c r="D347" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="20"/>
+      <c r="B348" s="24"/>
+      <c r="C348" t="s">
+        <v>275</v>
+      </c>
+      <c r="D348" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="20"/>
+      <c r="B349" s="24"/>
+      <c r="C349" t="s">
+        <v>264</v>
+      </c>
+      <c r="D349" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="20"/>
+      <c r="B350" s="24"/>
+      <c r="C350" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="20"/>
+      <c r="B351" s="24"/>
+      <c r="C351" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="20"/>
+      <c r="B352" s="24"/>
+      <c r="C352" t="s">
+        <v>279</v>
+      </c>
+      <c r="D352" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="20"/>
+      <c r="B353" s="24"/>
+      <c r="C353" t="s">
+        <v>281</v>
+      </c>
+      <c r="D353" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="20"/>
+      <c r="B354" s="24"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="20"/>
+      <c r="B355" s="24"/>
+      <c r="C355" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="20"/>
+      <c r="B356" s="24"/>
+      <c r="C356" t="s">
+        <v>266</v>
+      </c>
+      <c r="D356" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="21"/>
+      <c r="B357" s="27"/>
+      <c r="C357" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D357" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="20"/>
+      <c r="B358" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="20"/>
+      <c r="B359" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C359" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="20"/>
+      <c r="B360" s="24"/>
+    </row>
+    <row r="361" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B361" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="20"/>
+      <c r="B362" s="24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="20"/>
+      <c r="B363" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="20"/>
+      <c r="B364" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="20"/>
+      <c r="B365" s="24"/>
+    </row>
+    <row r="366" spans="1:4" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="B346" s="48"/>
-    </row>
-    <row r="347" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="31" t="s">
+      <c r="B366" s="48"/>
+    </row>
+    <row r="367" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B367" s="31" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="28"/>
-      <c r="B348" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="C348" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="28"/>
-      <c r="B349" s="34"/>
-      <c r="C349" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="28"/>
-      <c r="B350" s="34"/>
-      <c r="C350" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D350" s="12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="28"/>
-      <c r="B351" s="34"/>
-      <c r="C351" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="D351" s="12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="28"/>
-      <c r="B352" s="34"/>
-      <c r="C352" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="28"/>
-      <c r="B353" s="34"/>
-      <c r="C353" s="13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="28"/>
-      <c r="B354" s="34"/>
-      <c r="C354" s="13" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="28"/>
-      <c r="B355" s="34"/>
-      <c r="C355" s="13" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="28"/>
-      <c r="B356" s="34"/>
-      <c r="C356" s="13" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="28"/>
-      <c r="B357" s="34"/>
-      <c r="C357" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="28"/>
-      <c r="B358" s="34"/>
-      <c r="C358" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="28"/>
-      <c r="B359" s="34"/>
-    </row>
-    <row r="360" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="28"/>
-      <c r="B360" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C360" s="12" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="28"/>
-      <c r="B361" s="34"/>
-      <c r="C361" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="28"/>
-      <c r="B362" s="34"/>
-      <c r="C362" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="D362" s="12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="28"/>
-      <c r="B363" s="34"/>
-      <c r="C363" s="13" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="28"/>
-      <c r="B364" s="34"/>
-    </row>
-    <row r="365" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="28"/>
-      <c r="B365" s="34"/>
-    </row>
-    <row r="366" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="28"/>
-      <c r="B366" s="34"/>
-    </row>
-    <row r="367" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="28"/>
-      <c r="B367" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="C367" s="12" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="368" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="28"/>
-      <c r="B368" s="34"/>
-      <c r="C368" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B368" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="28"/>
       <c r="B369" s="34"/>
-      <c r="C369" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C369" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="28"/>
       <c r="B370" s="34"/>
-    </row>
-    <row r="371" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C370" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D370" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="28"/>
       <c r="B371" s="34"/>
-    </row>
-    <row r="372" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C371" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D371" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="28"/>
       <c r="B372" s="34"/>
-    </row>
-    <row r="373" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C372" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="28"/>
-      <c r="B373" s="34" t="s">
+      <c r="B373" s="34"/>
+      <c r="C373" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="28"/>
+      <c r="B374" s="34"/>
+      <c r="C374" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="28"/>
+      <c r="B375" s="34"/>
+      <c r="C375" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="28"/>
+      <c r="B376" s="34"/>
+      <c r="C376" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="28"/>
+      <c r="B377" s="34"/>
+      <c r="C377" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="28"/>
+      <c r="B378" s="34"/>
+      <c r="C378" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="28"/>
+      <c r="B379" s="34"/>
+    </row>
+    <row r="380" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="28"/>
+      <c r="B380" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="28"/>
+      <c r="B381" s="34"/>
+      <c r="C381" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="28"/>
+      <c r="B382" s="34"/>
+      <c r="C382" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D382" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="28"/>
+      <c r="B383" s="34"/>
+      <c r="C383" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="28"/>
+      <c r="B384" s="34"/>
+    </row>
+    <row r="385" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="28"/>
+      <c r="B385" s="34"/>
+    </row>
+    <row r="386" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="28"/>
+      <c r="B386" s="34"/>
+    </row>
+    <row r="387" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="28"/>
+      <c r="B387" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C387" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="28"/>
+      <c r="B388" s="34"/>
+      <c r="C388" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="28"/>
+      <c r="B389" s="34"/>
+      <c r="C389" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="28"/>
+      <c r="B390" s="34"/>
+    </row>
+    <row r="391" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="28"/>
+      <c r="B391" s="34"/>
+    </row>
+    <row r="392" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="28"/>
+      <c r="B392" s="34"/>
+    </row>
+    <row r="393" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="28"/>
+      <c r="B393" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="C373" s="12" t="s">
+      <c r="C393" s="12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="29"/>
-      <c r="B374" s="34"/>
-      <c r="C374" t="s">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="29"/>
+      <c r="B394" s="34"/>
+      <c r="C394" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="29"/>
-      <c r="B375" s="34"/>
-      <c r="C375" t="s">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="29"/>
+      <c r="B395" s="34"/>
+      <c r="C395" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="29"/>
-      <c r="B376" s="34"/>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="29"/>
-      <c r="B377" s="29" t="s">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="29"/>
+      <c r="B396" s="34"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="29"/>
+      <c r="B397" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="29"/>
-      <c r="B378" s="34"/>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="29"/>
-      <c r="B379" s="34"/>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="29"/>
-      <c r="B380" s="29" t="s">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="29"/>
+      <c r="B398" s="34"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="29"/>
+      <c r="B399" s="34"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="29"/>
+      <c r="B400" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="29"/>
-      <c r="B381" s="34"/>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="29"/>
-      <c r="B382" s="34"/>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="29"/>
-      <c r="B383" s="34"/>
-    </row>
-    <row r="384" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="41" t="s">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="29"/>
+      <c r="B401" s="34"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="29"/>
+      <c r="B402" s="34"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="29"/>
+      <c r="B403" s="34"/>
+    </row>
+    <row r="404" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="B384" s="42"/>
-    </row>
-    <row r="385" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B385" s="37" t="s">
+      <c r="B404" s="42"/>
+    </row>
+    <row r="405" spans="1:4" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B405" s="37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="36"/>
-      <c r="B386" s="50" t="s">
+    <row r="406" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="36"/>
+      <c r="B406" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="C386" s="50" t="s">
+      <c r="C406" s="50" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="33"/>
-      <c r="B387" s="38"/>
-      <c r="C387" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="33"/>
-      <c r="B388" s="38"/>
-      <c r="C388" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="33"/>
-      <c r="B389" s="38"/>
-      <c r="C389" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="33"/>
-      <c r="B390" s="38"/>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="33"/>
-      <c r="B391" s="38"/>
-    </row>
-    <row r="392" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="36"/>
-      <c r="B392" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="C392" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="33"/>
-      <c r="B393" s="38"/>
-      <c r="C393" t="s">
-        <v>251</v>
-      </c>
-      <c r="D393" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="33"/>
-      <c r="B394" s="38"/>
-      <c r="C394" t="s">
-        <v>252</v>
-      </c>
-      <c r="D394" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="33"/>
-      <c r="B395" s="38"/>
-      <c r="C395" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="33"/>
-      <c r="B396" s="38"/>
-      <c r="C396" t="s">
-        <v>364</v>
-      </c>
-      <c r="D396" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="33"/>
-      <c r="B397" s="38"/>
-    </row>
-    <row r="398" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="36"/>
-      <c r="B398" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C398" s="50" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="33"/>
-      <c r="B399" s="38"/>
-      <c r="C399" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="33"/>
-      <c r="B400" s="38"/>
-      <c r="C400" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="33"/>
-      <c r="B401" s="38"/>
-      <c r="C401" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="33"/>
-      <c r="B402" s="38"/>
-    </row>
-    <row r="403" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="36"/>
-      <c r="B403" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C403" s="50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="33"/>
-      <c r="B404" s="38"/>
-      <c r="C404" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="33"/>
-      <c r="B405" s="38"/>
-      <c r="C405" t="s">
-        <v>256</v>
-      </c>
-      <c r="D405" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="33"/>
-      <c r="B406" s="38"/>
-      <c r="C406" t="s">
-        <v>315</v>
-      </c>
-      <c r="D406" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="33"/>
       <c r="B407" s="38"/>
       <c r="C407" t="s">
-        <v>318</v>
-      </c>
-      <c r="D407" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="33"/>
       <c r="B408" s="38"/>
       <c r="C408" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="33"/>
       <c r="B409" s="38"/>
       <c r="C409" t="s">
-        <v>321</v>
-      </c>
-      <c r="D409" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="33"/>
       <c r="B410" s="38"/>
-      <c r="C410" t="s">
-        <v>323</v>
-      </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="33"/>
       <c r="B411" s="38"/>
-      <c r="C411" t="s">
-        <v>324</v>
-      </c>
-      <c r="D411" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" s="33"/>
-      <c r="B412" s="38"/>
-      <c r="C412" t="s">
-        <v>326</v>
+    </row>
+    <row r="412" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="36"/>
+      <c r="B412" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C412" s="50" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="33"/>
       <c r="B413" s="38"/>
       <c r="C413" t="s">
-        <v>327</v>
+        <v>251</v>
       </c>
       <c r="D413" t="s">
-        <v>328</v>
+        <v>19</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="33"/>
       <c r="B414" s="38"/>
       <c r="C414" t="s">
-        <v>366</v>
+        <v>252</v>
       </c>
       <c r="D414" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="33"/>
       <c r="B415" s="38"/>
-    </row>
-    <row r="416" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="36"/>
-      <c r="B416" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="C416" s="50" t="s">
-        <v>243</v>
+      <c r="C415" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="33"/>
+      <c r="B416" s="38"/>
+      <c r="C416" t="s">
+        <v>364</v>
+      </c>
+      <c r="D416" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="33"/>
       <c r="B417" s="38"/>
-      <c r="C417" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="33"/>
-      <c r="B418" s="38"/>
-      <c r="C418" t="s">
-        <v>338</v>
-      </c>
-      <c r="D418" t="s">
-        <v>339</v>
+    </row>
+    <row r="418" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="36"/>
+      <c r="B418" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C418" s="50" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="33"/>
       <c r="B419" s="38"/>
       <c r="C419" t="s">
-        <v>340</v>
-      </c>
-      <c r="D419" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="33"/>
       <c r="B420" s="38"/>
       <c r="C420" t="s">
-        <v>320</v>
-      </c>
-      <c r="D420" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="33"/>
       <c r="B421" s="38"/>
       <c r="C421" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="33"/>
       <c r="B422" s="38"/>
-      <c r="C422" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="33"/>
-      <c r="B423" s="38"/>
-      <c r="C423" t="s">
-        <v>337</v>
+    </row>
+    <row r="423" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="36"/>
+      <c r="B423" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="C423" s="50" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="33"/>
       <c r="B424" s="38"/>
       <c r="C424" t="s">
-        <v>343</v>
-      </c>
-      <c r="D424" t="s">
-        <v>344</v>
+        <v>255</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="33"/>
       <c r="B425" s="38"/>
-    </row>
-    <row r="426" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C425" t="s">
+        <v>256</v>
+      </c>
+      <c r="D425" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="33"/>
+      <c r="B426" s="38"/>
+      <c r="C426" t="s">
+        <v>315</v>
+      </c>
+      <c r="D426" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="33"/>
-      <c r="B427" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="C427" s="38" t="s">
-        <v>289</v>
+      <c r="B427" s="38"/>
+      <c r="C427" t="s">
+        <v>318</v>
+      </c>
+      <c r="D427" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="33"/>
       <c r="B428" s="38"/>
-      <c r="C428" s="38" t="s">
-        <v>21</v>
+      <c r="C428" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="33"/>
       <c r="B429" s="38"/>
       <c r="C429" t="s">
-        <v>290</v>
+        <v>321</v>
+      </c>
+      <c r="D429" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="33"/>
       <c r="B430" s="38"/>
       <c r="C430" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="33"/>
-      <c r="B431" s="33" t="s">
-        <v>34</v>
+      <c r="B431" s="38"/>
+      <c r="C431" t="s">
+        <v>324</v>
+      </c>
+      <c r="D431" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="33"/>
       <c r="B432" s="38"/>
+      <c r="C432" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="33"/>
       <c r="B433" s="38"/>
-    </row>
-    <row r="434" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="39" t="s">
+      <c r="C433" t="s">
+        <v>327</v>
+      </c>
+      <c r="D433" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="33"/>
+      <c r="B434" s="38"/>
+      <c r="C434" t="s">
+        <v>366</v>
+      </c>
+      <c r="D434" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="33"/>
+      <c r="B435" s="38"/>
+    </row>
+    <row r="436" spans="1:4" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="36"/>
+      <c r="B436" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C436" s="50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="33"/>
+      <c r="B437" s="38"/>
+      <c r="C437" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="33"/>
+      <c r="B438" s="38"/>
+      <c r="C438" t="s">
+        <v>338</v>
+      </c>
+      <c r="D438" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="33"/>
+      <c r="B439" s="38"/>
+      <c r="C439" t="s">
+        <v>340</v>
+      </c>
+      <c r="D439" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="33"/>
+      <c r="B440" s="38"/>
+      <c r="C440" t="s">
+        <v>320</v>
+      </c>
+      <c r="D440" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="33"/>
+      <c r="B441" s="38"/>
+      <c r="C441" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="33"/>
+      <c r="B442" s="38"/>
+      <c r="C442" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="33"/>
+      <c r="B443" s="38"/>
+      <c r="C443" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="33"/>
+      <c r="B444" s="38"/>
+      <c r="C444" t="s">
+        <v>343</v>
+      </c>
+      <c r="D444" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="33"/>
+      <c r="B445" s="38"/>
+    </row>
+    <row r="446" spans="1:4" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B446" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="33"/>
+      <c r="B447" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C447" s="38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="33"/>
+      <c r="B448" s="38"/>
+      <c r="C448" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="33"/>
+      <c r="B449" s="38"/>
+      <c r="C449" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="33"/>
+      <c r="B450" s="38"/>
+      <c r="C450" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="33"/>
+      <c r="B451" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="33"/>
+      <c r="B452" s="38"/>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="33"/>
+      <c r="B453" s="38"/>
+    </row>
+    <row r="454" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="B434" s="40" t="s">
+      <c r="B454" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" s="32"/>
-      <c r="B435" s="35" t="s">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="32"/>
+      <c r="B455" s="35" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="32"/>
-      <c r="B436" s="35" t="s">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="32"/>
+      <c r="B456" s="35" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="32"/>
-      <c r="B437" s="35" t="s">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="32"/>
+      <c r="B457" s="35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" s="32"/>
-      <c r="B438" s="35" t="s">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="32"/>
+      <c r="B458" s="35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" s="32"/>
-      <c r="B439" s="35" t="s">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="32"/>
+      <c r="B459" s="35" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="32"/>
-      <c r="B440" s="35"/>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="32"/>
-      <c r="B441" s="35"/>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="32"/>
-      <c r="B442" s="35"/>
-    </row>
-    <row r="443" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="5" t="s">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="32"/>
+      <c r="B460" s="35"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="32"/>
+      <c r="B461" s="35"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="32"/>
+      <c r="B462" s="35"/>
+    </row>
+    <row r="463" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C443" s="64"/>
-    </row>
-    <row r="444" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B444" s="53" t="s">
+      <c r="C463" s="64"/>
+    </row>
+    <row r="464" spans="1:3" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B464" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="C444" s="65" t="s">
+      <c r="C464" s="65" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" s="4"/>
-      <c r="B445" s="55"/>
-      <c r="C445" s="55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="4"/>
-      <c r="B446" s="55"/>
-      <c r="C446" s="54" t="s">
-        <v>418</v>
-      </c>
-      <c r="D446" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="4"/>
-      <c r="B447" s="55"/>
-      <c r="C447" s="54" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="4"/>
-      <c r="B448" s="55"/>
-      <c r="C448" s="54" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" s="4"/>
-      <c r="B449" s="55"/>
-      <c r="C449" s="54" t="s">
-        <v>421</v>
-      </c>
-      <c r="D449" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" s="4"/>
-      <c r="B450" s="55"/>
-      <c r="C450" s="54" t="s">
-        <v>415</v>
-      </c>
-      <c r="D450" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" s="4"/>
-      <c r="B451" s="55"/>
-      <c r="C451" s="54" t="s">
-        <v>442</v>
-      </c>
-      <c r="D451" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" s="4"/>
-      <c r="B452" s="55"/>
-      <c r="C452" s="54" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" s="4"/>
-      <c r="B453" s="55"/>
-      <c r="C453" s="54" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" s="4"/>
-      <c r="B454" s="55"/>
-      <c r="C454" s="54" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A455" s="4"/>
-      <c r="B455" s="55"/>
-      <c r="C455" s="54" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456" s="4"/>
-      <c r="B456" s="55"/>
-      <c r="C456" s="54" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="4"/>
-      <c r="B457" s="55"/>
-      <c r="C457" s="54" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458" s="4"/>
-      <c r="B458" s="55"/>
-      <c r="C458" s="54" t="s">
-        <v>441</v>
-      </c>
-      <c r="D458" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" s="4"/>
-      <c r="B459" s="55"/>
-      <c r="C459" s="54"/>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" s="4"/>
-      <c r="B460" s="55"/>
-      <c r="C460" s="54"/>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" s="4"/>
-      <c r="B461" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C461" s="54" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" s="4"/>
-      <c r="B462" s="55"/>
-      <c r="C462" s="54" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" s="4"/>
-      <c r="B463" s="55"/>
-      <c r="C463" s="54" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" s="4"/>
-      <c r="B464" s="55"/>
-      <c r="C464" s="54" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="B465" s="55"/>
-      <c r="C465" s="54" t="s">
-        <v>438</v>
+      <c r="C465" s="55" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
       <c r="B466" s="55"/>
-      <c r="C466" s="54"/>
+      <c r="C466" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="D466" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
-      <c r="B467" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C467" s="54"/>
+      <c r="B467" s="55"/>
+      <c r="C467" s="54" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="B468" s="55"/>
-      <c r="C468" s="54"/>
+      <c r="C468" s="54" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
       <c r="B469" s="55"/>
-      <c r="C469" s="54"/>
+      <c r="C469" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="D469" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
-      <c r="B470" s="4" t="s">
-        <v>432</v>
-      </c>
+      <c r="B470" s="55"/>
       <c r="C470" s="54" t="s">
-        <v>439</v>
+        <v>415</v>
+      </c>
+      <c r="D470" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
       <c r="B471" s="55"/>
       <c r="C471" s="54" t="s">
-        <v>440</v>
+        <v>442</v>
+      </c>
+      <c r="D471" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
       <c r="B472" s="55"/>
+      <c r="C472" s="54" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
       <c r="B473" s="55"/>
-    </row>
-    <row r="474" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="15" t="s">
+      <c r="C473" s="54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="4"/>
+      <c r="B474" s="55"/>
+      <c r="C474" s="54" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="4"/>
+      <c r="B475" s="55"/>
+      <c r="C475" s="54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="4"/>
+      <c r="B476" s="55"/>
+      <c r="C476" s="54" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="4"/>
+      <c r="B477" s="55"/>
+      <c r="C477" s="54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="4"/>
+      <c r="B478" s="55"/>
+      <c r="C478" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="D478" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="4"/>
+      <c r="B479" s="55"/>
+      <c r="C479" s="54"/>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="4"/>
+      <c r="B480" s="55"/>
+      <c r="C480" s="54"/>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="4"/>
+      <c r="B481" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C481" s="54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="4"/>
+      <c r="B482" s="55"/>
+      <c r="C482" s="54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" s="4"/>
+      <c r="B483" s="55"/>
+      <c r="C483" s="54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" s="4"/>
+      <c r="B484" s="55"/>
+      <c r="C484" s="54" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="4"/>
+      <c r="B485" s="55"/>
+      <c r="C485" s="54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="4"/>
+      <c r="B486" s="55"/>
+      <c r="C486" s="54"/>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" s="4"/>
+      <c r="B487" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C487" s="54"/>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" s="4"/>
+      <c r="B488" s="55"/>
+      <c r="C488" s="54"/>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="4"/>
+      <c r="B489" s="55"/>
+      <c r="C489" s="54"/>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="4"/>
+      <c r="B490" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C490" s="54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="4"/>
+      <c r="B491" s="55"/>
+      <c r="C491" s="54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" s="4"/>
+      <c r="B492" s="55"/>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" s="4"/>
+      <c r="B493" s="55"/>
+    </row>
+    <row r="494" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="15" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="475" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B475" s="14" t="s">
+    <row r="495" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B495" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="D475" s="14" t="s">
+      <c r="D495" s="14" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" s="14"/>
-      <c r="B476" s="17"/>
-      <c r="C476" s="59" t="s">
-        <v>490</v>
-      </c>
-      <c r="D476" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" s="14"/>
-      <c r="B477" s="17"/>
-      <c r="C477" s="59" t="s">
-        <v>492</v>
-      </c>
-      <c r="D477" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478" s="14"/>
-      <c r="B478" s="17"/>
-      <c r="C478" s="60" t="s">
-        <v>494</v>
-      </c>
-      <c r="D478" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479" s="14"/>
-      <c r="B479" s="17"/>
-      <c r="C479" s="56" t="s">
-        <v>550</v>
-      </c>
-      <c r="D479" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480" s="14"/>
-      <c r="B480" s="17"/>
-      <c r="C480" s="56" t="s">
-        <v>552</v>
-      </c>
-      <c r="D480" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481" s="14"/>
-      <c r="B481" s="17"/>
-      <c r="C481" s="56" t="s">
-        <v>554</v>
-      </c>
-      <c r="D481" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482" s="14"/>
-      <c r="B482" s="17"/>
-      <c r="C482" s="56" t="s">
-        <v>556</v>
-      </c>
-      <c r="D482" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483" s="14"/>
-      <c r="B483" s="17"/>
-      <c r="C483" s="56" t="s">
-        <v>558</v>
-      </c>
-      <c r="D483" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" s="14"/>
-      <c r="B484" s="17"/>
-      <c r="C484" s="56" t="s">
-        <v>560</v>
-      </c>
-      <c r="D484" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485" s="14"/>
-      <c r="B485" s="17"/>
-      <c r="C485" s="56" t="s">
-        <v>562</v>
-      </c>
-      <c r="D485" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486" s="14"/>
-      <c r="B486" s="17"/>
-      <c r="C486" s="56" t="s">
-        <v>564</v>
-      </c>
-      <c r="D486" s="11" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" s="14"/>
-      <c r="B487" s="17"/>
-      <c r="C487" s="56" t="s">
-        <v>566</v>
-      </c>
-      <c r="D487" s="11" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" s="14"/>
-      <c r="B488" s="17"/>
-      <c r="C488" s="56" t="s">
-        <v>568</v>
-      </c>
-      <c r="D488" s="11" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="14"/>
-      <c r="B489" s="17"/>
-      <c r="C489" s="56" t="s">
-        <v>570</v>
-      </c>
-      <c r="D489" s="11" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="14"/>
-      <c r="B490" s="17"/>
-      <c r="C490" s="56" t="s">
-        <v>572</v>
-      </c>
-      <c r="D490" s="11" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="14"/>
-      <c r="B491" s="17"/>
-      <c r="C491" t="s">
-        <v>574</v>
-      </c>
-      <c r="D491" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492" s="14"/>
-      <c r="B492" s="17"/>
-      <c r="C492" t="s">
-        <v>576</v>
-      </c>
-      <c r="D492" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" s="14"/>
-      <c r="B493" s="17"/>
-      <c r="C493" t="s">
-        <v>578</v>
-      </c>
-      <c r="D493" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494" s="14"/>
-      <c r="B494" s="17"/>
-      <c r="C494" t="s">
-        <v>580</v>
-      </c>
-      <c r="D494" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495" s="14"/>
-      <c r="B495" s="17"/>
-      <c r="C495" t="s">
-        <v>582</v>
-      </c>
-      <c r="D495" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="14"/>
       <c r="B496" s="17"/>
+      <c r="C496" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="D496" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="14"/>
       <c r="B497" s="17"/>
-      <c r="C497" s="56"/>
+      <c r="C497" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="D497" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="14"/>
       <c r="B498" s="17"/>
-    </row>
-    <row r="499" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B499" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="D499" s="14" t="s">
-        <v>584</v>
+      <c r="C498" s="60" t="s">
+        <v>494</v>
+      </c>
+      <c r="D498" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="14"/>
+      <c r="B499" s="17"/>
+      <c r="C499" s="56" t="s">
+        <v>550</v>
+      </c>
+      <c r="D499" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="14"/>
       <c r="B500" s="17"/>
-      <c r="C500" s="11" t="s">
-        <v>585</v>
+      <c r="C500" s="56" t="s">
+        <v>552</v>
+      </c>
+      <c r="D500" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="14"/>
       <c r="B501" s="17"/>
-      <c r="C501" s="11" t="s">
-        <v>586</v>
+      <c r="C501" s="56" t="s">
+        <v>554</v>
+      </c>
+      <c r="D501" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="14"/>
       <c r="B502" s="17"/>
+      <c r="C502" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="D502" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="14"/>
       <c r="B503" s="17"/>
-      <c r="C503" t="s">
-        <v>587</v>
+      <c r="C503" s="56" t="s">
+        <v>558</v>
       </c>
       <c r="D503" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="14"/>
       <c r="B504" s="17"/>
-      <c r="C504" t="s">
-        <v>497</v>
+      <c r="C504" s="56" t="s">
+        <v>560</v>
       </c>
       <c r="D504" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="14"/>
       <c r="B505" s="17"/>
-      <c r="C505" t="s">
-        <v>502</v>
+      <c r="C505" s="56" t="s">
+        <v>562</v>
       </c>
       <c r="D505" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="14"/>
       <c r="B506" s="17"/>
-      <c r="C506" t="s">
-        <v>589</v>
-      </c>
-      <c r="D506" t="s">
-        <v>590</v>
+      <c r="C506" s="56" t="s">
+        <v>564</v>
+      </c>
+      <c r="D506" s="11" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="14"/>
       <c r="B507" s="17"/>
-      <c r="C507" t="s">
-        <v>591</v>
-      </c>
-      <c r="D507" t="s">
-        <v>592</v>
+      <c r="C507" s="56" t="s">
+        <v>566</v>
+      </c>
+      <c r="D507" s="11" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="14"/>
       <c r="B508" s="17"/>
-      <c r="C508" t="s">
-        <v>503</v>
-      </c>
-      <c r="D508" t="s">
-        <v>500</v>
+      <c r="C508" s="56" t="s">
+        <v>568</v>
+      </c>
+      <c r="D508" s="11" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="14"/>
       <c r="B509" s="17"/>
-      <c r="C509" t="s">
-        <v>554</v>
-      </c>
-      <c r="D509" t="s">
-        <v>593</v>
+      <c r="C509" s="56" t="s">
+        <v>570</v>
+      </c>
+      <c r="D509" s="11" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="14"/>
       <c r="B510" s="17"/>
-      <c r="C510" t="s">
-        <v>594</v>
-      </c>
-      <c r="D510" t="s">
-        <v>595</v>
+      <c r="C510" s="56" t="s">
+        <v>572</v>
+      </c>
+      <c r="D510" s="11" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="14"/>
       <c r="B511" s="17"/>
       <c r="C511" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
       <c r="D511" t="s">
-        <v>501</v>
+        <v>575</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="14"/>
       <c r="B512" s="17"/>
       <c r="C512" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="D512" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="14"/>
       <c r="B513" s="17"/>
       <c r="C513" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="D513" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="14"/>
       <c r="B514" s="17"/>
       <c r="C514" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="D514" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="14"/>
       <c r="B515" s="17"/>
       <c r="C515" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D515" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="14"/>
       <c r="B516" s="17"/>
-      <c r="C516" t="s">
-        <v>578</v>
-      </c>
-      <c r="D516" t="s">
-        <v>600</v>
-      </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="14"/>
       <c r="B517" s="17"/>
-      <c r="C517" t="s">
-        <v>580</v>
-      </c>
-      <c r="D517" t="s">
-        <v>601</v>
-      </c>
+      <c r="C517" s="56"/>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="14"/>
@@ -6818,617 +6876,664 @@
     </row>
     <row r="519" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B519" s="14" t="s">
-        <v>642</v>
+        <v>496</v>
       </c>
       <c r="D519" s="14" t="s">
-        <v>641</v>
+        <v>584</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="14"/>
       <c r="B520" s="17"/>
-      <c r="C520" t="s">
-        <v>643</v>
-      </c>
-      <c r="D520" t="s">
-        <v>644</v>
+      <c r="C520" s="11" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="14"/>
       <c r="B521" s="17"/>
-      <c r="C521" t="s">
-        <v>645</v>
-      </c>
-      <c r="D521" t="s">
-        <v>646</v>
+      <c r="C521" s="11" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="14"/>
       <c r="B522" s="17"/>
-      <c r="C522" t="s">
-        <v>649</v>
-      </c>
-      <c r="D522" t="s">
-        <v>650</v>
-      </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="14"/>
       <c r="B523" s="17"/>
       <c r="C523" t="s">
-        <v>647</v>
+        <v>587</v>
       </c>
       <c r="D523" t="s">
-        <v>648</v>
+        <v>588</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="14"/>
       <c r="B524" s="17"/>
-    </row>
-    <row r="525" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B525" s="14" t="s">
-        <v>452</v>
+      <c r="C524" t="s">
+        <v>497</v>
+      </c>
+      <c r="D524" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A525" s="14"/>
+      <c r="B525" s="17"/>
+      <c r="C525" t="s">
+        <v>502</v>
+      </c>
+      <c r="D525" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="14"/>
       <c r="B526" s="17"/>
-      <c r="C526" s="17" t="s">
-        <v>459</v>
+      <c r="C526" t="s">
+        <v>589</v>
+      </c>
+      <c r="D526" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="14"/>
       <c r="B527" s="17"/>
       <c r="C527" t="s">
-        <v>464</v>
+        <v>591</v>
       </c>
       <c r="D527" t="s">
-        <v>466</v>
+        <v>592</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="14"/>
       <c r="B528" s="17"/>
       <c r="C528" t="s">
-        <v>465</v>
+        <v>503</v>
       </c>
       <c r="D528" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="14"/>
       <c r="B529" s="17"/>
       <c r="C529" t="s">
-        <v>108</v>
+        <v>554</v>
       </c>
       <c r="D529" t="s">
-        <v>468</v>
+        <v>593</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="14"/>
       <c r="B530" s="17"/>
-      <c r="C530" s="17" t="s">
-        <v>26</v>
+      <c r="C530" t="s">
+        <v>594</v>
+      </c>
+      <c r="D530" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="14"/>
       <c r="B531" s="17"/>
       <c r="C531" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="D531" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="14"/>
       <c r="B532" s="17"/>
       <c r="C532" t="s">
-        <v>470</v>
+        <v>556</v>
       </c>
       <c r="D532" t="s">
-        <v>473</v>
+        <v>596</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="14"/>
       <c r="B533" s="17"/>
       <c r="C533" t="s">
-        <v>471</v>
+        <v>558</v>
       </c>
       <c r="D533" t="s">
-        <v>474</v>
+        <v>597</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="14"/>
       <c r="B534" s="17"/>
       <c r="C534" t="s">
-        <v>315</v>
+        <v>560</v>
       </c>
       <c r="D534" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="14"/>
       <c r="B535" s="17"/>
-      <c r="C535" s="17" t="s">
-        <v>21</v>
+      <c r="C535" t="s">
+        <v>576</v>
+      </c>
+      <c r="D535" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="14"/>
       <c r="B536" s="17"/>
       <c r="C536" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="D536" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B537" s="14" t="s">
-        <v>451</v>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A537" s="14"/>
+      <c r="B537" s="17"/>
+      <c r="C537" t="s">
+        <v>580</v>
+      </c>
+      <c r="D537" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="14"/>
       <c r="B538" s="17"/>
-      <c r="C538" s="17" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A539" s="14"/>
-      <c r="B539" s="17"/>
-      <c r="C539" t="s">
-        <v>453</v>
-      </c>
-      <c r="D539" s="11" t="s">
-        <v>454</v>
+    </row>
+    <row r="539" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B539" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="D539" s="14" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="14"/>
       <c r="B540" s="17"/>
       <c r="C540" t="s">
-        <v>455</v>
+        <v>643</v>
       </c>
       <c r="D540" t="s">
-        <v>456</v>
+        <v>644</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="14"/>
       <c r="B541" s="17"/>
       <c r="C541" t="s">
-        <v>457</v>
+        <v>645</v>
       </c>
       <c r="D541" t="s">
-        <v>458</v>
+        <v>646</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="14"/>
       <c r="B542" s="17"/>
-      <c r="C542" s="17" t="s">
-        <v>26</v>
+      <c r="C542" t="s">
+        <v>649</v>
+      </c>
+      <c r="D542" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="14"/>
       <c r="B543" s="17"/>
       <c r="C543" t="s">
-        <v>460</v>
+        <v>647</v>
       </c>
       <c r="D543" t="s">
-        <v>539</v>
+        <v>648</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="14"/>
       <c r="B544" s="17"/>
-      <c r="C544" t="s">
-        <v>461</v>
-      </c>
-      <c r="D544" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A545" s="14"/>
-      <c r="B545" s="17"/>
-      <c r="C545" t="s">
-        <v>108</v>
-      </c>
-      <c r="D545" t="s">
-        <v>463</v>
+    </row>
+    <row r="545" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B545" s="14" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="14"/>
       <c r="B546" s="17"/>
       <c r="C546" s="17" t="s">
-        <v>21</v>
+        <v>459</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="14"/>
       <c r="B547" s="17"/>
       <c r="C547" t="s">
-        <v>540</v>
+        <v>464</v>
       </c>
       <c r="D547" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B548" s="14" t="s">
-        <v>475</v>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A548" s="14"/>
+      <c r="B548" s="17"/>
+      <c r="C548" t="s">
+        <v>465</v>
+      </c>
+      <c r="D548" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="14"/>
       <c r="B549" s="17"/>
       <c r="C549" t="s">
-        <v>476</v>
+        <v>108</v>
       </c>
       <c r="D549" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="14"/>
       <c r="B550" s="17"/>
-      <c r="C550" t="s">
-        <v>477</v>
-      </c>
-      <c r="D550" t="s">
-        <v>481</v>
+      <c r="C550" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="14"/>
       <c r="B551" s="17"/>
       <c r="C551" t="s">
-        <v>603</v>
+        <v>469</v>
+      </c>
+      <c r="D551" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="14"/>
       <c r="B552" s="17"/>
       <c r="C552" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D552" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="14"/>
       <c r="B553" s="17"/>
       <c r="C553" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D553" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="14"/>
       <c r="B554" s="17"/>
       <c r="C554" t="s">
-        <v>602</v>
-      </c>
-      <c r="D554" s="11" t="s">
-        <v>483</v>
+        <v>315</v>
+      </c>
+      <c r="D554" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="14"/>
       <c r="B555" s="17"/>
-      <c r="C555" t="s">
-        <v>484</v>
-      </c>
-      <c r="D555" s="11" t="s">
-        <v>485</v>
+      <c r="C555" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="14"/>
       <c r="B556" s="17"/>
       <c r="C556" t="s">
-        <v>486</v>
-      </c>
-      <c r="D556" s="11" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A557" s="14"/>
-      <c r="B557" s="17"/>
-      <c r="C557" t="s">
-        <v>488</v>
-      </c>
-      <c r="D557" s="11" t="s">
-        <v>489</v>
+        <v>542</v>
+      </c>
+      <c r="D556" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B557" s="14" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="14"/>
       <c r="B558" s="17"/>
+      <c r="C558" s="17" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="14"/>
       <c r="B559" s="17"/>
-    </row>
-    <row r="560" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B560" s="14" t="s">
-        <v>530</v>
+      <c r="C559" t="s">
+        <v>453</v>
+      </c>
+      <c r="D559" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A560" s="14"/>
+      <c r="B560" s="17"/>
+      <c r="C560" t="s">
+        <v>455</v>
+      </c>
+      <c r="D560" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="14"/>
       <c r="B561" s="17"/>
-      <c r="C561" s="17" t="s">
-        <v>459</v>
+      <c r="C561" t="s">
+        <v>457</v>
+      </c>
+      <c r="D561" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="14"/>
       <c r="B562" s="17"/>
-      <c r="C562" t="s">
-        <v>531</v>
-      </c>
-      <c r="D562" t="s">
-        <v>532</v>
+      <c r="C562" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="14"/>
       <c r="B563" s="17"/>
-      <c r="C563" s="17" t="s">
-        <v>26</v>
+      <c r="C563" t="s">
+        <v>460</v>
+      </c>
+      <c r="D563" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="14"/>
       <c r="B564" s="17"/>
       <c r="C564" t="s">
-        <v>533</v>
+        <v>461</v>
       </c>
       <c r="D564" t="s">
-        <v>534</v>
+        <v>462</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="14"/>
       <c r="B565" s="17"/>
       <c r="C565" t="s">
-        <v>535</v>
+        <v>108</v>
       </c>
       <c r="D565" t="s">
-        <v>536</v>
+        <v>463</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="14"/>
       <c r="B566" s="17"/>
-      <c r="C566" t="s">
-        <v>538</v>
-      </c>
-      <c r="D566" t="s">
-        <v>537</v>
+      <c r="C566" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="14"/>
       <c r="B567" s="17"/>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A568" s="14"/>
-      <c r="B568" s="17"/>
+      <c r="C567" t="s">
+        <v>540</v>
+      </c>
+      <c r="D567" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B568" s="14" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="14"/>
-      <c r="B569" s="16" t="s">
-        <v>34</v>
+      <c r="B569" s="17"/>
+      <c r="C569" t="s">
+        <v>476</v>
+      </c>
+      <c r="D569" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="14"/>
-      <c r="B570" s="17" t="s">
-        <v>639</v>
-      </c>
+      <c r="B570" s="17"/>
       <c r="C570" t="s">
-        <v>607</v>
+        <v>477</v>
+      </c>
+      <c r="D570" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="14"/>
-      <c r="B571" s="17" t="s">
-        <v>546</v>
-      </c>
+      <c r="B571" s="17"/>
       <c r="C571" t="s">
-        <v>640</v>
-      </c>
-      <c r="D571" t="s">
-        <v>547</v>
+        <v>603</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="14"/>
-      <c r="B572" s="17" t="s">
-        <v>548</v>
-      </c>
+      <c r="B572" s="17"/>
       <c r="C572" t="s">
-        <v>549</v>
+        <v>478</v>
+      </c>
+      <c r="D572" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="14"/>
       <c r="B573" s="17"/>
+      <c r="C573" t="s">
+        <v>479</v>
+      </c>
+      <c r="D573" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="14"/>
       <c r="B574" s="17"/>
+      <c r="C574" t="s">
+        <v>602</v>
+      </c>
+      <c r="D574" s="11" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="14"/>
       <c r="B575" s="17"/>
-    </row>
-    <row r="576" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="58" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="D577" s="20" t="s">
-        <v>518</v>
+      <c r="C575" t="s">
+        <v>484</v>
+      </c>
+      <c r="D575" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" s="14"/>
+      <c r="B576" s="17"/>
+      <c r="C576" t="s">
+        <v>486</v>
+      </c>
+      <c r="D576" s="11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" s="14"/>
+      <c r="B577" s="17"/>
+      <c r="C577" t="s">
+        <v>488</v>
+      </c>
+      <c r="D577" s="11" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A578" s="20"/>
-      <c r="B578" s="57"/>
-      <c r="C578" s="57" t="s">
+      <c r="A578" s="14"/>
+      <c r="B578" s="17"/>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" s="14"/>
+      <c r="B579" s="17"/>
+    </row>
+    <row r="580" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B580" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" s="14"/>
+      <c r="B581" s="17"/>
+      <c r="C581" s="17" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A579" s="20"/>
-      <c r="B579" s="57"/>
-      <c r="C579" t="s">
-        <v>517</v>
-      </c>
-      <c r="D579" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A580" s="20"/>
-      <c r="B580" s="57"/>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A581" s="20"/>
-      <c r="B581" s="57"/>
-    </row>
-    <row r="582" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B582" s="20" t="s">
-        <v>519</v>
-      </c>
-      <c r="D582" s="20" t="s">
-        <v>518</v>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" s="14"/>
+      <c r="B582" s="17"/>
+      <c r="C582" t="s">
+        <v>531</v>
+      </c>
+      <c r="D582" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A583" s="20"/>
-      <c r="B583" s="57"/>
-      <c r="C583" s="57" t="s">
-        <v>459</v>
+      <c r="A583" s="14"/>
+      <c r="B583" s="17"/>
+      <c r="C583" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A584" s="20"/>
-      <c r="B584" s="57"/>
+      <c r="A584" s="14"/>
+      <c r="B584" s="17"/>
       <c r="C584" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="D584" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A585" s="20"/>
-      <c r="B585" s="57"/>
+      <c r="A585" s="14"/>
+      <c r="B585" s="17"/>
+      <c r="C585" t="s">
+        <v>535</v>
+      </c>
+      <c r="D585" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A586" s="20"/>
-      <c r="B586" s="57"/>
-    </row>
-    <row r="587" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="58" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B588" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="D588" s="20" t="s">
-        <v>522</v>
-      </c>
+      <c r="A586" s="14"/>
+      <c r="B586" s="17"/>
+      <c r="C586" t="s">
+        <v>538</v>
+      </c>
+      <c r="D586" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" s="14"/>
+      <c r="B587" s="17"/>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" s="14"/>
+      <c r="B588" s="17"/>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A589" s="20"/>
-      <c r="B589" s="57"/>
-      <c r="C589" s="57" t="s">
-        <v>459</v>
+      <c r="A589" s="14"/>
+      <c r="B589" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A590" s="20"/>
-      <c r="B590" s="57"/>
+      <c r="A590" s="14"/>
+      <c r="B590" s="17" t="s">
+        <v>639</v>
+      </c>
       <c r="C590" t="s">
-        <v>509</v>
-      </c>
-      <c r="D590" t="s">
-        <v>510</v>
+        <v>607</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A591" s="20"/>
-      <c r="B591" s="57"/>
-      <c r="C591" s="57" t="s">
-        <v>26</v>
+      <c r="A591" s="14"/>
+      <c r="B591" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="C591" t="s">
+        <v>640</v>
+      </c>
+      <c r="D591" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A592" s="20"/>
-      <c r="B592" s="57"/>
+      <c r="A592" s="14"/>
+      <c r="B592" s="17" t="s">
+        <v>548</v>
+      </c>
       <c r="C592" t="s">
-        <v>511</v>
-      </c>
-      <c r="D592" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A593" s="20"/>
-      <c r="B593" s="57"/>
-      <c r="C593" t="s">
-        <v>513</v>
-      </c>
-      <c r="D593" t="s">
-        <v>514</v>
-      </c>
+      <c r="A593" s="14"/>
+      <c r="B593" s="17"/>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A594" s="20"/>
-      <c r="B594" s="57"/>
+      <c r="A594" s="14"/>
+      <c r="B594" s="17"/>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A595" s="20"/>
-      <c r="B595" s="57"/>
+      <c r="A595" s="14"/>
+      <c r="B595" s="17"/>
     </row>
     <row r="596" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A596" s="58" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="597" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B597" s="20" t="s">
-        <v>524</v>
+        <v>515</v>
+      </c>
+      <c r="D597" s="20" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
@@ -7442,328 +7547,314 @@
       <c r="A599" s="20"/>
       <c r="B599" s="57"/>
       <c r="C599" t="s">
-        <v>525</v>
+        <v>517</v>
+      </c>
+      <c r="D599" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="20"/>
       <c r="B600" s="57"/>
-      <c r="C600" s="57" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="20"/>
       <c r="B601" s="57"/>
-      <c r="C601" t="s">
-        <v>526</v>
-      </c>
-      <c r="D601" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A602" s="20"/>
-      <c r="B602" s="57"/>
-      <c r="C602" t="s">
-        <v>528</v>
-      </c>
-      <c r="D602" t="s">
-        <v>529</v>
+    </row>
+    <row r="602" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B602" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="D602" s="20" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="20"/>
       <c r="B603" s="57"/>
+      <c r="C603" s="57" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="20"/>
       <c r="B604" s="57"/>
-    </row>
-    <row r="605" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="63" t="s">
+      <c r="C604" t="s">
+        <v>520</v>
+      </c>
+      <c r="D604" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" s="20"/>
+      <c r="B605" s="57"/>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" s="20"/>
+      <c r="B606" s="57"/>
+    </row>
+    <row r="607" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="58" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B608" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="D608" s="20" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" s="20"/>
+      <c r="B609" s="57"/>
+      <c r="C609" s="57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" s="20"/>
+      <c r="B610" s="57"/>
+      <c r="C610" t="s">
+        <v>509</v>
+      </c>
+      <c r="D610" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" s="20"/>
+      <c r="B611" s="57"/>
+      <c r="C611" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" s="20"/>
+      <c r="B612" s="57"/>
+      <c r="C612" t="s">
+        <v>511</v>
+      </c>
+      <c r="D612" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" s="20"/>
+      <c r="B613" s="57"/>
+      <c r="C613" t="s">
+        <v>513</v>
+      </c>
+      <c r="D613" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" s="20"/>
+      <c r="B614" s="57"/>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" s="20"/>
+      <c r="B615" s="57"/>
+    </row>
+    <row r="616" spans="1:4" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="58" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B617" s="20" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" s="20"/>
+      <c r="B618" s="57"/>
+      <c r="C618" s="57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" s="20"/>
+      <c r="B619" s="57"/>
+      <c r="C619" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" s="20"/>
+      <c r="B620" s="57"/>
+      <c r="C620" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" s="20"/>
+      <c r="B621" s="57"/>
+      <c r="C621" t="s">
+        <v>526</v>
+      </c>
+      <c r="D621" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622" s="20"/>
+      <c r="B622" s="57"/>
+      <c r="C622" t="s">
+        <v>528</v>
+      </c>
+      <c r="D622" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" s="20"/>
+      <c r="B623" s="57"/>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624" s="20"/>
+      <c r="B624" s="57"/>
+    </row>
+    <row r="625" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="63" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="606" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B606" s="33" t="s">
+    <row r="626" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B626" s="33" t="s">
         <v>652</v>
       </c>
-      <c r="C606" s="33" t="s">
+      <c r="C626" s="33" t="s">
         <v>664</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A607" s="33"/>
-      <c r="B607" s="38"/>
-      <c r="C607" s="38" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A608" s="33"/>
-      <c r="B608" s="38"/>
-      <c r="C608" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A609" s="33"/>
-      <c r="B609" s="38"/>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A610" s="33"/>
-      <c r="B610" s="38"/>
-      <c r="C610" s="38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A611" s="33"/>
-      <c r="B611" s="38"/>
-      <c r="C611" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A612" s="33"/>
-      <c r="B612" s="38"/>
-      <c r="C612" t="s">
-        <v>666</v>
-      </c>
-      <c r="D612" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A613" s="33"/>
-      <c r="B613" s="38"/>
-      <c r="C613" t="s">
-        <v>668</v>
-      </c>
-      <c r="D613" s="10" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A614" s="33"/>
-      <c r="B614" s="38"/>
-      <c r="D614" s="10"/>
-    </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A615" s="33"/>
-      <c r="B615" s="38"/>
-      <c r="D615" s="10"/>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A616" s="33"/>
-      <c r="B616" s="38"/>
-      <c r="C616" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D616" s="10"/>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A617" s="33"/>
-      <c r="B617" s="38"/>
-      <c r="C617" t="s">
-        <v>670</v>
-      </c>
-      <c r="D617" s="10"/>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A618" s="33"/>
-      <c r="B618" s="38"/>
-      <c r="C618" t="s">
-        <v>671</v>
-      </c>
-      <c r="D618" s="10"/>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A619" s="33"/>
-      <c r="B619" s="38"/>
-      <c r="C619" t="s">
-        <v>108</v>
-      </c>
-      <c r="D619" s="10"/>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A620" s="33"/>
-      <c r="B620" s="38"/>
-      <c r="C620" t="s">
-        <v>672</v>
-      </c>
-      <c r="D620" s="10" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A621" s="33"/>
-      <c r="B621" s="38"/>
-      <c r="C621" t="s">
-        <v>674</v>
-      </c>
-      <c r="D621" s="10"/>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A622" s="33"/>
-      <c r="B622" s="38"/>
-      <c r="C622" t="s">
-        <v>661</v>
-      </c>
-      <c r="D622" s="10"/>
-    </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A623" s="33"/>
-      <c r="B623" s="38"/>
-      <c r="D623" s="10"/>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A624" s="33"/>
-      <c r="B624" s="38"/>
-    </row>
-    <row r="625" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B625" s="33" t="s">
-        <v>653</v>
-      </c>
-      <c r="C625" s="33" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A626" s="33"/>
-      <c r="B626" s="38"/>
-      <c r="C626" s="38" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="33"/>
       <c r="B627" s="38"/>
-      <c r="C627" t="s">
-        <v>658</v>
+      <c r="C627" s="38" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="33"/>
       <c r="B628" s="38"/>
+      <c r="C628" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="33"/>
       <c r="B629" s="38"/>
-      <c r="C629" s="38" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="33"/>
       <c r="B630" s="38"/>
-      <c r="C630" t="s">
-        <v>655</v>
-      </c>
-      <c r="D630" t="s">
-        <v>680</v>
+      <c r="C630" s="38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="33"/>
       <c r="B631" s="38"/>
       <c r="C631" t="s">
-        <v>656</v>
-      </c>
-      <c r="D631" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="33"/>
       <c r="B632" s="38"/>
       <c r="C632" t="s">
-        <v>660</v>
+        <v>666</v>
+      </c>
+      <c r="D632" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="33"/>
       <c r="B633" s="38"/>
       <c r="C633" t="s">
-        <v>681</v>
-      </c>
-      <c r="D633" t="s">
-        <v>687</v>
+        <v>668</v>
+      </c>
+      <c r="D633" s="10" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="33"/>
       <c r="B634" s="38"/>
+      <c r="D634" s="10"/>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="33"/>
       <c r="B635" s="38"/>
-      <c r="C635" s="38" t="s">
-        <v>26</v>
-      </c>
+      <c r="D635" s="10"/>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A636" s="33"/>
       <c r="B636" s="38"/>
-      <c r="C636" t="s">
-        <v>676</v>
-      </c>
-      <c r="D636" t="s">
-        <v>685</v>
-      </c>
+      <c r="C636" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D636" s="10"/>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A637" s="33"/>
       <c r="B637" s="38"/>
       <c r="C637" t="s">
-        <v>675</v>
-      </c>
-      <c r="D637" t="s">
-        <v>684</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="D637" s="10"/>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A638" s="33"/>
       <c r="B638" s="38"/>
       <c r="C638" t="s">
-        <v>677</v>
-      </c>
-      <c r="D638" t="s">
-        <v>686</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="D638" s="10"/>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A639" s="33"/>
       <c r="B639" s="38"/>
       <c r="C639" t="s">
-        <v>678</v>
-      </c>
-      <c r="D639" t="s">
-        <v>679</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D639" s="10"/>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A640" s="33"/>
       <c r="B640" s="38"/>
+      <c r="C640" t="s">
+        <v>672</v>
+      </c>
+      <c r="D640" s="10" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A641" s="33"/>
       <c r="B641" s="38"/>
       <c r="C641" t="s">
-        <v>682</v>
-      </c>
-      <c r="D641" t="s">
-        <v>683</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="D641" s="10"/>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A642" s="33"/>
       <c r="B642" s="38"/>
+      <c r="C642" t="s">
+        <v>661</v>
+      </c>
+      <c r="D642" s="10"/>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A643" s="33"/>
       <c r="B643" s="38"/>
+      <c r="D643" s="10"/>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A644" s="33"/>
@@ -7771,24 +7862,24 @@
     </row>
     <row r="645" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B645" s="33" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="C645" s="33" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A646" s="33"/>
       <c r="B646" s="38"/>
       <c r="C646" s="38" t="s">
-        <v>689</v>
+        <v>459</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A647" s="33"/>
       <c r="B647" s="38"/>
       <c r="C647" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.25">
@@ -7806,274 +7897,473 @@
       <c r="A650" s="33"/>
       <c r="B650" s="38"/>
       <c r="C650" t="s">
-        <v>690</v>
+        <v>655</v>
       </c>
       <c r="D650" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A651" s="33"/>
       <c r="B651" s="38"/>
       <c r="C651" t="s">
-        <v>692</v>
+        <v>656</v>
       </c>
       <c r="D651" t="s">
-        <v>693</v>
+        <v>657</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A652" s="33"/>
       <c r="B652" s="38"/>
       <c r="C652" t="s">
-        <v>694</v>
-      </c>
-      <c r="D652" t="s">
-        <v>695</v>
+        <v>660</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A653" s="33"/>
       <c r="B653" s="38"/>
       <c r="C653" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="D653" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A654" s="33"/>
       <c r="B654" s="38"/>
-      <c r="C654" t="s">
-        <v>698</v>
-      </c>
-      <c r="D654" t="s">
-        <v>699</v>
-      </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A655" s="33"/>
       <c r="B655" s="38"/>
-      <c r="C655" t="s">
-        <v>700</v>
-      </c>
-      <c r="D655" t="s">
-        <v>701</v>
+      <c r="C655" s="38" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A656" s="33"/>
       <c r="B656" s="38"/>
       <c r="C656" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="D656" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A657" s="33"/>
       <c r="B657" s="38"/>
       <c r="C657" t="s">
-        <v>704</v>
+        <v>675</v>
+      </c>
+      <c r="D657" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A658" s="33"/>
       <c r="B658" s="38"/>
       <c r="C658" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="D658" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A659" s="33"/>
       <c r="B659" s="38"/>
       <c r="C659" t="s">
-        <v>707</v>
+        <v>678</v>
+      </c>
+      <c r="D659" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A660" s="33"/>
       <c r="B660" s="38"/>
-      <c r="C660" t="s">
-        <v>708</v>
-      </c>
-      <c r="D660" t="s">
-        <v>709</v>
-      </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A661" s="33"/>
       <c r="B661" s="38"/>
       <c r="C661" t="s">
-        <v>710</v>
+        <v>682</v>
+      </c>
+      <c r="D661" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A662" s="33"/>
       <c r="B662" s="38"/>
-      <c r="C662" t="s">
-        <v>711</v>
-      </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A663" s="33"/>
       <c r="B663" s="38"/>
-      <c r="C663" t="s">
-        <v>712</v>
-      </c>
-      <c r="D663" t="s">
-        <v>713</v>
-      </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A664" s="33"/>
       <c r="B664" s="38"/>
-      <c r="C664" t="s">
-        <v>714</v>
-      </c>
-      <c r="D664" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A665" s="33"/>
-      <c r="B665" s="38"/>
-      <c r="C665" t="s">
-        <v>716</v>
+    </row>
+    <row r="665" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B665" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="C665" s="33" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A666" s="33"/>
       <c r="B666" s="38"/>
-      <c r="C666" t="s">
-        <v>717</v>
-      </c>
-      <c r="D666" t="s">
-        <v>718</v>
+      <c r="C666" s="38" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A667" s="33"/>
       <c r="B667" s="38"/>
       <c r="C667" t="s">
-        <v>719</v>
-      </c>
-      <c r="D667" t="s">
-        <v>720</v>
+        <v>663</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A668" s="33"/>
       <c r="B668" s="38"/>
-      <c r="C668" t="s">
-        <v>469</v>
-      </c>
-      <c r="D668" t="s">
-        <v>724</v>
-      </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A669" s="33"/>
       <c r="B669" s="38"/>
-    </row>
-    <row r="670" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A670" s="66" t="s">
+      <c r="C669" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670" s="33"/>
+      <c r="B670" s="38"/>
+      <c r="C670" t="s">
+        <v>690</v>
+      </c>
+      <c r="D670" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671" s="33"/>
+      <c r="B671" s="38"/>
+      <c r="C671" t="s">
+        <v>692</v>
+      </c>
+      <c r="D671" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672" s="33"/>
+      <c r="B672" s="38"/>
+      <c r="C672" t="s">
+        <v>694</v>
+      </c>
+      <c r="D672" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673" s="33"/>
+      <c r="B673" s="38"/>
+      <c r="C673" t="s">
+        <v>696</v>
+      </c>
+      <c r="D673" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674" s="33"/>
+      <c r="B674" s="38"/>
+      <c r="C674" t="s">
+        <v>698</v>
+      </c>
+      <c r="D674" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675" s="33"/>
+      <c r="B675" s="38"/>
+      <c r="C675" t="s">
+        <v>700</v>
+      </c>
+      <c r="D675" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676" s="33"/>
+      <c r="B676" s="38"/>
+      <c r="C676" t="s">
+        <v>702</v>
+      </c>
+      <c r="D676" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677" s="33"/>
+      <c r="B677" s="38"/>
+      <c r="C677" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678" s="33"/>
+      <c r="B678" s="38"/>
+      <c r="C678" t="s">
+        <v>705</v>
+      </c>
+      <c r="D678" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679" s="33"/>
+      <c r="B679" s="38"/>
+      <c r="C679" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680" s="33"/>
+      <c r="B680" s="38"/>
+      <c r="C680" t="s">
+        <v>708</v>
+      </c>
+      <c r="D680" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681" s="33"/>
+      <c r="B681" s="38"/>
+      <c r="C681" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682" s="33"/>
+      <c r="B682" s="38"/>
+      <c r="C682" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683" s="33"/>
+      <c r="B683" s="38"/>
+      <c r="C683" t="s">
+        <v>712</v>
+      </c>
+      <c r="D683" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684" s="33"/>
+      <c r="B684" s="38"/>
+      <c r="C684" t="s">
+        <v>714</v>
+      </c>
+      <c r="D684" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685" s="33"/>
+      <c r="B685" s="38"/>
+      <c r="C685" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686" s="33"/>
+      <c r="B686" s="38"/>
+      <c r="C686" t="s">
+        <v>717</v>
+      </c>
+      <c r="D686" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687" s="33"/>
+      <c r="B687" s="38"/>
+      <c r="C687" t="s">
+        <v>719</v>
+      </c>
+      <c r="D687" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688" s="33"/>
+      <c r="B688" s="38"/>
+      <c r="C688" t="s">
+        <v>469</v>
+      </c>
+      <c r="D688" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A689" s="33"/>
+      <c r="B689" s="38"/>
+    </row>
+    <row r="690" spans="1:4" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A690" s="66" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="671" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B671" s="32" t="s">
+    <row r="691" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B691" s="32" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A672" s="32"/>
-      <c r="B672" s="35"/>
-      <c r="C672" t="s">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A692" s="32"/>
+      <c r="B692" s="35"/>
+      <c r="C692" s="68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A693" s="32"/>
+      <c r="B693" s="35"/>
+      <c r="C693" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A694" s="32"/>
+      <c r="B694" s="35"/>
+      <c r="C694" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A695" s="32"/>
+      <c r="B695" s="35"/>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A696" s="32"/>
+      <c r="B696" s="35"/>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A697" s="32"/>
+      <c r="B697" s="35"/>
+      <c r="C697" t="s">
+        <v>767</v>
+      </c>
+      <c r="D697" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A698" s="32"/>
+      <c r="B698" s="35"/>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699" s="32"/>
+      <c r="B699" s="35"/>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A700" s="32"/>
+      <c r="B700" s="35"/>
+      <c r="C700" t="s">
         <v>723</v>
       </c>
-      <c r="D672" t="s">
+      <c r="D700" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A673" s="32"/>
-      <c r="B673" s="35"/>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A674" s="32"/>
-      <c r="B674" s="35"/>
-    </row>
-    <row r="675" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="32" t="s">
+    <row r="701" spans="1:4" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B701" s="32" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" s="32"/>
-      <c r="B676" s="35"/>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" s="32"/>
-      <c r="B677" s="35"/>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" s="32"/>
-      <c r="B678" s="35"/>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" s="32"/>
-      <c r="B679" s="35"/>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" s="32"/>
-      <c r="B680" s="35"/>
-    </row>
-    <row r="681" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B681" s="32" t="s">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A702" s="32"/>
+      <c r="B702" s="35"/>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A703" s="32"/>
+      <c r="B703" s="35"/>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A704" s="32"/>
+      <c r="B704" s="35"/>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="32"/>
+      <c r="B705" s="35"/>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="32"/>
+      <c r="B706" s="35"/>
+    </row>
+    <row r="707" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B707" s="32" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" s="32"/>
-      <c r="B682" s="35"/>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" s="32"/>
-      <c r="B683" s="35"/>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A684" s="32"/>
-      <c r="B684" s="35"/>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A685" s="32"/>
-      <c r="B685" s="35"/>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686" s="32"/>
-      <c r="B686" s="35"/>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" s="32"/>
-      <c r="B687" s="35"/>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" s="32"/>
-      <c r="B688" s="35"/>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" s="32"/>
-      <c r="B689" s="35"/>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690" s="32"/>
-      <c r="B690" s="35"/>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="32"/>
+      <c r="B708" s="35"/>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="32"/>
+      <c r="B709" s="35"/>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="32"/>
+      <c r="B710" s="35"/>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="32"/>
+      <c r="B711" s="35"/>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="32"/>
+      <c r="B712" s="35"/>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="32"/>
+      <c r="B713" s="35"/>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="32"/>
+      <c r="B714" s="35"/>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="32"/>
+      <c r="B715" s="35"/>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="32"/>
+      <c r="B716" s="35"/>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B719" t="s">
+        <v>770</v>
+      </c>
+      <c r="C719" s="67" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B723" t="s">
+        <v>768</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PPT/Resumen/Clases.xlsx
+++ b/PPT/Resumen/Clases.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cami\Estudios\Facultad\Programación\02 Programacion_Laboratorio_2 - C#\git\Programacion_Laboratorio2\PPT\Resumen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mis documentos\Programacion_Laboratorio2\PPT\Resumen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2401,7 +2401,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2968,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I723"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A626" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H637" sqref="H637"/>
+    <sheetView tabSelected="1" topLeftCell="A467" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I480" sqref="I480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
